--- a/docs/assets/files/business-change/Transition live tracker (2).xlsx
+++ b/docs/assets/files/business-change/Transition live tracker (2).xlsx
@@ -1,27 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22307"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22311"/>
   <workbookPr hidePivotFieldList="1" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TempUserProfiles\NetworkService\AppData\OICE_16_974FA576_32C1D314_3B31\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1B947697-B8CF-42AF-898F-98206379EB7C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3463B6AE-BFA1-4D0E-AB84-179C4E9A851F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="15600" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="15600" windowHeight="11760" firstSheet="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Dashboard" sheetId="4" r:id="rId1"/>
     <sheet name="Details" sheetId="3" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Details!$A$1:$AA$218</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Details!$A$1:$AA$219</definedName>
   </definedNames>
   <calcPr calcId="191028" calcCompleted="0"/>
   <pivotCaches>
-    <pivotCache cacheId="3596" r:id="rId3"/>
+    <pivotCache cacheId="7522" r:id="rId3"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1201" uniqueCount="254">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1214" uniqueCount="255">
   <si>
     <t>SANDBOX = TESTING ENVIRONMENT</t>
   </si>
@@ -106,6 +106,12 @@
     <t>Barnet London Borough Council</t>
   </si>
   <si>
+    <t>Bath and North East Somerset Council</t>
+  </si>
+  <si>
+    <t>Blackburn with Darwen Borough Council</t>
+  </si>
+  <si>
     <t>Bolton Metropolitan Borough Council</t>
   </si>
   <si>
@@ -166,6 +172,9 @@
     <t>Hammersmith and Fulham London Borough Council</t>
   </si>
   <si>
+    <t>Herefordshire County Council</t>
+  </si>
+  <si>
     <t>Hertfordshire County Council</t>
   </si>
   <si>
@@ -193,6 +202,9 @@
     <t>Manchester City Council</t>
   </si>
   <si>
+    <t>Milton Keynes Council</t>
+  </si>
+  <si>
     <t>Network Rail</t>
   </si>
   <si>
@@ -235,12 +247,18 @@
     <t>Solihull Metropolitan Borough Council</t>
   </si>
   <si>
+    <t>Somerset County Council</t>
+  </si>
+  <si>
     <t>South Gloucestershire Council</t>
   </si>
   <si>
     <t>South Staffs Water</t>
   </si>
   <si>
+    <t>South Tyneside Metropolitan Borough Council</t>
+  </si>
+  <si>
     <t>Southern Water</t>
   </si>
   <si>
@@ -250,6 +268,9 @@
     <t>SSE</t>
   </si>
   <si>
+    <t>Surrey County Council</t>
+  </si>
+  <si>
     <t>Thames Water</t>
   </si>
   <si>
@@ -286,6 +307,9 @@
     <t>SGN </t>
   </si>
   <si>
+    <t>Cambridge Water Company</t>
+  </si>
+  <si>
     <t>Organisation Name</t>
   </si>
   <si>
@@ -547,9 +571,6 @@
     <t>Redcar and Cleveland Borough Council</t>
   </si>
   <si>
-    <t>South Tyneside Metropolitan Borough Council</t>
-  </si>
-  <si>
     <t>Stockton-on-Tees Borough Council</t>
   </si>
   <si>
@@ -562,9 +583,6 @@
     <t>North West</t>
   </si>
   <si>
-    <t>Blackburn with Darwen Borough Council</t>
-  </si>
-  <si>
     <t>Blackpool Borough Council</t>
   </si>
   <si>
@@ -658,15 +676,9 @@
     <t>Medway Council</t>
   </si>
   <si>
-    <t>Milton Keynes Council</t>
-  </si>
-  <si>
     <t>Slough Borough Council</t>
   </si>
   <si>
-    <t>Surrey County Council</t>
-  </si>
-  <si>
     <t>Transport for Bucks</t>
   </si>
   <si>
@@ -694,9 +706,6 @@
     <t>South West</t>
   </si>
   <si>
-    <t>Bath and North East Somerset Council</t>
-  </si>
-  <si>
     <t>Bournemouth Borough Council</t>
   </si>
   <si>
@@ -724,9 +733,6 @@
     <t>Poole Borough Council</t>
   </si>
   <si>
-    <t>Somerset County Council</t>
-  </si>
-  <si>
     <t>Swindon Borough Council</t>
   </si>
   <si>
@@ -767,9 +773,6 @@
   </si>
   <si>
     <t>Birmingham City Council</t>
-  </si>
-  <si>
-    <t>Herefordshire County Council</t>
   </si>
   <si>
     <t>Sandwell Metropolitan Borough Council</t>
@@ -1559,13 +1562,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>46</c:v>
+                  <c:v>53</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>14</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1682,7 +1685,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>113</c:v>
+                  <c:v>106</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>16</c:v>
@@ -2217,7 +2220,7 @@
                   <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>40</c:v>
+                  <c:v>41</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3604,7 +3607,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Excel Services" refreshedDate="43780.568143865741" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="228" xr:uid="{94413775-58D0-4EE7-8ACB-00C49221AE5D}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Excel Services" refreshedDate="43782.606159027775" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="229" xr:uid="{94413775-58D0-4EE7-8ACB-00C49221AE5D}">
   <cacheSource type="worksheet">
     <worksheetSource ref="A1:H1048576" sheet="Details"/>
   </cacheSource>
@@ -3626,11 +3629,12 @@
       </sharedItems>
     </cacheField>
     <cacheField name="Organisation Name" numFmtId="0">
-      <sharedItems containsBlank="1" count="223">
+      <sharedItems containsBlank="1" count="224">
         <s v="Essex County Council"/>
         <s v="Hertfordshire County Council"/>
         <s v="Bedford Borough Council"/>
         <s v="Cambridgeshire County Council"/>
+        <s v="Cambridge Water Company"/>
         <s v="Central Bedfordshire Council"/>
         <s v="Luton Borough Council"/>
         <s v="Norfolk County Council"/>
@@ -3845,9 +3849,9 @@
         <s v="East Riding of Yorkshire Council"/>
         <s v="South Yorkshire Passenger Transport Executive (not LHA)"/>
         <m/>
-        <s v="SGN Water" u="1"/>
         <s v="EXAMPLE 2" u="1"/>
         <s v="EXAMPLE 1" u="1"/>
+        <s v="SGN Water" u="1"/>
         <s v="BT" u="1"/>
         <s v="EXAMPLE 3" u="1"/>
       </sharedItems>
@@ -3893,7 +3897,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="228">
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="229">
   <r>
     <x v="0"/>
     <x v="0"/>
@@ -3937,8 +3941,8 @@
   <r>
     <x v="0"/>
     <x v="4"/>
-    <x v="0"/>
-    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
     <x v="0"/>
     <m/>
     <m/>
@@ -3958,7 +3962,7 @@
     <x v="0"/>
     <x v="6"/>
     <x v="0"/>
-    <x v="0"/>
+    <x v="1"/>
     <x v="0"/>
     <m/>
     <m/>
@@ -3968,7 +3972,7 @@
     <x v="0"/>
     <x v="7"/>
     <x v="0"/>
-    <x v="1"/>
+    <x v="0"/>
     <x v="0"/>
     <m/>
     <m/>
@@ -4007,7 +4011,7 @@
   <r>
     <x v="0"/>
     <x v="11"/>
-    <x v="1"/>
+    <x v="0"/>
     <x v="1"/>
     <x v="0"/>
     <m/>
@@ -4025,10 +4029,10 @@
     <m/>
   </r>
   <r>
-    <x v="1"/>
+    <x v="0"/>
     <x v="13"/>
-    <x v="0"/>
-    <x v="0"/>
+    <x v="1"/>
+    <x v="1"/>
     <x v="0"/>
     <m/>
     <m/>
@@ -4058,7 +4062,7 @@
     <x v="1"/>
     <x v="16"/>
     <x v="0"/>
-    <x v="1"/>
+    <x v="0"/>
     <x v="0"/>
     <m/>
     <m/>
@@ -4115,7 +4119,7 @@
     <m/>
   </r>
   <r>
-    <x v="2"/>
+    <x v="1"/>
     <x v="22"/>
     <x v="0"/>
     <x v="1"/>
@@ -4138,7 +4142,7 @@
     <x v="2"/>
     <x v="24"/>
     <x v="0"/>
-    <x v="0"/>
+    <x v="1"/>
     <x v="0"/>
     <m/>
     <m/>
@@ -4168,7 +4172,7 @@
     <x v="2"/>
     <x v="27"/>
     <x v="0"/>
-    <x v="1"/>
+    <x v="0"/>
     <x v="0"/>
     <m/>
     <m/>
@@ -4178,7 +4182,7 @@
     <x v="2"/>
     <x v="28"/>
     <x v="0"/>
-    <x v="0"/>
+    <x v="1"/>
     <x v="0"/>
     <m/>
     <m/>
@@ -4198,7 +4202,7 @@
     <x v="2"/>
     <x v="30"/>
     <x v="0"/>
-    <x v="1"/>
+    <x v="0"/>
     <x v="0"/>
     <m/>
     <m/>
@@ -4208,7 +4212,7 @@
     <x v="2"/>
     <x v="31"/>
     <x v="0"/>
-    <x v="0"/>
+    <x v="1"/>
     <x v="0"/>
     <m/>
     <m/>
@@ -4238,7 +4242,7 @@
     <x v="2"/>
     <x v="34"/>
     <x v="0"/>
-    <x v="1"/>
+    <x v="0"/>
     <x v="0"/>
     <m/>
     <m/>
@@ -4248,7 +4252,7 @@
     <x v="2"/>
     <x v="35"/>
     <x v="0"/>
-    <x v="0"/>
+    <x v="1"/>
     <x v="0"/>
     <m/>
     <m/>
@@ -4268,7 +4272,7 @@
     <x v="2"/>
     <x v="37"/>
     <x v="0"/>
-    <x v="1"/>
+    <x v="0"/>
     <x v="0"/>
     <m/>
     <m/>
@@ -4298,7 +4302,7 @@
     <x v="2"/>
     <x v="40"/>
     <x v="0"/>
-    <x v="0"/>
+    <x v="1"/>
     <x v="0"/>
     <m/>
     <m/>
@@ -4308,7 +4312,7 @@
     <x v="2"/>
     <x v="41"/>
     <x v="0"/>
-    <x v="1"/>
+    <x v="0"/>
     <x v="0"/>
     <m/>
     <m/>
@@ -4318,7 +4322,7 @@
     <x v="2"/>
     <x v="42"/>
     <x v="0"/>
-    <x v="0"/>
+    <x v="1"/>
     <x v="0"/>
     <m/>
     <m/>
@@ -4328,7 +4332,7 @@
     <x v="2"/>
     <x v="43"/>
     <x v="0"/>
-    <x v="1"/>
+    <x v="0"/>
     <x v="0"/>
     <m/>
     <m/>
@@ -4455,10 +4459,10 @@
     <m/>
   </r>
   <r>
-    <x v="3"/>
+    <x v="2"/>
     <x v="56"/>
-    <x v="2"/>
-    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
     <x v="0"/>
     <m/>
     <m/>
@@ -4477,7 +4481,7 @@
   <r>
     <x v="3"/>
     <x v="58"/>
-    <x v="1"/>
+    <x v="2"/>
     <x v="0"/>
     <x v="0"/>
     <m/>
@@ -4487,8 +4491,8 @@
   <r>
     <x v="3"/>
     <x v="59"/>
-    <x v="2"/>
-    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
     <x v="0"/>
     <m/>
     <m/>
@@ -4617,7 +4621,7 @@
   <r>
     <x v="3"/>
     <x v="72"/>
-    <x v="1"/>
+    <x v="2"/>
     <x v="1"/>
     <x v="0"/>
     <m/>
@@ -4628,7 +4632,7 @@
     <x v="3"/>
     <x v="73"/>
     <x v="1"/>
-    <x v="0"/>
+    <x v="1"/>
     <x v="0"/>
     <m/>
     <m/>
@@ -4638,7 +4642,7 @@
     <x v="3"/>
     <x v="74"/>
     <x v="1"/>
-    <x v="1"/>
+    <x v="0"/>
     <x v="0"/>
     <m/>
     <m/>
@@ -4728,7 +4732,7 @@
     <x v="3"/>
     <x v="83"/>
     <x v="1"/>
-    <x v="0"/>
+    <x v="1"/>
     <x v="0"/>
     <m/>
     <m/>
@@ -4738,7 +4742,7 @@
     <x v="3"/>
     <x v="84"/>
     <x v="1"/>
-    <x v="1"/>
+    <x v="0"/>
     <x v="0"/>
     <m/>
     <m/>
@@ -4748,7 +4752,7 @@
     <x v="3"/>
     <x v="85"/>
     <x v="1"/>
-    <x v="0"/>
+    <x v="1"/>
     <x v="0"/>
     <m/>
     <m/>
@@ -4768,7 +4772,7 @@
     <x v="3"/>
     <x v="87"/>
     <x v="1"/>
-    <x v="1"/>
+    <x v="0"/>
     <x v="0"/>
     <m/>
     <m/>
@@ -4778,7 +4782,7 @@
     <x v="3"/>
     <x v="88"/>
     <x v="1"/>
-    <x v="0"/>
+    <x v="1"/>
     <x v="0"/>
     <m/>
     <m/>
@@ -4788,7 +4792,7 @@
     <x v="3"/>
     <x v="89"/>
     <x v="1"/>
-    <x v="1"/>
+    <x v="0"/>
     <x v="0"/>
     <m/>
     <m/>
@@ -4815,9 +4819,9 @@
     <m/>
   </r>
   <r>
-    <x v="4"/>
+    <x v="3"/>
     <x v="92"/>
-    <x v="0"/>
+    <x v="1"/>
     <x v="1"/>
     <x v="0"/>
     <m/>
@@ -4835,7 +4839,7 @@
     <m/>
   </r>
   <r>
-    <x v="5"/>
+    <x v="4"/>
     <x v="94"/>
     <x v="0"/>
     <x v="1"/>
@@ -4858,7 +4862,7 @@
     <x v="5"/>
     <x v="96"/>
     <x v="0"/>
-    <x v="0"/>
+    <x v="1"/>
     <x v="0"/>
     <m/>
     <m/>
@@ -4868,7 +4872,7 @@
     <x v="5"/>
     <x v="97"/>
     <x v="0"/>
-    <x v="1"/>
+    <x v="0"/>
     <x v="0"/>
     <m/>
     <m/>
@@ -4948,7 +4952,7 @@
     <x v="5"/>
     <x v="105"/>
     <x v="0"/>
-    <x v="1"/>
+    <x v="0"/>
     <x v="0"/>
     <m/>
     <m/>
@@ -4967,17 +4971,17 @@
   <r>
     <x v="5"/>
     <x v="107"/>
-    <x v="1"/>
-    <x v="1"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="6"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="5"/>
     <x v="108"/>
-    <x v="0"/>
+    <x v="1"/>
     <x v="1"/>
     <x v="0"/>
     <m/>
@@ -4988,7 +4992,7 @@
     <x v="6"/>
     <x v="109"/>
     <x v="0"/>
-    <x v="1"/>
+    <x v="0"/>
     <x v="0"/>
     <m/>
     <m/>
@@ -4998,7 +5002,7 @@
     <x v="6"/>
     <x v="110"/>
     <x v="0"/>
-    <x v="0"/>
+    <x v="1"/>
     <x v="0"/>
     <m/>
     <m/>
@@ -5008,7 +5012,7 @@
     <x v="6"/>
     <x v="111"/>
     <x v="0"/>
-    <x v="1"/>
+    <x v="0"/>
     <x v="0"/>
     <m/>
     <m/>
@@ -5078,7 +5082,7 @@
     <x v="6"/>
     <x v="118"/>
     <x v="0"/>
-    <x v="0"/>
+    <x v="1"/>
     <x v="0"/>
     <m/>
     <m/>
@@ -5088,7 +5092,7 @@
     <x v="6"/>
     <x v="119"/>
     <x v="0"/>
-    <x v="1"/>
+    <x v="0"/>
     <x v="0"/>
     <m/>
     <m/>
@@ -5128,7 +5132,7 @@
     <x v="6"/>
     <x v="123"/>
     <x v="0"/>
-    <x v="0"/>
+    <x v="1"/>
     <x v="0"/>
     <m/>
     <m/>
@@ -5138,7 +5142,7 @@
     <x v="6"/>
     <x v="124"/>
     <x v="0"/>
-    <x v="1"/>
+    <x v="0"/>
     <x v="0"/>
     <m/>
     <m/>
@@ -5217,7 +5221,7 @@
   <r>
     <x v="6"/>
     <x v="132"/>
-    <x v="1"/>
+    <x v="0"/>
     <x v="1"/>
     <x v="0"/>
     <m/>
@@ -5228,17 +5232,17 @@
     <x v="6"/>
     <x v="133"/>
     <x v="1"/>
-    <x v="0"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="7"/>
+    <x v="1"/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="6"/>
     <x v="134"/>
-    <x v="0"/>
-    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
     <x v="0"/>
     <m/>
     <m/>
@@ -5248,7 +5252,7 @@
     <x v="7"/>
     <x v="135"/>
     <x v="0"/>
-    <x v="0"/>
+    <x v="1"/>
     <x v="0"/>
     <m/>
     <m/>
@@ -5268,7 +5272,7 @@
     <x v="7"/>
     <x v="137"/>
     <x v="0"/>
-    <x v="1"/>
+    <x v="0"/>
     <x v="0"/>
     <m/>
     <m/>
@@ -5298,7 +5302,7 @@
     <x v="7"/>
     <x v="140"/>
     <x v="0"/>
-    <x v="0"/>
+    <x v="1"/>
     <x v="0"/>
     <m/>
     <m/>
@@ -5307,8 +5311,8 @@
   <r>
     <x v="7"/>
     <x v="141"/>
-    <x v="2"/>
-    <x v="1"/>
+    <x v="0"/>
+    <x v="0"/>
     <x v="0"/>
     <m/>
     <m/>
@@ -5317,8 +5321,8 @@
   <r>
     <x v="7"/>
     <x v="142"/>
-    <x v="1"/>
-    <x v="0"/>
+    <x v="2"/>
+    <x v="1"/>
     <x v="0"/>
     <m/>
     <m/>
@@ -5327,7 +5331,7 @@
   <r>
     <x v="7"/>
     <x v="143"/>
-    <x v="0"/>
+    <x v="1"/>
     <x v="0"/>
     <x v="0"/>
     <m/>
@@ -5338,7 +5342,7 @@
     <x v="7"/>
     <x v="144"/>
     <x v="0"/>
-    <x v="1"/>
+    <x v="0"/>
     <x v="0"/>
     <m/>
     <m/>
@@ -5358,7 +5362,7 @@
     <x v="7"/>
     <x v="146"/>
     <x v="0"/>
-    <x v="0"/>
+    <x v="1"/>
     <x v="0"/>
     <m/>
     <m/>
@@ -5368,7 +5372,7 @@
     <x v="7"/>
     <x v="147"/>
     <x v="0"/>
-    <x v="1"/>
+    <x v="0"/>
     <x v="0"/>
     <m/>
     <m/>
@@ -5408,7 +5412,7 @@
     <x v="7"/>
     <x v="151"/>
     <x v="0"/>
-    <x v="1"/>
+    <x v="0"/>
     <x v="0"/>
     <m/>
     <m/>
@@ -5428,7 +5432,7 @@
     <x v="7"/>
     <x v="153"/>
     <x v="0"/>
-    <x v="1"/>
+    <x v="0"/>
     <x v="0"/>
     <m/>
     <m/>
@@ -5477,7 +5481,7 @@
   <r>
     <x v="7"/>
     <x v="158"/>
-    <x v="2"/>
+    <x v="0"/>
     <x v="1"/>
     <x v="0"/>
     <m/>
@@ -5487,7 +5491,7 @@
   <r>
     <x v="7"/>
     <x v="159"/>
-    <x v="1"/>
+    <x v="2"/>
     <x v="1"/>
     <x v="0"/>
     <m/>
@@ -5498,7 +5502,7 @@
     <x v="7"/>
     <x v="160"/>
     <x v="1"/>
-    <x v="0"/>
+    <x v="1"/>
     <x v="0"/>
     <m/>
     <m/>
@@ -5518,7 +5522,7 @@
     <x v="7"/>
     <x v="162"/>
     <x v="1"/>
-    <x v="1"/>
+    <x v="0"/>
     <x v="0"/>
     <m/>
     <m/>
@@ -5528,17 +5532,17 @@
     <x v="7"/>
     <x v="163"/>
     <x v="1"/>
-    <x v="0"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="8"/>
+    <x v="1"/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="7"/>
     <x v="164"/>
-    <x v="0"/>
-    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
     <x v="0"/>
     <m/>
     <m/>
@@ -5548,7 +5552,7 @@
     <x v="8"/>
     <x v="165"/>
     <x v="0"/>
-    <x v="1"/>
+    <x v="0"/>
     <x v="0"/>
     <m/>
     <m/>
@@ -5598,7 +5602,7 @@
     <x v="8"/>
     <x v="170"/>
     <x v="0"/>
-    <x v="0"/>
+    <x v="1"/>
     <x v="0"/>
     <m/>
     <m/>
@@ -5608,7 +5612,7 @@
     <x v="8"/>
     <x v="171"/>
     <x v="0"/>
-    <x v="1"/>
+    <x v="0"/>
     <x v="0"/>
     <m/>
     <m/>
@@ -5668,7 +5672,7 @@
     <x v="8"/>
     <x v="177"/>
     <x v="0"/>
-    <x v="1"/>
+    <x v="0"/>
     <x v="0"/>
     <m/>
     <m/>
@@ -5697,7 +5701,7 @@
   <r>
     <x v="8"/>
     <x v="180"/>
-    <x v="1"/>
+    <x v="0"/>
     <x v="1"/>
     <x v="0"/>
     <m/>
@@ -5718,7 +5722,7 @@
     <x v="8"/>
     <x v="182"/>
     <x v="1"/>
-    <x v="0"/>
+    <x v="1"/>
     <x v="0"/>
     <m/>
     <m/>
@@ -5728,16 +5732,16 @@
     <x v="8"/>
     <x v="183"/>
     <x v="1"/>
-    <x v="1"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="9"/>
+    <x v="0"/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="8"/>
     <x v="184"/>
-    <x v="0"/>
+    <x v="1"/>
     <x v="1"/>
     <x v="0"/>
     <m/>
@@ -5748,7 +5752,7 @@
     <x v="9"/>
     <x v="185"/>
     <x v="0"/>
-    <x v="0"/>
+    <x v="1"/>
     <x v="0"/>
     <m/>
     <m/>
@@ -5758,7 +5762,7 @@
     <x v="9"/>
     <x v="186"/>
     <x v="0"/>
-    <x v="1"/>
+    <x v="0"/>
     <x v="0"/>
     <m/>
     <m/>
@@ -5798,7 +5802,7 @@
     <x v="9"/>
     <x v="190"/>
     <x v="0"/>
-    <x v="0"/>
+    <x v="1"/>
     <x v="0"/>
     <m/>
     <m/>
@@ -5808,7 +5812,7 @@
     <x v="9"/>
     <x v="191"/>
     <x v="0"/>
-    <x v="1"/>
+    <x v="0"/>
     <x v="0"/>
     <m/>
     <m/>
@@ -5818,7 +5822,7 @@
     <x v="9"/>
     <x v="192"/>
     <x v="0"/>
-    <x v="0"/>
+    <x v="1"/>
     <x v="0"/>
     <m/>
     <m/>
@@ -5838,7 +5842,7 @@
     <x v="9"/>
     <x v="194"/>
     <x v="0"/>
-    <x v="1"/>
+    <x v="0"/>
     <x v="0"/>
     <m/>
     <m/>
@@ -5858,7 +5862,7 @@
     <x v="9"/>
     <x v="196"/>
     <x v="0"/>
-    <x v="1"/>
+    <x v="0"/>
     <x v="0"/>
     <m/>
     <m/>
@@ -5867,18 +5871,18 @@
   <r>
     <x v="9"/>
     <x v="197"/>
-    <x v="1"/>
-    <x v="1"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="10"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="9"/>
     <x v="198"/>
-    <x v="0"/>
-    <x v="0"/>
+    <x v="1"/>
+    <x v="1"/>
     <x v="0"/>
     <m/>
     <m/>
@@ -5958,7 +5962,7 @@
     <x v="10"/>
     <x v="206"/>
     <x v="0"/>
-    <x v="1"/>
+    <x v="0"/>
     <x v="0"/>
     <m/>
     <m/>
@@ -5967,7 +5971,7 @@
   <r>
     <x v="10"/>
     <x v="207"/>
-    <x v="1"/>
+    <x v="0"/>
     <x v="1"/>
     <x v="0"/>
     <m/>
@@ -5978,7 +5982,7 @@
     <x v="10"/>
     <x v="208"/>
     <x v="1"/>
-    <x v="0"/>
+    <x v="1"/>
     <x v="0"/>
     <m/>
     <m/>
@@ -5997,8 +6001,8 @@
   <r>
     <x v="10"/>
     <x v="210"/>
-    <x v="0"/>
-    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
     <x v="0"/>
     <m/>
     <m/>
@@ -6008,7 +6012,7 @@
     <x v="10"/>
     <x v="211"/>
     <x v="0"/>
-    <x v="0"/>
+    <x v="1"/>
     <x v="0"/>
     <m/>
     <m/>
@@ -6028,7 +6032,7 @@
     <x v="10"/>
     <x v="213"/>
     <x v="0"/>
-    <x v="1"/>
+    <x v="0"/>
     <x v="0"/>
     <m/>
     <m/>
@@ -6038,7 +6042,7 @@
     <x v="10"/>
     <x v="214"/>
     <x v="0"/>
-    <x v="0"/>
+    <x v="1"/>
     <x v="0"/>
     <m/>
     <m/>
@@ -6048,7 +6052,7 @@
     <x v="10"/>
     <x v="215"/>
     <x v="0"/>
-    <x v="1"/>
+    <x v="0"/>
     <x v="0"/>
     <m/>
     <m/>
@@ -6057,6 +6061,16 @@
   <r>
     <x v="10"/>
     <x v="216"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="10"/>
+    <x v="217"/>
     <x v="2"/>
     <x v="1"/>
     <x v="0"/>
@@ -6066,7 +6080,7 @@
   </r>
   <r>
     <x v="11"/>
-    <x v="217"/>
+    <x v="218"/>
     <x v="3"/>
     <x v="2"/>
     <x v="1"/>
@@ -6076,7 +6090,7 @@
   </r>
   <r>
     <x v="11"/>
-    <x v="217"/>
+    <x v="218"/>
     <x v="3"/>
     <x v="2"/>
     <x v="1"/>
@@ -6086,7 +6100,7 @@
   </r>
   <r>
     <x v="11"/>
-    <x v="217"/>
+    <x v="218"/>
     <x v="3"/>
     <x v="2"/>
     <x v="1"/>
@@ -6096,7 +6110,7 @@
   </r>
   <r>
     <x v="11"/>
-    <x v="217"/>
+    <x v="218"/>
     <x v="3"/>
     <x v="2"/>
     <x v="1"/>
@@ -6106,7 +6120,7 @@
   </r>
   <r>
     <x v="11"/>
-    <x v="217"/>
+    <x v="218"/>
     <x v="3"/>
     <x v="2"/>
     <x v="1"/>
@@ -6116,7 +6130,7 @@
   </r>
   <r>
     <x v="11"/>
-    <x v="217"/>
+    <x v="218"/>
     <x v="3"/>
     <x v="2"/>
     <x v="1"/>
@@ -6126,7 +6140,7 @@
   </r>
   <r>
     <x v="11"/>
-    <x v="217"/>
+    <x v="218"/>
     <x v="3"/>
     <x v="2"/>
     <x v="1"/>
@@ -6136,7 +6150,7 @@
   </r>
   <r>
     <x v="11"/>
-    <x v="217"/>
+    <x v="218"/>
     <x v="3"/>
     <x v="2"/>
     <x v="1"/>
@@ -6146,7 +6160,7 @@
   </r>
   <r>
     <x v="11"/>
-    <x v="217"/>
+    <x v="218"/>
     <x v="3"/>
     <x v="2"/>
     <x v="1"/>
@@ -6156,7 +6170,7 @@
   </r>
   <r>
     <x v="11"/>
-    <x v="217"/>
+    <x v="218"/>
     <x v="3"/>
     <x v="2"/>
     <x v="1"/>
@@ -6166,7 +6180,7 @@
   </r>
   <r>
     <x v="11"/>
-    <x v="217"/>
+    <x v="218"/>
     <x v="3"/>
     <x v="2"/>
     <x v="1"/>
@@ -6178,131 +6192,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{5BE17AE4-2B6C-4B30-A799-10769CD87AE0}" name="PivotTable3" cacheId="3596" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
-  <location ref="G8:I13" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
-  <pivotFields count="8">
-    <pivotField axis="axisPage" showAll="0">
-      <items count="13">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item x="8"/>
-        <item x="9"/>
-        <item x="10"/>
-        <item x="11"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField axis="axisRow" showAll="0">
-      <items count="5">
-        <item x="0"/>
-        <item x="2"/>
-        <item x="1"/>
-        <item h="1" x="3"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisCol" showAll="0">
-      <items count="4">
-        <item x="1"/>
-        <item x="0"/>
-        <item m="1" x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="2"/>
-  </rowFields>
-  <rowItems count="4">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colFields count="1">
-    <field x="4"/>
-  </colFields>
-  <colItems count="2">
-    <i>
-      <x v="1"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </colItems>
-  <pageFields count="1">
-    <pageField fld="0" hier="-1"/>
-  </pageFields>
-  <dataFields count="1">
-    <dataField name="Count of Organisation Name" fld="1" subtotal="count" baseField="0" baseItem="0"/>
-  </dataFields>
-  <formats count="2">
-    <format dxfId="10">
-      <pivotArea field="4" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisCol" fieldPosition="0"/>
-    </format>
-    <format dxfId="11">
-      <pivotArea field="2" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
-    </format>
-  </formats>
-  <chartFormats count="2">
-    <chartFormat chart="0" format="0" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="4" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="1" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="4" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{D443304E-F10F-4C77-A7DB-6048C0DF3E68}" name="PivotTable2" cacheId="3596" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="2">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{D443304E-F10F-4C77-A7DB-6048C0DF3E68}" name="PivotTable2" cacheId="7522" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="2">
   <location ref="B8:E13" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="8">
     <pivotField axis="axisPage" showAll="0">
@@ -6383,10 +6273,10 @@
     <dataField name="Count of Organisation Name" fld="1" subtotal="count" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="2">
-    <format dxfId="8">
+    <format dxfId="10">
       <pivotArea field="3" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisCol" fieldPosition="0"/>
     </format>
-    <format dxfId="9">
+    <format dxfId="11">
       <pivotArea field="2" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
   </formats>
@@ -6521,8 +6411,8 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{ED146AEC-A721-41A7-BFF9-084390AFF3CA}" name="PivotTable5" cacheId="3596" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{ED146AEC-A721-41A7-BFF9-084390AFF3CA}" name="PivotTable5" cacheId="7522" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="G39:G40" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="2" colPageCount="1"/>
   <pivotFields count="8">
     <pivotField axis="axisPage" showAll="0">
@@ -6543,230 +6433,231 @@
       </items>
     </pivotField>
     <pivotField axis="axisRow" showAll="0">
-      <items count="224">
-        <item x="72"/>
-        <item x="11"/>
-        <item x="59"/>
-        <item x="78"/>
+      <items count="225">
+        <item x="73"/>
         <item x="12"/>
-        <item x="56"/>
-        <item x="22"/>
-        <item x="31"/>
-        <item x="210"/>
-        <item x="164"/>
+        <item x="60"/>
+        <item x="79"/>
+        <item x="13"/>
+        <item x="57"/>
+        <item x="23"/>
+        <item x="32"/>
+        <item x="211"/>
+        <item x="165"/>
         <item x="2"/>
-        <item x="54"/>
-        <item x="194"/>
-        <item x="108"/>
+        <item x="55"/>
+        <item x="195"/>
         <item x="109"/>
         <item x="110"/>
-        <item x="165"/>
-        <item x="143"/>
-        <item x="211"/>
-        <item x="55"/>
+        <item x="111"/>
+        <item x="166"/>
         <item x="144"/>
-        <item x="166"/>
-        <item x="183"/>
-        <item x="23"/>
-        <item m="1" x="221"/>
+        <item x="212"/>
+        <item x="56"/>
         <item x="145"/>
-        <item x="111"/>
-        <item x="74"/>
-        <item x="212"/>
+        <item x="167"/>
+        <item x="184"/>
+        <item x="24"/>
+        <item m="1" x="222"/>
+        <item x="146"/>
+        <item x="112"/>
+        <item x="75"/>
+        <item x="213"/>
         <item x="3"/>
-        <item x="24"/>
-        <item x="75"/>
-        <item x="4"/>
+        <item x="25"/>
         <item x="76"/>
-        <item x="112"/>
+        <item x="5"/>
+        <item x="77"/>
         <item x="113"/>
-        <item x="77"/>
-        <item x="32"/>
-        <item x="60"/>
-        <item x="79"/>
-        <item x="167"/>
-        <item x="190"/>
+        <item x="114"/>
+        <item x="78"/>
         <item x="33"/>
-        <item x="114"/>
-        <item x="96"/>
-        <item x="13"/>
+        <item x="61"/>
+        <item x="80"/>
+        <item x="168"/>
+        <item x="191"/>
+        <item x="34"/>
+        <item x="115"/>
+        <item x="97"/>
         <item x="14"/>
-        <item x="168"/>
-        <item x="198"/>
+        <item x="15"/>
         <item x="169"/>
-        <item x="191"/>
-        <item x="97"/>
-        <item x="34"/>
-        <item x="215"/>
-        <item x="146"/>
-        <item x="132"/>
-        <item x="25"/>
+        <item x="199"/>
+        <item x="170"/>
+        <item x="192"/>
+        <item x="98"/>
+        <item x="35"/>
+        <item x="216"/>
+        <item x="147"/>
+        <item x="133"/>
+        <item x="26"/>
         <item x="0"/>
-        <item x="61"/>
+        <item x="62"/>
         <item m="1" x="220"/>
         <item m="1" x="219"/>
-        <item m="1" x="222"/>
-        <item x="80"/>
-        <item x="62"/>
+        <item m="1" x="223"/>
+        <item x="81"/>
+        <item x="63"/>
+        <item x="142"/>
+        <item x="99"/>
+        <item x="64"/>
+        <item x="65"/>
+        <item x="171"/>
+        <item x="36"/>
+        <item x="37"/>
+        <item x="116"/>
+        <item x="27"/>
+        <item x="148"/>
+        <item x="38"/>
+        <item x="100"/>
+        <item x="39"/>
+        <item x="196"/>
+        <item x="1"/>
+        <item x="66"/>
+        <item x="40"/>
+        <item x="41"/>
+        <item x="207"/>
+        <item x="135"/>
+        <item x="155"/>
+        <item x="172"/>
+        <item x="28"/>
+        <item x="67"/>
         <item x="141"/>
-        <item x="98"/>
-        <item x="63"/>
-        <item x="64"/>
-        <item x="170"/>
-        <item x="35"/>
-        <item x="36"/>
-        <item x="115"/>
-        <item x="26"/>
-        <item x="147"/>
-        <item x="37"/>
-        <item x="99"/>
-        <item x="38"/>
-        <item x="195"/>
-        <item x="1"/>
-        <item x="65"/>
-        <item x="39"/>
-        <item x="40"/>
-        <item x="206"/>
-        <item x="134"/>
-        <item x="154"/>
-        <item x="171"/>
-        <item x="27"/>
-        <item x="66"/>
-        <item x="140"/>
-        <item x="81"/>
-        <item x="41"/>
-        <item x="214"/>
-        <item x="67"/>
-        <item x="116"/>
+        <item x="82"/>
         <item x="42"/>
+        <item x="215"/>
+        <item x="68"/>
         <item x="117"/>
-        <item x="199"/>
-        <item x="15"/>
+        <item x="43"/>
+        <item x="118"/>
+        <item x="200"/>
         <item x="16"/>
-        <item x="43"/>
-        <item x="204"/>
-        <item x="92"/>
+        <item x="17"/>
         <item x="44"/>
-        <item x="5"/>
-        <item x="118"/>
-        <item x="148"/>
+        <item x="205"/>
+        <item x="93"/>
         <item x="45"/>
-        <item x="100"/>
+        <item x="6"/>
+        <item x="119"/>
         <item x="149"/>
-        <item x="68"/>
-        <item x="57"/>
+        <item x="46"/>
         <item x="101"/>
-        <item x="46"/>
-        <item x="6"/>
-        <item x="94"/>
-        <item x="200"/>
-        <item x="172"/>
+        <item x="150"/>
+        <item x="69"/>
+        <item x="58"/>
+        <item x="102"/>
+        <item x="47"/>
+        <item x="7"/>
         <item x="95"/>
         <item x="201"/>
-        <item x="17"/>
-        <item x="207"/>
+        <item x="173"/>
+        <item x="96"/>
+        <item x="202"/>
+        <item x="18"/>
         <item x="208"/>
-        <item x="102"/>
-        <item x="107"/>
-        <item x="18"/>
+        <item x="209"/>
+        <item x="103"/>
+        <item x="108"/>
         <item x="19"/>
-        <item x="119"/>
+        <item x="20"/>
+        <item x="120"/>
+        <item x="160"/>
+        <item x="156"/>
+        <item x="8"/>
+        <item x="22"/>
+        <item x="174"/>
+        <item x="175"/>
+        <item x="158"/>
+        <item x="151"/>
+        <item x="157"/>
+        <item x="48"/>
+        <item x="104"/>
+        <item x="49"/>
         <item x="159"/>
-        <item x="155"/>
-        <item x="7"/>
+        <item x="70"/>
+        <item x="122"/>
+        <item x="203"/>
+        <item x="29"/>
         <item x="21"/>
-        <item x="173"/>
-        <item x="174"/>
-        <item x="157"/>
-        <item x="150"/>
-        <item x="156"/>
-        <item x="47"/>
-        <item x="103"/>
-        <item x="48"/>
-        <item x="158"/>
-        <item x="69"/>
-        <item x="121"/>
-        <item x="202"/>
-        <item x="28"/>
-        <item x="20"/>
-        <item x="122"/>
-        <item x="196"/>
         <item x="123"/>
-        <item x="160"/>
-        <item x="82"/>
-        <item m="1" x="218"/>
-        <item x="205"/>
-        <item x="192"/>
+        <item x="197"/>
+        <item x="124"/>
+        <item x="161"/>
         <item x="83"/>
-        <item x="151"/>
+        <item m="1" x="221"/>
+        <item x="206"/>
         <item x="193"/>
-        <item x="175"/>
-        <item x="162"/>
+        <item x="84"/>
+        <item x="152"/>
+        <item x="194"/>
         <item x="176"/>
-        <item x="133"/>
-        <item x="104"/>
-        <item x="180"/>
-        <item x="216"/>
-        <item x="139"/>
-        <item x="8"/>
         <item x="163"/>
-        <item x="29"/>
-        <item x="197"/>
-        <item x="142"/>
-        <item x="84"/>
-        <item x="124"/>
+        <item x="177"/>
+        <item x="134"/>
+        <item x="105"/>
+        <item x="181"/>
+        <item x="217"/>
+        <item x="140"/>
+        <item x="9"/>
+        <item x="164"/>
+        <item x="30"/>
+        <item x="198"/>
+        <item x="143"/>
+        <item x="85"/>
         <item x="125"/>
         <item x="126"/>
-        <item x="105"/>
-        <item x="93"/>
-        <item x="10"/>
+        <item x="127"/>
         <item x="106"/>
-        <item x="152"/>
-        <item x="49"/>
-        <item x="177"/>
-        <item x="127"/>
-        <item x="70"/>
+        <item x="94"/>
+        <item x="11"/>
+        <item x="107"/>
+        <item x="153"/>
+        <item x="50"/>
+        <item x="178"/>
+        <item x="128"/>
         <item x="71"/>
-        <item x="184"/>
-        <item x="85"/>
-        <item x="9"/>
-        <item x="178"/>
-        <item x="50"/>
-        <item x="120"/>
-        <item x="153"/>
-        <item x="128"/>
-        <item x="30"/>
+        <item x="72"/>
         <item x="185"/>
         <item x="86"/>
+        <item x="10"/>
+        <item x="179"/>
+        <item x="51"/>
+        <item x="121"/>
+        <item x="154"/>
+        <item x="129"/>
+        <item x="31"/>
+        <item x="186"/>
         <item x="87"/>
         <item x="88"/>
-        <item x="58"/>
-        <item x="203"/>
         <item x="89"/>
-        <item x="188"/>
-        <item x="51"/>
+        <item x="59"/>
+        <item x="204"/>
+        <item x="90"/>
+        <item x="189"/>
         <item x="52"/>
-        <item x="129"/>
-        <item x="186"/>
-        <item x="90"/>
-        <item x="181"/>
-        <item x="135"/>
-        <item x="136"/>
-        <item x="182"/>
         <item x="53"/>
         <item x="130"/>
-        <item x="179"/>
-        <item x="137"/>
-        <item x="131"/>
-        <item x="138"/>
-        <item x="189"/>
         <item x="187"/>
         <item x="91"/>
-        <item x="213"/>
-        <item x="209"/>
-        <item x="217"/>
-        <item x="73"/>
-        <item x="161"/>
+        <item x="182"/>
+        <item x="136"/>
+        <item x="137"/>
+        <item x="183"/>
+        <item x="54"/>
+        <item x="131"/>
+        <item x="180"/>
+        <item x="138"/>
+        <item x="132"/>
+        <item x="139"/>
+        <item x="190"/>
+        <item x="188"/>
+        <item x="92"/>
+        <item x="214"/>
+        <item x="210"/>
+        <item x="218"/>
+        <item x="74"/>
+        <item x="162"/>
+        <item x="4"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -6800,10 +6691,10 @@
     <pageField fld="0" hier="-1"/>
   </pageFields>
   <formats count="2">
-    <format dxfId="6">
+    <format dxfId="8">
       <pivotArea field="1" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="7">
+    <format dxfId="9">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
   </formats>
@@ -6819,9 +6710,9 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{930C86FA-4FA7-4582-924C-04064F9B1116}" name="PivotTable4" cacheId="3596" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="B39:B102" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="2" colPageCount="1"/>
+<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{930C86FA-4FA7-4582-924C-04064F9B1116}" name="PivotTable4" cacheId="7522" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="B39:B110" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="2" colPageCount="1"/>
   <pivotFields count="8">
     <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
       <items count="13">
@@ -6841,230 +6732,231 @@
       </items>
     </pivotField>
     <pivotField axis="axisRow" showAll="0">
-      <items count="224">
-        <item x="72"/>
-        <item x="11"/>
-        <item x="59"/>
-        <item x="78"/>
+      <items count="225">
+        <item x="73"/>
         <item x="12"/>
-        <item x="56"/>
-        <item x="22"/>
-        <item x="31"/>
-        <item x="210"/>
-        <item x="164"/>
+        <item x="60"/>
+        <item x="79"/>
+        <item x="13"/>
+        <item x="57"/>
+        <item x="23"/>
+        <item x="32"/>
+        <item x="211"/>
+        <item x="165"/>
         <item x="2"/>
-        <item x="54"/>
-        <item x="194"/>
-        <item x="108"/>
+        <item x="55"/>
+        <item x="195"/>
         <item x="109"/>
         <item x="110"/>
-        <item x="165"/>
-        <item x="143"/>
-        <item x="211"/>
-        <item x="55"/>
+        <item x="111"/>
+        <item x="166"/>
         <item x="144"/>
-        <item x="166"/>
-        <item x="183"/>
-        <item x="23"/>
-        <item m="1" x="221"/>
+        <item x="212"/>
+        <item x="56"/>
         <item x="145"/>
-        <item x="111"/>
-        <item x="74"/>
-        <item x="212"/>
+        <item x="167"/>
+        <item x="184"/>
+        <item x="24"/>
+        <item m="1" x="222"/>
+        <item x="146"/>
+        <item x="112"/>
+        <item x="75"/>
+        <item x="213"/>
         <item x="3"/>
-        <item x="24"/>
-        <item x="75"/>
-        <item x="4"/>
+        <item x="25"/>
         <item x="76"/>
-        <item x="112"/>
+        <item x="5"/>
+        <item x="77"/>
         <item x="113"/>
-        <item x="77"/>
-        <item x="32"/>
-        <item x="60"/>
-        <item x="79"/>
-        <item x="167"/>
-        <item x="190"/>
+        <item x="114"/>
+        <item x="78"/>
         <item x="33"/>
-        <item x="114"/>
-        <item x="96"/>
-        <item x="13"/>
+        <item x="61"/>
+        <item x="80"/>
+        <item x="168"/>
+        <item x="191"/>
+        <item x="34"/>
+        <item x="115"/>
+        <item x="97"/>
         <item x="14"/>
-        <item x="168"/>
-        <item x="198"/>
+        <item x="15"/>
         <item x="169"/>
-        <item x="191"/>
-        <item x="97"/>
-        <item x="34"/>
-        <item x="215"/>
-        <item x="146"/>
-        <item x="132"/>
-        <item x="25"/>
+        <item x="199"/>
+        <item x="170"/>
+        <item x="192"/>
+        <item x="98"/>
+        <item x="35"/>
+        <item x="216"/>
+        <item x="147"/>
+        <item x="133"/>
+        <item x="26"/>
         <item x="0"/>
-        <item x="61"/>
+        <item x="62"/>
         <item m="1" x="220"/>
         <item m="1" x="219"/>
-        <item m="1" x="222"/>
-        <item x="80"/>
-        <item x="62"/>
+        <item m="1" x="223"/>
+        <item x="81"/>
+        <item x="63"/>
+        <item x="142"/>
+        <item x="99"/>
+        <item x="64"/>
+        <item x="65"/>
+        <item x="171"/>
+        <item x="36"/>
+        <item x="37"/>
+        <item x="116"/>
+        <item x="27"/>
+        <item x="148"/>
+        <item x="38"/>
+        <item x="100"/>
+        <item x="39"/>
+        <item x="196"/>
+        <item x="1"/>
+        <item x="66"/>
+        <item x="40"/>
+        <item x="41"/>
+        <item x="207"/>
+        <item x="135"/>
+        <item x="155"/>
+        <item x="172"/>
+        <item x="28"/>
+        <item x="67"/>
         <item x="141"/>
-        <item x="98"/>
-        <item x="63"/>
-        <item x="64"/>
-        <item x="170"/>
-        <item x="35"/>
-        <item x="36"/>
-        <item x="115"/>
-        <item x="26"/>
-        <item x="147"/>
-        <item x="37"/>
-        <item x="99"/>
-        <item x="38"/>
-        <item x="195"/>
-        <item x="1"/>
-        <item x="65"/>
-        <item x="39"/>
-        <item x="40"/>
-        <item x="206"/>
-        <item x="134"/>
-        <item x="154"/>
-        <item x="171"/>
-        <item x="27"/>
-        <item x="66"/>
-        <item x="140"/>
-        <item x="81"/>
-        <item x="41"/>
-        <item x="214"/>
-        <item x="67"/>
-        <item x="116"/>
+        <item x="82"/>
         <item x="42"/>
+        <item x="215"/>
+        <item x="68"/>
         <item x="117"/>
-        <item x="199"/>
-        <item x="15"/>
+        <item x="43"/>
+        <item x="118"/>
+        <item x="200"/>
         <item x="16"/>
-        <item x="43"/>
-        <item x="204"/>
-        <item x="92"/>
+        <item x="17"/>
         <item x="44"/>
-        <item x="5"/>
-        <item x="118"/>
-        <item x="148"/>
+        <item x="205"/>
+        <item x="93"/>
         <item x="45"/>
-        <item x="100"/>
+        <item x="6"/>
+        <item x="119"/>
         <item x="149"/>
-        <item x="68"/>
-        <item x="57"/>
+        <item x="46"/>
         <item x="101"/>
-        <item x="46"/>
-        <item x="6"/>
-        <item x="94"/>
-        <item x="200"/>
-        <item x="172"/>
+        <item x="150"/>
+        <item x="69"/>
+        <item x="58"/>
+        <item x="102"/>
+        <item x="47"/>
+        <item x="7"/>
         <item x="95"/>
         <item x="201"/>
-        <item x="17"/>
-        <item x="207"/>
+        <item x="173"/>
+        <item x="96"/>
+        <item x="202"/>
+        <item x="18"/>
         <item x="208"/>
-        <item x="102"/>
-        <item x="107"/>
-        <item x="18"/>
+        <item x="209"/>
+        <item x="103"/>
+        <item x="108"/>
         <item x="19"/>
-        <item x="119"/>
+        <item x="20"/>
+        <item x="120"/>
+        <item x="160"/>
+        <item x="156"/>
+        <item x="8"/>
+        <item x="22"/>
+        <item x="174"/>
+        <item x="175"/>
+        <item x="158"/>
+        <item x="151"/>
+        <item x="157"/>
+        <item x="48"/>
+        <item x="104"/>
+        <item x="49"/>
         <item x="159"/>
-        <item x="155"/>
-        <item x="7"/>
+        <item x="70"/>
+        <item x="122"/>
+        <item x="203"/>
+        <item x="29"/>
         <item x="21"/>
-        <item x="173"/>
-        <item x="174"/>
-        <item x="157"/>
-        <item x="150"/>
-        <item x="156"/>
-        <item x="47"/>
-        <item x="103"/>
-        <item x="48"/>
-        <item x="158"/>
-        <item x="69"/>
-        <item x="121"/>
-        <item x="202"/>
-        <item x="28"/>
-        <item x="20"/>
-        <item x="122"/>
-        <item x="196"/>
         <item x="123"/>
-        <item x="160"/>
-        <item x="82"/>
-        <item m="1" x="218"/>
-        <item x="205"/>
-        <item x="192"/>
+        <item x="197"/>
+        <item x="124"/>
+        <item x="161"/>
         <item x="83"/>
-        <item x="151"/>
+        <item m="1" x="221"/>
+        <item x="206"/>
         <item x="193"/>
-        <item x="175"/>
-        <item x="162"/>
+        <item x="84"/>
+        <item x="152"/>
+        <item x="194"/>
         <item x="176"/>
-        <item x="133"/>
-        <item x="104"/>
-        <item x="180"/>
-        <item x="216"/>
-        <item x="139"/>
-        <item x="8"/>
         <item x="163"/>
-        <item x="29"/>
-        <item x="197"/>
-        <item x="142"/>
-        <item x="84"/>
-        <item x="124"/>
+        <item x="177"/>
+        <item x="134"/>
+        <item x="105"/>
+        <item x="181"/>
+        <item x="217"/>
+        <item x="140"/>
+        <item x="9"/>
+        <item x="164"/>
+        <item x="30"/>
+        <item x="198"/>
+        <item x="143"/>
+        <item x="85"/>
         <item x="125"/>
         <item x="126"/>
-        <item x="105"/>
-        <item x="93"/>
-        <item x="10"/>
+        <item x="127"/>
         <item x="106"/>
-        <item x="152"/>
-        <item x="49"/>
-        <item x="177"/>
-        <item x="127"/>
-        <item x="70"/>
+        <item x="94"/>
+        <item x="11"/>
+        <item x="107"/>
+        <item x="153"/>
+        <item x="50"/>
+        <item x="178"/>
+        <item x="128"/>
         <item x="71"/>
-        <item x="184"/>
-        <item x="85"/>
-        <item x="9"/>
-        <item x="178"/>
-        <item x="50"/>
-        <item x="120"/>
-        <item x="153"/>
-        <item x="128"/>
-        <item x="30"/>
+        <item x="72"/>
         <item x="185"/>
         <item x="86"/>
+        <item x="10"/>
+        <item x="179"/>
+        <item x="51"/>
+        <item x="121"/>
+        <item x="154"/>
+        <item x="129"/>
+        <item x="31"/>
+        <item x="186"/>
         <item x="87"/>
         <item x="88"/>
-        <item x="58"/>
-        <item x="203"/>
         <item x="89"/>
-        <item x="188"/>
-        <item x="51"/>
+        <item x="59"/>
+        <item x="204"/>
+        <item x="90"/>
+        <item x="189"/>
         <item x="52"/>
-        <item x="129"/>
-        <item x="186"/>
-        <item x="90"/>
-        <item x="181"/>
-        <item x="135"/>
-        <item x="136"/>
-        <item x="182"/>
         <item x="53"/>
         <item x="130"/>
-        <item x="179"/>
-        <item x="137"/>
-        <item x="131"/>
-        <item x="138"/>
-        <item x="189"/>
         <item x="187"/>
         <item x="91"/>
-        <item x="213"/>
-        <item x="209"/>
-        <item x="217"/>
-        <item x="73"/>
-        <item x="161"/>
+        <item x="182"/>
+        <item x="136"/>
+        <item x="137"/>
+        <item x="183"/>
+        <item x="54"/>
+        <item x="131"/>
+        <item x="180"/>
+        <item x="138"/>
+        <item x="132"/>
+        <item x="139"/>
+        <item x="190"/>
+        <item x="188"/>
+        <item x="92"/>
+        <item x="214"/>
+        <item x="210"/>
+        <item x="218"/>
+        <item x="74"/>
+        <item x="162"/>
+        <item x="4"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -7085,12 +6977,18 @@
   <rowFields count="1">
     <field x="1"/>
   </rowFields>
-  <rowItems count="63">
+  <rowItems count="71">
     <i>
       <x v="5"/>
     </i>
     <i>
       <x v="7"/>
+    </i>
+    <i>
+      <x v="9"/>
+    </i>
+    <i>
+      <x v="13"/>
     </i>
     <i>
       <x v="15"/>
@@ -7153,6 +7051,9 @@
       <x v="72"/>
     </i>
     <i>
+      <x v="77"/>
+    </i>
+    <i>
       <x v="78"/>
     </i>
     <i>
@@ -7178,6 +7079,9 @@
     </i>
     <i>
       <x v="104"/>
+    </i>
+    <i>
+      <x v="108"/>
     </i>
     <i>
       <x v="110"/>
@@ -7222,10 +7126,16 @@
       <x v="155"/>
     </i>
     <i>
+      <x v="156"/>
+    </i>
+    <i>
       <x v="158"/>
     </i>
     <i>
       <x v="159"/>
+    </i>
+    <i>
+      <x v="160"/>
     </i>
     <i>
       <x v="165"/>
@@ -7235,6 +7145,9 @@
     </i>
     <i>
       <x v="168"/>
+    </i>
+    <i>
+      <x v="177"/>
     </i>
     <i>
       <x v="184"/>
@@ -7272,6 +7185,9 @@
     <i>
       <x v="222"/>
     </i>
+    <i>
+      <x v="223"/>
+    </i>
     <i t="grand">
       <x/>
     </i>
@@ -7284,13 +7200,137 @@
     <pageField fld="0" hier="-1"/>
   </pageFields>
   <formats count="2">
-    <format dxfId="4">
+    <format dxfId="6">
       <pivotArea field="1" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="5">
+    <format dxfId="7">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
   </formats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{5BE17AE4-2B6C-4B30-A799-10769CD87AE0}" name="PivotTable3" cacheId="7522" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+  <location ref="G8:I13" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
+  <pivotFields count="8">
+    <pivotField axis="axisPage" showAll="0">
+      <items count="13">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="11"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="5">
+        <item x="0"/>
+        <item x="2"/>
+        <item x="1"/>
+        <item h="1" x="3"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisCol" showAll="0">
+      <items count="4">
+        <item x="1"/>
+        <item x="0"/>
+        <item m="1" x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="2"/>
+  </rowFields>
+  <rowItems count="4">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="4"/>
+  </colFields>
+  <colItems count="2">
+    <i>
+      <x v="1"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </colItems>
+  <pageFields count="1">
+    <pageField fld="0" hier="-1"/>
+  </pageFields>
+  <dataFields count="1">
+    <dataField name="Count of Organisation Name" fld="1" subtotal="count" baseField="0" baseItem="0"/>
+  </dataFields>
+  <formats count="2">
+    <format dxfId="4">
+      <pivotArea field="4" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisCol" fieldPosition="0"/>
+    </format>
+    <format dxfId="5">
+      <pivotArea field="2" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
+    </format>
+  </formats>
+  <chartFormats count="2">
+    <chartFormat chart="0" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="4" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="1" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="4" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
@@ -7600,10 +7640,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1220B4B-B987-4267-A1E9-87F5A1FB2BC0}">
-  <dimension ref="B2:I102"/>
+  <dimension ref="B2:I110"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -7614,8 +7654,8 @@
     <col min="4" max="4" width="30.28515625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11.85546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" customWidth="1"/>
-    <col min="8" max="8" width="16.7109375" customWidth="1"/>
+    <col min="7" max="7" width="27.28515625" customWidth="1"/>
+    <col min="8" max="8" width="17.5703125" customWidth="1"/>
     <col min="9" max="9" width="30.28515625" customWidth="1"/>
     <col min="10" max="10" width="20.42578125" customWidth="1"/>
     <col min="11" max="11" width="36.42578125" bestFit="1" customWidth="1"/>
@@ -7907,10 +7947,10 @@
         <v>12</v>
       </c>
       <c r="C10" s="3">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="D10" s="3">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="E10" s="3">
         <v>159</v>
@@ -7953,22 +7993,22 @@
         <v>14</v>
       </c>
       <c r="C12" s="3">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D12" s="3">
         <v>26</v>
       </c>
       <c r="E12" s="3">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G12" s="4" t="s">
         <v>14</v>
       </c>
       <c r="H12" s="3">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="I12" s="3">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="13" spans="2:9">
@@ -7976,22 +8016,22 @@
         <v>11</v>
       </c>
       <c r="C13" s="3">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="D13" s="3">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="E13" s="3">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="G13" s="4" t="s">
         <v>11</v>
       </c>
       <c r="H13" s="3">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="I13" s="3">
-        <v>217</v>
+        <v>218</v>
       </c>
     </row>
     <row r="33" spans="2:9">
@@ -8369,7 +8409,47 @@
       </c>
     </row>
     <row r="102" spans="2:2">
-      <c r="B102" s="13" t="s">
+      <c r="B102" s="4" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="103" spans="2:2">
+      <c r="B103" s="4" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="104" spans="2:2">
+      <c r="B104" s="4" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="105" spans="2:2">
+      <c r="B105" s="4" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="106" spans="2:2">
+      <c r="B106" s="4" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="107" spans="2:2">
+      <c r="B107" s="4" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="108" spans="2:2">
+      <c r="B108" s="4" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="109" spans="2:2">
+      <c r="B109" s="4" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="110" spans="2:2">
+      <c r="B110" s="13" t="s">
         <v>11</v>
       </c>
     </row>
@@ -8387,10 +8467,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:H228"/>
+  <dimension ref="A1:H229"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="B30" sqref="B30"/>
+    <sheetView showGridLines="0" topLeftCell="A139" workbookViewId="0">
+      <selection activeCell="D153" sqref="D153"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
@@ -8410,10 +8490,10 @@
         <v>3</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>18</v>
@@ -8422,21 +8502,21 @@
         <v>19</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="15.75" customHeight="1">
       <c r="A2" s="6" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C2" s="6" t="s">
         <v>12</v>
@@ -8453,10 +8533,10 @@
     </row>
     <row r="3" spans="1:8" ht="15.75" customHeight="1">
       <c r="A3" s="6" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="C3" s="6" t="s">
         <v>12</v>
@@ -8473,10 +8553,10 @@
     </row>
     <row r="4" spans="1:8" ht="15.75" customHeight="1">
       <c r="A4" s="6" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="C4" s="6" t="s">
         <v>12</v>
@@ -8493,10 +8573,10 @@
     </row>
     <row r="5" spans="1:8" ht="15.75" customHeight="1">
       <c r="A5" s="6" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C5" s="6" t="s">
         <v>12</v>
@@ -8513,16 +8593,16 @@
     </row>
     <row r="6" spans="1:8" ht="15.75" customHeight="1">
       <c r="A6" s="6" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="B6" s="11" t="s">
         <v>90</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E6" s="6" t="s">
         <v>10</v>
@@ -8533,10 +8613,10 @@
     </row>
     <row r="7" spans="1:8" ht="15.75" customHeight="1">
       <c r="A7" s="6" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="C7" s="6" t="s">
         <v>12</v>
@@ -8553,16 +8633,16 @@
     </row>
     <row r="8" spans="1:8" ht="15.75" customHeight="1">
       <c r="A8" s="6" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>53</v>
+        <v>99</v>
       </c>
       <c r="C8" s="6" t="s">
         <v>12</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E8" s="6" t="s">
         <v>10</v>
@@ -8573,16 +8653,16 @@
     </row>
     <row r="9" spans="1:8" ht="15.75" customHeight="1">
       <c r="A9" s="6" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>92</v>
+        <v>57</v>
       </c>
       <c r="C9" s="6" t="s">
         <v>12</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E9" s="6" t="s">
         <v>10</v>
@@ -8593,10 +8673,10 @@
     </row>
     <row r="10" spans="1:8" ht="15.75" customHeight="1">
       <c r="A10" s="6" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="C10" s="6" t="s">
         <v>12</v>
@@ -8613,10 +8693,10 @@
     </row>
     <row r="11" spans="1:8" ht="15.75" customHeight="1">
       <c r="A11" s="6" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="C11" s="6" t="s">
         <v>12</v>
@@ -8633,10 +8713,10 @@
     </row>
     <row r="12" spans="1:8" ht="15.75" customHeight="1">
       <c r="A12" s="6" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="C12" s="6" t="s">
         <v>12</v>
@@ -8653,13 +8733,13 @@
     </row>
     <row r="13" spans="1:8" ht="15.75" customHeight="1">
       <c r="A13" s="6" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D13" s="6" t="s">
         <v>10</v>
@@ -8673,10 +8753,10 @@
     </row>
     <row r="14" spans="1:8" ht="15.75" customHeight="1">
       <c r="A14" s="6" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="C14" s="6" t="s">
         <v>14</v>
@@ -8693,16 +8773,16 @@
     </row>
     <row r="15" spans="1:8" ht="15.75" customHeight="1">
       <c r="A15" s="6" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>33</v>
+        <v>105</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E15" s="6" t="s">
         <v>10</v>
@@ -8713,10 +8793,10 @@
     </row>
     <row r="16" spans="1:8" ht="15.75" customHeight="1">
       <c r="A16" s="6" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="B16" s="11" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C16" s="6" t="s">
         <v>12</v>
@@ -8733,10 +8813,10 @@
     </row>
     <row r="17" spans="1:8" ht="15.75" customHeight="1">
       <c r="A17" s="6" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="B17" s="11" t="s">
-        <v>49</v>
+        <v>36</v>
       </c>
       <c r="C17" s="6" t="s">
         <v>12</v>
@@ -8753,16 +8833,16 @@
     </row>
     <row r="18" spans="1:8" ht="15.75" customHeight="1">
       <c r="A18" s="6" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="B18" s="11" t="s">
-        <v>99</v>
+        <v>52</v>
       </c>
       <c r="C18" s="6" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E18" s="6" t="s">
         <v>10</v>
@@ -8773,10 +8853,10 @@
     </row>
     <row r="19" spans="1:8" ht="15.75" customHeight="1">
       <c r="A19" s="6" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="B19" s="11" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="C19" s="6" t="s">
         <v>12</v>
@@ -8793,10 +8873,10 @@
     </row>
     <row r="20" spans="1:8" ht="15.75" customHeight="1">
       <c r="A20" s="6" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="B20" s="11" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="C20" s="6" t="s">
         <v>12</v>
@@ -8813,10 +8893,10 @@
     </row>
     <row r="21" spans="1:8" ht="15.75" customHeight="1">
       <c r="A21" s="6" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="B21" s="11" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="C21" s="6" t="s">
         <v>12</v>
@@ -8833,10 +8913,10 @@
     </row>
     <row r="22" spans="1:8" ht="15.75" customHeight="1">
       <c r="A22" s="6" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="B22" s="11" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="C22" s="6" t="s">
         <v>12</v>
@@ -8853,10 +8933,10 @@
     </row>
     <row r="23" spans="1:8" ht="15.75" customHeight="1">
       <c r="A23" s="6" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="B23" s="11" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="C23" s="6" t="s">
         <v>12</v>
@@ -8873,10 +8953,10 @@
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1">
       <c r="A24" s="6" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B24" s="11" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="C24" s="6" t="s">
         <v>12</v>
@@ -8893,10 +8973,10 @@
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1">
       <c r="A25" s="6" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="B25" s="11" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="C25" s="6" t="s">
         <v>12</v>
@@ -8913,16 +8993,16 @@
     </row>
     <row r="26" spans="1:8" ht="15.75" customHeight="1">
       <c r="A26" s="6" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="B26" s="11" t="s">
-        <v>28</v>
+        <v>115</v>
       </c>
       <c r="C26" s="6" t="s">
         <v>12</v>
       </c>
       <c r="D26" s="6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E26" s="6" t="s">
         <v>10</v>
@@ -8933,10 +9013,10 @@
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1">
       <c r="A27" s="6" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="B27" s="11" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="C27" s="6" t="s">
         <v>12</v>
@@ -8953,10 +9033,10 @@
     </row>
     <row r="28" spans="1:8" ht="15.75" customHeight="1">
       <c r="A28" s="6" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="B28" s="11" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C28" s="6" t="s">
         <v>12</v>
@@ -8973,16 +9053,16 @@
     </row>
     <row r="29" spans="1:8" ht="15.75" customHeight="1">
       <c r="A29" s="6" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="B29" s="11" t="s">
-        <v>108</v>
+        <v>44</v>
       </c>
       <c r="C29" s="6" t="s">
         <v>12</v>
       </c>
       <c r="D29" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E29" s="6" t="s">
         <v>10</v>
@@ -8993,16 +9073,16 @@
     </row>
     <row r="30" spans="1:8" ht="15.75" customHeight="1">
       <c r="A30" s="6" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="B30" s="11" t="s">
-        <v>59</v>
+        <v>116</v>
       </c>
       <c r="C30" s="6" t="s">
         <v>12</v>
       </c>
       <c r="D30" s="6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E30" s="6" t="s">
         <v>10</v>
@@ -9013,10 +9093,10 @@
     </row>
     <row r="31" spans="1:8" ht="15.75" customHeight="1">
       <c r="A31" s="6" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="B31" s="11" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="C31" s="6" t="s">
         <v>12</v>
@@ -9033,16 +9113,16 @@
     </row>
     <row r="32" spans="1:8" ht="15.75" customHeight="1">
       <c r="A32" s="6" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="B32" s="11" t="s">
-        <v>109</v>
+        <v>75</v>
       </c>
       <c r="C32" s="6" t="s">
         <v>12</v>
       </c>
       <c r="D32" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E32" s="6" t="s">
         <v>10</v>
@@ -9051,18 +9131,18 @@
       <c r="G32" s="6"/>
       <c r="H32" s="6"/>
     </row>
-    <row r="33" spans="1:8" ht="12.75">
+    <row r="33" spans="1:8" ht="15.75" customHeight="1">
       <c r="A33" s="6" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="B33" s="11" t="s">
-        <v>22</v>
+        <v>117</v>
       </c>
       <c r="C33" s="6" t="s">
         <v>12</v>
       </c>
       <c r="D33" s="6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E33" s="6" t="s">
         <v>10</v>
@@ -9073,10 +9153,10 @@
     </row>
     <row r="34" spans="1:8" ht="12.75">
       <c r="A34" s="6" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="B34" s="11" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="C34" s="6" t="s">
         <v>12</v>
@@ -9093,7 +9173,7 @@
     </row>
     <row r="35" spans="1:8" ht="12.75">
       <c r="A35" s="6" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="B35" s="11" t="s">
         <v>31</v>
@@ -9113,16 +9193,16 @@
     </row>
     <row r="36" spans="1:8" ht="12.75">
       <c r="A36" s="6" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="B36" s="11" t="s">
-        <v>110</v>
+        <v>33</v>
       </c>
       <c r="C36" s="6" t="s">
         <v>12</v>
       </c>
       <c r="D36" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E36" s="6" t="s">
         <v>10</v>
@@ -9133,16 +9213,16 @@
     </row>
     <row r="37" spans="1:8" ht="12.75">
       <c r="A37" s="6" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="B37" s="11" t="s">
-        <v>40</v>
+        <v>118</v>
       </c>
       <c r="C37" s="6" t="s">
         <v>12</v>
       </c>
       <c r="D37" s="6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E37" s="6" t="s">
         <v>10</v>
@@ -9153,10 +9233,10 @@
     </row>
     <row r="38" spans="1:8" ht="12.75">
       <c r="A38" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="B38" s="10" t="s">
-        <v>41</v>
+        <v>113</v>
+      </c>
+      <c r="B38" s="11" t="s">
+        <v>42</v>
       </c>
       <c r="C38" s="6" t="s">
         <v>12</v>
@@ -9173,16 +9253,16 @@
     </row>
     <row r="39" spans="1:8" ht="12.75">
       <c r="A39" s="6" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="B39" s="10" t="s">
-        <v>111</v>
+        <v>43</v>
       </c>
       <c r="C39" s="6" t="s">
         <v>12</v>
       </c>
       <c r="D39" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E39" s="6" t="s">
         <v>10</v>
@@ -9193,10 +9273,10 @@
     </row>
     <row r="40" spans="1:8" ht="12.75">
       <c r="A40" s="6" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="B40" s="10" t="s">
-        <v>112</v>
+        <v>119</v>
       </c>
       <c r="C40" s="6" t="s">
         <v>12</v>
@@ -9213,10 +9293,10 @@
     </row>
     <row r="41" spans="1:8" ht="12.75">
       <c r="A41" s="6" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="B41" s="10" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="C41" s="6" t="s">
         <v>12</v>
@@ -9233,16 +9313,16 @@
     </row>
     <row r="42" spans="1:8" ht="12.75">
       <c r="A42" s="6" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="B42" s="10" t="s">
-        <v>44</v>
+        <v>121</v>
       </c>
       <c r="C42" s="6" t="s">
         <v>12</v>
       </c>
       <c r="D42" s="6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E42" s="6" t="s">
         <v>10</v>
@@ -9253,16 +9333,16 @@
     </row>
     <row r="43" spans="1:8" ht="12.75">
       <c r="A43" s="6" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="B43" s="10" t="s">
-        <v>114</v>
+        <v>47</v>
       </c>
       <c r="C43" s="6" t="s">
         <v>12</v>
       </c>
       <c r="D43" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E43" s="6" t="s">
         <v>10</v>
@@ -9273,16 +9353,16 @@
     </row>
     <row r="44" spans="1:8" ht="12.75">
       <c r="A44" s="6" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="B44" s="10" t="s">
-        <v>47</v>
+        <v>122</v>
       </c>
       <c r="C44" s="6" t="s">
         <v>12</v>
       </c>
       <c r="D44" s="6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E44" s="6" t="s">
         <v>10</v>
@@ -9293,16 +9373,16 @@
     </row>
     <row r="45" spans="1:8" ht="12.75">
       <c r="A45" s="6" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="B45" s="10" t="s">
-        <v>115</v>
+        <v>50</v>
       </c>
       <c r="C45" s="6" t="s">
         <v>12</v>
       </c>
       <c r="D45" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E45" s="6" t="s">
         <v>10</v>
@@ -9313,10 +9393,10 @@
     </row>
     <row r="46" spans="1:8" ht="12.75">
       <c r="A46" s="6" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="B46" s="10" t="s">
-        <v>116</v>
+        <v>123</v>
       </c>
       <c r="C46" s="6" t="s">
         <v>12</v>
@@ -9333,10 +9413,10 @@
     </row>
     <row r="47" spans="1:8" ht="12.75">
       <c r="A47" s="6" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="B47" s="10" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="C47" s="6" t="s">
         <v>12</v>
@@ -9353,10 +9433,10 @@
     </row>
     <row r="48" spans="1:8" ht="12.75">
       <c r="A48" s="6" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="B48" s="10" t="s">
-        <v>118</v>
+        <v>125</v>
       </c>
       <c r="C48" s="6" t="s">
         <v>12</v>
@@ -9373,10 +9453,10 @@
     </row>
     <row r="49" spans="1:8" ht="12.75">
       <c r="A49" s="6" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="B49" s="10" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="C49" s="6" t="s">
         <v>12</v>
@@ -9393,10 +9473,10 @@
     </row>
     <row r="50" spans="1:8" ht="12.75">
       <c r="A50" s="6" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="B50" s="10" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="C50" s="6" t="s">
         <v>12</v>
@@ -9413,10 +9493,10 @@
     </row>
     <row r="51" spans="1:8" ht="12.75">
       <c r="A51" s="6" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="B51" s="10" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="C51" s="6" t="s">
         <v>12</v>
@@ -9433,10 +9513,10 @@
     </row>
     <row r="52" spans="1:8" ht="12.75">
       <c r="A52" s="6" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="B52" s="10" t="s">
-        <v>122</v>
+        <v>129</v>
       </c>
       <c r="C52" s="6" t="s">
         <v>12</v>
@@ -9453,10 +9533,10 @@
     </row>
     <row r="53" spans="1:8" ht="12.75">
       <c r="A53" s="6" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="B53" s="10" t="s">
-        <v>123</v>
+        <v>130</v>
       </c>
       <c r="C53" s="6" t="s">
         <v>12</v>
@@ -9473,10 +9553,10 @@
     </row>
     <row r="54" spans="1:8" ht="12.75">
       <c r="A54" s="6" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="B54" s="10" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="C54" s="6" t="s">
         <v>12</v>
@@ -9493,10 +9573,10 @@
     </row>
     <row r="55" spans="1:8" ht="12.75">
       <c r="A55" s="6" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="B55" s="10" t="s">
-        <v>125</v>
+        <v>132</v>
       </c>
       <c r="C55" s="6" t="s">
         <v>12</v>
@@ -9513,10 +9593,10 @@
     </row>
     <row r="56" spans="1:8" ht="12.75">
       <c r="A56" s="6" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="B56" s="10" t="s">
-        <v>126</v>
+        <v>133</v>
       </c>
       <c r="C56" s="6" t="s">
         <v>12</v>
@@ -9533,10 +9613,10 @@
     </row>
     <row r="57" spans="1:8" ht="12.75">
       <c r="A57" s="6" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="B57" s="10" t="s">
-        <v>127</v>
+        <v>134</v>
       </c>
       <c r="C57" s="6" t="s">
         <v>12</v>
@@ -9553,30 +9633,30 @@
     </row>
     <row r="58" spans="1:8" ht="12.75">
       <c r="A58" s="6" t="s">
-        <v>128</v>
+        <v>113</v>
       </c>
       <c r="B58" s="10" t="s">
-        <v>21</v>
+        <v>135</v>
       </c>
       <c r="C58" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D58" s="6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E58" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="F58" s="7"/>
-      <c r="G58" s="8"/>
+      <c r="F58" s="6"/>
+      <c r="G58" s="6"/>
       <c r="H58" s="6"/>
     </row>
     <row r="59" spans="1:8" ht="12.75">
       <c r="A59" s="6" t="s">
-        <v>128</v>
+        <v>136</v>
       </c>
       <c r="B59" s="10" t="s">
-        <v>52</v>
+        <v>21</v>
       </c>
       <c r="C59" s="6" t="s">
         <v>13</v>
@@ -9588,18 +9668,18 @@
         <v>10</v>
       </c>
       <c r="F59" s="7"/>
-      <c r="G59" s="7"/>
-      <c r="H59" s="7"/>
+      <c r="G59" s="8"/>
+      <c r="H59" s="6"/>
     </row>
     <row r="60" spans="1:8" ht="12.75">
       <c r="A60" s="6" t="s">
-        <v>128</v>
+        <v>136</v>
       </c>
       <c r="B60" s="10" t="s">
-        <v>75</v>
+        <v>56</v>
       </c>
       <c r="C60" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D60" s="6" t="s">
         <v>9</v>
@@ -9608,35 +9688,35 @@
         <v>10</v>
       </c>
       <c r="F60" s="7"/>
-      <c r="G60" s="8"/>
-      <c r="H60" s="8"/>
+      <c r="G60" s="7"/>
+      <c r="H60" s="7"/>
     </row>
     <row r="61" spans="1:8" ht="12.75">
       <c r="A61" s="6" t="s">
-        <v>128</v>
+        <v>136</v>
       </c>
       <c r="B61" s="10" t="s">
-        <v>129</v>
+        <v>82</v>
       </c>
       <c r="C61" s="6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D61" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E61" s="6" t="s">
         <v>10</v>
       </c>
       <c r="F61" s="7"/>
       <c r="G61" s="8"/>
-      <c r="H61" s="6"/>
+      <c r="H61" s="8"/>
     </row>
     <row r="62" spans="1:8" ht="12.75">
       <c r="A62" s="6" t="s">
-        <v>128</v>
+        <v>136</v>
       </c>
       <c r="B62" s="10" t="s">
-        <v>130</v>
+        <v>137</v>
       </c>
       <c r="C62" s="6" t="s">
         <v>13</v>
@@ -9649,14 +9729,14 @@
       </c>
       <c r="F62" s="7"/>
       <c r="G62" s="8"/>
-      <c r="H62" s="8"/>
+      <c r="H62" s="6"/>
     </row>
     <row r="63" spans="1:8" ht="12.75">
       <c r="A63" s="6" t="s">
-        <v>128</v>
+        <v>136</v>
       </c>
       <c r="B63" s="10" t="s">
-        <v>131</v>
+        <v>138</v>
       </c>
       <c r="C63" s="6" t="s">
         <v>13</v>
@@ -9673,10 +9753,10 @@
     </row>
     <row r="64" spans="1:8" ht="12.75">
       <c r="A64" s="6" t="s">
-        <v>128</v>
+        <v>136</v>
       </c>
       <c r="B64" s="10" t="s">
-        <v>132</v>
+        <v>139</v>
       </c>
       <c r="C64" s="6" t="s">
         <v>13</v>
@@ -9693,10 +9773,10 @@
     </row>
     <row r="65" spans="1:8" ht="12.75">
       <c r="A65" s="6" t="s">
-        <v>128</v>
+        <v>136</v>
       </c>
       <c r="B65" s="10" t="s">
-        <v>133</v>
+        <v>140</v>
       </c>
       <c r="C65" s="6" t="s">
         <v>13</v>
@@ -9713,10 +9793,10 @@
     </row>
     <row r="66" spans="1:8" ht="12.75">
       <c r="A66" s="6" t="s">
-        <v>128</v>
+        <v>136</v>
       </c>
       <c r="B66" s="10" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="C66" s="6" t="s">
         <v>13</v>
@@ -9733,10 +9813,10 @@
     </row>
     <row r="67" spans="1:8" ht="12.75">
       <c r="A67" s="6" t="s">
-        <v>128</v>
+        <v>136</v>
       </c>
       <c r="B67" s="10" t="s">
-        <v>135</v>
+        <v>142</v>
       </c>
       <c r="C67" s="6" t="s">
         <v>13</v>
@@ -9753,10 +9833,10 @@
     </row>
     <row r="68" spans="1:8" ht="12.75">
       <c r="A68" s="6" t="s">
-        <v>128</v>
+        <v>136</v>
       </c>
       <c r="B68" s="10" t="s">
-        <v>136</v>
+        <v>143</v>
       </c>
       <c r="C68" s="6" t="s">
         <v>13</v>
@@ -9773,10 +9853,10 @@
     </row>
     <row r="69" spans="1:8" ht="12.75">
       <c r="A69" s="6" t="s">
-        <v>128</v>
+        <v>136</v>
       </c>
       <c r="B69" s="10" t="s">
-        <v>137</v>
+        <v>144</v>
       </c>
       <c r="C69" s="6" t="s">
         <v>13</v>
@@ -9793,10 +9873,10 @@
     </row>
     <row r="70" spans="1:8" ht="12.75">
       <c r="A70" s="6" t="s">
-        <v>128</v>
+        <v>136</v>
       </c>
       <c r="B70" s="10" t="s">
-        <v>138</v>
+        <v>145</v>
       </c>
       <c r="C70" s="6" t="s">
         <v>13</v>
@@ -9808,15 +9888,15 @@
         <v>10</v>
       </c>
       <c r="F70" s="7"/>
-      <c r="G70" s="7"/>
-      <c r="H70" s="7"/>
+      <c r="G70" s="8"/>
+      <c r="H70" s="8"/>
     </row>
     <row r="71" spans="1:8" ht="12.75">
       <c r="A71" s="6" t="s">
-        <v>128</v>
+        <v>136</v>
       </c>
       <c r="B71" s="10" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="C71" s="6" t="s">
         <v>13</v>
@@ -9828,15 +9908,15 @@
         <v>10</v>
       </c>
       <c r="F71" s="7"/>
-      <c r="G71" s="8"/>
-      <c r="H71" s="8"/>
+      <c r="G71" s="7"/>
+      <c r="H71" s="7"/>
     </row>
     <row r="72" spans="1:8" ht="12.75">
       <c r="A72" s="6" t="s">
-        <v>128</v>
+        <v>136</v>
       </c>
       <c r="B72" s="10" t="s">
-        <v>140</v>
+        <v>147</v>
       </c>
       <c r="C72" s="6" t="s">
         <v>13</v>
@@ -9853,10 +9933,10 @@
     </row>
     <row r="73" spans="1:8" ht="12.75">
       <c r="A73" s="6" t="s">
-        <v>128</v>
+        <v>136</v>
       </c>
       <c r="B73" s="10" t="s">
-        <v>141</v>
+        <v>148</v>
       </c>
       <c r="C73" s="6" t="s">
         <v>13</v>
@@ -9873,13 +9953,13 @@
     </row>
     <row r="74" spans="1:8" ht="12.75">
       <c r="A74" s="6" t="s">
-        <v>128</v>
+        <v>136</v>
       </c>
       <c r="B74" s="10" t="s">
-        <v>142</v>
+        <v>149</v>
       </c>
       <c r="C74" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D74" s="6" t="s">
         <v>10</v>
@@ -9889,54 +9969,54 @@
       </c>
       <c r="F74" s="7"/>
       <c r="G74" s="8"/>
-      <c r="H74" s="6"/>
+      <c r="H74" s="8"/>
     </row>
     <row r="75" spans="1:8" ht="12.75">
       <c r="A75" s="6" t="s">
-        <v>128</v>
+        <v>136</v>
       </c>
       <c r="B75" s="10" t="s">
-        <v>81</v>
+        <v>150</v>
       </c>
       <c r="C75" s="6" t="s">
         <v>14</v>
       </c>
       <c r="D75" s="6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E75" s="6" t="s">
         <v>10</v>
       </c>
       <c r="F75" s="7"/>
-      <c r="G75" s="7"/>
-      <c r="H75" s="7"/>
+      <c r="G75" s="8"/>
+      <c r="H75" s="6"/>
     </row>
     <row r="76" spans="1:8" ht="12.75">
       <c r="A76" s="6" t="s">
-        <v>128</v>
+        <v>136</v>
       </c>
       <c r="B76" s="10" t="s">
-        <v>143</v>
+        <v>88</v>
       </c>
       <c r="C76" s="6" t="s">
         <v>14</v>
       </c>
       <c r="D76" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E76" s="6" t="s">
         <v>10</v>
       </c>
       <c r="F76" s="7"/>
-      <c r="G76" s="8"/>
-      <c r="H76" s="8"/>
+      <c r="G76" s="7"/>
+      <c r="H76" s="7"/>
     </row>
     <row r="77" spans="1:8" ht="12.75">
       <c r="A77" s="6" t="s">
-        <v>128</v>
+        <v>136</v>
       </c>
       <c r="B77" s="10" t="s">
-        <v>144</v>
+        <v>151</v>
       </c>
       <c r="C77" s="6" t="s">
         <v>14</v>
@@ -9953,10 +10033,10 @@
     </row>
     <row r="78" spans="1:8" ht="12.75">
       <c r="A78" s="6" t="s">
-        <v>128</v>
+        <v>136</v>
       </c>
       <c r="B78" s="10" t="s">
-        <v>145</v>
+        <v>152</v>
       </c>
       <c r="C78" s="6" t="s">
         <v>14</v>
@@ -9973,10 +10053,10 @@
     </row>
     <row r="79" spans="1:8" ht="12.75">
       <c r="A79" s="6" t="s">
-        <v>128</v>
+        <v>136</v>
       </c>
       <c r="B79" s="10" t="s">
-        <v>146</v>
+        <v>153</v>
       </c>
       <c r="C79" s="6" t="s">
         <v>14</v>
@@ -9993,10 +10073,10 @@
     </row>
     <row r="80" spans="1:8" ht="12.75">
       <c r="A80" s="6" t="s">
-        <v>128</v>
+        <v>136</v>
       </c>
       <c r="B80" s="10" t="s">
-        <v>147</v>
+        <v>154</v>
       </c>
       <c r="C80" s="6" t="s">
         <v>14</v>
@@ -10009,14 +10089,14 @@
       </c>
       <c r="F80" s="7"/>
       <c r="G80" s="8"/>
-      <c r="H80" s="6"/>
+      <c r="H80" s="8"/>
     </row>
     <row r="81" spans="1:8" ht="12.75">
       <c r="A81" s="6" t="s">
-        <v>128</v>
+        <v>136</v>
       </c>
       <c r="B81" s="10" t="s">
-        <v>148</v>
+        <v>155</v>
       </c>
       <c r="C81" s="6" t="s">
         <v>14</v>
@@ -10029,14 +10109,14 @@
       </c>
       <c r="F81" s="7"/>
       <c r="G81" s="8"/>
-      <c r="H81" s="8"/>
+      <c r="H81" s="6"/>
     </row>
     <row r="82" spans="1:8" ht="12.75">
       <c r="A82" s="6" t="s">
-        <v>128</v>
+        <v>136</v>
       </c>
       <c r="B82" s="10" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
       <c r="C82" s="6" t="s">
         <v>14</v>
@@ -10053,10 +10133,10 @@
     </row>
     <row r="83" spans="1:8" ht="12.75">
       <c r="A83" s="6" t="s">
-        <v>128</v>
+        <v>136</v>
       </c>
       <c r="B83" s="10" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="C83" s="6" t="s">
         <v>14</v>
@@ -10073,10 +10153,10 @@
     </row>
     <row r="84" spans="1:8" ht="12.75">
       <c r="A84" s="6" t="s">
-        <v>128</v>
+        <v>136</v>
       </c>
       <c r="B84" s="10" t="s">
-        <v>151</v>
+        <v>158</v>
       </c>
       <c r="C84" s="6" t="s">
         <v>14</v>
@@ -10093,16 +10173,16 @@
     </row>
     <row r="85" spans="1:8" ht="12.75">
       <c r="A85" s="6" t="s">
-        <v>128</v>
+        <v>136</v>
       </c>
       <c r="B85" s="10" t="s">
-        <v>64</v>
+        <v>159</v>
       </c>
       <c r="C85" s="6" t="s">
         <v>14</v>
       </c>
       <c r="D85" s="6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E85" s="6" t="s">
         <v>10</v>
@@ -10113,16 +10193,16 @@
     </row>
     <row r="86" spans="1:8" ht="12.75">
       <c r="A86" s="6" t="s">
-        <v>128</v>
+        <v>136</v>
       </c>
       <c r="B86" s="10" t="s">
-        <v>152</v>
+        <v>68</v>
       </c>
       <c r="C86" s="6" t="s">
         <v>14</v>
       </c>
       <c r="D86" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E86" s="6" t="s">
         <v>10</v>
@@ -10133,30 +10213,30 @@
     </row>
     <row r="87" spans="1:8" ht="12.75">
       <c r="A87" s="6" t="s">
-        <v>128</v>
+        <v>136</v>
       </c>
       <c r="B87" s="10" t="s">
-        <v>71</v>
+        <v>160</v>
       </c>
       <c r="C87" s="6" t="s">
         <v>14</v>
       </c>
       <c r="D87" s="6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E87" s="6" t="s">
         <v>10</v>
       </c>
       <c r="F87" s="7"/>
-      <c r="G87" s="7"/>
-      <c r="H87" s="7"/>
+      <c r="G87" s="8"/>
+      <c r="H87" s="8"/>
     </row>
     <row r="88" spans="1:8" ht="12.75">
       <c r="A88" s="6" t="s">
-        <v>128</v>
+        <v>136</v>
       </c>
       <c r="B88" s="10" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="C88" s="6" t="s">
         <v>14</v>
@@ -10168,21 +10248,21 @@
         <v>10</v>
       </c>
       <c r="F88" s="7"/>
-      <c r="G88" s="8"/>
-      <c r="H88" s="8"/>
+      <c r="G88" s="7"/>
+      <c r="H88" s="7"/>
     </row>
     <row r="89" spans="1:8" ht="12.75">
       <c r="A89" s="6" t="s">
-        <v>128</v>
+        <v>136</v>
       </c>
       <c r="B89" s="10" t="s">
-        <v>153</v>
+        <v>80</v>
       </c>
       <c r="C89" s="6" t="s">
         <v>14</v>
       </c>
       <c r="D89" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E89" s="6" t="s">
         <v>10</v>
@@ -10193,16 +10273,16 @@
     </row>
     <row r="90" spans="1:8" ht="12.75">
       <c r="A90" s="6" t="s">
-        <v>128</v>
+        <v>136</v>
       </c>
       <c r="B90" s="10" t="s">
-        <v>74</v>
+        <v>161</v>
       </c>
       <c r="C90" s="6" t="s">
         <v>14</v>
       </c>
       <c r="D90" s="6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E90" s="6" t="s">
         <v>10</v>
@@ -10213,16 +10293,16 @@
     </row>
     <row r="91" spans="1:8" ht="12.75">
       <c r="A91" s="6" t="s">
-        <v>128</v>
+        <v>136</v>
       </c>
       <c r="B91" s="10" t="s">
-        <v>154</v>
+        <v>81</v>
       </c>
       <c r="C91" s="6" t="s">
         <v>14</v>
       </c>
       <c r="D91" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E91" s="6" t="s">
         <v>10</v>
@@ -10233,10 +10313,10 @@
     </row>
     <row r="92" spans="1:8" ht="12.75">
       <c r="A92" s="6" t="s">
-        <v>128</v>
+        <v>136</v>
       </c>
       <c r="B92" s="10" t="s">
-        <v>155</v>
+        <v>162</v>
       </c>
       <c r="C92" s="6" t="s">
         <v>14</v>
@@ -10253,10 +10333,10 @@
     </row>
     <row r="93" spans="1:8" ht="12.75">
       <c r="A93" s="6" t="s">
-        <v>128</v>
+        <v>136</v>
       </c>
       <c r="B93" s="10" t="s">
-        <v>156</v>
+        <v>163</v>
       </c>
       <c r="C93" s="6" t="s">
         <v>14</v>
@@ -10273,13 +10353,13 @@
     </row>
     <row r="94" spans="1:8" ht="12.75">
       <c r="A94" s="6" t="s">
-        <v>157</v>
+        <v>136</v>
       </c>
       <c r="B94" s="10" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="C94" s="6" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D94" s="6" t="s">
         <v>10</v>
@@ -10287,16 +10367,16 @@
       <c r="E94" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="F94" s="6"/>
-      <c r="G94" s="6"/>
-      <c r="H94" s="6"/>
+      <c r="F94" s="7"/>
+      <c r="G94" s="8"/>
+      <c r="H94" s="8"/>
     </row>
     <row r="95" spans="1:8" ht="12.75">
       <c r="A95" s="6" t="s">
-        <v>157</v>
+        <v>165</v>
       </c>
       <c r="B95" s="10" t="s">
-        <v>159</v>
+        <v>166</v>
       </c>
       <c r="C95" s="6" t="s">
         <v>12</v>
@@ -10313,10 +10393,10 @@
     </row>
     <row r="96" spans="1:8" ht="12.75">
       <c r="A96" s="6" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="B96" s="10" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="C96" s="6" t="s">
         <v>12</v>
@@ -10333,10 +10413,10 @@
     </row>
     <row r="97" spans="1:8" ht="12.75">
       <c r="A97" s="6" t="s">
-        <v>160</v>
+        <v>168</v>
       </c>
       <c r="B97" s="10" t="s">
-        <v>162</v>
+        <v>169</v>
       </c>
       <c r="C97" s="6" t="s">
         <v>12</v>
@@ -10353,16 +10433,16 @@
     </row>
     <row r="98" spans="1:8" ht="12.75">
       <c r="A98" s="6" t="s">
-        <v>160</v>
+        <v>168</v>
       </c>
       <c r="B98" s="10" t="s">
-        <v>32</v>
+        <v>170</v>
       </c>
       <c r="C98" s="6" t="s">
         <v>12</v>
       </c>
       <c r="D98" s="6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E98" s="6" t="s">
         <v>10</v>
@@ -10373,16 +10453,16 @@
     </row>
     <row r="99" spans="1:8" ht="12.75">
       <c r="A99" s="6" t="s">
-        <v>160</v>
+        <v>168</v>
       </c>
       <c r="B99" s="10" t="s">
-        <v>163</v>
+        <v>34</v>
       </c>
       <c r="C99" s="6" t="s">
         <v>12</v>
       </c>
       <c r="D99" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E99" s="6" t="s">
         <v>10</v>
@@ -10393,10 +10473,10 @@
     </row>
     <row r="100" spans="1:8" ht="12.75">
       <c r="A100" s="6" t="s">
-        <v>160</v>
+        <v>168</v>
       </c>
       <c r="B100" s="10" t="s">
-        <v>164</v>
+        <v>171</v>
       </c>
       <c r="C100" s="6" t="s">
         <v>12</v>
@@ -10413,10 +10493,10 @@
     </row>
     <row r="101" spans="1:8" ht="12.75">
       <c r="A101" s="6" t="s">
-        <v>160</v>
+        <v>168</v>
       </c>
       <c r="B101" s="10" t="s">
-        <v>165</v>
+        <v>172</v>
       </c>
       <c r="C101" s="6" t="s">
         <v>12</v>
@@ -10433,10 +10513,10 @@
     </row>
     <row r="102" spans="1:8" ht="12.75">
       <c r="A102" s="6" t="s">
-        <v>160</v>
+        <v>168</v>
       </c>
       <c r="B102" s="10" t="s">
-        <v>166</v>
+        <v>173</v>
       </c>
       <c r="C102" s="6" t="s">
         <v>12</v>
@@ -10453,10 +10533,10 @@
     </row>
     <row r="103" spans="1:8" ht="12.75">
       <c r="A103" s="6" t="s">
-        <v>160</v>
+        <v>168</v>
       </c>
       <c r="B103" s="10" t="s">
-        <v>167</v>
+        <v>174</v>
       </c>
       <c r="C103" s="6" t="s">
         <v>12</v>
@@ -10473,10 +10553,10 @@
     </row>
     <row r="104" spans="1:8" ht="12.75">
       <c r="A104" s="6" t="s">
-        <v>160</v>
+        <v>168</v>
       </c>
       <c r="B104" s="10" t="s">
-        <v>168</v>
+        <v>175</v>
       </c>
       <c r="C104" s="6" t="s">
         <v>12</v>
@@ -10493,10 +10573,10 @@
     </row>
     <row r="105" spans="1:8" ht="12.75">
       <c r="A105" s="6" t="s">
-        <v>160</v>
+        <v>168</v>
       </c>
       <c r="B105" s="10" t="s">
-        <v>169</v>
+        <v>176</v>
       </c>
       <c r="C105" s="6" t="s">
         <v>12</v>
@@ -10513,10 +10593,10 @@
     </row>
     <row r="106" spans="1:8" ht="12.75">
       <c r="A106" s="6" t="s">
-        <v>160</v>
+        <v>168</v>
       </c>
       <c r="B106" s="10" t="s">
-        <v>170</v>
+        <v>177</v>
       </c>
       <c r="C106" s="6" t="s">
         <v>12</v>
@@ -10533,16 +10613,16 @@
     </row>
     <row r="107" spans="1:8" ht="12.75">
       <c r="A107" s="6" t="s">
-        <v>160</v>
+        <v>168</v>
       </c>
       <c r="B107" s="10" t="s">
-        <v>171</v>
+        <v>73</v>
       </c>
       <c r="C107" s="6" t="s">
         <v>12</v>
       </c>
       <c r="D107" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E107" s="6" t="s">
         <v>10</v>
@@ -10553,10 +10633,10 @@
     </row>
     <row r="108" spans="1:8" ht="12.75">
       <c r="A108" s="6" t="s">
-        <v>160</v>
+        <v>168</v>
       </c>
       <c r="B108" s="10" t="s">
-        <v>172</v>
+        <v>178</v>
       </c>
       <c r="C108" s="6" t="s">
         <v>12</v>
@@ -10573,13 +10653,13 @@
     </row>
     <row r="109" spans="1:8" ht="12.75">
       <c r="A109" s="6" t="s">
-        <v>160</v>
+        <v>168</v>
       </c>
       <c r="B109" s="10" t="s">
-        <v>173</v>
+        <v>179</v>
       </c>
       <c r="C109" s="6" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D109" s="6" t="s">
         <v>10</v>
@@ -10593,13 +10673,13 @@
     </row>
     <row r="110" spans="1:8" ht="12.75">
       <c r="A110" s="6" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="B110" s="10" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="C110" s="6" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D110" s="6" t="s">
         <v>10</v>
@@ -10613,16 +10693,16 @@
     </row>
     <row r="111" spans="1:8" ht="12.75">
       <c r="A111" s="6" t="s">
-        <v>174</v>
+        <v>181</v>
       </c>
       <c r="B111" s="10" t="s">
-        <v>176</v>
+        <v>24</v>
       </c>
       <c r="C111" s="6" t="s">
         <v>12</v>
       </c>
       <c r="D111" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E111" s="6" t="s">
         <v>10</v>
@@ -10633,16 +10713,16 @@
     </row>
     <row r="112" spans="1:8" ht="12.75">
       <c r="A112" s="6" t="s">
-        <v>174</v>
+        <v>181</v>
       </c>
       <c r="B112" s="10" t="s">
-        <v>23</v>
+        <v>182</v>
       </c>
       <c r="C112" s="6" t="s">
         <v>12</v>
       </c>
       <c r="D112" s="6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E112" s="6" t="s">
         <v>10</v>
@@ -10653,16 +10733,16 @@
     </row>
     <row r="113" spans="1:8" ht="12.75">
       <c r="A113" s="6" t="s">
-        <v>174</v>
+        <v>181</v>
       </c>
       <c r="B113" s="10" t="s">
-        <v>177</v>
+        <v>25</v>
       </c>
       <c r="C113" s="6" t="s">
         <v>12</v>
       </c>
       <c r="D113" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E113" s="6" t="s">
         <v>10</v>
@@ -10673,10 +10753,10 @@
     </row>
     <row r="114" spans="1:8" ht="12.75">
       <c r="A114" s="6" t="s">
-        <v>174</v>
+        <v>181</v>
       </c>
       <c r="B114" s="10" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="C114" s="6" t="s">
         <v>12</v>
@@ -10693,10 +10773,10 @@
     </row>
     <row r="115" spans="1:8" ht="12.75">
       <c r="A115" s="6" t="s">
-        <v>174</v>
+        <v>181</v>
       </c>
       <c r="B115" s="10" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="C115" s="6" t="s">
         <v>12</v>
@@ -10713,10 +10793,10 @@
     </row>
     <row r="116" spans="1:8" ht="12.75">
       <c r="A116" s="6" t="s">
-        <v>174</v>
+        <v>181</v>
       </c>
       <c r="B116" s="10" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="C116" s="6" t="s">
         <v>12</v>
@@ -10733,10 +10813,10 @@
     </row>
     <row r="117" spans="1:8" ht="12.75">
       <c r="A117" s="6" t="s">
-        <v>174</v>
+        <v>181</v>
       </c>
       <c r="B117" s="10" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="C117" s="6" t="s">
         <v>12</v>
@@ -10753,10 +10833,10 @@
     </row>
     <row r="118" spans="1:8" ht="12.75">
       <c r="A118" s="6" t="s">
-        <v>174</v>
+        <v>181</v>
       </c>
       <c r="B118" s="10" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="C118" s="6" t="s">
         <v>12</v>
@@ -10773,10 +10853,10 @@
     </row>
     <row r="119" spans="1:8" ht="12.75">
       <c r="A119" s="6" t="s">
-        <v>174</v>
+        <v>181</v>
       </c>
       <c r="B119" s="10" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
       <c r="C119" s="6" t="s">
         <v>12</v>
@@ -10793,16 +10873,16 @@
     </row>
     <row r="120" spans="1:8" ht="12.75">
       <c r="A120" s="6" t="s">
-        <v>174</v>
+        <v>181</v>
       </c>
       <c r="B120" s="10" t="s">
-        <v>51</v>
+        <v>189</v>
       </c>
       <c r="C120" s="6" t="s">
         <v>12</v>
       </c>
       <c r="D120" s="6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E120" s="6" t="s">
         <v>10</v>
@@ -10813,16 +10893,16 @@
     </row>
     <row r="121" spans="1:8" ht="12.75">
       <c r="A121" s="6" t="s">
-        <v>174</v>
+        <v>181</v>
       </c>
       <c r="B121" s="10" t="s">
-        <v>184</v>
+        <v>54</v>
       </c>
       <c r="C121" s="6" t="s">
         <v>12</v>
       </c>
       <c r="D121" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E121" s="6" t="s">
         <v>10</v>
@@ -10833,10 +10913,10 @@
     </row>
     <row r="122" spans="1:8" ht="12.75">
       <c r="A122" s="6" t="s">
-        <v>174</v>
+        <v>181</v>
       </c>
       <c r="B122" s="10" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="C122" s="6" t="s">
         <v>12</v>
@@ -10853,10 +10933,10 @@
     </row>
     <row r="123" spans="1:8" ht="12.75">
       <c r="A123" s="6" t="s">
-        <v>174</v>
+        <v>181</v>
       </c>
       <c r="B123" s="10" t="s">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="C123" s="6" t="s">
         <v>12</v>
@@ -10873,10 +10953,10 @@
     </row>
     <row r="124" spans="1:8" ht="12.75">
       <c r="A124" s="6" t="s">
-        <v>174</v>
+        <v>181</v>
       </c>
       <c r="B124" s="10" t="s">
-        <v>187</v>
+        <v>192</v>
       </c>
       <c r="C124" s="6" t="s">
         <v>12</v>
@@ -10893,16 +10973,16 @@
     </row>
     <row r="125" spans="1:8" ht="12.75">
       <c r="A125" s="6" t="s">
-        <v>174</v>
+        <v>181</v>
       </c>
       <c r="B125" s="10" t="s">
-        <v>60</v>
+        <v>193</v>
       </c>
       <c r="C125" s="6" t="s">
         <v>12</v>
       </c>
       <c r="D125" s="6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E125" s="6" t="s">
         <v>10</v>
@@ -10913,16 +10993,16 @@
     </row>
     <row r="126" spans="1:8" ht="12.75">
       <c r="A126" s="6" t="s">
-        <v>174</v>
+        <v>181</v>
       </c>
       <c r="B126" s="10" t="s">
-        <v>188</v>
+        <v>64</v>
       </c>
       <c r="C126" s="6" t="s">
         <v>12</v>
       </c>
       <c r="D126" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E126" s="6" t="s">
         <v>10</v>
@@ -10933,10 +11013,10 @@
     </row>
     <row r="127" spans="1:8" ht="12.75">
       <c r="A127" s="6" t="s">
-        <v>174</v>
+        <v>181</v>
       </c>
       <c r="B127" s="10" t="s">
-        <v>189</v>
+        <v>194</v>
       </c>
       <c r="C127" s="6" t="s">
         <v>12</v>
@@ -10953,10 +11033,10 @@
     </row>
     <row r="128" spans="1:8" ht="12.75">
       <c r="A128" s="6" t="s">
-        <v>174</v>
+        <v>181</v>
       </c>
       <c r="B128" s="10" t="s">
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="C128" s="6" t="s">
         <v>12</v>
@@ -10973,10 +11053,10 @@
     </row>
     <row r="129" spans="1:8" ht="12.75">
       <c r="A129" s="6" t="s">
-        <v>174</v>
+        <v>181</v>
       </c>
       <c r="B129" s="10" t="s">
-        <v>191</v>
+        <v>196</v>
       </c>
       <c r="C129" s="6" t="s">
         <v>12</v>
@@ -10993,10 +11073,10 @@
     </row>
     <row r="130" spans="1:8" ht="12.75">
       <c r="A130" s="6" t="s">
-        <v>174</v>
+        <v>181</v>
       </c>
       <c r="B130" s="10" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="C130" s="6" t="s">
         <v>12</v>
@@ -11013,10 +11093,10 @@
     </row>
     <row r="131" spans="1:8" ht="12.75">
       <c r="A131" s="6" t="s">
-        <v>174</v>
+        <v>181</v>
       </c>
       <c r="B131" s="10" t="s">
-        <v>193</v>
+        <v>198</v>
       </c>
       <c r="C131" s="6" t="s">
         <v>12</v>
@@ -11033,10 +11113,10 @@
     </row>
     <row r="132" spans="1:8" ht="12.75">
       <c r="A132" s="6" t="s">
-        <v>174</v>
+        <v>181</v>
       </c>
       <c r="B132" s="10" t="s">
-        <v>194</v>
+        <v>199</v>
       </c>
       <c r="C132" s="6" t="s">
         <v>12</v>
@@ -11053,10 +11133,10 @@
     </row>
     <row r="133" spans="1:8" ht="12.75">
       <c r="A133" s="6" t="s">
-        <v>174</v>
+        <v>181</v>
       </c>
       <c r="B133" s="10" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="C133" s="6" t="s">
         <v>12</v>
@@ -11073,13 +11153,13 @@
     </row>
     <row r="134" spans="1:8" ht="12.75">
       <c r="A134" s="6" t="s">
-        <v>174</v>
+        <v>181</v>
       </c>
       <c r="B134" s="10" t="s">
-        <v>196</v>
+        <v>201</v>
       </c>
       <c r="C134" s="6" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D134" s="6" t="s">
         <v>10</v>
@@ -11093,16 +11173,16 @@
     </row>
     <row r="135" spans="1:8" ht="12.75">
       <c r="A135" s="6" t="s">
-        <v>174</v>
+        <v>181</v>
       </c>
       <c r="B135" s="10" t="s">
-        <v>67</v>
+        <v>202</v>
       </c>
       <c r="C135" s="6" t="s">
         <v>14</v>
       </c>
       <c r="D135" s="6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E135" s="6" t="s">
         <v>10</v>
@@ -11113,16 +11193,16 @@
     </row>
     <row r="136" spans="1:8" ht="12.75">
       <c r="A136" s="6" t="s">
-        <v>197</v>
+        <v>181</v>
       </c>
       <c r="B136" s="10" t="s">
-        <v>198</v>
+        <v>72</v>
       </c>
       <c r="C136" s="6" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D136" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E136" s="6" t="s">
         <v>10</v>
@@ -11133,16 +11213,16 @@
     </row>
     <row r="137" spans="1:8" ht="12.75">
       <c r="A137" s="6" t="s">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="B137" s="10" t="s">
-        <v>77</v>
+        <v>204</v>
       </c>
       <c r="C137" s="6" t="s">
         <v>12</v>
       </c>
       <c r="D137" s="6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E137" s="6" t="s">
         <v>10</v>
@@ -11153,10 +11233,10 @@
     </row>
     <row r="138" spans="1:8" ht="12.75">
       <c r="A138" s="6" t="s">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="B138" s="10" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="C138" s="6" t="s">
         <v>12</v>
@@ -11173,16 +11253,16 @@
     </row>
     <row r="139" spans="1:8" ht="12.75">
       <c r="A139" s="6" t="s">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="B139" s="10" t="s">
-        <v>199</v>
+        <v>85</v>
       </c>
       <c r="C139" s="6" t="s">
         <v>12</v>
       </c>
       <c r="D139" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E139" s="6" t="s">
         <v>10</v>
@@ -11193,10 +11273,10 @@
     </row>
     <row r="140" spans="1:8" ht="12.75">
       <c r="A140" s="6" t="s">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="B140" s="10" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="C140" s="6" t="s">
         <v>12</v>
@@ -11213,10 +11293,10 @@
     </row>
     <row r="141" spans="1:8" ht="12.75">
       <c r="A141" s="6" t="s">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="B141" s="10" t="s">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="C141" s="6" t="s">
         <v>12</v>
@@ -11233,16 +11313,16 @@
     </row>
     <row r="142" spans="1:8" ht="12.75">
       <c r="A142" s="6" t="s">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="B142" s="10" t="s">
-        <v>45</v>
+        <v>207</v>
       </c>
       <c r="C142" s="6" t="s">
         <v>12</v>
       </c>
       <c r="D142" s="6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E142" s="6" t="s">
         <v>10</v>
@@ -11253,16 +11333,16 @@
     </row>
     <row r="143" spans="1:8" ht="12.75">
       <c r="A143" s="6" t="s">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="B143" s="10" t="s">
-        <v>202</v>
+        <v>48</v>
       </c>
       <c r="C143" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D143" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E143" s="6" t="s">
         <v>10</v>
@@ -11273,16 +11353,16 @@
     </row>
     <row r="144" spans="1:8" ht="12.75">
       <c r="A144" s="6" t="s">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="B144" s="10" t="s">
-        <v>70</v>
+        <v>208</v>
       </c>
       <c r="C144" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D144" s="6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E144" s="6" t="s">
         <v>10</v>
@@ -11293,13 +11373,13 @@
     </row>
     <row r="145" spans="1:8" ht="12.75">
       <c r="A145" s="6" t="s">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="B145" s="10" t="s">
-        <v>24</v>
+        <v>76</v>
       </c>
       <c r="C145" s="6" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D145" s="6" t="s">
         <v>9</v>
@@ -11313,16 +11393,16 @@
     </row>
     <row r="146" spans="1:8" ht="12.75">
       <c r="A146" s="6" t="s">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="B146" s="10" t="s">
-        <v>203</v>
+        <v>26</v>
       </c>
       <c r="C146" s="6" t="s">
         <v>12</v>
       </c>
       <c r="D146" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E146" s="6" t="s">
         <v>10</v>
@@ -11333,10 +11413,10 @@
     </row>
     <row r="147" spans="1:8" ht="12.75">
       <c r="A147" s="6" t="s">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="B147" s="10" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="C147" s="6" t="s">
         <v>12</v>
@@ -11353,16 +11433,16 @@
     </row>
     <row r="148" spans="1:8" ht="12.75">
       <c r="A148" s="6" t="s">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="B148" s="10" t="s">
-        <v>36</v>
+        <v>210</v>
       </c>
       <c r="C148" s="6" t="s">
         <v>12</v>
       </c>
       <c r="D148" s="6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E148" s="6" t="s">
         <v>10</v>
@@ -11373,16 +11453,16 @@
     </row>
     <row r="149" spans="1:8" ht="12.75">
       <c r="A149" s="6" t="s">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="B149" s="10" t="s">
-        <v>205</v>
+        <v>38</v>
       </c>
       <c r="C149" s="6" t="s">
         <v>12</v>
       </c>
       <c r="D149" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E149" s="6" t="s">
         <v>10</v>
@@ -11393,10 +11473,10 @@
     </row>
     <row r="150" spans="1:8" ht="12.75">
       <c r="A150" s="6" t="s">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="B150" s="10" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="C150" s="6" t="s">
         <v>12</v>
@@ -11413,10 +11493,10 @@
     </row>
     <row r="151" spans="1:8" ht="12.75">
       <c r="A151" s="6" t="s">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="B151" s="10" t="s">
-        <v>207</v>
+        <v>212</v>
       </c>
       <c r="C151" s="6" t="s">
         <v>12</v>
@@ -11433,10 +11513,10 @@
     </row>
     <row r="152" spans="1:8" ht="12.75">
       <c r="A152" s="6" t="s">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="B152" s="10" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C152" s="6" t="s">
         <v>12</v>
@@ -11453,16 +11533,16 @@
     </row>
     <row r="153" spans="1:8" ht="12.75">
       <c r="A153" s="6" t="s">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="B153" s="10" t="s">
-        <v>208</v>
+        <v>61</v>
       </c>
       <c r="C153" s="6" t="s">
         <v>12</v>
       </c>
       <c r="D153" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E153" s="6" t="s">
         <v>10</v>
@@ -11473,10 +11553,10 @@
     </row>
     <row r="154" spans="1:8" ht="12.75">
       <c r="A154" s="6" t="s">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="B154" s="10" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="C154" s="6" t="s">
         <v>12</v>
@@ -11493,16 +11573,16 @@
     </row>
     <row r="155" spans="1:8" ht="12.75">
       <c r="A155" s="6" t="s">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="B155" s="10" t="s">
-        <v>210</v>
+        <v>77</v>
       </c>
       <c r="C155" s="6" t="s">
         <v>12</v>
       </c>
       <c r="D155" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E155" s="6" t="s">
         <v>10</v>
@@ -11513,10 +11593,10 @@
     </row>
     <row r="156" spans="1:8" ht="12.75">
       <c r="A156" s="6" t="s">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="B156" s="10" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="C156" s="6" t="s">
         <v>12</v>
@@ -11533,10 +11613,10 @@
     </row>
     <row r="157" spans="1:8" ht="12.75">
       <c r="A157" s="6" t="s">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="B157" s="10" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="C157" s="6" t="s">
         <v>12</v>
@@ -11553,10 +11633,10 @@
     </row>
     <row r="158" spans="1:8" ht="12.75">
       <c r="A158" s="6" t="s">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="B158" s="10" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="C158" s="6" t="s">
         <v>12</v>
@@ -11573,10 +11653,10 @@
     </row>
     <row r="159" spans="1:8" ht="12.75">
       <c r="A159" s="6" t="s">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="B159" s="10" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="C159" s="6" t="s">
         <v>12</v>
@@ -11593,13 +11673,13 @@
     </row>
     <row r="160" spans="1:8" ht="12.75">
       <c r="A160" s="6" t="s">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="B160" s="10" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="C160" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D160" s="6" t="s">
         <v>10</v>
@@ -11613,13 +11693,13 @@
     </row>
     <row r="161" spans="1:8" ht="12.75">
       <c r="A161" s="6" t="s">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="B161" s="10" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="C161" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D161" s="6" t="s">
         <v>10</v>
@@ -11633,16 +11713,16 @@
     </row>
     <row r="162" spans="1:8" ht="12.75">
       <c r="A162" s="6" t="s">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="B162" s="10" t="s">
-        <v>61</v>
+        <v>220</v>
       </c>
       <c r="C162" s="6" t="s">
         <v>14</v>
       </c>
       <c r="D162" s="6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E162" s="6" t="s">
         <v>10</v>
@@ -11653,10 +11733,10 @@
     </row>
     <row r="163" spans="1:8" ht="12.75">
       <c r="A163" s="6" t="s">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="B163" s="10" t="s">
-        <v>82</v>
+        <v>65</v>
       </c>
       <c r="C163" s="6" t="s">
         <v>14</v>
@@ -11673,16 +11753,16 @@
     </row>
     <row r="164" spans="1:8" ht="12.75">
       <c r="A164" s="6" t="s">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="B164" s="10" t="s">
-        <v>217</v>
+        <v>89</v>
       </c>
       <c r="C164" s="6" t="s">
         <v>14</v>
       </c>
       <c r="D164" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E164" s="6" t="s">
         <v>10</v>
@@ -11693,16 +11773,16 @@
     </row>
     <row r="165" spans="1:8" ht="12.75">
       <c r="A165" s="6" t="s">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="B165" s="10" t="s">
-        <v>68</v>
+        <v>221</v>
       </c>
       <c r="C165" s="6" t="s">
         <v>14</v>
       </c>
       <c r="D165" s="6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E165" s="6" t="s">
         <v>10</v>
@@ -11713,16 +11793,16 @@
     </row>
     <row r="166" spans="1:8" ht="12.75">
       <c r="A166" s="6" t="s">
-        <v>218</v>
+        <v>203</v>
       </c>
       <c r="B166" s="10" t="s">
-        <v>219</v>
+        <v>74</v>
       </c>
       <c r="C166" s="6" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D166" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E166" s="6" t="s">
         <v>10</v>
@@ -11733,16 +11813,16 @@
     </row>
     <row r="167" spans="1:8" ht="12.75">
       <c r="A167" s="6" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="B167" s="10" t="s">
-        <v>220</v>
+        <v>23</v>
       </c>
       <c r="C167" s="6" t="s">
         <v>12</v>
       </c>
       <c r="D167" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E167" s="6" t="s">
         <v>10</v>
@@ -11753,10 +11833,10 @@
     </row>
     <row r="168" spans="1:8" ht="12.75">
       <c r="A168" s="6" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="B168" s="10" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="C168" s="6" t="s">
         <v>12</v>
@@ -11773,10 +11853,10 @@
     </row>
     <row r="169" spans="1:8" ht="12.75">
       <c r="A169" s="6" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="B169" s="10" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="C169" s="6" t="s">
         <v>12</v>
@@ -11793,10 +11873,10 @@
     </row>
     <row r="170" spans="1:8" ht="12.75">
       <c r="A170" s="6" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="B170" s="10" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="C170" s="6" t="s">
         <v>12</v>
@@ -11813,10 +11893,10 @@
     </row>
     <row r="171" spans="1:8" ht="12.75">
       <c r="A171" s="6" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="B171" s="10" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="C171" s="6" t="s">
         <v>12</v>
@@ -11833,16 +11913,16 @@
     </row>
     <row r="172" spans="1:8" ht="12.75">
       <c r="A172" s="6" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="B172" s="10" t="s">
-        <v>39</v>
+        <v>227</v>
       </c>
       <c r="C172" s="6" t="s">
         <v>12</v>
       </c>
       <c r="D172" s="6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E172" s="6" t="s">
         <v>10</v>
@@ -11853,16 +11933,16 @@
     </row>
     <row r="173" spans="1:8" ht="12.75">
       <c r="A173" s="6" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="B173" s="10" t="s">
-        <v>225</v>
+        <v>41</v>
       </c>
       <c r="C173" s="6" t="s">
         <v>12</v>
       </c>
       <c r="D173" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E173" s="6" t="s">
         <v>10</v>
@@ -11873,10 +11953,10 @@
     </row>
     <row r="174" spans="1:8" ht="12.75">
       <c r="A174" s="6" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="B174" s="10" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="C174" s="6" t="s">
         <v>12</v>
@@ -11893,10 +11973,10 @@
     </row>
     <row r="175" spans="1:8" ht="12.75">
       <c r="A175" s="6" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="B175" s="10" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="C175" s="6" t="s">
         <v>12</v>
@@ -11913,10 +11993,10 @@
     </row>
     <row r="176" spans="1:8" ht="12.75">
       <c r="A176" s="6" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="B176" s="10" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="C176" s="6" t="s">
         <v>12</v>
@@ -11933,10 +12013,10 @@
     </row>
     <row r="177" spans="1:8" ht="12.75">
       <c r="A177" s="6" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="B177" s="10" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="C177" s="6" t="s">
         <v>12</v>
@@ -11953,10 +12033,10 @@
     </row>
     <row r="178" spans="1:8" ht="12.75">
       <c r="A178" s="6" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="B178" s="10" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="C178" s="6" t="s">
         <v>12</v>
@@ -11973,16 +12053,16 @@
     </row>
     <row r="179" spans="1:8" ht="12.75">
       <c r="A179" s="6" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="B179" s="10" t="s">
-        <v>230</v>
+        <v>71</v>
       </c>
       <c r="C179" s="6" t="s">
         <v>12</v>
       </c>
       <c r="D179" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E179" s="6" t="s">
         <v>10</v>
@@ -11993,10 +12073,10 @@
     </row>
     <row r="180" spans="1:8" ht="12.75">
       <c r="A180" s="6" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="B180" s="10" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="C180" s="6" t="s">
         <v>12</v>
@@ -12013,10 +12093,10 @@
     </row>
     <row r="181" spans="1:8" ht="12.75">
       <c r="A181" s="6" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="B181" s="10" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="C181" s="6" t="s">
         <v>12</v>
@@ -12033,13 +12113,13 @@
     </row>
     <row r="182" spans="1:8" ht="12.75">
       <c r="A182" s="6" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="B182" s="10" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="C182" s="6" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D182" s="6" t="s">
         <v>10</v>
@@ -12053,10 +12133,10 @@
     </row>
     <row r="183" spans="1:8" ht="12.75">
       <c r="A183" s="6" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="B183" s="10" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="C183" s="6" t="s">
         <v>14</v>
@@ -12073,16 +12153,16 @@
     </row>
     <row r="184" spans="1:8" ht="12.75">
       <c r="A184" s="6" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="B184" s="10" t="s">
-        <v>79</v>
+        <v>236</v>
       </c>
       <c r="C184" s="6" t="s">
         <v>14</v>
       </c>
       <c r="D184" s="6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E184" s="6" t="s">
         <v>10</v>
@@ -12093,16 +12173,16 @@
     </row>
     <row r="185" spans="1:8" ht="12.75">
       <c r="A185" s="6" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="B185" s="10" t="s">
-        <v>235</v>
+        <v>86</v>
       </c>
       <c r="C185" s="6" t="s">
         <v>14</v>
       </c>
       <c r="D185" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E185" s="6" t="s">
         <v>10</v>
@@ -12113,13 +12193,13 @@
     </row>
     <row r="186" spans="1:8" ht="12.75">
       <c r="A186" s="6" t="s">
-        <v>236</v>
+        <v>222</v>
       </c>
       <c r="B186" s="10" t="s">
         <v>237</v>
       </c>
       <c r="C186" s="6" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D186" s="6" t="s">
         <v>10</v>
@@ -12133,16 +12213,16 @@
     </row>
     <row r="187" spans="1:8" ht="12.75">
       <c r="A187" s="6" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="B187" s="10" t="s">
-        <v>72</v>
+        <v>239</v>
       </c>
       <c r="C187" s="6" t="s">
         <v>12</v>
       </c>
       <c r="D187" s="6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E187" s="6" t="s">
         <v>10</v>
@@ -12153,16 +12233,16 @@
     </row>
     <row r="188" spans="1:8" ht="12.75">
       <c r="A188" s="6" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="B188" s="10" t="s">
-        <v>238</v>
+        <v>79</v>
       </c>
       <c r="C188" s="6" t="s">
         <v>12</v>
       </c>
       <c r="D188" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E188" s="6" t="s">
         <v>10</v>
@@ -12173,10 +12253,10 @@
     </row>
     <row r="189" spans="1:8" ht="12.75">
       <c r="A189" s="6" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="B189" s="10" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C189" s="6" t="s">
         <v>12</v>
@@ -12193,10 +12273,10 @@
     </row>
     <row r="190" spans="1:8" ht="12.75">
       <c r="A190" s="6" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="B190" s="10" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="C190" s="6" t="s">
         <v>12</v>
@@ -12213,10 +12293,10 @@
     </row>
     <row r="191" spans="1:8" ht="12.75">
       <c r="A191" s="6" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="B191" s="10" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="C191" s="6" t="s">
         <v>12</v>
@@ -12233,16 +12313,16 @@
     </row>
     <row r="192" spans="1:8" ht="12.75">
       <c r="A192" s="6" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="B192" s="10" t="s">
-        <v>30</v>
+        <v>243</v>
       </c>
       <c r="C192" s="6" t="s">
         <v>12</v>
       </c>
       <c r="D192" s="6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E192" s="6" t="s">
         <v>10</v>
@@ -12253,16 +12333,16 @@
     </row>
     <row r="193" spans="1:8" ht="12.75">
       <c r="A193" s="6" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="B193" s="10" t="s">
-        <v>242</v>
+        <v>32</v>
       </c>
       <c r="C193" s="6" t="s">
         <v>12</v>
       </c>
       <c r="D193" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E193" s="6" t="s">
         <v>10</v>
@@ -12273,16 +12353,16 @@
     </row>
     <row r="194" spans="1:8" ht="12.75">
       <c r="A194" s="6" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="B194" s="10" t="s">
-        <v>63</v>
+        <v>244</v>
       </c>
       <c r="C194" s="6" t="s">
         <v>12</v>
       </c>
       <c r="D194" s="6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E194" s="6" t="s">
         <v>10</v>
@@ -12293,10 +12373,10 @@
     </row>
     <row r="195" spans="1:8" ht="12.75">
       <c r="A195" s="6" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="B195" s="10" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C195" s="6" t="s">
         <v>12</v>
@@ -12313,16 +12393,16 @@
     </row>
     <row r="196" spans="1:8" ht="12.75">
       <c r="A196" s="6" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="B196" s="10" t="s">
-        <v>243</v>
+        <v>69</v>
       </c>
       <c r="C196" s="6" t="s">
         <v>12</v>
       </c>
       <c r="D196" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E196" s="6" t="s">
         <v>10</v>
@@ -12333,10 +12413,10 @@
     </row>
     <row r="197" spans="1:8" ht="12.75">
       <c r="A197" s="6" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="B197" s="10" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="C197" s="6" t="s">
         <v>12</v>
@@ -12353,16 +12433,16 @@
     </row>
     <row r="198" spans="1:8" ht="12.75">
       <c r="A198" s="6" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="B198" s="10" t="s">
-        <v>245</v>
+        <v>45</v>
       </c>
       <c r="C198" s="6" t="s">
         <v>12</v>
       </c>
       <c r="D198" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E198" s="6" t="s">
         <v>10</v>
@@ -12373,13 +12453,13 @@
     </row>
     <row r="199" spans="1:8" ht="12.75">
       <c r="A199" s="6" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="B199" s="10" t="s">
         <v>246</v>
       </c>
       <c r="C199" s="6" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D199" s="6" t="s">
         <v>10</v>
@@ -12391,18 +12471,18 @@
       <c r="G199" s="6"/>
       <c r="H199" s="6"/>
     </row>
-    <row r="200" spans="1:8" ht="24">
+    <row r="200" spans="1:8" ht="12.75">
       <c r="A200" s="6" t="s">
+        <v>238</v>
+      </c>
+      <c r="B200" s="10" t="s">
         <v>247</v>
       </c>
-      <c r="B200" s="10" t="s">
-        <v>35</v>
-      </c>
       <c r="C200" s="6" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D200" s="6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E200" s="6" t="s">
         <v>10</v>
@@ -12413,10 +12493,10 @@
     </row>
     <row r="201" spans="1:8" ht="24">
       <c r="A201" s="6" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="B201" s="10" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="C201" s="6" t="s">
         <v>12</v>
@@ -12433,10 +12513,10 @@
     </row>
     <row r="202" spans="1:8" ht="24">
       <c r="A202" s="6" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="B202" s="10" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C202" s="6" t="s">
         <v>12</v>
@@ -12453,10 +12533,10 @@
     </row>
     <row r="203" spans="1:8" ht="24">
       <c r="A203" s="6" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="B203" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="C203" s="6" t="s">
         <v>12</v>
@@ -12473,10 +12553,10 @@
     </row>
     <row r="204" spans="1:8" ht="24">
       <c r="A204" s="6" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="B204" s="10" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C204" s="6" t="s">
         <v>12</v>
@@ -12493,10 +12573,10 @@
     </row>
     <row r="205" spans="1:8" ht="24">
       <c r="A205" s="6" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="B205" s="10" t="s">
-        <v>76</v>
+        <v>62</v>
       </c>
       <c r="C205" s="6" t="s">
         <v>12</v>
@@ -12513,10 +12593,10 @@
     </row>
     <row r="206" spans="1:8" ht="24">
       <c r="A206" s="6" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="B206" s="10" t="s">
-        <v>50</v>
+        <v>83</v>
       </c>
       <c r="C206" s="6" t="s">
         <v>12</v>
@@ -12533,10 +12613,10 @@
     </row>
     <row r="207" spans="1:8" ht="24">
       <c r="A207" s="6" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="B207" s="10" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="C207" s="6" t="s">
         <v>12</v>
@@ -12553,16 +12633,16 @@
     </row>
     <row r="208" spans="1:8" ht="24">
       <c r="A208" s="6" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="B208" s="10" t="s">
-        <v>248</v>
+        <v>66</v>
       </c>
       <c r="C208" s="6" t="s">
         <v>12</v>
       </c>
       <c r="D208" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E208" s="6" t="s">
         <v>10</v>
@@ -12573,13 +12653,13 @@
     </row>
     <row r="209" spans="1:8" ht="24">
       <c r="A209" s="6" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="B209" s="10" t="s">
         <v>249</v>
       </c>
       <c r="C209" s="6" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D209" s="6" t="s">
         <v>10</v>
@@ -12593,16 +12673,16 @@
     </row>
     <row r="210" spans="1:8" ht="24">
       <c r="A210" s="6" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="B210" s="10" t="s">
-        <v>56</v>
+        <v>250</v>
       </c>
       <c r="C210" s="6" t="s">
         <v>14</v>
       </c>
       <c r="D210" s="6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E210" s="6" t="s">
         <v>10</v>
@@ -12613,10 +12693,10 @@
     </row>
     <row r="211" spans="1:8" ht="24">
       <c r="A211" s="6" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="B211" s="10" t="s">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="C211" s="6" t="s">
         <v>14</v>
@@ -12633,16 +12713,16 @@
     </row>
     <row r="212" spans="1:8" ht="24">
       <c r="A212" s="6" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="B212" s="10" t="s">
-        <v>250</v>
+        <v>87</v>
       </c>
       <c r="C212" s="6" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D212" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E212" s="6" t="s">
         <v>10</v>
@@ -12653,16 +12733,16 @@
     </row>
     <row r="213" spans="1:8" ht="24">
       <c r="A213" s="6" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="B213" s="10" t="s">
-        <v>25</v>
+        <v>251</v>
       </c>
       <c r="C213" s="6" t="s">
         <v>12</v>
       </c>
       <c r="D213" s="6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E213" s="6" t="s">
         <v>10</v>
@@ -12673,10 +12753,10 @@
     </row>
     <row r="214" spans="1:8" ht="24">
       <c r="A214" s="6" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="B214" s="10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C214" s="6" t="s">
         <v>12</v>
@@ -12693,16 +12773,16 @@
     </row>
     <row r="215" spans="1:8" ht="24">
       <c r="A215" s="6" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="B215" s="10" t="s">
-        <v>251</v>
+        <v>28</v>
       </c>
       <c r="C215" s="6" t="s">
         <v>12</v>
       </c>
       <c r="D215" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E215" s="6" t="s">
         <v>10</v>
@@ -12713,16 +12793,16 @@
     </row>
     <row r="216" spans="1:8" ht="24">
       <c r="A216" s="6" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="B216" s="10" t="s">
-        <v>46</v>
+        <v>252</v>
       </c>
       <c r="C216" s="6" t="s">
         <v>12</v>
       </c>
       <c r="D216" s="6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E216" s="6" t="s">
         <v>10</v>
@@ -12733,16 +12813,16 @@
     </row>
     <row r="217" spans="1:8" ht="24">
       <c r="A217" s="6" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="B217" s="10" t="s">
-        <v>252</v>
+        <v>49</v>
       </c>
       <c r="C217" s="6" t="s">
         <v>12</v>
       </c>
       <c r="D217" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E217" s="6" t="s">
         <v>10</v>
@@ -12753,13 +12833,13 @@
     </row>
     <row r="218" spans="1:8" ht="24">
       <c r="A218" s="6" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="B218" s="10" t="s">
         <v>253</v>
       </c>
       <c r="C218" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D218" s="6" t="s">
         <v>10</v>
@@ -12771,15 +12851,25 @@
       <c r="G218" s="6"/>
       <c r="H218" s="6"/>
     </row>
-    <row r="219" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A219" s="9"/>
-      <c r="B219" s="9"/>
-      <c r="C219" s="9"/>
-      <c r="D219" s="9"/>
-      <c r="E219" s="9"/>
-      <c r="F219" s="9"/>
-      <c r="G219" s="9"/>
-      <c r="H219" s="9"/>
+    <row r="219" spans="1:8" ht="24">
+      <c r="A219" s="6" t="s">
+        <v>248</v>
+      </c>
+      <c r="B219" s="10" t="s">
+        <v>254</v>
+      </c>
+      <c r="C219" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D219" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E219" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F219" s="6"/>
+      <c r="G219" s="6"/>
+      <c r="H219" s="6"/>
     </row>
     <row r="220" spans="1:8" ht="15.75" customHeight="1">
       <c r="A220" s="9"/>
@@ -12871,10 +12961,20 @@
       <c r="G228" s="9"/>
       <c r="H228" s="9"/>
     </row>
+    <row r="229" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A229" s="9"/>
+      <c r="B229" s="9"/>
+      <c r="C229" s="9"/>
+      <c r="D229" s="9"/>
+      <c r="E229" s="9"/>
+      <c r="F229" s="9"/>
+      <c r="G229" s="9"/>
+      <c r="H229" s="9"/>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:AA218" xr:uid="{00000000-0009-0000-0000-000002000000}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:AA218">
-      <sortCondition ref="A1:A218"/>
+  <autoFilter ref="A1:AA219" xr:uid="{00000000-0009-0000-0000-000002000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:AA219">
+      <sortCondition ref="A1:A219"/>
     </sortState>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -12896,7 +12996,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>F2:F218</xm:sqref>
+          <xm:sqref>F2:F219</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="containsText" priority="2" operator="containsText" id="{823A311E-AD2D-4D47-B0E7-1F7D7567FD0C}">
@@ -12913,7 +13013,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>F2:F218</xm:sqref>
+          <xm:sqref>F2:F219</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="containsText" priority="3" operator="containsText" id="{224F3964-461E-4A99-8F3D-BDD7D17F31F6}">
@@ -12930,7 +13030,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>D2:E218</xm:sqref>
+          <xm:sqref>D2:E219</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="containsText" priority="4" operator="containsText" id="{3823E2ED-8648-4F27-B00F-7516C7AA65D5}">
@@ -12947,7 +13047,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>D2:E218</xm:sqref>
+          <xm:sqref>D2:E219</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
@@ -12956,6 +13056,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101003029BB8E3779674C990F1B9EC9E2DCF0" ma:contentTypeVersion="10" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="17d37b6f0a7ebc36d8ff694060c48d05">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="f764b324-afff-45d0-a2e4-4747da733eb8" xmlns:ns3="ee88558a-8df4-4dc2-8278-52d7053ebc22" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="35a8897b814d0866434edd98440a1149" ns2:_="" ns3:_="">
     <xsd:import namespace="f764b324-afff-45d0-a2e4-4747da733eb8"/>
@@ -13158,19 +13267,10 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DADF0DE3-9784-4AC9-B75F-310B2284335C}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E29D765D-4147-4E02-9389-F8AD9FC914AC}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E29D765D-4147-4E02-9389-F8AD9FC914AC}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DADF0DE3-9784-4AC9-B75F-310B2284335C}"/>
 </file>
--- a/docs/assets/files/business-change/Transition live tracker (2).xlsx
+++ b/docs/assets/files/business-change/Transition live tracker (2).xlsx
@@ -1,27 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22311"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22313"/>
   <workbookPr hidePivotFieldList="1" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TempUserProfiles\NetworkService\AppData\OICE_16_974FA576_32C1D314_3B31\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3463B6AE-BFA1-4D0E-AB84-179C4E9A851F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{BDDD5497-D4BF-42FC-8CC8-11816CDE22C2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="15600" windowHeight="11760" firstSheet="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="15600" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Dashboard" sheetId="4" r:id="rId1"/>
     <sheet name="Details" sheetId="3" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Details!$A$1:$AA$219</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Details!$A$1:$AA$220</definedName>
   </definedNames>
   <calcPr calcId="191028" calcCompleted="0"/>
   <pivotCaches>
-    <pivotCache cacheId="7522" r:id="rId3"/>
+    <pivotCache cacheId="4351" r:id="rId3"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1214" uniqueCount="255">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1238" uniqueCount="256">
   <si>
     <t>SANDBOX = TESTING ENVIRONMENT</t>
   </si>
@@ -103,33 +103,54 @@
     <t>Balfour Beatty</t>
   </si>
   <si>
+    <t>Barking and Dagenham London Borough Council</t>
+  </si>
+  <si>
     <t>Barnet London Borough Council</t>
   </si>
   <si>
     <t>Bath and North East Somerset Council</t>
   </si>
   <si>
+    <t>Bexley London Borough Council</t>
+  </si>
+  <si>
     <t>Blackburn with Darwen Borough Council</t>
   </si>
   <si>
     <t>Bolton Metropolitan Borough Council</t>
   </si>
   <si>
+    <t>Bournemouth Borough Council</t>
+  </si>
+  <si>
     <t>Bracknell Forest Borough Council</t>
   </si>
   <si>
     <t>Bradford Metropolitan District Council</t>
   </si>
   <si>
+    <t>BT Open Reach</t>
+  </si>
+  <si>
+    <t>Cadent Gas</t>
+  </si>
+  <si>
     <t>Calderdale Metropolitan Borough Council</t>
   </si>
   <si>
+    <t>Cambridge Water Company</t>
+  </si>
+  <si>
     <t>Cambridgeshire County Council</t>
   </si>
   <si>
     <t>Camden London Borough Council</t>
   </si>
   <si>
+    <t>City fibre</t>
+  </si>
+  <si>
     <t>City of London Borough Council</t>
   </si>
   <si>
@@ -148,9 +169,15 @@
     <t>Derbyshire County Council</t>
   </si>
   <si>
+    <t>Devon County Council</t>
+  </si>
+  <si>
     <t>Doncaster Metropolitan Borough Council</t>
   </si>
   <si>
+    <t>Ealing London Borough Council</t>
+  </si>
+  <si>
     <t>East Sussex County Council</t>
   </si>
   <si>
@@ -160,6 +187,9 @@
     <t>Essex County Council</t>
   </si>
   <si>
+    <t>FM Conway</t>
+  </si>
+  <si>
     <t>Gloucestershire County Council</t>
   </si>
   <si>
@@ -172,6 +202,9 @@
     <t>Hammersmith and Fulham London Borough Council</t>
   </si>
   <si>
+    <t>Hartlepool Borough Council</t>
+  </si>
+  <si>
     <t>Herefordshire County Council</t>
   </si>
   <si>
@@ -181,6 +214,9 @@
     <t>Hounslow London Borough Council</t>
   </si>
   <si>
+    <t>HS2</t>
+  </si>
+  <si>
     <t>Kent County Council</t>
   </si>
   <si>
@@ -190,6 +226,9 @@
     <t>Lambeth London Borough Council</t>
   </si>
   <si>
+    <t>Lancashire County Council</t>
+  </si>
+  <si>
     <t>Leeds City Council</t>
   </si>
   <si>
@@ -220,6 +259,12 @@
     <t>Northern Power grid</t>
   </si>
   <si>
+    <t>Northumbrian Water</t>
+  </si>
+  <si>
+    <t>Nottingham City Council</t>
+  </si>
+  <si>
     <t>Portsmouth Water</t>
   </si>
   <si>
@@ -229,12 +274,18 @@
     <t>Royal Borough of Kensington and Chelsea</t>
   </si>
   <si>
+    <t>Salford City Council</t>
+  </si>
+  <si>
     <t>Sefton Council</t>
   </si>
   <si>
     <t>SES Water</t>
   </si>
   <si>
+    <t>SGN </t>
+  </si>
+  <si>
     <t>Sheffield City Council</t>
   </si>
   <si>
@@ -259,6 +310,9 @@
     <t>South Tyneside Metropolitan Borough Council</t>
   </si>
   <si>
+    <t>Southampton City Council</t>
+  </si>
+  <si>
     <t>Southern Water</t>
   </si>
   <si>
@@ -274,6 +328,9 @@
     <t>Thames Water</t>
   </si>
   <si>
+    <t>Transport for London</t>
+  </si>
+  <si>
     <t>Transport for West Midlands (TFWM)</t>
   </si>
   <si>
@@ -289,6 +346,9 @@
     <t>Wakefield Metropolitan District Council</t>
   </si>
   <si>
+    <t>Waltham Forest London Borough Council</t>
+  </si>
+  <si>
     <t>West Berkshire Council</t>
   </si>
   <si>
@@ -298,18 +358,15 @@
     <t>Western Power</t>
   </si>
   <si>
+    <t>Wirral Metropolitan Borough Council</t>
+  </si>
+  <si>
+    <t>Worcestershire County Council</t>
+  </si>
+  <si>
     <t>Yorkshire Water</t>
   </si>
   <si>
-    <t>BT Open Reach</t>
-  </si>
-  <si>
-    <t>SGN </t>
-  </si>
-  <si>
-    <t>Cambridge Water Company</t>
-  </si>
-  <si>
     <t>Organisation Name</t>
   </si>
   <si>
@@ -328,6 +385,12 @@
     <t>Anglia</t>
   </si>
   <si>
+    <t>Affinity Water</t>
+  </si>
+  <si>
+    <t>Anglian Water</t>
+  </si>
+  <si>
     <t>Bedford Borough Council</t>
   </si>
   <si>
@@ -343,18 +406,12 @@
     <t>Southend on Sea Borough Council</t>
   </si>
   <si>
+    <t>Suffolk County Council</t>
+  </si>
+  <si>
     <t>Thurrock Borough Council</t>
   </si>
   <si>
-    <t>Suffolk County Council</t>
-  </si>
-  <si>
-    <t>Affinity Water</t>
-  </si>
-  <si>
-    <t>Anglian Water</t>
-  </si>
-  <si>
     <t>East Midlands</t>
   </si>
   <si>
@@ -364,45 +421,36 @@
     <t>Northamptonshire County Council</t>
   </si>
   <si>
-    <t>Nottingham City Council</t>
-  </si>
-  <si>
     <t>Nottinghamshire County Council</t>
   </si>
   <si>
+    <t>Peterborough Council</t>
+  </si>
+  <si>
     <t>Rutland County Council</t>
   </si>
   <si>
-    <t>Peterborough Council</t>
-  </si>
-  <si>
     <t>London</t>
   </si>
   <si>
-    <t>Barking and Dagenham London Borough Council</t>
+    <t>Brent London Borough Council</t>
   </si>
   <si>
     <t>Bromley London Borough Council</t>
   </si>
   <si>
+    <t>Haringey London Borough Council</t>
+  </si>
+  <si>
+    <t>Havering London Borough Council</t>
+  </si>
+  <si>
+    <t>Hillingdon London Borough Council</t>
+  </si>
+  <si>
     <t>Islington London Borough Council</t>
   </si>
   <si>
-    <t>Transport for London</t>
-  </si>
-  <si>
-    <t>Ealing London Borough Council</t>
-  </si>
-  <si>
-    <t>Haringey London Borough Council</t>
-  </si>
-  <si>
-    <t>Havering London Borough Council</t>
-  </si>
-  <si>
-    <t>Hillingdon London Borough Council</t>
-  </si>
-  <si>
     <t>Kingston upon Thames Royal Borough Council</t>
   </si>
   <si>
@@ -430,33 +478,42 @@
     <t>Tower Hamlets London Borough Council</t>
   </si>
   <si>
-    <t>Waltham Forest London Borough Council</t>
-  </si>
-  <si>
     <t>Wandsworth London Borough Council</t>
   </si>
   <si>
     <t>Westminster City Council</t>
   </si>
   <si>
-    <t>Bexley London Borough Council</t>
-  </si>
-  <si>
-    <t>Brent London Borough Council</t>
-  </si>
-  <si>
     <t>Multi-region</t>
   </si>
   <si>
+    <t>A+one</t>
+  </si>
+  <si>
     <t>Amey</t>
   </si>
   <si>
+    <t>AMX solutions</t>
+  </si>
+  <si>
+    <t>CastellNet</t>
+  </si>
+  <si>
+    <t>Century link</t>
+  </si>
+  <si>
     <t>Colas</t>
   </si>
   <si>
+    <t>Community fibre</t>
+  </si>
+  <si>
     <t>Eurovia</t>
   </si>
   <si>
+    <t>Fastflow</t>
+  </si>
+  <si>
     <t>Fisher German LLP</t>
   </si>
   <si>
@@ -472,6 +529,9 @@
     <t>John Henry Group</t>
   </si>
   <si>
+    <t>Kier Telecoms</t>
+  </si>
+  <si>
     <t>KN Group</t>
   </si>
   <si>
@@ -481,45 +541,18 @@
     <t>Roadzwork</t>
   </si>
   <si>
+    <t>Severn Trent Water</t>
+  </si>
+  <si>
+    <t>SSEN - Scottish and Southern Energy Networks</t>
+  </si>
+  <si>
     <t>Tarmac</t>
   </si>
   <si>
     <t>Telent Infrastructure Services</t>
   </si>
   <si>
-    <t>A+one</t>
-  </si>
-  <si>
-    <t>Cadent Gas</t>
-  </si>
-  <si>
-    <t>CastellNet</t>
-  </si>
-  <si>
-    <t>Century link</t>
-  </si>
-  <si>
-    <t>City fibre</t>
-  </si>
-  <si>
-    <t>AMX solutions</t>
-  </si>
-  <si>
-    <t>Community fibre</t>
-  </si>
-  <si>
-    <t>Fastflow</t>
-  </si>
-  <si>
-    <t>Kier Telecoms</t>
-  </si>
-  <si>
-    <t>Severn Trent Water</t>
-  </si>
-  <si>
-    <t>SSEN - Scottish and Southern Energy Networks</t>
-  </si>
-  <si>
     <t>United Utilities</t>
   </si>
   <si>
@@ -544,27 +577,24 @@
     <t>North East</t>
   </si>
   <si>
+    <t>Durham County Council</t>
+  </si>
+  <si>
+    <t>Gateshead Metropolitan Borough Council</t>
+  </si>
+  <si>
+    <t>Middlesbrough Council</t>
+  </si>
+  <si>
+    <t>Newcastle Upon Tyne City Council</t>
+  </si>
+  <si>
     <t>North East Lincolnshire Council</t>
   </si>
   <si>
     <t>North Tyneside Metropolitan Borough Council</t>
   </si>
   <si>
-    <t>Durham County Council</t>
-  </si>
-  <si>
-    <t>Gateshead Metropolitan Borough Council</t>
-  </si>
-  <si>
-    <t>Hartlepool Borough Council</t>
-  </si>
-  <si>
-    <t>Middlesbrough Council</t>
-  </si>
-  <si>
-    <t>Newcastle Upon Tyne City Council</t>
-  </si>
-  <si>
     <t>Northumberland County Council</t>
   </si>
   <si>
@@ -577,9 +607,6 @@
     <t>Sunderland City Council</t>
   </si>
   <si>
-    <t>Northumbrian Water</t>
-  </si>
-  <si>
     <t>North West</t>
   </si>
   <si>
@@ -598,39 +625,36 @@
     <t>Cumbria County Council</t>
   </si>
   <si>
+    <t>Electricity North West</t>
+  </si>
+  <si>
     <t>Halton Borough Council</t>
   </si>
   <si>
     <t>Knowsley Metropolitan Borough Council</t>
   </si>
   <si>
-    <t>Lancashire County Council</t>
-  </si>
-  <si>
     <t>Oldham Metropolitan Borough Council</t>
   </si>
   <si>
+    <t>Rochdale Metropolitan Borough Council</t>
+  </si>
+  <si>
+    <t>St Helens Metropolitan Borough Council</t>
+  </si>
+  <si>
+    <t>Staffordshire County Council</t>
+  </si>
+  <si>
+    <t>Stockport Metropolitan Borough Council</t>
+  </si>
+  <si>
+    <t>Tameside Metropolitan Borough Council</t>
+  </si>
+  <si>
     <t>Trafford Council</t>
   </si>
   <si>
-    <t>Rochdale Metropolitan Borough Council</t>
-  </si>
-  <si>
-    <t>Salford City Council</t>
-  </si>
-  <si>
-    <t>St Helens Metropolitan Borough Council</t>
-  </si>
-  <si>
-    <t>Staffordshire County Council</t>
-  </si>
-  <si>
-    <t>Stockport Metropolitan Borough Council</t>
-  </si>
-  <si>
-    <t>Tameside Metropolitan Borough Council</t>
-  </si>
-  <si>
     <t>Transport for Greater Manchester</t>
   </si>
   <si>
@@ -640,84 +664,69 @@
     <t>Wigan Metropolitan Borough Council</t>
   </si>
   <si>
-    <t>Wirral Metropolitan Borough Council</t>
-  </si>
-  <si>
-    <t>Electricity North West</t>
-  </si>
-  <si>
     <t>South East</t>
   </si>
   <si>
+    <t>Brighton &amp; Hove City Council</t>
+  </si>
+  <si>
+    <t>Buckinghamshire County Council</t>
+  </si>
+  <si>
+    <t>Hampshire County Council</t>
+  </si>
+  <si>
     <t>Island Roads</t>
   </si>
   <si>
+    <t>Isle of Wight Council</t>
+  </si>
+  <si>
+    <t>Medway Council</t>
+  </si>
+  <si>
+    <t>Open Road Associates</t>
+  </si>
+  <si>
+    <t>Oxfordshire County Council</t>
+  </si>
+  <si>
+    <t>Portsmouth City Council</t>
+  </si>
+  <si>
+    <t>Reading Borough Council</t>
+  </si>
+  <si>
+    <t>Ringway Island Roads Ltd</t>
+  </si>
+  <si>
+    <t>Slough Borough Council</t>
+  </si>
+  <si>
+    <t>South East Water</t>
+  </si>
+  <si>
+    <t>Transport for Bucks</t>
+  </si>
+  <si>
     <t>Windsor and Maidenhead Royal Borough Council</t>
   </si>
   <si>
     <t>Wokingham Borough Council</t>
   </si>
   <si>
-    <t>Southampton City Council</t>
-  </si>
-  <si>
-    <t>FM Conway</t>
-  </si>
-  <si>
-    <t>Brighton &amp; Hove City Council</t>
-  </si>
-  <si>
-    <t>Buckinghamshire County Council</t>
-  </si>
-  <si>
-    <t>Hampshire County Council</t>
-  </si>
-  <si>
-    <t>Medway Council</t>
-  </si>
-  <si>
-    <t>Slough Borough Council</t>
-  </si>
-  <si>
-    <t>Transport for Bucks</t>
-  </si>
-  <si>
-    <t>Isle of Wight Council</t>
-  </si>
-  <si>
-    <t>Oxfordshire County Council</t>
-  </si>
-  <si>
-    <t>Reading Borough Council</t>
-  </si>
-  <si>
-    <t>Portsmouth City Council</t>
-  </si>
-  <si>
-    <t>Ringway Island Roads Ltd</t>
-  </si>
-  <si>
-    <t>Open Road Associates</t>
-  </si>
-  <si>
-    <t>South East Water</t>
-  </si>
-  <si>
     <t>South West</t>
   </si>
   <si>
-    <t>Bournemouth Borough Council</t>
-  </si>
-  <si>
     <t>Bristol City Council</t>
   </si>
   <si>
+    <t>Bristol Water</t>
+  </si>
+  <si>
     <t>Cornwall Council</t>
   </si>
   <si>
-    <t>Devon County Council</t>
-  </si>
-  <si>
     <t>Dorset County Council</t>
   </si>
   <si>
@@ -733,73 +742,67 @@
     <t>Poole Borough Council</t>
   </si>
   <si>
+    <t>South West Water</t>
+  </si>
+  <si>
     <t>Swindon Borough Council</t>
   </si>
   <si>
     <t>Torbay Council</t>
   </si>
   <si>
+    <t>Wessex Water</t>
+  </si>
+  <si>
     <t>Wiltshire County Council</t>
   </si>
   <si>
-    <t>South West Water</t>
-  </si>
-  <si>
-    <t>Wessex Water</t>
-  </si>
-  <si>
-    <t>Bristol Water</t>
-  </si>
-  <si>
     <t>West Midlands</t>
   </si>
   <si>
+    <t>Birmingham City Council</t>
+  </si>
+  <si>
+    <t>Dudley Metropolitan Borough Council</t>
+  </si>
+  <si>
+    <t>Sandwell Metropolitan Borough Council</t>
+  </si>
+  <si>
+    <t>SP Energy</t>
+  </si>
+  <si>
     <t>Telford and Wrekin Council</t>
   </si>
   <si>
+    <t>Walsall Metropolitan Borough Council</t>
+  </si>
+  <si>
     <t>Warwickshire County Council</t>
   </si>
   <si>
-    <t>Worcestershire County Council</t>
-  </si>
-  <si>
-    <t>Walsall Metropolitan Borough Council</t>
-  </si>
-  <si>
     <t>Wolverhampton City Council</t>
   </si>
   <si>
-    <t>Dudley Metropolitan Borough Council</t>
-  </si>
-  <si>
-    <t>Birmingham City Council</t>
-  </si>
-  <si>
-    <t>Sandwell Metropolitan Borough Council</t>
-  </si>
-  <si>
-    <t>SP Energy</t>
-  </si>
-  <si>
     <t>Yorkshire &amp; Humber</t>
   </si>
   <si>
+    <t>Barnsley Metropolitan Borough Council</t>
+  </si>
+  <si>
+    <t>East Riding of Yorkshire Council</t>
+  </si>
+  <si>
     <t>Hull City Council</t>
   </si>
   <si>
     <t>Northern Gas Networks</t>
   </si>
   <si>
-    <t>Barnsley Metropolitan Borough Council</t>
+    <t>South Yorkshire Passenger Transport Executive (not LHA)</t>
   </si>
   <si>
     <t>York City Council</t>
-  </si>
-  <si>
-    <t>East Riding of Yorkshire Council</t>
-  </si>
-  <si>
-    <t>South Yorkshire Passenger Transport Executive (not LHA)</t>
   </si>
 </sst>
 </file>
@@ -1562,13 +1565,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>53</c:v>
+                  <c:v>67</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>15</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1685,13 +1688,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>106</c:v>
+                  <c:v>92</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>16</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>26</c:v>
+                  <c:v>23</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2217,7 +2220,7 @@
                   <c:v>159</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>18</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>41</c:v>
@@ -3607,7 +3610,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Excel Services" refreshedDate="43782.606159027775" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="229" xr:uid="{94413775-58D0-4EE7-8ACB-00C49221AE5D}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Excel Services" refreshedDate="43789.643026620368" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="230" xr:uid="{94413775-58D0-4EE7-8ACB-00C49221AE5D}">
   <cacheSource type="worksheet">
     <worksheetSource ref="A1:H1048576" sheet="Details"/>
   </cacheSource>
@@ -3629,21 +3632,21 @@
       </sharedItems>
     </cacheField>
     <cacheField name="Organisation Name" numFmtId="0">
-      <sharedItems containsBlank="1" count="224">
+      <sharedItems containsBlank="1" count="225">
+        <s v="Affinity Water"/>
+        <s v="Anglian Water"/>
+        <s v="Bedford Borough Council"/>
+        <s v="Cambridge Water Company"/>
+        <s v="Cambridgeshire County Council"/>
+        <s v="Central Bedfordshire Council"/>
         <s v="Essex County Council"/>
         <s v="Hertfordshire County Council"/>
-        <s v="Bedford Borough Council"/>
-        <s v="Cambridgeshire County Council"/>
-        <s v="Cambridge Water Company"/>
-        <s v="Central Bedfordshire Council"/>
         <s v="Luton Borough Council"/>
         <s v="Norfolk County Council"/>
         <s v="Peterborough City Council"/>
         <s v="Southend on Sea Borough Council"/>
+        <s v="Suffolk County Council"/>
         <s v="Thurrock Borough Council"/>
-        <s v="Suffolk County Council"/>
-        <s v="Affinity Water"/>
-        <s v="Anglian Water"/>
         <s v="Derby City Council"/>
         <s v="Derbyshire County Council"/>
         <s v="Leicester City Council"/>
@@ -3651,27 +3654,26 @@
         <s v="Northamptonshire County Council"/>
         <s v="Nottingham City Council"/>
         <s v="Nottinghamshire County Council"/>
+        <s v="Peterborough Council"/>
         <s v="Rutland County Council"/>
-        <s v="Peterborough Council"/>
         <s v="Barking and Dagenham London Borough Council"/>
+        <s v="Barnet London Borough Council"/>
+        <s v="Bexley London Borough Council"/>
+        <s v="Brent London Borough Council"/>
         <s v="Bromley London Borough Council"/>
         <s v="Camden London Borough Council"/>
-        <s v="Enfield London Borough Council"/>
-        <s v="Hammersmith and Fulham London Borough Council"/>
-        <s v="Islington London Borough Council"/>
-        <s v="Royal Borough of Kensington and Chelsea"/>
-        <s v="Southwark London Borough Council"/>
-        <s v="Transport for London"/>
-        <s v="Barnet London Borough Council"/>
         <s v="City of London Borough Council"/>
         <s v="Croydon London Borough Council"/>
         <s v="Ealing London Borough Council"/>
+        <s v="Enfield London Borough Council"/>
         <s v="Greenwich London Borough Council"/>
         <s v="Hackney London Borough Council"/>
+        <s v="Hammersmith and Fulham London Borough Council"/>
         <s v="Haringey London Borough Council"/>
         <s v="Havering London Borough Council"/>
         <s v="Hillingdon London Borough Council"/>
         <s v="Hounslow London Borough Council"/>
+        <s v="Islington London Borough Council"/>
         <s v="Kingston upon Thames Royal Borough Council"/>
         <s v="Lambeth London Borough Council"/>
         <s v="Lewisham London Borough Council"/>
@@ -3680,65 +3682,67 @@
         <s v="Newham London Borough Council"/>
         <s v="Redbridge London Borough Council"/>
         <s v="Richmond and Wandsworth Council"/>
+        <s v="Royal Borough of Kensington and Chelsea"/>
+        <s v="Southwark London Borough Council"/>
         <s v="Sutton London Borough Council"/>
         <s v="Tower Hamlets London Borough Council"/>
+        <s v="Transport for London"/>
         <s v="Waltham Forest London Borough Council"/>
         <s v="Wandsworth London Borough Council"/>
         <s v="Westminster City Council"/>
-        <s v="Bexley London Borough Council"/>
-        <s v="Brent London Borough Council"/>
+        <s v="A+one"/>
+        <s v="Amey"/>
+        <s v="AMX solutions"/>
         <s v="Balfour Beatty"/>
-        <s v="Network Rail"/>
-        <s v="Vodafone"/>
-        <s v="Amey"/>
-        <s v="Colas"/>
-        <s v="Eurovia"/>
-        <s v="Fisher German LLP"/>
-        <s v="GeoPal Solutions "/>
-        <s v="Gigaclear"/>
-        <s v="Highways England"/>
-        <s v="John Henry Group"/>
-        <s v="KN Group"/>
-        <s v="Morrison Utility Services "/>
-        <s v="Roadzwork"/>
-        <s v="Tarmac"/>
-        <s v="Telent Infrastructure Services"/>
-        <s v="A+one"/>
         <s v="BT Open Reach"/>
         <s v="Cadent Gas"/>
         <s v="CastellNet"/>
         <s v="Century link"/>
         <s v="City fibre"/>
-        <s v="AMX solutions"/>
+        <s v="Colas"/>
         <s v="Community fibre"/>
+        <s v="Eurovia"/>
         <s v="Fastflow"/>
+        <s v="Fisher German LLP"/>
+        <s v="GeoPal Solutions "/>
+        <s v="Gigaclear"/>
+        <s v="Highways England"/>
+        <s v="HS2"/>
+        <s v="John Henry Group"/>
         <s v="Kier Telecoms"/>
+        <s v="KN Group"/>
+        <s v="Morrison Utility Services "/>
+        <s v="Network Rail"/>
+        <s v="Roadzwork"/>
         <s v="Severn Trent Water"/>
         <s v="Skanska"/>
         <s v="SSEN - Scottish and Southern Energy Networks"/>
+        <s v="Tarmac"/>
+        <s v="Telent Infrastructure Services"/>
         <s v="Thames Water"/>
         <s v="UK Power networks"/>
         <s v="United Utilities"/>
         <s v="Virgin Media"/>
+        <s v="Vodafone"/>
         <s v="Wales and West Utilities"/>
         <s v="WB pipe"/>
         <s v="WSP"/>
         <s v="Liverpool City Council"/>
         <s v="Stoke on Trent City Council"/>
-        <s v="North East Lincolnshire Council"/>
-        <s v="North Tyneside Metropolitan Borough Council"/>
         <s v="Darlington Borough Council"/>
         <s v="Durham County Council"/>
         <s v="Gateshead Metropolitan Borough Council"/>
         <s v="Hartlepool Borough Council"/>
         <s v="Middlesbrough Council"/>
         <s v="Newcastle Upon Tyne City Council"/>
+        <s v="North East Lincolnshire Council"/>
+        <s v="North Tyneside Metropolitan Borough Council"/>
         <s v="Northumberland County Council"/>
+        <s v="Northumbrian Water"/>
         <s v="Redcar and Cleveland Borough Council"/>
         <s v="South Tyneside Metropolitan Borough Council"/>
         <s v="Stockton-on-Tees Borough Council"/>
         <s v="Sunderland City Council"/>
-        <s v="Northumbrian Water"/>
         <s v="Blackburn with Darwen Borough Council"/>
         <s v="Blackpool Borough Council"/>
         <s v="Bolton Metropolitan Borough Council"/>
@@ -3746,58 +3750,59 @@
         <s v="Cheshire East Council"/>
         <s v="Cheshire West and Chester Borough Council"/>
         <s v="Cumbria County Council"/>
+        <s v="Electricity North West"/>
         <s v="Halton Borough Council"/>
         <s v="Knowsley Metropolitan Borough Council"/>
         <s v="Lancashire County Council"/>
         <s v="Manchester City Council"/>
         <s v="Oldham Metropolitan Borough Council"/>
-        <s v="Trafford Council"/>
         <s v="Rochdale Metropolitan Borough Council"/>
         <s v="Salford City Council"/>
         <s v="Sefton Council"/>
+        <s v="South Staffs Water"/>
         <s v="St Helens Metropolitan Borough Council"/>
         <s v="Staffordshire County Council"/>
         <s v="Stockport Metropolitan Borough Council"/>
         <s v="Tameside Metropolitan Borough Council"/>
+        <s v="Trafford Council"/>
         <s v="Transport for Greater Manchester"/>
         <s v="Warrington Borough Council"/>
         <s v="Wigan Metropolitan Borough Council"/>
         <s v="Wirral Metropolitan Borough Council"/>
-        <s v="Electricity North West"/>
-        <s v="South Staffs Water"/>
+        <s v="Bracknell Forest Borough Council"/>
+        <s v="Brighton &amp; Hove City Council"/>
+        <s v="Buckinghamshire County Council"/>
+        <s v="East Sussex County Council"/>
+        <s v="FM Conway"/>
+        <s v="Hampshire County Council"/>
         <s v="Island Roads"/>
+        <s v="Isle of Wight Council"/>
+        <s v="Kent County Council"/>
+        <s v="Medway Council"/>
+        <s v="Milton Keynes Council"/>
+        <s v="Open Road Associates"/>
+        <s v="Oxfordshire County Council"/>
+        <s v="Portsmouth City Council"/>
+        <s v="Portsmouth Water"/>
+        <s v="Reading Borough Council"/>
+        <s v="Ringway Island Roads Ltd"/>
+        <s v="SES Water"/>
+        <s v="SGN "/>
+        <s v="Slough Borough Council"/>
+        <s v="South East Water"/>
+        <s v="Southampton City Council"/>
+        <s v="Southern Water"/>
+        <s v="SSE"/>
+        <s v="Surrey County Council"/>
+        <s v="Transport for Bucks"/>
         <s v="West Berkshire Council"/>
         <s v="West Sussex County Council"/>
         <s v="Windsor and Maidenhead Royal Borough Council"/>
         <s v="Wokingham Borough Council"/>
-        <s v="Southampton City Council"/>
-        <s v="Kent County Council"/>
-        <s v="FM Conway"/>
-        <s v="SSE"/>
-        <s v="Bracknell Forest Borough Council"/>
-        <s v="Brighton &amp; Hove City Council"/>
-        <s v="Buckinghamshire County Council"/>
-        <s v="East Sussex County Council"/>
-        <s v="Hampshire County Council"/>
-        <s v="Medway Council"/>
-        <s v="Milton Keynes Council"/>
-        <s v="Portsmouth Water"/>
-        <s v="Slough Borough Council"/>
-        <s v="Surrey County Council"/>
-        <s v="Transport for Bucks"/>
-        <s v="Isle of Wight Council"/>
-        <s v="Oxfordshire County Council"/>
-        <s v="Reading Borough Council"/>
-        <s v="Portsmouth City Council"/>
-        <s v="Ringway Island Roads Ltd"/>
-        <s v="Open Road Associates"/>
-        <s v="SES Water"/>
-        <s v="SGN "/>
-        <s v="South East Water"/>
-        <s v="Southern Water"/>
         <s v="Bath and North East Somerset Council"/>
         <s v="Bournemouth Borough Council"/>
         <s v="Bristol City Council"/>
+        <s v="Bristol Water"/>
         <s v="Cornwall Council"/>
         <s v="Devon County Council"/>
         <s v="Dorset County Council"/>
@@ -3808,66 +3813,65 @@
         <s v="Poole Borough Council"/>
         <s v="Somerset County Council"/>
         <s v="South Gloucestershire Council"/>
+        <s v="South West Water"/>
         <s v="Swindon Borough Council"/>
         <s v="Torbay Council"/>
-        <s v="Wiltshire County Council"/>
-        <s v="South West Water"/>
         <s v="Wessex Water"/>
         <s v="Western Power"/>
-        <s v="Bristol Water"/>
+        <s v="Wiltshire County Council"/>
+        <s v="Birmingham City Council"/>
+        <s v="Coventry City Council"/>
+        <s v="Dudley Metropolitan Borough Council"/>
+        <s v="Herefordshire County Council"/>
+        <s v="Sandwell Metropolitan Borough Council"/>
+        <s v="Shropshire County Council"/>
+        <s v="Solihull Metropolitan Borough Council"/>
+        <s v="SP Energy"/>
         <s v="Telford and Wrekin Council"/>
         <s v="Transport for West Midlands (TFWM)"/>
+        <s v="Walsall Metropolitan Borough Council"/>
         <s v="Warwickshire County Council"/>
+        <s v="Wolverhampton City Council"/>
         <s v="Worcestershire County Council"/>
-        <s v="Walsall Metropolitan Borough Council"/>
-        <s v="Wolverhampton City Council"/>
-        <s v="Coventry City Council"/>
-        <s v="Dudley Metropolitan Borough Council"/>
-        <s v="Shropshire County Council"/>
-        <s v="Solihull Metropolitan Borough Council"/>
-        <s v="Birmingham City Council"/>
-        <s v="Herefordshire County Council"/>
-        <s v="Sandwell Metropolitan Borough Council"/>
-        <s v="SP Energy"/>
-        <s v="Doncaster Metropolitan Borough Council"/>
-        <s v="Leeds City Council"/>
-        <s v="North Lincolnshire Council"/>
-        <s v="North Yorkshire County Council"/>
-        <s v="Rotherham Metropolitan Borough Council"/>
-        <s v="Wakefield Metropolitan District Council"/>
-        <s v="Lincolnshire County Council"/>
-        <s v="Sheffield City Council"/>
-        <s v="Hull City Council"/>
-        <s v="Northern Gas Networks"/>
-        <s v="Northern Power grid"/>
-        <s v="Yorkshire Water"/>
         <s v="Barnsley Metropolitan Borough Council"/>
         <s v="Bradford Metropolitan District Council"/>
         <s v="Calderdale Metropolitan Borough Council"/>
+        <s v="Doncaster Metropolitan Borough Council"/>
+        <s v="East Riding of Yorkshire Council"/>
+        <s v="Hull City Council"/>
+        <s v="Kirklees County Council"/>
+        <s v="Leeds City Council"/>
+        <s v="Lincolnshire County Council"/>
+        <s v="North Lincolnshire Council"/>
+        <s v="North Yorkshire County Council"/>
+        <s v="Northern Gas Networks"/>
+        <s v="Northern Power grid"/>
+        <s v="Rotherham Metropolitan Borough Council"/>
+        <s v="Sheffield City Council"/>
+        <s v="South Yorkshire Passenger Transport Executive (not LHA)"/>
+        <s v="Wakefield Metropolitan District Council"/>
         <s v="York City Council"/>
-        <s v="Kirklees County Council"/>
-        <s v="East Riding of Yorkshire Council"/>
-        <s v="South Yorkshire Passenger Transport Executive (not LHA)"/>
+        <s v="Yorkshire Water"/>
         <m/>
+        <s v="SGN Water" u="1"/>
         <s v="EXAMPLE 2" u="1"/>
         <s v="EXAMPLE 1" u="1"/>
-        <s v="SGN Water" u="1"/>
         <s v="BT" u="1"/>
         <s v="EXAMPLE 3" u="1"/>
       </sharedItems>
     </cacheField>
     <cacheField name="Type" numFmtId="0">
       <sharedItems containsBlank="1" count="4">
+        <s v="Utility"/>
         <s v="LHA"/>
-        <s v="Utility"/>
         <s v="Other"/>
         <m/>
       </sharedItems>
     </cacheField>
     <cacheField name="In Sanbox" numFmtId="0">
       <sharedItems containsBlank="1" count="3">
+        <s v="Not yet"/>
         <s v="Yes"/>
-        <s v="Not yet"/>
         <m/>
       </sharedItems>
     </cacheField>
@@ -3897,7 +3901,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="229">
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="230">
   <r>
     <x v="0"/>
     <x v="0"/>
@@ -3921,8 +3925,8 @@
   <r>
     <x v="0"/>
     <x v="2"/>
-    <x v="0"/>
-    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
     <x v="0"/>
     <m/>
     <m/>
@@ -3932,7 +3936,7 @@
     <x v="0"/>
     <x v="3"/>
     <x v="0"/>
-    <x v="0"/>
+    <x v="1"/>
     <x v="0"/>
     <m/>
     <m/>
@@ -3942,7 +3946,7 @@
     <x v="0"/>
     <x v="4"/>
     <x v="1"/>
-    <x v="0"/>
+    <x v="1"/>
     <x v="0"/>
     <m/>
     <m/>
@@ -3951,8 +3955,8 @@
   <r>
     <x v="0"/>
     <x v="5"/>
-    <x v="0"/>
-    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
     <x v="0"/>
     <m/>
     <m/>
@@ -3961,7 +3965,7 @@
   <r>
     <x v="0"/>
     <x v="6"/>
-    <x v="0"/>
+    <x v="1"/>
     <x v="1"/>
     <x v="0"/>
     <m/>
@@ -3971,8 +3975,8 @@
   <r>
     <x v="0"/>
     <x v="7"/>
-    <x v="0"/>
-    <x v="0"/>
+    <x v="1"/>
+    <x v="1"/>
     <x v="0"/>
     <m/>
     <m/>
@@ -3981,8 +3985,8 @@
   <r>
     <x v="0"/>
     <x v="8"/>
-    <x v="0"/>
-    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
     <x v="0"/>
     <m/>
     <m/>
@@ -3991,7 +3995,7 @@
   <r>
     <x v="0"/>
     <x v="9"/>
-    <x v="0"/>
+    <x v="1"/>
     <x v="1"/>
     <x v="0"/>
     <m/>
@@ -4001,8 +4005,8 @@
   <r>
     <x v="0"/>
     <x v="10"/>
-    <x v="0"/>
-    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
     <x v="0"/>
     <m/>
     <m/>
@@ -4011,8 +4015,8 @@
   <r>
     <x v="0"/>
     <x v="11"/>
-    <x v="0"/>
-    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
     <x v="0"/>
     <m/>
     <m/>
@@ -4022,7 +4026,7 @@
     <x v="0"/>
     <x v="12"/>
     <x v="1"/>
-    <x v="1"/>
+    <x v="0"/>
     <x v="0"/>
     <m/>
     <m/>
@@ -4032,7 +4036,7 @@
     <x v="0"/>
     <x v="13"/>
     <x v="1"/>
-    <x v="1"/>
+    <x v="0"/>
     <x v="0"/>
     <m/>
     <m/>
@@ -4041,8 +4045,8 @@
   <r>
     <x v="1"/>
     <x v="14"/>
-    <x v="0"/>
-    <x v="0"/>
+    <x v="1"/>
+    <x v="1"/>
     <x v="0"/>
     <m/>
     <m/>
@@ -4051,8 +4055,8 @@
   <r>
     <x v="1"/>
     <x v="15"/>
-    <x v="0"/>
-    <x v="0"/>
+    <x v="1"/>
+    <x v="1"/>
     <x v="0"/>
     <m/>
     <m/>
@@ -4061,8 +4065,8 @@
   <r>
     <x v="1"/>
     <x v="16"/>
-    <x v="0"/>
-    <x v="0"/>
+    <x v="1"/>
+    <x v="1"/>
     <x v="0"/>
     <m/>
     <m/>
@@ -4071,8 +4075,8 @@
   <r>
     <x v="1"/>
     <x v="17"/>
-    <x v="0"/>
-    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
     <x v="0"/>
     <m/>
     <m/>
@@ -4081,8 +4085,8 @@
   <r>
     <x v="1"/>
     <x v="18"/>
-    <x v="0"/>
-    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
     <x v="0"/>
     <m/>
     <m/>
@@ -4091,7 +4095,7 @@
   <r>
     <x v="1"/>
     <x v="19"/>
-    <x v="0"/>
+    <x v="1"/>
     <x v="1"/>
     <x v="0"/>
     <m/>
@@ -4101,8 +4105,8 @@
   <r>
     <x v="1"/>
     <x v="20"/>
-    <x v="0"/>
-    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
     <x v="0"/>
     <m/>
     <m/>
@@ -4111,8 +4115,8 @@
   <r>
     <x v="1"/>
     <x v="21"/>
-    <x v="0"/>
-    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
     <x v="0"/>
     <m/>
     <m/>
@@ -4121,8 +4125,8 @@
   <r>
     <x v="1"/>
     <x v="22"/>
-    <x v="0"/>
-    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
     <x v="0"/>
     <m/>
     <m/>
@@ -4131,7 +4135,7 @@
   <r>
     <x v="2"/>
     <x v="23"/>
-    <x v="0"/>
+    <x v="1"/>
     <x v="1"/>
     <x v="0"/>
     <m/>
@@ -4141,7 +4145,7 @@
   <r>
     <x v="2"/>
     <x v="24"/>
-    <x v="0"/>
+    <x v="1"/>
     <x v="1"/>
     <x v="0"/>
     <m/>
@@ -4151,8 +4155,8 @@
   <r>
     <x v="2"/>
     <x v="25"/>
-    <x v="0"/>
-    <x v="0"/>
+    <x v="1"/>
+    <x v="1"/>
     <x v="0"/>
     <m/>
     <m/>
@@ -4161,7 +4165,7 @@
   <r>
     <x v="2"/>
     <x v="26"/>
-    <x v="0"/>
+    <x v="1"/>
     <x v="0"/>
     <x v="0"/>
     <m/>
@@ -4171,7 +4175,7 @@
   <r>
     <x v="2"/>
     <x v="27"/>
-    <x v="0"/>
+    <x v="1"/>
     <x v="0"/>
     <x v="0"/>
     <m/>
@@ -4181,7 +4185,7 @@
   <r>
     <x v="2"/>
     <x v="28"/>
-    <x v="0"/>
+    <x v="1"/>
     <x v="1"/>
     <x v="0"/>
     <m/>
@@ -4191,8 +4195,8 @@
   <r>
     <x v="2"/>
     <x v="29"/>
-    <x v="0"/>
-    <x v="0"/>
+    <x v="1"/>
+    <x v="1"/>
     <x v="0"/>
     <m/>
     <m/>
@@ -4201,8 +4205,8 @@
   <r>
     <x v="2"/>
     <x v="30"/>
-    <x v="0"/>
-    <x v="0"/>
+    <x v="1"/>
+    <x v="1"/>
     <x v="0"/>
     <m/>
     <m/>
@@ -4211,7 +4215,7 @@
   <r>
     <x v="2"/>
     <x v="31"/>
-    <x v="0"/>
+    <x v="1"/>
     <x v="1"/>
     <x v="0"/>
     <m/>
@@ -4221,8 +4225,8 @@
   <r>
     <x v="2"/>
     <x v="32"/>
-    <x v="0"/>
-    <x v="0"/>
+    <x v="1"/>
+    <x v="1"/>
     <x v="0"/>
     <m/>
     <m/>
@@ -4231,8 +4235,8 @@
   <r>
     <x v="2"/>
     <x v="33"/>
-    <x v="0"/>
-    <x v="0"/>
+    <x v="1"/>
+    <x v="1"/>
     <x v="0"/>
     <m/>
     <m/>
@@ -4241,8 +4245,8 @@
   <r>
     <x v="2"/>
     <x v="34"/>
-    <x v="0"/>
-    <x v="0"/>
+    <x v="1"/>
+    <x v="1"/>
     <x v="0"/>
     <m/>
     <m/>
@@ -4251,7 +4255,7 @@
   <r>
     <x v="2"/>
     <x v="35"/>
-    <x v="0"/>
+    <x v="1"/>
     <x v="1"/>
     <x v="0"/>
     <m/>
@@ -4261,7 +4265,7 @@
   <r>
     <x v="2"/>
     <x v="36"/>
-    <x v="0"/>
+    <x v="1"/>
     <x v="0"/>
     <x v="0"/>
     <m/>
@@ -4271,7 +4275,7 @@
   <r>
     <x v="2"/>
     <x v="37"/>
-    <x v="0"/>
+    <x v="1"/>
     <x v="0"/>
     <x v="0"/>
     <m/>
@@ -4281,8 +4285,8 @@
   <r>
     <x v="2"/>
     <x v="38"/>
-    <x v="0"/>
-    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
     <x v="0"/>
     <m/>
     <m/>
@@ -4291,7 +4295,7 @@
   <r>
     <x v="2"/>
     <x v="39"/>
-    <x v="0"/>
+    <x v="1"/>
     <x v="1"/>
     <x v="0"/>
     <m/>
@@ -4301,8 +4305,8 @@
   <r>
     <x v="2"/>
     <x v="40"/>
-    <x v="0"/>
-    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
     <x v="0"/>
     <m/>
     <m/>
@@ -4311,7 +4315,7 @@
   <r>
     <x v="2"/>
     <x v="41"/>
-    <x v="0"/>
+    <x v="1"/>
     <x v="0"/>
     <x v="0"/>
     <m/>
@@ -4321,7 +4325,7 @@
   <r>
     <x v="2"/>
     <x v="42"/>
-    <x v="0"/>
+    <x v="1"/>
     <x v="1"/>
     <x v="0"/>
     <m/>
@@ -4331,7 +4335,7 @@
   <r>
     <x v="2"/>
     <x v="43"/>
-    <x v="0"/>
+    <x v="1"/>
     <x v="0"/>
     <x v="0"/>
     <m/>
@@ -4341,8 +4345,8 @@
   <r>
     <x v="2"/>
     <x v="44"/>
-    <x v="0"/>
-    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
     <x v="0"/>
     <m/>
     <m/>
@@ -4351,8 +4355,8 @@
   <r>
     <x v="2"/>
     <x v="45"/>
-    <x v="0"/>
-    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
     <x v="0"/>
     <m/>
     <m/>
@@ -4361,8 +4365,8 @@
   <r>
     <x v="2"/>
     <x v="46"/>
-    <x v="0"/>
-    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
     <x v="0"/>
     <m/>
     <m/>
@@ -4371,8 +4375,8 @@
   <r>
     <x v="2"/>
     <x v="47"/>
-    <x v="0"/>
-    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
     <x v="0"/>
     <m/>
     <m/>
@@ -4381,8 +4385,8 @@
   <r>
     <x v="2"/>
     <x v="48"/>
-    <x v="0"/>
-    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
     <x v="0"/>
     <m/>
     <m/>
@@ -4391,7 +4395,7 @@
   <r>
     <x v="2"/>
     <x v="49"/>
-    <x v="0"/>
+    <x v="1"/>
     <x v="1"/>
     <x v="0"/>
     <m/>
@@ -4401,7 +4405,7 @@
   <r>
     <x v="2"/>
     <x v="50"/>
-    <x v="0"/>
+    <x v="1"/>
     <x v="1"/>
     <x v="0"/>
     <m/>
@@ -4411,8 +4415,8 @@
   <r>
     <x v="2"/>
     <x v="51"/>
-    <x v="0"/>
-    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
     <x v="0"/>
     <m/>
     <m/>
@@ -4421,8 +4425,8 @@
   <r>
     <x v="2"/>
     <x v="52"/>
-    <x v="0"/>
-    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
     <x v="0"/>
     <m/>
     <m/>
@@ -4431,7 +4435,7 @@
   <r>
     <x v="2"/>
     <x v="53"/>
-    <x v="0"/>
+    <x v="1"/>
     <x v="1"/>
     <x v="0"/>
     <m/>
@@ -4441,7 +4445,7 @@
   <r>
     <x v="2"/>
     <x v="54"/>
-    <x v="0"/>
+    <x v="1"/>
     <x v="1"/>
     <x v="0"/>
     <m/>
@@ -4451,8 +4455,8 @@
   <r>
     <x v="2"/>
     <x v="55"/>
-    <x v="0"/>
-    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
     <x v="0"/>
     <m/>
     <m/>
@@ -4461,8 +4465,8 @@
   <r>
     <x v="2"/>
     <x v="56"/>
-    <x v="0"/>
-    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
     <x v="0"/>
     <m/>
     <m/>
@@ -4471,7 +4475,7 @@
   <r>
     <x v="3"/>
     <x v="57"/>
-    <x v="2"/>
+    <x v="0"/>
     <x v="0"/>
     <x v="0"/>
     <m/>
@@ -4491,7 +4495,7 @@
   <r>
     <x v="3"/>
     <x v="59"/>
-    <x v="1"/>
+    <x v="0"/>
     <x v="0"/>
     <x v="0"/>
     <m/>
@@ -4511,7 +4515,7 @@
   <r>
     <x v="3"/>
     <x v="61"/>
-    <x v="2"/>
+    <x v="0"/>
     <x v="1"/>
     <x v="0"/>
     <m/>
@@ -4521,7 +4525,7 @@
   <r>
     <x v="3"/>
     <x v="62"/>
-    <x v="2"/>
+    <x v="0"/>
     <x v="1"/>
     <x v="0"/>
     <m/>
@@ -4531,8 +4535,8 @@
   <r>
     <x v="3"/>
     <x v="63"/>
-    <x v="2"/>
-    <x v="1"/>
+    <x v="0"/>
+    <x v="0"/>
     <x v="0"/>
     <m/>
     <m/>
@@ -4541,8 +4545,8 @@
   <r>
     <x v="3"/>
     <x v="64"/>
-    <x v="2"/>
-    <x v="1"/>
+    <x v="0"/>
+    <x v="0"/>
     <x v="0"/>
     <m/>
     <m/>
@@ -4551,7 +4555,7 @@
   <r>
     <x v="3"/>
     <x v="65"/>
-    <x v="2"/>
+    <x v="0"/>
     <x v="1"/>
     <x v="0"/>
     <m/>
@@ -4562,7 +4566,7 @@
     <x v="3"/>
     <x v="66"/>
     <x v="2"/>
-    <x v="1"/>
+    <x v="0"/>
     <x v="0"/>
     <m/>
     <m/>
@@ -4571,8 +4575,8 @@
   <r>
     <x v="3"/>
     <x v="67"/>
-    <x v="2"/>
-    <x v="1"/>
+    <x v="0"/>
+    <x v="0"/>
     <x v="0"/>
     <m/>
     <m/>
@@ -4582,7 +4586,7 @@
     <x v="3"/>
     <x v="68"/>
     <x v="2"/>
-    <x v="1"/>
+    <x v="0"/>
     <x v="0"/>
     <m/>
     <m/>
@@ -4591,8 +4595,8 @@
   <r>
     <x v="3"/>
     <x v="69"/>
-    <x v="2"/>
-    <x v="1"/>
+    <x v="0"/>
+    <x v="0"/>
     <x v="0"/>
     <m/>
     <m/>
@@ -4602,7 +4606,7 @@
     <x v="3"/>
     <x v="70"/>
     <x v="2"/>
-    <x v="1"/>
+    <x v="0"/>
     <x v="0"/>
     <m/>
     <m/>
@@ -4612,7 +4616,7 @@
     <x v="3"/>
     <x v="71"/>
     <x v="2"/>
-    <x v="1"/>
+    <x v="0"/>
     <x v="0"/>
     <m/>
     <m/>
@@ -4622,7 +4626,7 @@
     <x v="3"/>
     <x v="72"/>
     <x v="2"/>
-    <x v="1"/>
+    <x v="0"/>
     <x v="0"/>
     <m/>
     <m/>
@@ -4631,8 +4635,8 @@
   <r>
     <x v="3"/>
     <x v="73"/>
-    <x v="1"/>
-    <x v="1"/>
+    <x v="2"/>
+    <x v="0"/>
     <x v="0"/>
     <m/>
     <m/>
@@ -4641,8 +4645,8 @@
   <r>
     <x v="3"/>
     <x v="74"/>
-    <x v="1"/>
-    <x v="0"/>
+    <x v="2"/>
+    <x v="1"/>
     <x v="0"/>
     <m/>
     <m/>
@@ -4651,8 +4655,8 @@
   <r>
     <x v="3"/>
     <x v="75"/>
-    <x v="1"/>
-    <x v="1"/>
+    <x v="2"/>
+    <x v="0"/>
     <x v="0"/>
     <m/>
     <m/>
@@ -4661,8 +4665,8 @@
   <r>
     <x v="3"/>
     <x v="76"/>
-    <x v="1"/>
-    <x v="1"/>
+    <x v="0"/>
+    <x v="0"/>
     <x v="0"/>
     <m/>
     <m/>
@@ -4671,8 +4675,8 @@
   <r>
     <x v="3"/>
     <x v="77"/>
-    <x v="1"/>
-    <x v="1"/>
+    <x v="2"/>
+    <x v="0"/>
     <x v="0"/>
     <m/>
     <m/>
@@ -4681,8 +4685,8 @@
   <r>
     <x v="3"/>
     <x v="78"/>
-    <x v="1"/>
-    <x v="1"/>
+    <x v="2"/>
+    <x v="0"/>
     <x v="0"/>
     <m/>
     <m/>
@@ -4691,7 +4695,7 @@
   <r>
     <x v="3"/>
     <x v="79"/>
-    <x v="1"/>
+    <x v="2"/>
     <x v="1"/>
     <x v="0"/>
     <m/>
@@ -4701,8 +4705,8 @@
   <r>
     <x v="3"/>
     <x v="80"/>
-    <x v="1"/>
-    <x v="1"/>
+    <x v="2"/>
+    <x v="0"/>
     <x v="0"/>
     <m/>
     <m/>
@@ -4711,8 +4715,8 @@
   <r>
     <x v="3"/>
     <x v="81"/>
-    <x v="1"/>
-    <x v="1"/>
+    <x v="0"/>
+    <x v="0"/>
     <x v="0"/>
     <m/>
     <m/>
@@ -4721,7 +4725,7 @@
   <r>
     <x v="3"/>
     <x v="82"/>
-    <x v="1"/>
+    <x v="0"/>
     <x v="1"/>
     <x v="0"/>
     <m/>
@@ -4731,8 +4735,8 @@
   <r>
     <x v="3"/>
     <x v="83"/>
-    <x v="1"/>
-    <x v="1"/>
+    <x v="0"/>
+    <x v="0"/>
     <x v="0"/>
     <m/>
     <m/>
@@ -4741,7 +4745,7 @@
   <r>
     <x v="3"/>
     <x v="84"/>
-    <x v="1"/>
+    <x v="2"/>
     <x v="0"/>
     <x v="0"/>
     <m/>
@@ -4751,8 +4755,8 @@
   <r>
     <x v="3"/>
     <x v="85"/>
-    <x v="1"/>
-    <x v="1"/>
+    <x v="2"/>
+    <x v="0"/>
     <x v="0"/>
     <m/>
     <m/>
@@ -4761,8 +4765,8 @@
   <r>
     <x v="3"/>
     <x v="86"/>
-    <x v="1"/>
-    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
     <x v="0"/>
     <m/>
     <m/>
@@ -4771,8 +4775,8 @@
   <r>
     <x v="3"/>
     <x v="87"/>
-    <x v="1"/>
-    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
     <x v="0"/>
     <m/>
     <m/>
@@ -4781,8 +4785,8 @@
   <r>
     <x v="3"/>
     <x v="88"/>
-    <x v="1"/>
-    <x v="1"/>
+    <x v="0"/>
+    <x v="0"/>
     <x v="0"/>
     <m/>
     <m/>
@@ -4791,8 +4795,8 @@
   <r>
     <x v="3"/>
     <x v="89"/>
-    <x v="1"/>
-    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
     <x v="0"/>
     <m/>
     <m/>
@@ -4801,7 +4805,7 @@
   <r>
     <x v="3"/>
     <x v="90"/>
-    <x v="1"/>
+    <x v="0"/>
     <x v="1"/>
     <x v="0"/>
     <m/>
@@ -4811,8 +4815,8 @@
   <r>
     <x v="3"/>
     <x v="91"/>
-    <x v="1"/>
-    <x v="1"/>
+    <x v="0"/>
+    <x v="0"/>
     <x v="0"/>
     <m/>
     <m/>
@@ -4821,18 +4825,18 @@
   <r>
     <x v="3"/>
     <x v="92"/>
-    <x v="1"/>
-    <x v="1"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="4"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="3"/>
     <x v="93"/>
     <x v="0"/>
-    <x v="1"/>
+    <x v="0"/>
     <x v="0"/>
     <m/>
     <m/>
@@ -4841,18 +4845,18 @@
   <r>
     <x v="4"/>
     <x v="94"/>
-    <x v="0"/>
-    <x v="1"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="5"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="4"/>
     <x v="95"/>
-    <x v="0"/>
-    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
     <x v="0"/>
     <m/>
     <m/>
@@ -4861,7 +4865,7 @@
   <r>
     <x v="5"/>
     <x v="96"/>
-    <x v="0"/>
+    <x v="1"/>
     <x v="1"/>
     <x v="0"/>
     <m/>
@@ -4871,7 +4875,7 @@
   <r>
     <x v="5"/>
     <x v="97"/>
-    <x v="0"/>
+    <x v="1"/>
     <x v="0"/>
     <x v="0"/>
     <m/>
@@ -4881,8 +4885,8 @@
   <r>
     <x v="5"/>
     <x v="98"/>
-    <x v="0"/>
-    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
     <x v="0"/>
     <m/>
     <m/>
@@ -4891,7 +4895,7 @@
   <r>
     <x v="5"/>
     <x v="99"/>
-    <x v="0"/>
+    <x v="1"/>
     <x v="1"/>
     <x v="0"/>
     <m/>
@@ -4901,8 +4905,8 @@
   <r>
     <x v="5"/>
     <x v="100"/>
-    <x v="0"/>
-    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
     <x v="0"/>
     <m/>
     <m/>
@@ -4911,8 +4915,8 @@
   <r>
     <x v="5"/>
     <x v="101"/>
-    <x v="0"/>
-    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
     <x v="0"/>
     <m/>
     <m/>
@@ -4921,8 +4925,8 @@
   <r>
     <x v="5"/>
     <x v="102"/>
-    <x v="0"/>
-    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
     <x v="0"/>
     <m/>
     <m/>
@@ -4931,8 +4935,8 @@
   <r>
     <x v="5"/>
     <x v="103"/>
-    <x v="0"/>
-    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
     <x v="0"/>
     <m/>
     <m/>
@@ -4941,8 +4945,8 @@
   <r>
     <x v="5"/>
     <x v="104"/>
-    <x v="0"/>
-    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
     <x v="0"/>
     <m/>
     <m/>
@@ -4952,7 +4956,7 @@
     <x v="5"/>
     <x v="105"/>
     <x v="0"/>
-    <x v="0"/>
+    <x v="1"/>
     <x v="0"/>
     <m/>
     <m/>
@@ -4961,8 +4965,8 @@
   <r>
     <x v="5"/>
     <x v="106"/>
-    <x v="0"/>
-    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
     <x v="0"/>
     <m/>
     <m/>
@@ -4971,7 +4975,7 @@
   <r>
     <x v="5"/>
     <x v="107"/>
-    <x v="0"/>
+    <x v="1"/>
     <x v="1"/>
     <x v="0"/>
     <m/>
@@ -4982,16 +4986,16 @@
     <x v="5"/>
     <x v="108"/>
     <x v="1"/>
-    <x v="1"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="6"/>
+    <x v="0"/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="5"/>
     <x v="109"/>
-    <x v="0"/>
+    <x v="1"/>
     <x v="0"/>
     <x v="0"/>
     <m/>
@@ -5001,7 +5005,7 @@
   <r>
     <x v="6"/>
     <x v="110"/>
-    <x v="0"/>
+    <x v="1"/>
     <x v="1"/>
     <x v="0"/>
     <m/>
@@ -5011,7 +5015,7 @@
   <r>
     <x v="6"/>
     <x v="111"/>
-    <x v="0"/>
+    <x v="1"/>
     <x v="0"/>
     <x v="0"/>
     <m/>
@@ -5021,7 +5025,7 @@
   <r>
     <x v="6"/>
     <x v="112"/>
-    <x v="0"/>
+    <x v="1"/>
     <x v="1"/>
     <x v="0"/>
     <m/>
@@ -5031,8 +5035,8 @@
   <r>
     <x v="6"/>
     <x v="113"/>
-    <x v="0"/>
-    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
     <x v="0"/>
     <m/>
     <m/>
@@ -5041,8 +5045,8 @@
   <r>
     <x v="6"/>
     <x v="114"/>
-    <x v="0"/>
-    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
     <x v="0"/>
     <m/>
     <m/>
@@ -5051,8 +5055,8 @@
   <r>
     <x v="6"/>
     <x v="115"/>
-    <x v="0"/>
-    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
     <x v="0"/>
     <m/>
     <m/>
@@ -5061,8 +5065,8 @@
   <r>
     <x v="6"/>
     <x v="116"/>
-    <x v="0"/>
-    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
     <x v="0"/>
     <m/>
     <m/>
@@ -5072,7 +5076,7 @@
     <x v="6"/>
     <x v="117"/>
     <x v="0"/>
-    <x v="1"/>
+    <x v="0"/>
     <x v="0"/>
     <m/>
     <m/>
@@ -5081,8 +5085,8 @@
   <r>
     <x v="6"/>
     <x v="118"/>
-    <x v="0"/>
-    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
     <x v="0"/>
     <m/>
     <m/>
@@ -5091,7 +5095,7 @@
   <r>
     <x v="6"/>
     <x v="119"/>
-    <x v="0"/>
+    <x v="1"/>
     <x v="0"/>
     <x v="0"/>
     <m/>
@@ -5101,7 +5105,7 @@
   <r>
     <x v="6"/>
     <x v="120"/>
-    <x v="0"/>
+    <x v="1"/>
     <x v="1"/>
     <x v="0"/>
     <m/>
@@ -5111,7 +5115,7 @@
   <r>
     <x v="6"/>
     <x v="121"/>
-    <x v="0"/>
+    <x v="1"/>
     <x v="1"/>
     <x v="0"/>
     <m/>
@@ -5121,8 +5125,8 @@
   <r>
     <x v="6"/>
     <x v="122"/>
-    <x v="0"/>
-    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
     <x v="0"/>
     <m/>
     <m/>
@@ -5131,8 +5135,8 @@
   <r>
     <x v="6"/>
     <x v="123"/>
-    <x v="0"/>
-    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
     <x v="0"/>
     <m/>
     <m/>
@@ -5141,8 +5145,8 @@
   <r>
     <x v="6"/>
     <x v="124"/>
-    <x v="0"/>
-    <x v="0"/>
+    <x v="1"/>
+    <x v="1"/>
     <x v="0"/>
     <m/>
     <m/>
@@ -5151,7 +5155,7 @@
   <r>
     <x v="6"/>
     <x v="125"/>
-    <x v="0"/>
+    <x v="1"/>
     <x v="1"/>
     <x v="0"/>
     <m/>
@@ -5171,8 +5175,8 @@
   <r>
     <x v="6"/>
     <x v="127"/>
-    <x v="0"/>
-    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
     <x v="0"/>
     <m/>
     <m/>
@@ -5181,8 +5185,8 @@
   <r>
     <x v="6"/>
     <x v="128"/>
-    <x v="0"/>
-    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
     <x v="0"/>
     <m/>
     <m/>
@@ -5191,8 +5195,8 @@
   <r>
     <x v="6"/>
     <x v="129"/>
-    <x v="0"/>
-    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
     <x v="0"/>
     <m/>
     <m/>
@@ -5201,8 +5205,8 @@
   <r>
     <x v="6"/>
     <x v="130"/>
-    <x v="0"/>
-    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
     <x v="0"/>
     <m/>
     <m/>
@@ -5211,8 +5215,8 @@
   <r>
     <x v="6"/>
     <x v="131"/>
-    <x v="0"/>
-    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
     <x v="0"/>
     <m/>
     <m/>
@@ -5221,8 +5225,8 @@
   <r>
     <x v="6"/>
     <x v="132"/>
-    <x v="0"/>
-    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
     <x v="0"/>
     <m/>
     <m/>
@@ -5232,7 +5236,7 @@
     <x v="6"/>
     <x v="133"/>
     <x v="1"/>
-    <x v="1"/>
+    <x v="0"/>
     <x v="0"/>
     <m/>
     <m/>
@@ -5249,9 +5253,9 @@
     <m/>
   </r>
   <r>
-    <x v="7"/>
+    <x v="6"/>
     <x v="135"/>
-    <x v="0"/>
+    <x v="1"/>
     <x v="1"/>
     <x v="0"/>
     <m/>
@@ -5261,8 +5265,8 @@
   <r>
     <x v="7"/>
     <x v="136"/>
-    <x v="0"/>
-    <x v="0"/>
+    <x v="1"/>
+    <x v="1"/>
     <x v="0"/>
     <m/>
     <m/>
@@ -5271,7 +5275,7 @@
   <r>
     <x v="7"/>
     <x v="137"/>
-    <x v="0"/>
+    <x v="1"/>
     <x v="0"/>
     <x v="0"/>
     <m/>
@@ -5281,8 +5285,8 @@
   <r>
     <x v="7"/>
     <x v="138"/>
-    <x v="0"/>
-    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
     <x v="0"/>
     <m/>
     <m/>
@@ -5291,7 +5295,7 @@
   <r>
     <x v="7"/>
     <x v="139"/>
-    <x v="0"/>
+    <x v="1"/>
     <x v="1"/>
     <x v="0"/>
     <m/>
@@ -5301,7 +5305,7 @@
   <r>
     <x v="7"/>
     <x v="140"/>
-    <x v="0"/>
+    <x v="2"/>
     <x v="1"/>
     <x v="0"/>
     <m/>
@@ -5311,7 +5315,7 @@
   <r>
     <x v="7"/>
     <x v="141"/>
-    <x v="0"/>
+    <x v="1"/>
     <x v="0"/>
     <x v="0"/>
     <m/>
@@ -5321,8 +5325,8 @@
   <r>
     <x v="7"/>
     <x v="142"/>
-    <x v="2"/>
-    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
     <x v="0"/>
     <m/>
     <m/>
@@ -5341,8 +5345,8 @@
   <r>
     <x v="7"/>
     <x v="144"/>
-    <x v="0"/>
-    <x v="0"/>
+    <x v="1"/>
+    <x v="1"/>
     <x v="0"/>
     <m/>
     <m/>
@@ -5351,8 +5355,8 @@
   <r>
     <x v="7"/>
     <x v="145"/>
-    <x v="0"/>
-    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
     <x v="0"/>
     <m/>
     <m/>
@@ -5361,7 +5365,7 @@
   <r>
     <x v="7"/>
     <x v="146"/>
-    <x v="0"/>
+    <x v="1"/>
     <x v="1"/>
     <x v="0"/>
     <m/>
@@ -5381,8 +5385,8 @@
   <r>
     <x v="7"/>
     <x v="148"/>
-    <x v="0"/>
-    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
     <x v="0"/>
     <m/>
     <m/>
@@ -5391,8 +5395,8 @@
   <r>
     <x v="7"/>
     <x v="149"/>
-    <x v="0"/>
-    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
     <x v="0"/>
     <m/>
     <m/>
@@ -5401,8 +5405,8 @@
   <r>
     <x v="7"/>
     <x v="150"/>
-    <x v="0"/>
-    <x v="0"/>
+    <x v="1"/>
+    <x v="1"/>
     <x v="0"/>
     <m/>
     <m/>
@@ -5411,7 +5415,7 @@
   <r>
     <x v="7"/>
     <x v="151"/>
-    <x v="0"/>
+    <x v="1"/>
     <x v="0"/>
     <x v="0"/>
     <m/>
@@ -5421,8 +5425,8 @@
   <r>
     <x v="7"/>
     <x v="152"/>
-    <x v="0"/>
-    <x v="1"/>
+    <x v="2"/>
+    <x v="0"/>
     <x v="0"/>
     <m/>
     <m/>
@@ -5432,7 +5436,7 @@
     <x v="7"/>
     <x v="153"/>
     <x v="0"/>
-    <x v="0"/>
+    <x v="1"/>
     <x v="0"/>
     <m/>
     <m/>
@@ -5451,8 +5455,8 @@
   <r>
     <x v="7"/>
     <x v="155"/>
-    <x v="0"/>
-    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
     <x v="0"/>
     <m/>
     <m/>
@@ -5462,7 +5466,7 @@
     <x v="7"/>
     <x v="156"/>
     <x v="0"/>
-    <x v="1"/>
+    <x v="0"/>
     <x v="0"/>
     <m/>
     <m/>
@@ -5471,7 +5475,7 @@
   <r>
     <x v="7"/>
     <x v="157"/>
-    <x v="0"/>
+    <x v="1"/>
     <x v="1"/>
     <x v="0"/>
     <m/>
@@ -5491,7 +5495,7 @@
   <r>
     <x v="7"/>
     <x v="159"/>
-    <x v="2"/>
+    <x v="0"/>
     <x v="1"/>
     <x v="0"/>
     <m/>
@@ -5522,7 +5526,7 @@
     <x v="7"/>
     <x v="162"/>
     <x v="1"/>
-    <x v="0"/>
+    <x v="1"/>
     <x v="0"/>
     <m/>
     <m/>
@@ -5549,9 +5553,9 @@
     <m/>
   </r>
   <r>
-    <x v="8"/>
+    <x v="7"/>
     <x v="165"/>
-    <x v="0"/>
+    <x v="1"/>
     <x v="0"/>
     <x v="0"/>
     <m/>
@@ -5561,7 +5565,7 @@
   <r>
     <x v="8"/>
     <x v="166"/>
-    <x v="0"/>
+    <x v="1"/>
     <x v="1"/>
     <x v="0"/>
     <m/>
@@ -5571,7 +5575,7 @@
   <r>
     <x v="8"/>
     <x v="167"/>
-    <x v="0"/>
+    <x v="1"/>
     <x v="1"/>
     <x v="0"/>
     <m/>
@@ -5581,8 +5585,8 @@
   <r>
     <x v="8"/>
     <x v="168"/>
-    <x v="0"/>
-    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
     <x v="0"/>
     <m/>
     <m/>
@@ -5592,7 +5596,7 @@
     <x v="8"/>
     <x v="169"/>
     <x v="0"/>
-    <x v="1"/>
+    <x v="0"/>
     <x v="0"/>
     <m/>
     <m/>
@@ -5601,8 +5605,8 @@
   <r>
     <x v="8"/>
     <x v="170"/>
-    <x v="0"/>
-    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
     <x v="0"/>
     <m/>
     <m/>
@@ -5611,8 +5615,8 @@
   <r>
     <x v="8"/>
     <x v="171"/>
-    <x v="0"/>
-    <x v="0"/>
+    <x v="1"/>
+    <x v="1"/>
     <x v="0"/>
     <m/>
     <m/>
@@ -5621,8 +5625,8 @@
   <r>
     <x v="8"/>
     <x v="172"/>
-    <x v="0"/>
-    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
     <x v="0"/>
     <m/>
     <m/>
@@ -5631,7 +5635,7 @@
   <r>
     <x v="8"/>
     <x v="173"/>
-    <x v="0"/>
+    <x v="1"/>
     <x v="1"/>
     <x v="0"/>
     <m/>
@@ -5641,8 +5645,8 @@
   <r>
     <x v="8"/>
     <x v="174"/>
-    <x v="0"/>
-    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
     <x v="0"/>
     <m/>
     <m/>
@@ -5651,8 +5655,8 @@
   <r>
     <x v="8"/>
     <x v="175"/>
-    <x v="0"/>
-    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
     <x v="0"/>
     <m/>
     <m/>
@@ -5661,7 +5665,7 @@
   <r>
     <x v="8"/>
     <x v="176"/>
-    <x v="0"/>
+    <x v="1"/>
     <x v="0"/>
     <x v="0"/>
     <m/>
@@ -5671,7 +5675,7 @@
   <r>
     <x v="8"/>
     <x v="177"/>
-    <x v="0"/>
+    <x v="1"/>
     <x v="0"/>
     <x v="0"/>
     <m/>
@@ -5681,7 +5685,7 @@
   <r>
     <x v="8"/>
     <x v="178"/>
-    <x v="0"/>
+    <x v="1"/>
     <x v="1"/>
     <x v="0"/>
     <m/>
@@ -5691,7 +5695,7 @@
   <r>
     <x v="8"/>
     <x v="179"/>
-    <x v="0"/>
+    <x v="1"/>
     <x v="1"/>
     <x v="0"/>
     <m/>
@@ -5702,7 +5706,7 @@
     <x v="8"/>
     <x v="180"/>
     <x v="0"/>
-    <x v="1"/>
+    <x v="0"/>
     <x v="0"/>
     <m/>
     <m/>
@@ -5712,7 +5716,7 @@
     <x v="8"/>
     <x v="181"/>
     <x v="1"/>
-    <x v="1"/>
+    <x v="0"/>
     <x v="0"/>
     <m/>
     <m/>
@@ -5722,7 +5726,7 @@
     <x v="8"/>
     <x v="182"/>
     <x v="1"/>
-    <x v="1"/>
+    <x v="0"/>
     <x v="0"/>
     <m/>
     <m/>
@@ -5731,7 +5735,7 @@
   <r>
     <x v="8"/>
     <x v="183"/>
-    <x v="1"/>
+    <x v="0"/>
     <x v="0"/>
     <x v="0"/>
     <m/>
@@ -5741,18 +5745,18 @@
   <r>
     <x v="8"/>
     <x v="184"/>
-    <x v="1"/>
-    <x v="1"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="9"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="8"/>
     <x v="185"/>
-    <x v="0"/>
-    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
     <x v="0"/>
     <m/>
     <m/>
@@ -5761,7 +5765,7 @@
   <r>
     <x v="9"/>
     <x v="186"/>
-    <x v="0"/>
+    <x v="1"/>
     <x v="0"/>
     <x v="0"/>
     <m/>
@@ -5771,7 +5775,7 @@
   <r>
     <x v="9"/>
     <x v="187"/>
-    <x v="0"/>
+    <x v="1"/>
     <x v="1"/>
     <x v="0"/>
     <m/>
@@ -5781,8 +5785,8 @@
   <r>
     <x v="9"/>
     <x v="188"/>
-    <x v="0"/>
-    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
     <x v="0"/>
     <m/>
     <m/>
@@ -5791,7 +5795,7 @@
   <r>
     <x v="9"/>
     <x v="189"/>
-    <x v="0"/>
+    <x v="1"/>
     <x v="1"/>
     <x v="0"/>
     <m/>
@@ -5801,8 +5805,8 @@
   <r>
     <x v="9"/>
     <x v="190"/>
-    <x v="0"/>
-    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
     <x v="0"/>
     <m/>
     <m/>
@@ -5811,8 +5815,8 @@
   <r>
     <x v="9"/>
     <x v="191"/>
-    <x v="0"/>
-    <x v="0"/>
+    <x v="1"/>
+    <x v="1"/>
     <x v="0"/>
     <m/>
     <m/>
@@ -5821,7 +5825,7 @@
   <r>
     <x v="9"/>
     <x v="192"/>
-    <x v="0"/>
+    <x v="1"/>
     <x v="1"/>
     <x v="0"/>
     <m/>
@@ -5841,7 +5845,7 @@
   <r>
     <x v="9"/>
     <x v="194"/>
-    <x v="0"/>
+    <x v="1"/>
     <x v="0"/>
     <x v="0"/>
     <m/>
@@ -5851,7 +5855,7 @@
   <r>
     <x v="9"/>
     <x v="195"/>
-    <x v="0"/>
+    <x v="1"/>
     <x v="1"/>
     <x v="0"/>
     <m/>
@@ -5861,7 +5865,7 @@
   <r>
     <x v="9"/>
     <x v="196"/>
-    <x v="0"/>
+    <x v="1"/>
     <x v="0"/>
     <x v="0"/>
     <m/>
@@ -5871,8 +5875,8 @@
   <r>
     <x v="9"/>
     <x v="197"/>
-    <x v="0"/>
-    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
     <x v="0"/>
     <m/>
     <m/>
@@ -5882,17 +5886,17 @@
     <x v="9"/>
     <x v="198"/>
     <x v="1"/>
-    <x v="1"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="10"/>
+    <x v="0"/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="9"/>
     <x v="199"/>
-    <x v="0"/>
-    <x v="0"/>
+    <x v="1"/>
+    <x v="1"/>
     <x v="0"/>
     <m/>
     <m/>
@@ -5901,7 +5905,7 @@
   <r>
     <x v="10"/>
     <x v="200"/>
-    <x v="0"/>
+    <x v="1"/>
     <x v="0"/>
     <x v="0"/>
     <m/>
@@ -5911,8 +5915,8 @@
   <r>
     <x v="10"/>
     <x v="201"/>
-    <x v="0"/>
-    <x v="0"/>
+    <x v="1"/>
+    <x v="1"/>
     <x v="0"/>
     <m/>
     <m/>
@@ -5921,8 +5925,8 @@
   <r>
     <x v="10"/>
     <x v="202"/>
-    <x v="0"/>
-    <x v="0"/>
+    <x v="1"/>
+    <x v="1"/>
     <x v="0"/>
     <m/>
     <m/>
@@ -5931,8 +5935,8 @@
   <r>
     <x v="10"/>
     <x v="203"/>
-    <x v="0"/>
-    <x v="0"/>
+    <x v="1"/>
+    <x v="1"/>
     <x v="0"/>
     <m/>
     <m/>
@@ -5941,7 +5945,7 @@
   <r>
     <x v="10"/>
     <x v="204"/>
-    <x v="0"/>
+    <x v="1"/>
     <x v="0"/>
     <x v="0"/>
     <m/>
@@ -5951,7 +5955,7 @@
   <r>
     <x v="10"/>
     <x v="205"/>
-    <x v="0"/>
+    <x v="1"/>
     <x v="0"/>
     <x v="0"/>
     <m/>
@@ -5961,8 +5965,8 @@
   <r>
     <x v="10"/>
     <x v="206"/>
-    <x v="0"/>
-    <x v="0"/>
+    <x v="1"/>
+    <x v="1"/>
     <x v="0"/>
     <m/>
     <m/>
@@ -5971,7 +5975,7 @@
   <r>
     <x v="10"/>
     <x v="207"/>
-    <x v="0"/>
+    <x v="1"/>
     <x v="1"/>
     <x v="0"/>
     <m/>
@@ -5992,7 +5996,7 @@
     <x v="10"/>
     <x v="209"/>
     <x v="1"/>
-    <x v="0"/>
+    <x v="1"/>
     <x v="0"/>
     <m/>
     <m/>
@@ -6002,7 +6006,7 @@
     <x v="10"/>
     <x v="210"/>
     <x v="1"/>
-    <x v="0"/>
+    <x v="1"/>
     <x v="0"/>
     <m/>
     <m/>
@@ -6012,7 +6016,7 @@
     <x v="10"/>
     <x v="211"/>
     <x v="0"/>
-    <x v="1"/>
+    <x v="0"/>
     <x v="0"/>
     <m/>
     <m/>
@@ -6022,7 +6026,7 @@
     <x v="10"/>
     <x v="212"/>
     <x v="0"/>
-    <x v="0"/>
+    <x v="1"/>
     <x v="0"/>
     <m/>
     <m/>
@@ -6031,8 +6035,8 @@
   <r>
     <x v="10"/>
     <x v="213"/>
-    <x v="0"/>
-    <x v="0"/>
+    <x v="1"/>
+    <x v="1"/>
     <x v="0"/>
     <m/>
     <m/>
@@ -6041,7 +6045,7 @@
   <r>
     <x v="10"/>
     <x v="214"/>
-    <x v="0"/>
+    <x v="1"/>
     <x v="1"/>
     <x v="0"/>
     <m/>
@@ -6051,7 +6055,7 @@
   <r>
     <x v="10"/>
     <x v="215"/>
-    <x v="0"/>
+    <x v="2"/>
     <x v="0"/>
     <x v="0"/>
     <m/>
@@ -6061,7 +6065,7 @@
   <r>
     <x v="10"/>
     <x v="216"/>
-    <x v="0"/>
+    <x v="1"/>
     <x v="1"/>
     <x v="0"/>
     <m/>
@@ -6071,7 +6075,17 @@
   <r>
     <x v="10"/>
     <x v="217"/>
-    <x v="2"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="10"/>
+    <x v="218"/>
+    <x v="0"/>
     <x v="1"/>
     <x v="0"/>
     <m/>
@@ -6080,7 +6094,7 @@
   </r>
   <r>
     <x v="11"/>
-    <x v="218"/>
+    <x v="219"/>
     <x v="3"/>
     <x v="2"/>
     <x v="1"/>
@@ -6090,7 +6104,7 @@
   </r>
   <r>
     <x v="11"/>
-    <x v="218"/>
+    <x v="219"/>
     <x v="3"/>
     <x v="2"/>
     <x v="1"/>
@@ -6100,7 +6114,7 @@
   </r>
   <r>
     <x v="11"/>
-    <x v="218"/>
+    <x v="219"/>
     <x v="3"/>
     <x v="2"/>
     <x v="1"/>
@@ -6110,7 +6124,7 @@
   </r>
   <r>
     <x v="11"/>
-    <x v="218"/>
+    <x v="219"/>
     <x v="3"/>
     <x v="2"/>
     <x v="1"/>
@@ -6120,7 +6134,7 @@
   </r>
   <r>
     <x v="11"/>
-    <x v="218"/>
+    <x v="219"/>
     <x v="3"/>
     <x v="2"/>
     <x v="1"/>
@@ -6130,7 +6144,7 @@
   </r>
   <r>
     <x v="11"/>
-    <x v="218"/>
+    <x v="219"/>
     <x v="3"/>
     <x v="2"/>
     <x v="1"/>
@@ -6140,7 +6154,7 @@
   </r>
   <r>
     <x v="11"/>
-    <x v="218"/>
+    <x v="219"/>
     <x v="3"/>
     <x v="2"/>
     <x v="1"/>
@@ -6150,7 +6164,7 @@
   </r>
   <r>
     <x v="11"/>
-    <x v="218"/>
+    <x v="219"/>
     <x v="3"/>
     <x v="2"/>
     <x v="1"/>
@@ -6160,7 +6174,7 @@
   </r>
   <r>
     <x v="11"/>
-    <x v="218"/>
+    <x v="219"/>
     <x v="3"/>
     <x v="2"/>
     <x v="1"/>
@@ -6170,7 +6184,7 @@
   </r>
   <r>
     <x v="11"/>
-    <x v="218"/>
+    <x v="219"/>
     <x v="3"/>
     <x v="2"/>
     <x v="1"/>
@@ -6180,7 +6194,7 @@
   </r>
   <r>
     <x v="11"/>
-    <x v="218"/>
+    <x v="219"/>
     <x v="3"/>
     <x v="2"/>
     <x v="1"/>
@@ -6192,7 +6206,131 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{D443304E-F10F-4C77-A7DB-6048C0DF3E68}" name="PivotTable2" cacheId="7522" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="2">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{5BE17AE4-2B6C-4B30-A799-10769CD87AE0}" name="PivotTable3" cacheId="4351" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+  <location ref="G8:I13" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
+  <pivotFields count="8">
+    <pivotField axis="axisPage" showAll="0">
+      <items count="13">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="11"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="5">
+        <item x="1"/>
+        <item x="2"/>
+        <item x="0"/>
+        <item h="1" x="3"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisCol" showAll="0">
+      <items count="4">
+        <item x="1"/>
+        <item x="0"/>
+        <item m="1" x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="2"/>
+  </rowFields>
+  <rowItems count="4">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="4"/>
+  </colFields>
+  <colItems count="2">
+    <i>
+      <x v="1"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </colItems>
+  <pageFields count="1">
+    <pageField fld="0" hier="-1"/>
+  </pageFields>
+  <dataFields count="1">
+    <dataField name="Count of Organisation Name" fld="1" subtotal="count" baseField="0" baseItem="0"/>
+  </dataFields>
+  <formats count="2">
+    <format dxfId="10">
+      <pivotArea field="4" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisCol" fieldPosition="0"/>
+    </format>
+    <format dxfId="11">
+      <pivotArea field="2" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
+    </format>
+  </formats>
+  <chartFormats count="2">
+    <chartFormat chart="0" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="4" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="1" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="4" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{D443304E-F10F-4C77-A7DB-6048C0DF3E68}" name="PivotTable2" cacheId="4351" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="2">
   <location ref="B8:E13" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="8">
     <pivotField axis="axisPage" showAll="0">
@@ -6215,18 +6353,18 @@
     <pivotField dataField="1" showAll="0"/>
     <pivotField axis="axisRow" showAll="0">
       <items count="5">
+        <item x="1"/>
+        <item x="2"/>
         <item x="0"/>
-        <item x="2"/>
-        <item x="1"/>
         <item h="1" x="3"/>
         <item t="default"/>
       </items>
     </pivotField>
     <pivotField axis="axisCol" showAll="0">
       <items count="4">
+        <item x="1"/>
+        <item x="2"/>
         <item x="0"/>
-        <item x="2"/>
-        <item x="1"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -6273,10 +6411,10 @@
     <dataField name="Count of Organisation Name" fld="1" subtotal="count" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="2">
-    <format dxfId="10">
+    <format dxfId="8">
       <pivotArea field="3" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisCol" fieldPosition="0"/>
     </format>
-    <format dxfId="11">
+    <format dxfId="9">
       <pivotArea field="2" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
   </formats>
@@ -6411,8 +6549,8 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{ED146AEC-A721-41A7-BFF9-084390AFF3CA}" name="PivotTable5" cacheId="7522" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{ED146AEC-A721-41A7-BFF9-084390AFF3CA}" name="PivotTable5" cacheId="4351" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="G39:G40" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="2" colPageCount="1"/>
   <pivotFields count="8">
     <pivotField axis="axisPage" showAll="0">
@@ -6433,231 +6571,232 @@
       </items>
     </pivotField>
     <pivotField axis="axisRow" showAll="0">
-      <items count="225">
-        <item x="73"/>
-        <item x="12"/>
+      <items count="226">
+        <item x="57"/>
+        <item x="0"/>
+        <item x="58"/>
+        <item x="59"/>
+        <item x="1"/>
         <item x="60"/>
-        <item x="79"/>
-        <item x="13"/>
-        <item x="57"/>
         <item x="23"/>
-        <item x="32"/>
-        <item x="211"/>
-        <item x="165"/>
+        <item x="24"/>
+        <item x="200"/>
+        <item x="166"/>
         <item x="2"/>
-        <item x="55"/>
-        <item x="195"/>
-        <item x="109"/>
+        <item x="25"/>
+        <item x="186"/>
         <item x="110"/>
         <item x="111"/>
-        <item x="166"/>
-        <item x="144"/>
-        <item x="212"/>
-        <item x="56"/>
-        <item x="145"/>
+        <item x="112"/>
         <item x="167"/>
-        <item x="184"/>
-        <item x="24"/>
-        <item m="1" x="222"/>
-        <item x="146"/>
-        <item x="112"/>
-        <item x="75"/>
-        <item x="213"/>
-        <item x="3"/>
-        <item x="25"/>
-        <item x="76"/>
+        <item x="136"/>
+        <item x="201"/>
+        <item x="26"/>
+        <item x="137"/>
+        <item x="168"/>
+        <item x="169"/>
+        <item x="27"/>
+        <item m="1" x="223"/>
+        <item x="138"/>
+        <item x="113"/>
+        <item x="62"/>
+        <item x="202"/>
+        <item x="4"/>
+        <item x="28"/>
+        <item x="63"/>
         <item x="5"/>
-        <item x="77"/>
-        <item x="113"/>
+        <item x="64"/>
         <item x="114"/>
-        <item x="78"/>
-        <item x="33"/>
-        <item x="61"/>
-        <item x="80"/>
-        <item x="168"/>
-        <item x="191"/>
-        <item x="34"/>
         <item x="115"/>
-        <item x="97"/>
+        <item x="65"/>
+        <item x="29"/>
+        <item x="66"/>
+        <item x="67"/>
+        <item x="170"/>
+        <item x="187"/>
+        <item x="30"/>
+        <item x="116"/>
+        <item x="96"/>
         <item x="14"/>
         <item x="15"/>
-        <item x="169"/>
-        <item x="199"/>
-        <item x="170"/>
-        <item x="192"/>
+        <item x="171"/>
+        <item x="203"/>
+        <item x="172"/>
+        <item x="188"/>
+        <item x="97"/>
+        <item x="31"/>
+        <item x="204"/>
+        <item x="139"/>
+        <item x="117"/>
+        <item x="32"/>
+        <item x="6"/>
+        <item x="68"/>
+        <item m="1" x="222"/>
+        <item m="1" x="221"/>
+        <item m="1" x="224"/>
+        <item x="69"/>
+        <item x="70"/>
+        <item x="140"/>
         <item x="98"/>
+        <item x="71"/>
+        <item x="72"/>
+        <item x="173"/>
+        <item x="33"/>
+        <item x="34"/>
+        <item x="118"/>
         <item x="35"/>
-        <item x="216"/>
-        <item x="147"/>
-        <item x="133"/>
-        <item x="26"/>
-        <item x="0"/>
-        <item x="62"/>
-        <item m="1" x="220"/>
-        <item m="1" x="219"/>
-        <item m="1" x="223"/>
-        <item x="81"/>
-        <item x="63"/>
+        <item x="141"/>
+        <item x="36"/>
+        <item x="99"/>
+        <item x="37"/>
+        <item x="189"/>
+        <item x="7"/>
+        <item x="73"/>
+        <item x="38"/>
+        <item x="39"/>
+        <item x="205"/>
         <item x="142"/>
-        <item x="99"/>
-        <item x="64"/>
-        <item x="65"/>
-        <item x="171"/>
-        <item x="36"/>
-        <item x="37"/>
-        <item x="116"/>
-        <item x="27"/>
-        <item x="148"/>
-        <item x="38"/>
-        <item x="100"/>
-        <item x="39"/>
-        <item x="196"/>
-        <item x="1"/>
-        <item x="66"/>
+        <item x="143"/>
+        <item x="174"/>
         <item x="40"/>
+        <item x="75"/>
+        <item x="144"/>
+        <item x="76"/>
         <item x="41"/>
+        <item x="206"/>
+        <item x="77"/>
+        <item x="119"/>
+        <item x="42"/>
+        <item x="120"/>
         <item x="207"/>
-        <item x="135"/>
-        <item x="155"/>
-        <item x="172"/>
-        <item x="28"/>
-        <item x="67"/>
-        <item x="141"/>
-        <item x="82"/>
-        <item x="42"/>
-        <item x="215"/>
-        <item x="68"/>
-        <item x="117"/>
-        <item x="43"/>
-        <item x="118"/>
-        <item x="200"/>
         <item x="16"/>
         <item x="17"/>
+        <item x="43"/>
+        <item x="208"/>
+        <item x="94"/>
         <item x="44"/>
-        <item x="205"/>
-        <item x="93"/>
+        <item x="8"/>
+        <item x="121"/>
+        <item x="145"/>
         <item x="45"/>
-        <item x="6"/>
-        <item x="119"/>
-        <item x="149"/>
+        <item x="100"/>
+        <item x="146"/>
+        <item x="78"/>
+        <item x="79"/>
+        <item x="101"/>
         <item x="46"/>
-        <item x="101"/>
-        <item x="150"/>
-        <item x="69"/>
-        <item x="58"/>
+        <item x="9"/>
         <item x="102"/>
-        <item x="47"/>
-        <item x="7"/>
-        <item x="95"/>
-        <item x="201"/>
-        <item x="173"/>
-        <item x="96"/>
-        <item x="202"/>
+        <item x="209"/>
+        <item x="175"/>
+        <item x="103"/>
+        <item x="210"/>
         <item x="18"/>
-        <item x="208"/>
-        <item x="209"/>
-        <item x="103"/>
-        <item x="108"/>
+        <item x="211"/>
+        <item x="212"/>
+        <item x="104"/>
+        <item x="105"/>
         <item x="19"/>
         <item x="20"/>
-        <item x="120"/>
+        <item x="122"/>
+        <item x="147"/>
+        <item x="148"/>
+        <item x="10"/>
+        <item x="21"/>
+        <item x="176"/>
+        <item x="177"/>
+        <item x="149"/>
+        <item x="150"/>
+        <item x="151"/>
+        <item x="47"/>
+        <item x="106"/>
+        <item x="48"/>
+        <item x="152"/>
+        <item x="80"/>
+        <item x="123"/>
+        <item x="213"/>
+        <item x="49"/>
+        <item x="22"/>
+        <item x="124"/>
+        <item x="190"/>
+        <item x="125"/>
+        <item x="153"/>
+        <item x="81"/>
+        <item m="1" x="220"/>
+        <item x="214"/>
+        <item x="191"/>
+        <item x="82"/>
+        <item x="155"/>
+        <item x="192"/>
+        <item x="178"/>
+        <item x="156"/>
+        <item x="179"/>
+        <item x="126"/>
+        <item x="107"/>
+        <item x="180"/>
+        <item x="215"/>
+        <item x="157"/>
+        <item x="11"/>
+        <item x="158"/>
+        <item x="50"/>
+        <item x="193"/>
+        <item x="159"/>
+        <item x="83"/>
+        <item x="127"/>
+        <item x="128"/>
+        <item x="129"/>
+        <item x="108"/>
+        <item x="95"/>
+        <item x="12"/>
+        <item x="109"/>
         <item x="160"/>
-        <item x="156"/>
-        <item x="8"/>
-        <item x="22"/>
-        <item x="174"/>
-        <item x="175"/>
-        <item x="158"/>
-        <item x="151"/>
-        <item x="157"/>
-        <item x="48"/>
-        <item x="104"/>
-        <item x="49"/>
-        <item x="159"/>
-        <item x="70"/>
-        <item x="122"/>
-        <item x="203"/>
-        <item x="29"/>
-        <item x="21"/>
-        <item x="123"/>
-        <item x="197"/>
-        <item x="124"/>
+        <item x="51"/>
+        <item x="181"/>
+        <item x="130"/>
+        <item x="84"/>
+        <item x="85"/>
+        <item x="194"/>
+        <item x="86"/>
+        <item x="13"/>
+        <item x="182"/>
+        <item x="52"/>
+        <item x="131"/>
         <item x="161"/>
-        <item x="83"/>
-        <item m="1" x="221"/>
-        <item x="206"/>
-        <item x="193"/>
-        <item x="84"/>
-        <item x="152"/>
-        <item x="194"/>
-        <item x="176"/>
-        <item x="163"/>
-        <item x="177"/>
-        <item x="134"/>
-        <item x="105"/>
-        <item x="181"/>
-        <item x="217"/>
-        <item x="140"/>
-        <item x="9"/>
-        <item x="164"/>
-        <item x="30"/>
-        <item x="198"/>
-        <item x="143"/>
-        <item x="85"/>
-        <item x="125"/>
-        <item x="126"/>
-        <item x="127"/>
-        <item x="106"/>
-        <item x="94"/>
-        <item x="11"/>
-        <item x="107"/>
-        <item x="153"/>
-        <item x="50"/>
-        <item x="178"/>
-        <item x="128"/>
-        <item x="71"/>
-        <item x="72"/>
-        <item x="185"/>
-        <item x="86"/>
-        <item x="10"/>
-        <item x="179"/>
-        <item x="51"/>
-        <item x="121"/>
-        <item x="154"/>
-        <item x="129"/>
-        <item x="31"/>
-        <item x="186"/>
+        <item x="132"/>
+        <item x="53"/>
+        <item x="195"/>
         <item x="87"/>
         <item x="88"/>
         <item x="89"/>
-        <item x="59"/>
-        <item x="204"/>
         <item x="90"/>
-        <item x="189"/>
-        <item x="52"/>
-        <item x="53"/>
-        <item x="130"/>
-        <item x="187"/>
+        <item x="216"/>
         <item x="91"/>
-        <item x="182"/>
-        <item x="136"/>
-        <item x="137"/>
+        <item x="196"/>
+        <item x="54"/>
+        <item x="55"/>
+        <item x="133"/>
+        <item x="197"/>
+        <item x="92"/>
         <item x="183"/>
-        <item x="54"/>
-        <item x="131"/>
-        <item x="180"/>
-        <item x="138"/>
-        <item x="132"/>
-        <item x="139"/>
-        <item x="190"/>
-        <item x="188"/>
-        <item x="92"/>
-        <item x="214"/>
-        <item x="210"/>
+        <item x="162"/>
+        <item x="163"/>
+        <item x="184"/>
+        <item x="56"/>
+        <item x="134"/>
+        <item x="185"/>
+        <item x="164"/>
+        <item x="135"/>
+        <item x="165"/>
+        <item x="198"/>
+        <item x="199"/>
+        <item x="93"/>
+        <item x="217"/>
         <item x="218"/>
+        <item x="219"/>
+        <item x="61"/>
+        <item x="154"/>
+        <item x="3"/>
         <item x="74"/>
-        <item x="162"/>
-        <item x="4"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -6691,515 +6830,6 @@
     <pageField fld="0" hier="-1"/>
   </pageFields>
   <formats count="2">
-    <format dxfId="8">
-      <pivotArea field="1" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
-    </format>
-    <format dxfId="9">
-      <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
-    </format>
-  </formats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{930C86FA-4FA7-4582-924C-04064F9B1116}" name="PivotTable4" cacheId="7522" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="B39:B110" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="2" colPageCount="1"/>
-  <pivotFields count="8">
-    <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="13">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item x="8"/>
-        <item x="9"/>
-        <item x="10"/>
-        <item x="11"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisRow" showAll="0">
-      <items count="225">
-        <item x="73"/>
-        <item x="12"/>
-        <item x="60"/>
-        <item x="79"/>
-        <item x="13"/>
-        <item x="57"/>
-        <item x="23"/>
-        <item x="32"/>
-        <item x="211"/>
-        <item x="165"/>
-        <item x="2"/>
-        <item x="55"/>
-        <item x="195"/>
-        <item x="109"/>
-        <item x="110"/>
-        <item x="111"/>
-        <item x="166"/>
-        <item x="144"/>
-        <item x="212"/>
-        <item x="56"/>
-        <item x="145"/>
-        <item x="167"/>
-        <item x="184"/>
-        <item x="24"/>
-        <item m="1" x="222"/>
-        <item x="146"/>
-        <item x="112"/>
-        <item x="75"/>
-        <item x="213"/>
-        <item x="3"/>
-        <item x="25"/>
-        <item x="76"/>
-        <item x="5"/>
-        <item x="77"/>
-        <item x="113"/>
-        <item x="114"/>
-        <item x="78"/>
-        <item x="33"/>
-        <item x="61"/>
-        <item x="80"/>
-        <item x="168"/>
-        <item x="191"/>
-        <item x="34"/>
-        <item x="115"/>
-        <item x="97"/>
-        <item x="14"/>
-        <item x="15"/>
-        <item x="169"/>
-        <item x="199"/>
-        <item x="170"/>
-        <item x="192"/>
-        <item x="98"/>
-        <item x="35"/>
-        <item x="216"/>
-        <item x="147"/>
-        <item x="133"/>
-        <item x="26"/>
-        <item x="0"/>
-        <item x="62"/>
-        <item m="1" x="220"/>
-        <item m="1" x="219"/>
-        <item m="1" x="223"/>
-        <item x="81"/>
-        <item x="63"/>
-        <item x="142"/>
-        <item x="99"/>
-        <item x="64"/>
-        <item x="65"/>
-        <item x="171"/>
-        <item x="36"/>
-        <item x="37"/>
-        <item x="116"/>
-        <item x="27"/>
-        <item x="148"/>
-        <item x="38"/>
-        <item x="100"/>
-        <item x="39"/>
-        <item x="196"/>
-        <item x="1"/>
-        <item x="66"/>
-        <item x="40"/>
-        <item x="41"/>
-        <item x="207"/>
-        <item x="135"/>
-        <item x="155"/>
-        <item x="172"/>
-        <item x="28"/>
-        <item x="67"/>
-        <item x="141"/>
-        <item x="82"/>
-        <item x="42"/>
-        <item x="215"/>
-        <item x="68"/>
-        <item x="117"/>
-        <item x="43"/>
-        <item x="118"/>
-        <item x="200"/>
-        <item x="16"/>
-        <item x="17"/>
-        <item x="44"/>
-        <item x="205"/>
-        <item x="93"/>
-        <item x="45"/>
-        <item x="6"/>
-        <item x="119"/>
-        <item x="149"/>
-        <item x="46"/>
-        <item x="101"/>
-        <item x="150"/>
-        <item x="69"/>
-        <item x="58"/>
-        <item x="102"/>
-        <item x="47"/>
-        <item x="7"/>
-        <item x="95"/>
-        <item x="201"/>
-        <item x="173"/>
-        <item x="96"/>
-        <item x="202"/>
-        <item x="18"/>
-        <item x="208"/>
-        <item x="209"/>
-        <item x="103"/>
-        <item x="108"/>
-        <item x="19"/>
-        <item x="20"/>
-        <item x="120"/>
-        <item x="160"/>
-        <item x="156"/>
-        <item x="8"/>
-        <item x="22"/>
-        <item x="174"/>
-        <item x="175"/>
-        <item x="158"/>
-        <item x="151"/>
-        <item x="157"/>
-        <item x="48"/>
-        <item x="104"/>
-        <item x="49"/>
-        <item x="159"/>
-        <item x="70"/>
-        <item x="122"/>
-        <item x="203"/>
-        <item x="29"/>
-        <item x="21"/>
-        <item x="123"/>
-        <item x="197"/>
-        <item x="124"/>
-        <item x="161"/>
-        <item x="83"/>
-        <item m="1" x="221"/>
-        <item x="206"/>
-        <item x="193"/>
-        <item x="84"/>
-        <item x="152"/>
-        <item x="194"/>
-        <item x="176"/>
-        <item x="163"/>
-        <item x="177"/>
-        <item x="134"/>
-        <item x="105"/>
-        <item x="181"/>
-        <item x="217"/>
-        <item x="140"/>
-        <item x="9"/>
-        <item x="164"/>
-        <item x="30"/>
-        <item x="198"/>
-        <item x="143"/>
-        <item x="85"/>
-        <item x="125"/>
-        <item x="126"/>
-        <item x="127"/>
-        <item x="106"/>
-        <item x="94"/>
-        <item x="11"/>
-        <item x="107"/>
-        <item x="153"/>
-        <item x="50"/>
-        <item x="178"/>
-        <item x="128"/>
-        <item x="71"/>
-        <item x="72"/>
-        <item x="185"/>
-        <item x="86"/>
-        <item x="10"/>
-        <item x="179"/>
-        <item x="51"/>
-        <item x="121"/>
-        <item x="154"/>
-        <item x="129"/>
-        <item x="31"/>
-        <item x="186"/>
-        <item x="87"/>
-        <item x="88"/>
-        <item x="89"/>
-        <item x="59"/>
-        <item x="204"/>
-        <item x="90"/>
-        <item x="189"/>
-        <item x="52"/>
-        <item x="53"/>
-        <item x="130"/>
-        <item x="187"/>
-        <item x="91"/>
-        <item x="182"/>
-        <item x="136"/>
-        <item x="137"/>
-        <item x="183"/>
-        <item x="54"/>
-        <item x="131"/>
-        <item x="180"/>
-        <item x="138"/>
-        <item x="132"/>
-        <item x="139"/>
-        <item x="190"/>
-        <item x="188"/>
-        <item x="92"/>
-        <item x="214"/>
-        <item x="210"/>
-        <item x="218"/>
-        <item x="74"/>
-        <item x="162"/>
-        <item x="4"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisPage" showAll="0">
-      <items count="4">
-        <item h="1" x="1"/>
-        <item x="0"/>
-        <item h="1" x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="1"/>
-  </rowFields>
-  <rowItems count="71">
-    <i>
-      <x v="5"/>
-    </i>
-    <i>
-      <x v="7"/>
-    </i>
-    <i>
-      <x v="9"/>
-    </i>
-    <i>
-      <x v="13"/>
-    </i>
-    <i>
-      <x v="15"/>
-    </i>
-    <i>
-      <x v="17"/>
-    </i>
-    <i>
-      <x v="18"/>
-    </i>
-    <i>
-      <x v="28"/>
-    </i>
-    <i>
-      <x v="29"/>
-    </i>
-    <i>
-      <x v="30"/>
-    </i>
-    <i>
-      <x v="37"/>
-    </i>
-    <i>
-      <x v="41"/>
-    </i>
-    <i>
-      <x v="42"/>
-    </i>
-    <i>
-      <x v="44"/>
-    </i>
-    <i>
-      <x v="45"/>
-    </i>
-    <i>
-      <x v="46"/>
-    </i>
-    <i>
-      <x v="48"/>
-    </i>
-    <i>
-      <x v="54"/>
-    </i>
-    <i>
-      <x v="56"/>
-    </i>
-    <i>
-      <x v="57"/>
-    </i>
-    <i>
-      <x v="68"/>
-    </i>
-    <i>
-      <x v="69"/>
-    </i>
-    <i>
-      <x v="70"/>
-    </i>
-    <i>
-      <x v="72"/>
-    </i>
-    <i>
-      <x v="77"/>
-    </i>
-    <i>
-      <x v="78"/>
-    </i>
-    <i>
-      <x v="81"/>
-    </i>
-    <i>
-      <x v="88"/>
-    </i>
-    <i>
-      <x v="91"/>
-    </i>
-    <i>
-      <x v="94"/>
-    </i>
-    <i>
-      <x v="96"/>
-    </i>
-    <i>
-      <x v="97"/>
-    </i>
-    <i>
-      <x v="100"/>
-    </i>
-    <i>
-      <x v="104"/>
-    </i>
-    <i>
-      <x v="108"/>
-    </i>
-    <i>
-      <x v="110"/>
-    </i>
-    <i>
-      <x v="113"/>
-    </i>
-    <i>
-      <x v="115"/>
-    </i>
-    <i>
-      <x v="118"/>
-    </i>
-    <i>
-      <x v="121"/>
-    </i>
-    <i>
-      <x v="134"/>
-    </i>
-    <i>
-      <x v="142"/>
-    </i>
-    <i>
-      <x v="143"/>
-    </i>
-    <i>
-      <x v="147"/>
-    </i>
-    <i>
-      <x v="148"/>
-    </i>
-    <i>
-      <x v="151"/>
-    </i>
-    <i>
-      <x v="152"/>
-    </i>
-    <i>
-      <x v="153"/>
-    </i>
-    <i>
-      <x v="155"/>
-    </i>
-    <i>
-      <x v="156"/>
-    </i>
-    <i>
-      <x v="158"/>
-    </i>
-    <i>
-      <x v="159"/>
-    </i>
-    <i>
-      <x v="160"/>
-    </i>
-    <i>
-      <x v="165"/>
-    </i>
-    <i>
-      <x v="166"/>
-    </i>
-    <i>
-      <x v="168"/>
-    </i>
-    <i>
-      <x v="177"/>
-    </i>
-    <i>
-      <x v="184"/>
-    </i>
-    <i>
-      <x v="192"/>
-    </i>
-    <i>
-      <x v="193"/>
-    </i>
-    <i>
-      <x v="195"/>
-    </i>
-    <i>
-      <x v="196"/>
-    </i>
-    <i>
-      <x v="197"/>
-    </i>
-    <i>
-      <x v="206"/>
-    </i>
-    <i>
-      <x v="207"/>
-    </i>
-    <i>
-      <x v="208"/>
-    </i>
-    <i>
-      <x v="219"/>
-    </i>
-    <i>
-      <x v="221"/>
-    </i>
-    <i>
-      <x v="222"/>
-    </i>
-    <i>
-      <x v="223"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <pageFields count="2">
-    <pageField fld="3" item="1" hier="-1"/>
-    <pageField fld="0" hier="-1"/>
-  </pageFields>
-  <formats count="2">
     <format dxfId="6">
       <pivotArea field="1" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
@@ -7220,10 +6850,10 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{5BE17AE4-2B6C-4B30-A799-10769CD87AE0}" name="PivotTable3" cacheId="7522" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
-  <location ref="G8:I13" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{930C86FA-4FA7-4582-924C-04064F9B1116}" name="PivotTable4" cacheId="4351" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="B39:B129" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="2" colPageCount="1"/>
   <pivotFields count="8">
-    <pivotField axis="axisPage" showAll="0">
+    <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
       <items count="13">
         <item x="0"/>
         <item x="1"/>
@@ -7240,97 +6870,540 @@
         <item t="default"/>
       </items>
     </pivotField>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField axis="axisRow" showAll="0">
-      <items count="5">
+    <pivotField axis="axisRow" showAll="0" sortType="ascending">
+      <items count="226">
+        <item x="57"/>
         <item x="0"/>
+        <item x="58"/>
+        <item x="59"/>
+        <item x="1"/>
+        <item x="60"/>
+        <item x="23"/>
+        <item x="24"/>
+        <item x="200"/>
+        <item x="166"/>
         <item x="2"/>
-        <item x="1"/>
-        <item h="1" x="3"/>
+        <item x="25"/>
+        <item x="186"/>
+        <item x="110"/>
+        <item x="111"/>
+        <item x="112"/>
+        <item x="167"/>
+        <item x="136"/>
+        <item x="201"/>
+        <item x="26"/>
+        <item x="137"/>
+        <item x="168"/>
+        <item x="169"/>
+        <item x="27"/>
+        <item m="1" x="223"/>
+        <item x="61"/>
+        <item x="138"/>
+        <item x="113"/>
+        <item x="62"/>
+        <item x="202"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="28"/>
+        <item x="63"/>
+        <item x="5"/>
+        <item x="64"/>
+        <item x="114"/>
+        <item x="115"/>
+        <item x="65"/>
+        <item x="29"/>
+        <item x="66"/>
+        <item x="67"/>
+        <item x="170"/>
+        <item x="187"/>
+        <item x="30"/>
+        <item x="116"/>
+        <item x="96"/>
+        <item x="14"/>
+        <item x="15"/>
+        <item x="171"/>
+        <item x="203"/>
+        <item x="172"/>
+        <item x="188"/>
+        <item x="97"/>
+        <item x="31"/>
+        <item x="204"/>
+        <item x="139"/>
+        <item x="117"/>
+        <item x="32"/>
+        <item x="6"/>
+        <item x="68"/>
+        <item m="1" x="222"/>
+        <item m="1" x="221"/>
+        <item m="1" x="224"/>
+        <item x="69"/>
+        <item x="70"/>
+        <item x="140"/>
+        <item x="98"/>
+        <item x="71"/>
+        <item x="72"/>
+        <item x="173"/>
+        <item x="33"/>
+        <item x="34"/>
+        <item x="118"/>
+        <item x="35"/>
+        <item x="141"/>
+        <item x="36"/>
+        <item x="99"/>
+        <item x="37"/>
+        <item x="189"/>
+        <item x="7"/>
+        <item x="73"/>
+        <item x="38"/>
+        <item x="39"/>
+        <item x="74"/>
+        <item x="205"/>
+        <item x="142"/>
+        <item x="143"/>
+        <item x="174"/>
+        <item x="40"/>
+        <item x="75"/>
+        <item x="144"/>
+        <item x="76"/>
+        <item x="41"/>
+        <item x="206"/>
+        <item x="77"/>
+        <item x="119"/>
+        <item x="42"/>
+        <item x="120"/>
+        <item x="207"/>
+        <item x="16"/>
+        <item x="17"/>
+        <item x="43"/>
+        <item x="208"/>
+        <item x="94"/>
+        <item x="44"/>
+        <item x="8"/>
+        <item x="121"/>
+        <item x="145"/>
+        <item x="45"/>
+        <item x="100"/>
+        <item x="146"/>
+        <item x="78"/>
+        <item x="79"/>
+        <item x="101"/>
+        <item x="46"/>
+        <item x="9"/>
+        <item x="102"/>
+        <item x="209"/>
+        <item x="175"/>
+        <item x="103"/>
+        <item x="210"/>
+        <item x="18"/>
+        <item x="211"/>
+        <item x="212"/>
+        <item x="104"/>
+        <item x="105"/>
+        <item x="19"/>
+        <item x="20"/>
+        <item x="122"/>
+        <item x="147"/>
+        <item x="148"/>
+        <item x="10"/>
+        <item x="21"/>
+        <item x="176"/>
+        <item x="177"/>
+        <item x="149"/>
+        <item x="150"/>
+        <item x="151"/>
+        <item x="47"/>
+        <item x="106"/>
+        <item x="48"/>
+        <item x="152"/>
+        <item x="80"/>
+        <item x="123"/>
+        <item x="213"/>
+        <item x="49"/>
+        <item x="22"/>
+        <item x="124"/>
+        <item x="190"/>
+        <item x="125"/>
+        <item x="153"/>
+        <item x="81"/>
+        <item m="1" x="220"/>
+        <item x="154"/>
+        <item x="214"/>
+        <item x="191"/>
+        <item x="82"/>
+        <item x="155"/>
+        <item x="192"/>
+        <item x="178"/>
+        <item x="156"/>
+        <item x="179"/>
+        <item x="126"/>
+        <item x="107"/>
+        <item x="180"/>
+        <item x="215"/>
+        <item x="157"/>
+        <item x="11"/>
+        <item x="158"/>
+        <item x="50"/>
+        <item x="193"/>
+        <item x="159"/>
+        <item x="83"/>
+        <item x="127"/>
+        <item x="128"/>
+        <item x="129"/>
+        <item x="108"/>
+        <item x="95"/>
+        <item x="12"/>
+        <item x="109"/>
+        <item x="160"/>
+        <item x="51"/>
+        <item x="181"/>
+        <item x="130"/>
+        <item x="84"/>
+        <item x="85"/>
+        <item x="194"/>
+        <item x="86"/>
+        <item x="13"/>
+        <item x="182"/>
+        <item x="52"/>
+        <item x="131"/>
+        <item x="161"/>
+        <item x="132"/>
+        <item x="53"/>
+        <item x="195"/>
+        <item x="87"/>
+        <item x="88"/>
+        <item x="89"/>
+        <item x="90"/>
+        <item x="216"/>
+        <item x="91"/>
+        <item x="196"/>
+        <item x="54"/>
+        <item x="55"/>
+        <item x="133"/>
+        <item x="197"/>
+        <item x="92"/>
+        <item x="183"/>
+        <item x="162"/>
+        <item x="163"/>
+        <item x="184"/>
+        <item x="56"/>
+        <item x="134"/>
+        <item x="185"/>
+        <item x="164"/>
+        <item x="135"/>
+        <item x="165"/>
+        <item x="198"/>
+        <item x="199"/>
+        <item x="93"/>
+        <item x="217"/>
+        <item x="218"/>
+        <item x="219"/>
         <item t="default"/>
       </items>
     </pivotField>
     <pivotField showAll="0"/>
-    <pivotField axis="axisCol" showAll="0">
+    <pivotField axis="axisPage" showAll="0">
       <items count="4">
+        <item h="1" x="0"/>
         <item x="1"/>
-        <item x="0"/>
-        <item m="1" x="2"/>
+        <item h="1" x="2"/>
         <item t="default"/>
       </items>
     </pivotField>
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
   </pivotFields>
   <rowFields count="1">
-    <field x="2"/>
+    <field x="1"/>
   </rowFields>
-  <rowItems count="4">
+  <rowItems count="90">
     <i>
-      <x/>
+      <x v="5"/>
     </i>
     <i>
-      <x v="1"/>
+      <x v="6"/>
     </i>
     <i>
-      <x v="2"/>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="9"/>
+    </i>
+    <i>
+      <x v="11"/>
+    </i>
+    <i>
+      <x v="13"/>
+    </i>
+    <i>
+      <x v="15"/>
+    </i>
+    <i>
+      <x v="16"/>
+    </i>
+    <i>
+      <x v="17"/>
+    </i>
+    <i>
+      <x v="18"/>
+    </i>
+    <i>
+      <x v="25"/>
+    </i>
+    <i>
+      <x v="28"/>
+    </i>
+    <i>
+      <x v="29"/>
+    </i>
+    <i>
+      <x v="30"/>
+    </i>
+    <i>
+      <x v="31"/>
+    </i>
+    <i>
+      <x v="32"/>
+    </i>
+    <i>
+      <x v="38"/>
+    </i>
+    <i>
+      <x v="39"/>
+    </i>
+    <i>
+      <x v="43"/>
+    </i>
+    <i>
+      <x v="44"/>
+    </i>
+    <i>
+      <x v="46"/>
+    </i>
+    <i>
+      <x v="47"/>
+    </i>
+    <i>
+      <x v="48"/>
+    </i>
+    <i>
+      <x v="49"/>
+    </i>
+    <i>
+      <x v="50"/>
+    </i>
+    <i>
+      <x v="54"/>
+    </i>
+    <i>
+      <x v="56"/>
+    </i>
+    <i>
+      <x v="58"/>
+    </i>
+    <i>
+      <x v="59"/>
+    </i>
+    <i>
+      <x v="66"/>
+    </i>
+    <i>
+      <x v="70"/>
+    </i>
+    <i>
+      <x v="71"/>
+    </i>
+    <i>
+      <x v="72"/>
+    </i>
+    <i>
+      <x v="74"/>
+    </i>
+    <i>
+      <x v="77"/>
+    </i>
+    <i>
+      <x v="79"/>
+    </i>
+    <i>
+      <x v="80"/>
+    </i>
+    <i>
+      <x v="83"/>
+    </i>
+    <i>
+      <x v="84"/>
+    </i>
+    <i>
+      <x v="91"/>
+    </i>
+    <i>
+      <x v="94"/>
+    </i>
+    <i>
+      <x v="97"/>
+    </i>
+    <i>
+      <x v="98"/>
+    </i>
+    <i>
+      <x v="99"/>
+    </i>
+    <i>
+      <x v="100"/>
+    </i>
+    <i>
+      <x v="103"/>
+    </i>
+    <i>
+      <x v="107"/>
+    </i>
+    <i>
+      <x v="111"/>
+    </i>
+    <i>
+      <x v="113"/>
+    </i>
+    <i>
+      <x v="116"/>
+    </i>
+    <i>
+      <x v="118"/>
+    </i>
+    <i>
+      <x v="121"/>
+    </i>
+    <i>
+      <x v="124"/>
+    </i>
+    <i>
+      <x v="126"/>
+    </i>
+    <i>
+      <x v="127"/>
+    </i>
+    <i>
+      <x v="137"/>
+    </i>
+    <i>
+      <x v="145"/>
+    </i>
+    <i>
+      <x v="146"/>
+    </i>
+    <i>
+      <x v="148"/>
+    </i>
+    <i>
+      <x v="150"/>
+    </i>
+    <i>
+      <x v="151"/>
+    </i>
+    <i>
+      <x v="154"/>
+    </i>
+    <i>
+      <x v="155"/>
+    </i>
+    <i>
+      <x v="156"/>
+    </i>
+    <i>
+      <x v="157"/>
+    </i>
+    <i>
+      <x v="159"/>
+    </i>
+    <i>
+      <x v="160"/>
+    </i>
+    <i>
+      <x v="162"/>
+    </i>
+    <i>
+      <x v="163"/>
+    </i>
+    <i>
+      <x v="164"/>
+    </i>
+    <i>
+      <x v="167"/>
+    </i>
+    <i>
+      <x v="169"/>
+    </i>
+    <i>
+      <x v="170"/>
+    </i>
+    <i>
+      <x v="172"/>
+    </i>
+    <i>
+      <x v="181"/>
+    </i>
+    <i>
+      <x v="188"/>
+    </i>
+    <i>
+      <x v="195"/>
+    </i>
+    <i>
+      <x v="196"/>
+    </i>
+    <i>
+      <x v="197"/>
+    </i>
+    <i>
+      <x v="199"/>
+    </i>
+    <i>
+      <x v="200"/>
+    </i>
+    <i>
+      <x v="201"/>
+    </i>
+    <i>
+      <x v="204"/>
+    </i>
+    <i>
+      <x v="210"/>
+    </i>
+    <i>
+      <x v="211"/>
+    </i>
+    <i>
+      <x v="212"/>
+    </i>
+    <i>
+      <x v="217"/>
+    </i>
+    <i>
+      <x v="220"/>
+    </i>
+    <i>
+      <x v="223"/>
     </i>
     <i t="grand">
       <x/>
     </i>
   </rowItems>
-  <colFields count="1">
-    <field x="4"/>
-  </colFields>
-  <colItems count="2">
-    <i>
-      <x v="1"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
+  <colItems count="1">
+    <i/>
   </colItems>
-  <pageFields count="1">
+  <pageFields count="2">
+    <pageField fld="3" item="1" hier="-1"/>
     <pageField fld="0" hier="-1"/>
   </pageFields>
-  <dataFields count="1">
-    <dataField name="Count of Organisation Name" fld="1" subtotal="count" baseField="0" baseItem="0"/>
-  </dataFields>
   <formats count="2">
     <format dxfId="4">
-      <pivotArea field="4" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisCol" fieldPosition="0"/>
+      <pivotArea field="1" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
     <format dxfId="5">
-      <pivotArea field="2" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
+      <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
   </formats>
-  <chartFormats count="2">
-    <chartFormat chart="0" format="0" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="4" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="1" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="4" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
@@ -7640,10 +7713,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1220B4B-B987-4267-A1E9-87F5A1FB2BC0}">
-  <dimension ref="B2:I110"/>
+  <dimension ref="B2:I129"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A69" workbookViewId="0">
+      <selection activeCell="B83" sqref="B83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -7654,8 +7727,8 @@
     <col min="4" max="4" width="30.28515625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11.85546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="27.28515625" customWidth="1"/>
-    <col min="8" max="8" width="17.5703125" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" customWidth="1"/>
+    <col min="8" max="8" width="16.7109375" customWidth="1"/>
     <col min="9" max="9" width="30.28515625" customWidth="1"/>
     <col min="10" max="10" width="20.42578125" customWidth="1"/>
     <col min="11" max="11" width="36.42578125" bestFit="1" customWidth="1"/>
@@ -7947,10 +8020,10 @@
         <v>12</v>
       </c>
       <c r="C10" s="3">
-        <v>53</v>
+        <v>67</v>
       </c>
       <c r="D10" s="3">
-        <v>106</v>
+        <v>92</v>
       </c>
       <c r="E10" s="3">
         <v>159</v>
@@ -7970,22 +8043,22 @@
         <v>13</v>
       </c>
       <c r="C11" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D11" s="3">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E11" s="3">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G11" s="4" t="s">
         <v>13</v>
       </c>
       <c r="H11" s="3">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I11" s="3">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="12" spans="2:9">
@@ -7993,10 +8066,10 @@
         <v>14</v>
       </c>
       <c r="C12" s="3">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D12" s="3">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E12" s="3">
         <v>41</v>
@@ -8016,22 +8089,22 @@
         <v>11</v>
       </c>
       <c r="C13" s="3">
-        <v>70</v>
+        <v>89</v>
       </c>
       <c r="D13" s="3">
-        <v>148</v>
+        <v>130</v>
       </c>
       <c r="E13" s="3">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="G13" s="4" t="s">
         <v>11</v>
       </c>
       <c r="H13" s="3">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="I13" s="3">
-        <v>218</v>
+        <v>219</v>
       </c>
     </row>
     <row r="33" spans="2:9">
@@ -8449,7 +8522,102 @@
       </c>
     </row>
     <row r="110" spans="2:2">
-      <c r="B110" s="13" t="s">
+      <c r="B110" s="4" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="111" spans="2:2">
+      <c r="B111" s="4" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="112" spans="2:2">
+      <c r="B112" s="4" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="113" spans="2:2">
+      <c r="B113" s="4" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="114" spans="2:2">
+      <c r="B114" s="4" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="115" spans="2:2">
+      <c r="B115" s="4" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="116" spans="2:2">
+      <c r="B116" s="4" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="117" spans="2:2">
+      <c r="B117" s="4" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="118" spans="2:2">
+      <c r="B118" s="4" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="119" spans="2:2">
+      <c r="B119" s="4" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="120" spans="2:2">
+      <c r="B120" s="4" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="121" spans="2:2">
+      <c r="B121" s="4" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="122" spans="2:2">
+      <c r="B122" s="4" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="123" spans="2:2">
+      <c r="B123" s="4" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="124" spans="2:2">
+      <c r="B124" s="4" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="125" spans="2:2">
+      <c r="B125" s="4" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="126" spans="2:2">
+      <c r="B126" s="4" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="127" spans="2:2">
+      <c r="B127" s="4" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="128" spans="2:2">
+      <c r="B128" s="4" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="129" spans="2:2">
+      <c r="B129" s="13" t="s">
         <v>11</v>
       </c>
     </row>
@@ -8467,10 +8635,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:H229"/>
+  <dimension ref="A1:H230"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A139" workbookViewId="0">
-      <selection activeCell="D153" sqref="D153"/>
+    <sheetView showGridLines="0" topLeftCell="A159" workbookViewId="0">
+      <selection activeCell="D173" sqref="D173"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
@@ -8490,10 +8658,10 @@
         <v>3</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>91</v>
+        <v>110</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>92</v>
+        <v>111</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>18</v>
@@ -8502,27 +8670,27 @@
         <v>19</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>93</v>
+        <v>112</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>94</v>
+        <v>113</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>95</v>
+        <v>114</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="15.75" customHeight="1">
       <c r="A2" s="6" t="s">
-        <v>96</v>
+        <v>115</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>40</v>
+        <v>116</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E2" s="6" t="s">
         <v>10</v>
@@ -8533,16 +8701,16 @@
     </row>
     <row r="3" spans="1:8" ht="15.75" customHeight="1">
       <c r="A3" s="6" t="s">
-        <v>96</v>
+        <v>115</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>46</v>
+        <v>117</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E3" s="6" t="s">
         <v>10</v>
@@ -8553,10 +8721,10 @@
     </row>
     <row r="4" spans="1:8" ht="15.75" customHeight="1">
       <c r="A4" s="6" t="s">
-        <v>96</v>
+        <v>115</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>97</v>
+        <v>118</v>
       </c>
       <c r="C4" s="6" t="s">
         <v>12</v>
@@ -8573,13 +8741,13 @@
     </row>
     <row r="5" spans="1:8" ht="15.75" customHeight="1">
       <c r="A5" s="6" t="s">
-        <v>96</v>
+        <v>115</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D5" s="6" t="s">
         <v>9</v>
@@ -8593,13 +8761,13 @@
     </row>
     <row r="6" spans="1:8" ht="15.75" customHeight="1">
       <c r="A6" s="6" t="s">
-        <v>96</v>
+        <v>115</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>90</v>
+        <v>35</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D6" s="6" t="s">
         <v>9</v>
@@ -8613,10 +8781,10 @@
     </row>
     <row r="7" spans="1:8" ht="15.75" customHeight="1">
       <c r="A7" s="6" t="s">
-        <v>96</v>
+        <v>115</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>98</v>
+        <v>119</v>
       </c>
       <c r="C7" s="6" t="s">
         <v>12</v>
@@ -8633,16 +8801,16 @@
     </row>
     <row r="8" spans="1:8" ht="15.75" customHeight="1">
       <c r="A8" s="6" t="s">
-        <v>96</v>
+        <v>115</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>99</v>
+        <v>49</v>
       </c>
       <c r="C8" s="6" t="s">
         <v>12</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E8" s="6" t="s">
         <v>10</v>
@@ -8653,7 +8821,7 @@
     </row>
     <row r="9" spans="1:8" ht="15.75" customHeight="1">
       <c r="A9" s="6" t="s">
-        <v>96</v>
+        <v>115</v>
       </c>
       <c r="B9" s="11" t="s">
         <v>57</v>
@@ -8673,10 +8841,10 @@
     </row>
     <row r="10" spans="1:8" ht="15.75" customHeight="1">
       <c r="A10" s="6" t="s">
-        <v>96</v>
+        <v>115</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="C10" s="6" t="s">
         <v>12</v>
@@ -8693,16 +8861,16 @@
     </row>
     <row r="11" spans="1:8" ht="15.75" customHeight="1">
       <c r="A11" s="6" t="s">
-        <v>96</v>
+        <v>115</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>101</v>
+        <v>70</v>
       </c>
       <c r="C11" s="6" t="s">
         <v>12</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E11" s="6" t="s">
         <v>10</v>
@@ -8713,10 +8881,10 @@
     </row>
     <row r="12" spans="1:8" ht="15.75" customHeight="1">
       <c r="A12" s="6" t="s">
-        <v>96</v>
+        <v>115</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>102</v>
+        <v>121</v>
       </c>
       <c r="C12" s="6" t="s">
         <v>12</v>
@@ -8733,10 +8901,10 @@
     </row>
     <row r="13" spans="1:8" ht="15.75" customHeight="1">
       <c r="A13" s="6" t="s">
-        <v>96</v>
+        <v>115</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>103</v>
+        <v>122</v>
       </c>
       <c r="C13" s="6" t="s">
         <v>12</v>
@@ -8753,13 +8921,13 @@
     </row>
     <row r="14" spans="1:8" ht="15.75" customHeight="1">
       <c r="A14" s="6" t="s">
-        <v>96</v>
+        <v>115</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>104</v>
+        <v>123</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D14" s="6" t="s">
         <v>10</v>
@@ -8773,13 +8941,13 @@
     </row>
     <row r="15" spans="1:8" ht="15.75" customHeight="1">
       <c r="A15" s="6" t="s">
-        <v>96</v>
+        <v>115</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>105</v>
+        <v>124</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D15" s="6" t="s">
         <v>10</v>
@@ -8793,10 +8961,10 @@
     </row>
     <row r="16" spans="1:8" ht="15.75" customHeight="1">
       <c r="A16" s="6" t="s">
-        <v>106</v>
+        <v>125</v>
       </c>
       <c r="B16" s="11" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="C16" s="6" t="s">
         <v>12</v>
@@ -8813,10 +8981,10 @@
     </row>
     <row r="17" spans="1:8" ht="15.75" customHeight="1">
       <c r="A17" s="6" t="s">
-        <v>106</v>
+        <v>125</v>
       </c>
       <c r="B17" s="11" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="C17" s="6" t="s">
         <v>12</v>
@@ -8833,10 +9001,10 @@
     </row>
     <row r="18" spans="1:8" ht="15.75" customHeight="1">
       <c r="A18" s="6" t="s">
-        <v>106</v>
+        <v>125</v>
       </c>
       <c r="B18" s="11" t="s">
-        <v>52</v>
+        <v>65</v>
       </c>
       <c r="C18" s="6" t="s">
         <v>12</v>
@@ -8853,10 +9021,10 @@
     </row>
     <row r="19" spans="1:8" ht="15.75" customHeight="1">
       <c r="A19" s="6" t="s">
-        <v>106</v>
+        <v>125</v>
       </c>
       <c r="B19" s="11" t="s">
-        <v>107</v>
+        <v>126</v>
       </c>
       <c r="C19" s="6" t="s">
         <v>12</v>
@@ -8873,10 +9041,10 @@
     </row>
     <row r="20" spans="1:8" ht="15.75" customHeight="1">
       <c r="A20" s="6" t="s">
-        <v>106</v>
+        <v>125</v>
       </c>
       <c r="B20" s="11" t="s">
-        <v>108</v>
+        <v>127</v>
       </c>
       <c r="C20" s="6" t="s">
         <v>12</v>
@@ -8893,16 +9061,16 @@
     </row>
     <row r="21" spans="1:8" ht="15.75" customHeight="1">
       <c r="A21" s="6" t="s">
-        <v>106</v>
+        <v>125</v>
       </c>
       <c r="B21" s="11" t="s">
-        <v>109</v>
+        <v>75</v>
       </c>
       <c r="C21" s="6" t="s">
         <v>12</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E21" s="6" t="s">
         <v>10</v>
@@ -8913,10 +9081,10 @@
     </row>
     <row r="22" spans="1:8" ht="15.75" customHeight="1">
       <c r="A22" s="6" t="s">
-        <v>106</v>
+        <v>125</v>
       </c>
       <c r="B22" s="11" t="s">
-        <v>110</v>
+        <v>128</v>
       </c>
       <c r="C22" s="6" t="s">
         <v>12</v>
@@ -8933,10 +9101,10 @@
     </row>
     <row r="23" spans="1:8" ht="15.75" customHeight="1">
       <c r="A23" s="6" t="s">
-        <v>106</v>
+        <v>125</v>
       </c>
       <c r="B23" s="11" t="s">
-        <v>111</v>
+        <v>129</v>
       </c>
       <c r="C23" s="6" t="s">
         <v>12</v>
@@ -8953,10 +9121,10 @@
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1">
       <c r="A24" s="6" t="s">
-        <v>106</v>
+        <v>125</v>
       </c>
       <c r="B24" s="11" t="s">
-        <v>112</v>
+        <v>130</v>
       </c>
       <c r="C24" s="6" t="s">
         <v>12</v>
@@ -8973,16 +9141,16 @@
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1">
       <c r="A25" s="6" t="s">
-        <v>113</v>
+        <v>131</v>
       </c>
       <c r="B25" s="11" t="s">
-        <v>114</v>
+        <v>22</v>
       </c>
       <c r="C25" s="6" t="s">
         <v>12</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E25" s="6" t="s">
         <v>10</v>
@@ -8993,16 +9161,16 @@
     </row>
     <row r="26" spans="1:8" ht="15.75" customHeight="1">
       <c r="A26" s="6" t="s">
-        <v>113</v>
+        <v>131</v>
       </c>
       <c r="B26" s="11" t="s">
-        <v>115</v>
+        <v>23</v>
       </c>
       <c r="C26" s="6" t="s">
         <v>12</v>
       </c>
       <c r="D26" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E26" s="6" t="s">
         <v>10</v>
@@ -9013,10 +9181,10 @@
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1">
       <c r="A27" s="6" t="s">
-        <v>113</v>
+        <v>131</v>
       </c>
       <c r="B27" s="11" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="C27" s="6" t="s">
         <v>12</v>
@@ -9033,16 +9201,16 @@
     </row>
     <row r="28" spans="1:8" ht="15.75" customHeight="1">
       <c r="A28" s="6" t="s">
-        <v>113</v>
+        <v>131</v>
       </c>
       <c r="B28" s="11" t="s">
-        <v>39</v>
+        <v>132</v>
       </c>
       <c r="C28" s="6" t="s">
         <v>12</v>
       </c>
       <c r="D28" s="6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E28" s="6" t="s">
         <v>10</v>
@@ -9053,16 +9221,16 @@
     </row>
     <row r="29" spans="1:8" ht="15.75" customHeight="1">
       <c r="A29" s="6" t="s">
-        <v>113</v>
+        <v>131</v>
       </c>
       <c r="B29" s="11" t="s">
-        <v>44</v>
+        <v>133</v>
       </c>
       <c r="C29" s="6" t="s">
         <v>12</v>
       </c>
       <c r="D29" s="6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E29" s="6" t="s">
         <v>10</v>
@@ -9073,16 +9241,16 @@
     </row>
     <row r="30" spans="1:8" ht="15.75" customHeight="1">
       <c r="A30" s="6" t="s">
-        <v>113</v>
+        <v>131</v>
       </c>
       <c r="B30" s="11" t="s">
-        <v>116</v>
+        <v>36</v>
       </c>
       <c r="C30" s="6" t="s">
         <v>12</v>
       </c>
       <c r="D30" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E30" s="6" t="s">
         <v>10</v>
@@ -9093,10 +9261,10 @@
     </row>
     <row r="31" spans="1:8" ht="15.75" customHeight="1">
       <c r="A31" s="6" t="s">
-        <v>113</v>
+        <v>131</v>
       </c>
       <c r="B31" s="11" t="s">
-        <v>63</v>
+        <v>38</v>
       </c>
       <c r="C31" s="6" t="s">
         <v>12</v>
@@ -9113,10 +9281,10 @@
     </row>
     <row r="32" spans="1:8" ht="15.75" customHeight="1">
       <c r="A32" s="6" t="s">
-        <v>113</v>
+        <v>131</v>
       </c>
       <c r="B32" s="11" t="s">
-        <v>75</v>
+        <v>40</v>
       </c>
       <c r="C32" s="6" t="s">
         <v>12</v>
@@ -9133,16 +9301,16 @@
     </row>
     <row r="33" spans="1:8" ht="15.75" customHeight="1">
       <c r="A33" s="6" t="s">
-        <v>113</v>
+        <v>131</v>
       </c>
       <c r="B33" s="11" t="s">
-        <v>117</v>
+        <v>46</v>
       </c>
       <c r="C33" s="6" t="s">
         <v>12</v>
       </c>
       <c r="D33" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E33" s="6" t="s">
         <v>10</v>
@@ -9153,10 +9321,10 @@
     </row>
     <row r="34" spans="1:8" ht="12.75">
       <c r="A34" s="6" t="s">
-        <v>113</v>
+        <v>131</v>
       </c>
       <c r="B34" s="11" t="s">
-        <v>22</v>
+        <v>48</v>
       </c>
       <c r="C34" s="6" t="s">
         <v>12</v>
@@ -9173,10 +9341,10 @@
     </row>
     <row r="35" spans="1:8" ht="12.75">
       <c r="A35" s="6" t="s">
-        <v>113</v>
+        <v>131</v>
       </c>
       <c r="B35" s="11" t="s">
-        <v>31</v>
+        <v>52</v>
       </c>
       <c r="C35" s="6" t="s">
         <v>12</v>
@@ -9193,10 +9361,10 @@
     </row>
     <row r="36" spans="1:8" ht="12.75">
       <c r="A36" s="6" t="s">
-        <v>113</v>
+        <v>131</v>
       </c>
       <c r="B36" s="11" t="s">
-        <v>33</v>
+        <v>53</v>
       </c>
       <c r="C36" s="6" t="s">
         <v>12</v>
@@ -9213,16 +9381,16 @@
     </row>
     <row r="37" spans="1:8" ht="12.75">
       <c r="A37" s="6" t="s">
-        <v>113</v>
+        <v>131</v>
       </c>
       <c r="B37" s="11" t="s">
-        <v>118</v>
+        <v>54</v>
       </c>
       <c r="C37" s="6" t="s">
         <v>12</v>
       </c>
       <c r="D37" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E37" s="6" t="s">
         <v>10</v>
@@ -9233,16 +9401,16 @@
     </row>
     <row r="38" spans="1:8" ht="12.75">
       <c r="A38" s="6" t="s">
-        <v>113</v>
+        <v>131</v>
       </c>
       <c r="B38" s="11" t="s">
-        <v>42</v>
+        <v>134</v>
       </c>
       <c r="C38" s="6" t="s">
         <v>12</v>
       </c>
       <c r="D38" s="6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E38" s="6" t="s">
         <v>10</v>
@@ -9253,16 +9421,16 @@
     </row>
     <row r="39" spans="1:8" ht="12.75">
       <c r="A39" s="6" t="s">
-        <v>113</v>
+        <v>131</v>
       </c>
       <c r="B39" s="10" t="s">
-        <v>43</v>
+        <v>135</v>
       </c>
       <c r="C39" s="6" t="s">
         <v>12</v>
       </c>
       <c r="D39" s="6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E39" s="6" t="s">
         <v>10</v>
@@ -9273,10 +9441,10 @@
     </row>
     <row r="40" spans="1:8" ht="12.75">
       <c r="A40" s="6" t="s">
-        <v>113</v>
+        <v>131</v>
       </c>
       <c r="B40" s="10" t="s">
-        <v>119</v>
+        <v>136</v>
       </c>
       <c r="C40" s="6" t="s">
         <v>12</v>
@@ -9293,16 +9461,16 @@
     </row>
     <row r="41" spans="1:8" ht="12.75">
       <c r="A41" s="6" t="s">
-        <v>113</v>
+        <v>131</v>
       </c>
       <c r="B41" s="10" t="s">
-        <v>120</v>
+        <v>58</v>
       </c>
       <c r="C41" s="6" t="s">
         <v>12</v>
       </c>
       <c r="D41" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E41" s="6" t="s">
         <v>10</v>
@@ -9313,10 +9481,10 @@
     </row>
     <row r="42" spans="1:8" ht="12.75">
       <c r="A42" s="6" t="s">
-        <v>113</v>
+        <v>131</v>
       </c>
       <c r="B42" s="10" t="s">
-        <v>121</v>
+        <v>137</v>
       </c>
       <c r="C42" s="6" t="s">
         <v>12</v>
@@ -9333,16 +9501,16 @@
     </row>
     <row r="43" spans="1:8" ht="12.75">
       <c r="A43" s="6" t="s">
-        <v>113</v>
+        <v>131</v>
       </c>
       <c r="B43" s="10" t="s">
-        <v>47</v>
+        <v>138</v>
       </c>
       <c r="C43" s="6" t="s">
         <v>12</v>
       </c>
       <c r="D43" s="6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E43" s="6" t="s">
         <v>10</v>
@@ -9353,16 +9521,16 @@
     </row>
     <row r="44" spans="1:8" ht="12.75">
       <c r="A44" s="6" t="s">
-        <v>113</v>
+        <v>131</v>
       </c>
       <c r="B44" s="10" t="s">
-        <v>122</v>
+        <v>62</v>
       </c>
       <c r="C44" s="6" t="s">
         <v>12</v>
       </c>
       <c r="D44" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E44" s="6" t="s">
         <v>10</v>
@@ -9373,16 +9541,16 @@
     </row>
     <row r="45" spans="1:8" ht="12.75">
       <c r="A45" s="6" t="s">
-        <v>113</v>
+        <v>131</v>
       </c>
       <c r="B45" s="10" t="s">
-        <v>50</v>
+        <v>139</v>
       </c>
       <c r="C45" s="6" t="s">
         <v>12</v>
       </c>
       <c r="D45" s="6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E45" s="6" t="s">
         <v>10</v>
@@ -9393,10 +9561,10 @@
     </row>
     <row r="46" spans="1:8" ht="12.75">
       <c r="A46" s="6" t="s">
-        <v>113</v>
+        <v>131</v>
       </c>
       <c r="B46" s="10" t="s">
-        <v>123</v>
+        <v>140</v>
       </c>
       <c r="C46" s="6" t="s">
         <v>12</v>
@@ -9413,10 +9581,10 @@
     </row>
     <row r="47" spans="1:8" ht="12.75">
       <c r="A47" s="6" t="s">
-        <v>113</v>
+        <v>131</v>
       </c>
       <c r="B47" s="10" t="s">
-        <v>124</v>
+        <v>141</v>
       </c>
       <c r="C47" s="6" t="s">
         <v>12</v>
@@ -9433,10 +9601,10 @@
     </row>
     <row r="48" spans="1:8" ht="12.75">
       <c r="A48" s="6" t="s">
-        <v>113</v>
+        <v>131</v>
       </c>
       <c r="B48" s="10" t="s">
-        <v>125</v>
+        <v>142</v>
       </c>
       <c r="C48" s="6" t="s">
         <v>12</v>
@@ -9453,10 +9621,10 @@
     </row>
     <row r="49" spans="1:8" ht="12.75">
       <c r="A49" s="6" t="s">
-        <v>113</v>
+        <v>131</v>
       </c>
       <c r="B49" s="10" t="s">
-        <v>126</v>
+        <v>143</v>
       </c>
       <c r="C49" s="6" t="s">
         <v>12</v>
@@ -9473,10 +9641,10 @@
     </row>
     <row r="50" spans="1:8" ht="12.75">
       <c r="A50" s="6" t="s">
-        <v>113</v>
+        <v>131</v>
       </c>
       <c r="B50" s="10" t="s">
-        <v>127</v>
+        <v>144</v>
       </c>
       <c r="C50" s="6" t="s">
         <v>12</v>
@@ -9493,16 +9661,16 @@
     </row>
     <row r="51" spans="1:8" ht="12.75">
       <c r="A51" s="6" t="s">
-        <v>113</v>
+        <v>131</v>
       </c>
       <c r="B51" s="10" t="s">
-        <v>128</v>
+        <v>78</v>
       </c>
       <c r="C51" s="6" t="s">
         <v>12</v>
       </c>
       <c r="D51" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E51" s="6" t="s">
         <v>10</v>
@@ -9513,16 +9681,16 @@
     </row>
     <row r="52" spans="1:8" ht="12.75">
       <c r="A52" s="6" t="s">
-        <v>113</v>
+        <v>131</v>
       </c>
       <c r="B52" s="10" t="s">
-        <v>129</v>
+        <v>93</v>
       </c>
       <c r="C52" s="6" t="s">
         <v>12</v>
       </c>
       <c r="D52" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E52" s="6" t="s">
         <v>10</v>
@@ -9533,10 +9701,10 @@
     </row>
     <row r="53" spans="1:8" ht="12.75">
       <c r="A53" s="6" t="s">
-        <v>113</v>
+        <v>131</v>
       </c>
       <c r="B53" s="10" t="s">
-        <v>130</v>
+        <v>145</v>
       </c>
       <c r="C53" s="6" t="s">
         <v>12</v>
@@ -9553,10 +9721,10 @@
     </row>
     <row r="54" spans="1:8" ht="12.75">
       <c r="A54" s="6" t="s">
-        <v>113</v>
+        <v>131</v>
       </c>
       <c r="B54" s="10" t="s">
-        <v>131</v>
+        <v>146</v>
       </c>
       <c r="C54" s="6" t="s">
         <v>12</v>
@@ -9573,16 +9741,16 @@
     </row>
     <row r="55" spans="1:8" ht="12.75">
       <c r="A55" s="6" t="s">
-        <v>113</v>
+        <v>131</v>
       </c>
       <c r="B55" s="10" t="s">
-        <v>132</v>
+        <v>97</v>
       </c>
       <c r="C55" s="6" t="s">
         <v>12</v>
       </c>
       <c r="D55" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E55" s="6" t="s">
         <v>10</v>
@@ -9593,16 +9761,16 @@
     </row>
     <row r="56" spans="1:8" ht="12.75">
       <c r="A56" s="6" t="s">
-        <v>113</v>
+        <v>131</v>
       </c>
       <c r="B56" s="10" t="s">
-        <v>133</v>
+        <v>103</v>
       </c>
       <c r="C56" s="6" t="s">
         <v>12</v>
       </c>
       <c r="D56" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E56" s="6" t="s">
         <v>10</v>
@@ -9613,10 +9781,10 @@
     </row>
     <row r="57" spans="1:8" ht="12.75">
       <c r="A57" s="6" t="s">
-        <v>113</v>
+        <v>131</v>
       </c>
       <c r="B57" s="10" t="s">
-        <v>134</v>
+        <v>147</v>
       </c>
       <c r="C57" s="6" t="s">
         <v>12</v>
@@ -9633,10 +9801,10 @@
     </row>
     <row r="58" spans="1:8" ht="12.75">
       <c r="A58" s="6" t="s">
-        <v>113</v>
+        <v>131</v>
       </c>
       <c r="B58" s="10" t="s">
-        <v>135</v>
+        <v>148</v>
       </c>
       <c r="C58" s="6" t="s">
         <v>12</v>
@@ -9653,16 +9821,16 @@
     </row>
     <row r="59" spans="1:8" ht="12.75">
       <c r="A59" s="6" t="s">
-        <v>136</v>
+        <v>149</v>
       </c>
       <c r="B59" s="10" t="s">
-        <v>21</v>
+        <v>150</v>
       </c>
       <c r="C59" s="6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D59" s="6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E59" s="6" t="s">
         <v>10</v>
@@ -9673,56 +9841,56 @@
     </row>
     <row r="60" spans="1:8" ht="12.75">
       <c r="A60" s="6" t="s">
-        <v>136</v>
+        <v>149</v>
       </c>
       <c r="B60" s="10" t="s">
-        <v>56</v>
+        <v>151</v>
       </c>
       <c r="C60" s="6" t="s">
         <v>13</v>
       </c>
       <c r="D60" s="6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E60" s="6" t="s">
         <v>10</v>
       </c>
       <c r="F60" s="7"/>
-      <c r="G60" s="7"/>
-      <c r="H60" s="7"/>
+      <c r="G60" s="8"/>
+      <c r="H60" s="6"/>
     </row>
     <row r="61" spans="1:8" ht="12.75">
       <c r="A61" s="6" t="s">
-        <v>136</v>
+        <v>149</v>
       </c>
       <c r="B61" s="10" t="s">
-        <v>82</v>
+        <v>152</v>
       </c>
       <c r="C61" s="6" t="s">
         <v>14</v>
       </c>
       <c r="D61" s="6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E61" s="6" t="s">
         <v>10</v>
       </c>
       <c r="F61" s="7"/>
       <c r="G61" s="8"/>
-      <c r="H61" s="8"/>
+      <c r="H61" s="6"/>
     </row>
     <row r="62" spans="1:8" ht="12.75">
       <c r="A62" s="6" t="s">
-        <v>136</v>
+        <v>149</v>
       </c>
       <c r="B62" s="10" t="s">
-        <v>137</v>
+        <v>21</v>
       </c>
       <c r="C62" s="6" t="s">
         <v>13</v>
       </c>
       <c r="D62" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E62" s="6" t="s">
         <v>10</v>
@@ -9733,36 +9901,36 @@
     </row>
     <row r="63" spans="1:8" ht="12.75">
       <c r="A63" s="6" t="s">
-        <v>136</v>
+        <v>149</v>
       </c>
       <c r="B63" s="10" t="s">
-        <v>138</v>
+        <v>31</v>
       </c>
       <c r="C63" s="6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D63" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E63" s="6" t="s">
         <v>10</v>
       </c>
       <c r="F63" s="7"/>
-      <c r="G63" s="8"/>
-      <c r="H63" s="8"/>
+      <c r="G63" s="7"/>
+      <c r="H63" s="7"/>
     </row>
     <row r="64" spans="1:8" ht="12.75">
       <c r="A64" s="6" t="s">
-        <v>136</v>
+        <v>149</v>
       </c>
       <c r="B64" s="10" t="s">
-        <v>139</v>
+        <v>32</v>
       </c>
       <c r="C64" s="6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D64" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E64" s="6" t="s">
         <v>10</v>
@@ -9773,13 +9941,13 @@
     </row>
     <row r="65" spans="1:8" ht="12.75">
       <c r="A65" s="6" t="s">
-        <v>136</v>
+        <v>149</v>
       </c>
       <c r="B65" s="10" t="s">
-        <v>140</v>
+        <v>153</v>
       </c>
       <c r="C65" s="6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D65" s="6" t="s">
         <v>10</v>
@@ -9793,13 +9961,13 @@
     </row>
     <row r="66" spans="1:8" ht="12.75">
       <c r="A66" s="6" t="s">
-        <v>136</v>
+        <v>149</v>
       </c>
       <c r="B66" s="10" t="s">
-        <v>141</v>
+        <v>154</v>
       </c>
       <c r="C66" s="6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D66" s="6" t="s">
         <v>10</v>
@@ -9813,16 +9981,16 @@
     </row>
     <row r="67" spans="1:8" ht="12.75">
       <c r="A67" s="6" t="s">
-        <v>136</v>
+        <v>149</v>
       </c>
       <c r="B67" s="10" t="s">
-        <v>142</v>
+        <v>37</v>
       </c>
       <c r="C67" s="6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D67" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E67" s="6" t="s">
         <v>10</v>
@@ -9833,10 +10001,10 @@
     </row>
     <row r="68" spans="1:8" ht="12.75">
       <c r="A68" s="6" t="s">
-        <v>136</v>
+        <v>149</v>
       </c>
       <c r="B68" s="10" t="s">
-        <v>143</v>
+        <v>155</v>
       </c>
       <c r="C68" s="6" t="s">
         <v>13</v>
@@ -9853,13 +10021,13 @@
     </row>
     <row r="69" spans="1:8" ht="12.75">
       <c r="A69" s="6" t="s">
-        <v>136</v>
+        <v>149</v>
       </c>
       <c r="B69" s="10" t="s">
-        <v>144</v>
+        <v>156</v>
       </c>
       <c r="C69" s="6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D69" s="6" t="s">
         <v>10</v>
@@ -9873,10 +10041,10 @@
     </row>
     <row r="70" spans="1:8" ht="12.75">
       <c r="A70" s="6" t="s">
-        <v>136</v>
+        <v>149</v>
       </c>
       <c r="B70" s="10" t="s">
-        <v>145</v>
+        <v>157</v>
       </c>
       <c r="C70" s="6" t="s">
         <v>13</v>
@@ -9893,13 +10061,13 @@
     </row>
     <row r="71" spans="1:8" ht="12.75">
       <c r="A71" s="6" t="s">
-        <v>136</v>
+        <v>149</v>
       </c>
       <c r="B71" s="10" t="s">
-        <v>146</v>
+        <v>158</v>
       </c>
       <c r="C71" s="6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D71" s="6" t="s">
         <v>10</v>
@@ -9908,15 +10076,15 @@
         <v>10</v>
       </c>
       <c r="F71" s="7"/>
-      <c r="G71" s="7"/>
-      <c r="H71" s="7"/>
+      <c r="G71" s="8"/>
+      <c r="H71" s="8"/>
     </row>
     <row r="72" spans="1:8" ht="12.75">
       <c r="A72" s="6" t="s">
-        <v>136</v>
+        <v>149</v>
       </c>
       <c r="B72" s="10" t="s">
-        <v>147</v>
+        <v>159</v>
       </c>
       <c r="C72" s="6" t="s">
         <v>13</v>
@@ -9933,10 +10101,10 @@
     </row>
     <row r="73" spans="1:8" ht="12.75">
       <c r="A73" s="6" t="s">
-        <v>136</v>
+        <v>149</v>
       </c>
       <c r="B73" s="10" t="s">
-        <v>148</v>
+        <v>160</v>
       </c>
       <c r="C73" s="6" t="s">
         <v>13</v>
@@ -9953,10 +10121,10 @@
     </row>
     <row r="74" spans="1:8" ht="12.75">
       <c r="A74" s="6" t="s">
-        <v>136</v>
+        <v>149</v>
       </c>
       <c r="B74" s="10" t="s">
-        <v>149</v>
+        <v>161</v>
       </c>
       <c r="C74" s="6" t="s">
         <v>13</v>
@@ -9973,13 +10141,13 @@
     </row>
     <row r="75" spans="1:8" ht="12.75">
       <c r="A75" s="6" t="s">
-        <v>136</v>
+        <v>149</v>
       </c>
       <c r="B75" s="10" t="s">
-        <v>150</v>
+        <v>162</v>
       </c>
       <c r="C75" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D75" s="6" t="s">
         <v>10</v>
@@ -9989,17 +10157,17 @@
       </c>
       <c r="F75" s="7"/>
       <c r="G75" s="8"/>
-      <c r="H75" s="6"/>
+      <c r="H75" s="8"/>
     </row>
     <row r="76" spans="1:8" ht="12.75">
       <c r="A76" s="6" t="s">
-        <v>136</v>
+        <v>149</v>
       </c>
       <c r="B76" s="10" t="s">
-        <v>88</v>
+        <v>59</v>
       </c>
       <c r="C76" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D76" s="6" t="s">
         <v>9</v>
@@ -10008,18 +10176,18 @@
         <v>10</v>
       </c>
       <c r="F76" s="7"/>
-      <c r="G76" s="7"/>
-      <c r="H76" s="7"/>
+      <c r="G76" s="8"/>
+      <c r="H76" s="8"/>
     </row>
     <row r="77" spans="1:8" ht="12.75">
       <c r="A77" s="6" t="s">
-        <v>136</v>
+        <v>149</v>
       </c>
       <c r="B77" s="10" t="s">
-        <v>151</v>
+        <v>163</v>
       </c>
       <c r="C77" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D77" s="6" t="s">
         <v>10</v>
@@ -10033,10 +10201,10 @@
     </row>
     <row r="78" spans="1:8" ht="12.75">
       <c r="A78" s="6" t="s">
-        <v>136</v>
+        <v>149</v>
       </c>
       <c r="B78" s="10" t="s">
-        <v>152</v>
+        <v>164</v>
       </c>
       <c r="C78" s="6" t="s">
         <v>14</v>
@@ -10053,13 +10221,13 @@
     </row>
     <row r="79" spans="1:8" ht="12.75">
       <c r="A79" s="6" t="s">
-        <v>136</v>
+        <v>149</v>
       </c>
       <c r="B79" s="10" t="s">
-        <v>153</v>
+        <v>165</v>
       </c>
       <c r="C79" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D79" s="6" t="s">
         <v>10</v>
@@ -10073,13 +10241,13 @@
     </row>
     <row r="80" spans="1:8" ht="12.75">
       <c r="A80" s="6" t="s">
-        <v>136</v>
+        <v>149</v>
       </c>
       <c r="B80" s="10" t="s">
-        <v>154</v>
+        <v>166</v>
       </c>
       <c r="C80" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D80" s="6" t="s">
         <v>10</v>
@@ -10088,38 +10256,38 @@
         <v>10</v>
       </c>
       <c r="F80" s="7"/>
-      <c r="G80" s="8"/>
-      <c r="H80" s="8"/>
+      <c r="G80" s="7"/>
+      <c r="H80" s="7"/>
     </row>
     <row r="81" spans="1:8" ht="12.75">
       <c r="A81" s="6" t="s">
-        <v>136</v>
+        <v>149</v>
       </c>
       <c r="B81" s="10" t="s">
-        <v>155</v>
+        <v>69</v>
       </c>
       <c r="C81" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D81" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E81" s="6" t="s">
         <v>10</v>
       </c>
       <c r="F81" s="7"/>
-      <c r="G81" s="8"/>
-      <c r="H81" s="6"/>
+      <c r="G81" s="7"/>
+      <c r="H81" s="7"/>
     </row>
     <row r="82" spans="1:8" ht="12.75">
       <c r="A82" s="6" t="s">
-        <v>136</v>
+        <v>149</v>
       </c>
       <c r="B82" s="10" t="s">
-        <v>156</v>
+        <v>167</v>
       </c>
       <c r="C82" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D82" s="6" t="s">
         <v>10</v>
@@ -10133,10 +10301,10 @@
     </row>
     <row r="83" spans="1:8" ht="12.75">
       <c r="A83" s="6" t="s">
-        <v>136</v>
+        <v>149</v>
       </c>
       <c r="B83" s="10" t="s">
-        <v>157</v>
+        <v>168</v>
       </c>
       <c r="C83" s="6" t="s">
         <v>14</v>
@@ -10153,16 +10321,16 @@
     </row>
     <row r="84" spans="1:8" ht="12.75">
       <c r="A84" s="6" t="s">
-        <v>136</v>
+        <v>149</v>
       </c>
       <c r="B84" s="10" t="s">
-        <v>158</v>
+        <v>85</v>
       </c>
       <c r="C84" s="6" t="s">
         <v>14</v>
       </c>
       <c r="D84" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E84" s="6" t="s">
         <v>10</v>
@@ -10173,10 +10341,10 @@
     </row>
     <row r="85" spans="1:8" ht="12.75">
       <c r="A85" s="6" t="s">
-        <v>136</v>
+        <v>149</v>
       </c>
       <c r="B85" s="10" t="s">
-        <v>159</v>
+        <v>169</v>
       </c>
       <c r="C85" s="6" t="s">
         <v>14</v>
@@ -10193,16 +10361,16 @@
     </row>
     <row r="86" spans="1:8" ht="12.75">
       <c r="A86" s="6" t="s">
-        <v>136</v>
+        <v>149</v>
       </c>
       <c r="B86" s="10" t="s">
-        <v>68</v>
+        <v>170</v>
       </c>
       <c r="C86" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D86" s="6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E86" s="6" t="s">
         <v>10</v>
@@ -10213,13 +10381,13 @@
     </row>
     <row r="87" spans="1:8" ht="12.75">
       <c r="A87" s="6" t="s">
-        <v>136</v>
+        <v>149</v>
       </c>
       <c r="B87" s="10" t="s">
-        <v>160</v>
+        <v>171</v>
       </c>
       <c r="C87" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D87" s="6" t="s">
         <v>10</v>
@@ -10233,10 +10401,10 @@
     </row>
     <row r="88" spans="1:8" ht="12.75">
       <c r="A88" s="6" t="s">
-        <v>136</v>
+        <v>149</v>
       </c>
       <c r="B88" s="10" t="s">
-        <v>78</v>
+        <v>96</v>
       </c>
       <c r="C88" s="6" t="s">
         <v>14</v>
@@ -10253,10 +10421,10 @@
     </row>
     <row r="89" spans="1:8" ht="12.75">
       <c r="A89" s="6" t="s">
-        <v>136</v>
+        <v>149</v>
       </c>
       <c r="B89" s="10" t="s">
-        <v>80</v>
+        <v>99</v>
       </c>
       <c r="C89" s="6" t="s">
         <v>14</v>
@@ -10273,10 +10441,10 @@
     </row>
     <row r="90" spans="1:8" ht="12.75">
       <c r="A90" s="6" t="s">
-        <v>136</v>
+        <v>149</v>
       </c>
       <c r="B90" s="10" t="s">
-        <v>161</v>
+        <v>172</v>
       </c>
       <c r="C90" s="6" t="s">
         <v>14</v>
@@ -10293,10 +10461,10 @@
     </row>
     <row r="91" spans="1:8" ht="12.75">
       <c r="A91" s="6" t="s">
-        <v>136</v>
+        <v>149</v>
       </c>
       <c r="B91" s="10" t="s">
-        <v>81</v>
+        <v>100</v>
       </c>
       <c r="C91" s="6" t="s">
         <v>14</v>
@@ -10313,16 +10481,16 @@
     </row>
     <row r="92" spans="1:8" ht="12.75">
       <c r="A92" s="6" t="s">
-        <v>136</v>
+        <v>149</v>
       </c>
       <c r="B92" s="10" t="s">
-        <v>162</v>
+        <v>101</v>
       </c>
       <c r="C92" s="6" t="s">
         <v>14</v>
       </c>
       <c r="D92" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E92" s="6" t="s">
         <v>10</v>
@@ -10333,10 +10501,10 @@
     </row>
     <row r="93" spans="1:8" ht="12.75">
       <c r="A93" s="6" t="s">
-        <v>136</v>
+        <v>149</v>
       </c>
       <c r="B93" s="10" t="s">
-        <v>163</v>
+        <v>173</v>
       </c>
       <c r="C93" s="6" t="s">
         <v>14</v>
@@ -10353,10 +10521,10 @@
     </row>
     <row r="94" spans="1:8" ht="12.75">
       <c r="A94" s="6" t="s">
-        <v>136</v>
+        <v>149</v>
       </c>
       <c r="B94" s="10" t="s">
-        <v>164</v>
+        <v>174</v>
       </c>
       <c r="C94" s="6" t="s">
         <v>14</v>
@@ -10373,13 +10541,13 @@
     </row>
     <row r="95" spans="1:8" ht="12.75">
       <c r="A95" s="6" t="s">
-        <v>165</v>
+        <v>149</v>
       </c>
       <c r="B95" s="10" t="s">
-        <v>166</v>
+        <v>175</v>
       </c>
       <c r="C95" s="6" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D95" s="6" t="s">
         <v>10</v>
@@ -10387,16 +10555,16 @@
       <c r="E95" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="F95" s="6"/>
-      <c r="G95" s="6"/>
-      <c r="H95" s="6"/>
+      <c r="F95" s="7"/>
+      <c r="G95" s="8"/>
+      <c r="H95" s="8"/>
     </row>
     <row r="96" spans="1:8" ht="12.75">
       <c r="A96" s="6" t="s">
-        <v>165</v>
+        <v>176</v>
       </c>
       <c r="B96" s="10" t="s">
-        <v>167</v>
+        <v>177</v>
       </c>
       <c r="C96" s="6" t="s">
         <v>12</v>
@@ -10413,10 +10581,10 @@
     </row>
     <row r="97" spans="1:8" ht="12.75">
       <c r="A97" s="6" t="s">
-        <v>168</v>
+        <v>176</v>
       </c>
       <c r="B97" s="10" t="s">
-        <v>169</v>
+        <v>178</v>
       </c>
       <c r="C97" s="6" t="s">
         <v>12</v>
@@ -10433,16 +10601,16 @@
     </row>
     <row r="98" spans="1:8" ht="12.75">
       <c r="A98" s="6" t="s">
-        <v>168</v>
+        <v>179</v>
       </c>
       <c r="B98" s="10" t="s">
-        <v>170</v>
+        <v>41</v>
       </c>
       <c r="C98" s="6" t="s">
         <v>12</v>
       </c>
       <c r="D98" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E98" s="6" t="s">
         <v>10</v>
@@ -10453,16 +10621,16 @@
     </row>
     <row r="99" spans="1:8" ht="12.75">
       <c r="A99" s="6" t="s">
-        <v>168</v>
+        <v>179</v>
       </c>
       <c r="B99" s="10" t="s">
-        <v>34</v>
+        <v>180</v>
       </c>
       <c r="C99" s="6" t="s">
         <v>12</v>
       </c>
       <c r="D99" s="6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E99" s="6" t="s">
         <v>10</v>
@@ -10473,10 +10641,10 @@
     </row>
     <row r="100" spans="1:8" ht="12.75">
       <c r="A100" s="6" t="s">
-        <v>168</v>
+        <v>179</v>
       </c>
       <c r="B100" s="10" t="s">
-        <v>171</v>
+        <v>181</v>
       </c>
       <c r="C100" s="6" t="s">
         <v>12</v>
@@ -10493,16 +10661,16 @@
     </row>
     <row r="101" spans="1:8" ht="12.75">
       <c r="A101" s="6" t="s">
-        <v>168</v>
+        <v>179</v>
       </c>
       <c r="B101" s="10" t="s">
-        <v>172</v>
+        <v>55</v>
       </c>
       <c r="C101" s="6" t="s">
         <v>12</v>
       </c>
       <c r="D101" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E101" s="6" t="s">
         <v>10</v>
@@ -10513,10 +10681,10 @@
     </row>
     <row r="102" spans="1:8" ht="12.75">
       <c r="A102" s="6" t="s">
-        <v>168</v>
+        <v>179</v>
       </c>
       <c r="B102" s="10" t="s">
-        <v>173</v>
+        <v>182</v>
       </c>
       <c r="C102" s="6" t="s">
         <v>12</v>
@@ -10533,10 +10701,10 @@
     </row>
     <row r="103" spans="1:8" ht="12.75">
       <c r="A103" s="6" t="s">
-        <v>168</v>
+        <v>179</v>
       </c>
       <c r="B103" s="10" t="s">
-        <v>174</v>
+        <v>183</v>
       </c>
       <c r="C103" s="6" t="s">
         <v>12</v>
@@ -10553,10 +10721,10 @@
     </row>
     <row r="104" spans="1:8" ht="12.75">
       <c r="A104" s="6" t="s">
-        <v>168</v>
+        <v>179</v>
       </c>
       <c r="B104" s="10" t="s">
-        <v>175</v>
+        <v>184</v>
       </c>
       <c r="C104" s="6" t="s">
         <v>12</v>
@@ -10573,10 +10741,10 @@
     </row>
     <row r="105" spans="1:8" ht="12.75">
       <c r="A105" s="6" t="s">
-        <v>168</v>
+        <v>179</v>
       </c>
       <c r="B105" s="10" t="s">
-        <v>176</v>
+        <v>185</v>
       </c>
       <c r="C105" s="6" t="s">
         <v>12</v>
@@ -10593,10 +10761,10 @@
     </row>
     <row r="106" spans="1:8" ht="12.75">
       <c r="A106" s="6" t="s">
-        <v>168</v>
+        <v>179</v>
       </c>
       <c r="B106" s="10" t="s">
-        <v>177</v>
+        <v>186</v>
       </c>
       <c r="C106" s="6" t="s">
         <v>12</v>
@@ -10613,13 +10781,13 @@
     </row>
     <row r="107" spans="1:8" ht="12.75">
       <c r="A107" s="6" t="s">
-        <v>168</v>
+        <v>179</v>
       </c>
       <c r="B107" s="10" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C107" s="6" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D107" s="6" t="s">
         <v>9</v>
@@ -10633,10 +10801,10 @@
     </row>
     <row r="108" spans="1:8" ht="12.75">
       <c r="A108" s="6" t="s">
-        <v>168</v>
+        <v>179</v>
       </c>
       <c r="B108" s="10" t="s">
-        <v>178</v>
+        <v>187</v>
       </c>
       <c r="C108" s="6" t="s">
         <v>12</v>
@@ -10653,16 +10821,16 @@
     </row>
     <row r="109" spans="1:8" ht="12.75">
       <c r="A109" s="6" t="s">
-        <v>168</v>
+        <v>179</v>
       </c>
       <c r="B109" s="10" t="s">
-        <v>179</v>
+        <v>90</v>
       </c>
       <c r="C109" s="6" t="s">
         <v>12</v>
       </c>
       <c r="D109" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E109" s="6" t="s">
         <v>10</v>
@@ -10673,13 +10841,13 @@
     </row>
     <row r="110" spans="1:8" ht="12.75">
       <c r="A110" s="6" t="s">
-        <v>168</v>
+        <v>179</v>
       </c>
       <c r="B110" s="10" t="s">
-        <v>180</v>
+        <v>188</v>
       </c>
       <c r="C110" s="6" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D110" s="6" t="s">
         <v>10</v>
@@ -10693,16 +10861,16 @@
     </row>
     <row r="111" spans="1:8" ht="12.75">
       <c r="A111" s="6" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B111" s="10" t="s">
-        <v>24</v>
+        <v>189</v>
       </c>
       <c r="C111" s="6" t="s">
         <v>12</v>
       </c>
       <c r="D111" s="6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E111" s="6" t="s">
         <v>10</v>
@@ -10713,16 +10881,16 @@
     </row>
     <row r="112" spans="1:8" ht="12.75">
       <c r="A112" s="6" t="s">
-        <v>181</v>
+        <v>190</v>
       </c>
       <c r="B112" s="10" t="s">
-        <v>182</v>
+        <v>26</v>
       </c>
       <c r="C112" s="6" t="s">
         <v>12</v>
       </c>
       <c r="D112" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E112" s="6" t="s">
         <v>10</v>
@@ -10733,16 +10901,16 @@
     </row>
     <row r="113" spans="1:8" ht="12.75">
       <c r="A113" s="6" t="s">
-        <v>181</v>
+        <v>190</v>
       </c>
       <c r="B113" s="10" t="s">
-        <v>25</v>
+        <v>191</v>
       </c>
       <c r="C113" s="6" t="s">
         <v>12</v>
       </c>
       <c r="D113" s="6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E113" s="6" t="s">
         <v>10</v>
@@ -10753,16 +10921,16 @@
     </row>
     <row r="114" spans="1:8" ht="12.75">
       <c r="A114" s="6" t="s">
-        <v>181</v>
+        <v>190</v>
       </c>
       <c r="B114" s="10" t="s">
-        <v>183</v>
+        <v>27</v>
       </c>
       <c r="C114" s="6" t="s">
         <v>12</v>
       </c>
       <c r="D114" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E114" s="6" t="s">
         <v>10</v>
@@ -10773,10 +10941,10 @@
     </row>
     <row r="115" spans="1:8" ht="12.75">
       <c r="A115" s="6" t="s">
-        <v>181</v>
+        <v>190</v>
       </c>
       <c r="B115" s="10" t="s">
-        <v>184</v>
+        <v>192</v>
       </c>
       <c r="C115" s="6" t="s">
         <v>12</v>
@@ -10793,10 +10961,10 @@
     </row>
     <row r="116" spans="1:8" ht="12.75">
       <c r="A116" s="6" t="s">
-        <v>181</v>
+        <v>190</v>
       </c>
       <c r="B116" s="10" t="s">
-        <v>185</v>
+        <v>193</v>
       </c>
       <c r="C116" s="6" t="s">
         <v>12</v>
@@ -10813,10 +10981,10 @@
     </row>
     <row r="117" spans="1:8" ht="12.75">
       <c r="A117" s="6" t="s">
-        <v>181</v>
+        <v>190</v>
       </c>
       <c r="B117" s="10" t="s">
-        <v>186</v>
+        <v>194</v>
       </c>
       <c r="C117" s="6" t="s">
         <v>12</v>
@@ -10833,10 +11001,10 @@
     </row>
     <row r="118" spans="1:8" ht="12.75">
       <c r="A118" s="6" t="s">
-        <v>181</v>
+        <v>190</v>
       </c>
       <c r="B118" s="10" t="s">
-        <v>187</v>
+        <v>195</v>
       </c>
       <c r="C118" s="6" t="s">
         <v>12</v>
@@ -10853,13 +11021,13 @@
     </row>
     <row r="119" spans="1:8" ht="12.75">
       <c r="A119" s="6" t="s">
-        <v>181</v>
+        <v>190</v>
       </c>
       <c r="B119" s="10" t="s">
-        <v>188</v>
+        <v>196</v>
       </c>
       <c r="C119" s="6" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D119" s="6" t="s">
         <v>10</v>
@@ -10873,10 +11041,10 @@
     </row>
     <row r="120" spans="1:8" ht="12.75">
       <c r="A120" s="6" t="s">
-        <v>181</v>
+        <v>190</v>
       </c>
       <c r="B120" s="10" t="s">
-        <v>189</v>
+        <v>197</v>
       </c>
       <c r="C120" s="6" t="s">
         <v>12</v>
@@ -10893,16 +11061,16 @@
     </row>
     <row r="121" spans="1:8" ht="12.75">
       <c r="A121" s="6" t="s">
-        <v>181</v>
+        <v>190</v>
       </c>
       <c r="B121" s="10" t="s">
-        <v>54</v>
+        <v>198</v>
       </c>
       <c r="C121" s="6" t="s">
         <v>12</v>
       </c>
       <c r="D121" s="6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E121" s="6" t="s">
         <v>10</v>
@@ -10913,16 +11081,16 @@
     </row>
     <row r="122" spans="1:8" ht="12.75">
       <c r="A122" s="6" t="s">
-        <v>181</v>
+        <v>190</v>
       </c>
       <c r="B122" s="10" t="s">
-        <v>190</v>
+        <v>63</v>
       </c>
       <c r="C122" s="6" t="s">
         <v>12</v>
       </c>
       <c r="D122" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E122" s="6" t="s">
         <v>10</v>
@@ -10933,16 +11101,16 @@
     </row>
     <row r="123" spans="1:8" ht="12.75">
       <c r="A123" s="6" t="s">
-        <v>181</v>
+        <v>190</v>
       </c>
       <c r="B123" s="10" t="s">
-        <v>191</v>
+        <v>67</v>
       </c>
       <c r="C123" s="6" t="s">
         <v>12</v>
       </c>
       <c r="D123" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E123" s="6" t="s">
         <v>10</v>
@@ -10953,10 +11121,10 @@
     </row>
     <row r="124" spans="1:8" ht="12.75">
       <c r="A124" s="6" t="s">
-        <v>181</v>
+        <v>190</v>
       </c>
       <c r="B124" s="10" t="s">
-        <v>192</v>
+        <v>199</v>
       </c>
       <c r="C124" s="6" t="s">
         <v>12</v>
@@ -10973,10 +11141,10 @@
     </row>
     <row r="125" spans="1:8" ht="12.75">
       <c r="A125" s="6" t="s">
-        <v>181</v>
+        <v>190</v>
       </c>
       <c r="B125" s="10" t="s">
-        <v>193</v>
+        <v>200</v>
       </c>
       <c r="C125" s="6" t="s">
         <v>12</v>
@@ -10993,10 +11161,10 @@
     </row>
     <row r="126" spans="1:8" ht="12.75">
       <c r="A126" s="6" t="s">
-        <v>181</v>
+        <v>190</v>
       </c>
       <c r="B126" s="10" t="s">
-        <v>64</v>
+        <v>79</v>
       </c>
       <c r="C126" s="6" t="s">
         <v>12</v>
@@ -11013,16 +11181,16 @@
     </row>
     <row r="127" spans="1:8" ht="12.75">
       <c r="A127" s="6" t="s">
-        <v>181</v>
+        <v>190</v>
       </c>
       <c r="B127" s="10" t="s">
-        <v>194</v>
+        <v>80</v>
       </c>
       <c r="C127" s="6" t="s">
         <v>12</v>
       </c>
       <c r="D127" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E127" s="6" t="s">
         <v>10</v>
@@ -11033,16 +11201,16 @@
     </row>
     <row r="128" spans="1:8" ht="12.75">
       <c r="A128" s="6" t="s">
-        <v>181</v>
+        <v>190</v>
       </c>
       <c r="B128" s="10" t="s">
-        <v>195</v>
+        <v>89</v>
       </c>
       <c r="C128" s="6" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D128" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E128" s="6" t="s">
         <v>10</v>
@@ -11053,10 +11221,10 @@
     </row>
     <row r="129" spans="1:8" ht="12.75">
       <c r="A129" s="6" t="s">
-        <v>181</v>
+        <v>190</v>
       </c>
       <c r="B129" s="10" t="s">
-        <v>196</v>
+        <v>201</v>
       </c>
       <c r="C129" s="6" t="s">
         <v>12</v>
@@ -11073,10 +11241,10 @@
     </row>
     <row r="130" spans="1:8" ht="12.75">
       <c r="A130" s="6" t="s">
-        <v>181</v>
+        <v>190</v>
       </c>
       <c r="B130" s="10" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="C130" s="6" t="s">
         <v>12</v>
@@ -11093,10 +11261,10 @@
     </row>
     <row r="131" spans="1:8" ht="12.75">
       <c r="A131" s="6" t="s">
-        <v>181</v>
+        <v>190</v>
       </c>
       <c r="B131" s="10" t="s">
-        <v>198</v>
+        <v>203</v>
       </c>
       <c r="C131" s="6" t="s">
         <v>12</v>
@@ -11113,10 +11281,10 @@
     </row>
     <row r="132" spans="1:8" ht="12.75">
       <c r="A132" s="6" t="s">
-        <v>181</v>
+        <v>190</v>
       </c>
       <c r="B132" s="10" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="C132" s="6" t="s">
         <v>12</v>
@@ -11133,10 +11301,10 @@
     </row>
     <row r="133" spans="1:8" ht="12.75">
       <c r="A133" s="6" t="s">
-        <v>181</v>
+        <v>190</v>
       </c>
       <c r="B133" s="10" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="C133" s="6" t="s">
         <v>12</v>
@@ -11153,10 +11321,10 @@
     </row>
     <row r="134" spans="1:8" ht="12.75">
       <c r="A134" s="6" t="s">
-        <v>181</v>
+        <v>190</v>
       </c>
       <c r="B134" s="10" t="s">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="C134" s="6" t="s">
         <v>12</v>
@@ -11173,13 +11341,13 @@
     </row>
     <row r="135" spans="1:8" ht="12.75">
       <c r="A135" s="6" t="s">
-        <v>181</v>
+        <v>190</v>
       </c>
       <c r="B135" s="10" t="s">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="C135" s="6" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D135" s="6" t="s">
         <v>10</v>
@@ -11193,16 +11361,16 @@
     </row>
     <row r="136" spans="1:8" ht="12.75">
       <c r="A136" s="6" t="s">
-        <v>181</v>
+        <v>190</v>
       </c>
       <c r="B136" s="10" t="s">
-        <v>72</v>
+        <v>208</v>
       </c>
       <c r="C136" s="6" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D136" s="6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E136" s="6" t="s">
         <v>10</v>
@@ -11213,16 +11381,16 @@
     </row>
     <row r="137" spans="1:8" ht="12.75">
       <c r="A137" s="6" t="s">
-        <v>203</v>
+        <v>190</v>
       </c>
       <c r="B137" s="10" t="s">
-        <v>204</v>
+        <v>107</v>
       </c>
       <c r="C137" s="6" t="s">
         <v>12</v>
       </c>
       <c r="D137" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E137" s="6" t="s">
         <v>10</v>
@@ -11233,10 +11401,10 @@
     </row>
     <row r="138" spans="1:8" ht="12.75">
       <c r="A138" s="6" t="s">
-        <v>203</v>
+        <v>209</v>
       </c>
       <c r="B138" s="10" t="s">
-        <v>84</v>
+        <v>29</v>
       </c>
       <c r="C138" s="6" t="s">
         <v>12</v>
@@ -11253,16 +11421,16 @@
     </row>
     <row r="139" spans="1:8" ht="12.75">
       <c r="A139" s="6" t="s">
-        <v>203</v>
+        <v>209</v>
       </c>
       <c r="B139" s="10" t="s">
-        <v>85</v>
+        <v>210</v>
       </c>
       <c r="C139" s="6" t="s">
         <v>12</v>
       </c>
       <c r="D139" s="6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E139" s="6" t="s">
         <v>10</v>
@@ -11273,10 +11441,10 @@
     </row>
     <row r="140" spans="1:8" ht="12.75">
       <c r="A140" s="6" t="s">
-        <v>203</v>
+        <v>209</v>
       </c>
       <c r="B140" s="10" t="s">
-        <v>205</v>
+        <v>211</v>
       </c>
       <c r="C140" s="6" t="s">
         <v>12</v>
@@ -11293,16 +11461,16 @@
     </row>
     <row r="141" spans="1:8" ht="12.75">
       <c r="A141" s="6" t="s">
-        <v>203</v>
+        <v>209</v>
       </c>
       <c r="B141" s="10" t="s">
-        <v>206</v>
+        <v>47</v>
       </c>
       <c r="C141" s="6" t="s">
         <v>12</v>
       </c>
       <c r="D141" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E141" s="6" t="s">
         <v>10</v>
@@ -11313,16 +11481,16 @@
     </row>
     <row r="142" spans="1:8" ht="12.75">
       <c r="A142" s="6" t="s">
-        <v>203</v>
+        <v>209</v>
       </c>
       <c r="B142" s="10" t="s">
-        <v>207</v>
+        <v>50</v>
       </c>
       <c r="C142" s="6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D142" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E142" s="6" t="s">
         <v>10</v>
@@ -11333,16 +11501,16 @@
     </row>
     <row r="143" spans="1:8" ht="12.75">
       <c r="A143" s="6" t="s">
-        <v>203</v>
+        <v>209</v>
       </c>
       <c r="B143" s="10" t="s">
-        <v>48</v>
+        <v>212</v>
       </c>
       <c r="C143" s="6" t="s">
         <v>12</v>
       </c>
       <c r="D143" s="6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E143" s="6" t="s">
         <v>10</v>
@@ -11353,13 +11521,13 @@
     </row>
     <row r="144" spans="1:8" ht="12.75">
       <c r="A144" s="6" t="s">
-        <v>203</v>
+        <v>209</v>
       </c>
       <c r="B144" s="10" t="s">
-        <v>208</v>
+        <v>213</v>
       </c>
       <c r="C144" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D144" s="6" t="s">
         <v>10</v>
@@ -11373,16 +11541,16 @@
     </row>
     <row r="145" spans="1:8" ht="12.75">
       <c r="A145" s="6" t="s">
-        <v>203</v>
+        <v>209</v>
       </c>
       <c r="B145" s="10" t="s">
-        <v>76</v>
+        <v>214</v>
       </c>
       <c r="C145" s="6" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D145" s="6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E145" s="6" t="s">
         <v>10</v>
@@ -11393,10 +11561,10 @@
     </row>
     <row r="146" spans="1:8" ht="12.75">
       <c r="A146" s="6" t="s">
-        <v>203</v>
+        <v>209</v>
       </c>
       <c r="B146" s="10" t="s">
-        <v>26</v>
+        <v>60</v>
       </c>
       <c r="C146" s="6" t="s">
         <v>12</v>
@@ -11413,10 +11581,10 @@
     </row>
     <row r="147" spans="1:8" ht="12.75">
       <c r="A147" s="6" t="s">
-        <v>203</v>
+        <v>209</v>
       </c>
       <c r="B147" s="10" t="s">
-        <v>209</v>
+        <v>215</v>
       </c>
       <c r="C147" s="6" t="s">
         <v>12</v>
@@ -11433,16 +11601,16 @@
     </row>
     <row r="148" spans="1:8" ht="12.75">
       <c r="A148" s="6" t="s">
-        <v>203</v>
+        <v>209</v>
       </c>
       <c r="B148" s="10" t="s">
-        <v>210</v>
+        <v>68</v>
       </c>
       <c r="C148" s="6" t="s">
         <v>12</v>
       </c>
       <c r="D148" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E148" s="6" t="s">
         <v>10</v>
@@ -11453,16 +11621,16 @@
     </row>
     <row r="149" spans="1:8" ht="12.75">
       <c r="A149" s="6" t="s">
-        <v>203</v>
+        <v>209</v>
       </c>
       <c r="B149" s="10" t="s">
-        <v>38</v>
+        <v>216</v>
       </c>
       <c r="C149" s="6" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D149" s="6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E149" s="6" t="s">
         <v>10</v>
@@ -11473,10 +11641,10 @@
     </row>
     <row r="150" spans="1:8" ht="12.75">
       <c r="A150" s="6" t="s">
-        <v>203</v>
+        <v>209</v>
       </c>
       <c r="B150" s="10" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="C150" s="6" t="s">
         <v>12</v>
@@ -11493,10 +11661,10 @@
     </row>
     <row r="151" spans="1:8" ht="12.75">
       <c r="A151" s="6" t="s">
-        <v>203</v>
+        <v>209</v>
       </c>
       <c r="B151" s="10" t="s">
-        <v>212</v>
+        <v>218</v>
       </c>
       <c r="C151" s="6" t="s">
         <v>12</v>
@@ -11513,10 +11681,10 @@
     </row>
     <row r="152" spans="1:8" ht="12.75">
       <c r="A152" s="6" t="s">
-        <v>203</v>
+        <v>209</v>
       </c>
       <c r="B152" s="10" t="s">
-        <v>55</v>
+        <v>76</v>
       </c>
       <c r="C152" s="6" t="s">
         <v>12</v>
@@ -11533,16 +11701,16 @@
     </row>
     <row r="153" spans="1:8" ht="12.75">
       <c r="A153" s="6" t="s">
-        <v>203</v>
+        <v>209</v>
       </c>
       <c r="B153" s="10" t="s">
-        <v>61</v>
+        <v>219</v>
       </c>
       <c r="C153" s="6" t="s">
         <v>12</v>
       </c>
       <c r="D153" s="6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E153" s="6" t="s">
         <v>10</v>
@@ -11553,13 +11721,13 @@
     </row>
     <row r="154" spans="1:8" ht="12.75">
       <c r="A154" s="6" t="s">
-        <v>203</v>
+        <v>209</v>
       </c>
       <c r="B154" s="10" t="s">
-        <v>213</v>
+        <v>220</v>
       </c>
       <c r="C154" s="6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D154" s="6" t="s">
         <v>10</v>
@@ -11573,13 +11741,13 @@
     </row>
     <row r="155" spans="1:8" ht="12.75">
       <c r="A155" s="6" t="s">
-        <v>203</v>
+        <v>209</v>
       </c>
       <c r="B155" s="10" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="C155" s="6" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D155" s="6" t="s">
         <v>9</v>
@@ -11593,16 +11761,16 @@
     </row>
     <row r="156" spans="1:8" ht="12.75">
       <c r="A156" s="6" t="s">
-        <v>203</v>
+        <v>209</v>
       </c>
       <c r="B156" s="10" t="s">
-        <v>214</v>
+        <v>82</v>
       </c>
       <c r="C156" s="6" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D156" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E156" s="6" t="s">
         <v>10</v>
@@ -11613,10 +11781,10 @@
     </row>
     <row r="157" spans="1:8" ht="12.75">
       <c r="A157" s="6" t="s">
-        <v>203</v>
+        <v>209</v>
       </c>
       <c r="B157" s="10" t="s">
-        <v>215</v>
+        <v>221</v>
       </c>
       <c r="C157" s="6" t="s">
         <v>12</v>
@@ -11633,13 +11801,13 @@
     </row>
     <row r="158" spans="1:8" ht="12.75">
       <c r="A158" s="6" t="s">
-        <v>203</v>
+        <v>209</v>
       </c>
       <c r="B158" s="10" t="s">
-        <v>216</v>
+        <v>222</v>
       </c>
       <c r="C158" s="6" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D158" s="6" t="s">
         <v>10</v>
@@ -11653,16 +11821,16 @@
     </row>
     <row r="159" spans="1:8" ht="12.75">
       <c r="A159" s="6" t="s">
-        <v>203</v>
+        <v>209</v>
       </c>
       <c r="B159" s="10" t="s">
-        <v>217</v>
+        <v>91</v>
       </c>
       <c r="C159" s="6" t="s">
         <v>12</v>
       </c>
       <c r="D159" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E159" s="6" t="s">
         <v>10</v>
@@ -11673,16 +11841,16 @@
     </row>
     <row r="160" spans="1:8" ht="12.75">
       <c r="A160" s="6" t="s">
-        <v>203</v>
+        <v>209</v>
       </c>
       <c r="B160" s="10" t="s">
-        <v>218</v>
+        <v>92</v>
       </c>
       <c r="C160" s="6" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D160" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E160" s="6" t="s">
         <v>10</v>
@@ -11693,16 +11861,16 @@
     </row>
     <row r="161" spans="1:8" ht="12.75">
       <c r="A161" s="6" t="s">
-        <v>203</v>
+        <v>209</v>
       </c>
       <c r="B161" s="10" t="s">
-        <v>219</v>
+        <v>94</v>
       </c>
       <c r="C161" s="6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D161" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E161" s="6" t="s">
         <v>10</v>
@@ -11713,16 +11881,16 @@
     </row>
     <row r="162" spans="1:8" ht="12.75">
       <c r="A162" s="6" t="s">
-        <v>203</v>
+        <v>209</v>
       </c>
       <c r="B162" s="10" t="s">
-        <v>220</v>
+        <v>95</v>
       </c>
       <c r="C162" s="6" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D162" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E162" s="6" t="s">
         <v>10</v>
@@ -11733,16 +11901,16 @@
     </row>
     <row r="163" spans="1:8" ht="12.75">
       <c r="A163" s="6" t="s">
-        <v>203</v>
+        <v>209</v>
       </c>
       <c r="B163" s="10" t="s">
-        <v>65</v>
+        <v>223</v>
       </c>
       <c r="C163" s="6" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D163" s="6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E163" s="6" t="s">
         <v>10</v>
@@ -11753,13 +11921,13 @@
     </row>
     <row r="164" spans="1:8" ht="12.75">
       <c r="A164" s="6" t="s">
-        <v>203</v>
+        <v>209</v>
       </c>
       <c r="B164" s="10" t="s">
-        <v>89</v>
+        <v>104</v>
       </c>
       <c r="C164" s="6" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D164" s="6" t="s">
         <v>9</v>
@@ -11773,16 +11941,16 @@
     </row>
     <row r="165" spans="1:8" ht="12.75">
       <c r="A165" s="6" t="s">
-        <v>203</v>
+        <v>209</v>
       </c>
       <c r="B165" s="10" t="s">
-        <v>221</v>
+        <v>105</v>
       </c>
       <c r="C165" s="6" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D165" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E165" s="6" t="s">
         <v>10</v>
@@ -11793,16 +11961,16 @@
     </row>
     <row r="166" spans="1:8" ht="12.75">
       <c r="A166" s="6" t="s">
-        <v>203</v>
+        <v>209</v>
       </c>
       <c r="B166" s="10" t="s">
-        <v>74</v>
+        <v>224</v>
       </c>
       <c r="C166" s="6" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D166" s="6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E166" s="6" t="s">
         <v>10</v>
@@ -11813,16 +11981,16 @@
     </row>
     <row r="167" spans="1:8" ht="12.75">
       <c r="A167" s="6" t="s">
-        <v>222</v>
+        <v>209</v>
       </c>
       <c r="B167" s="10" t="s">
-        <v>23</v>
+        <v>225</v>
       </c>
       <c r="C167" s="6" t="s">
         <v>12</v>
       </c>
       <c r="D167" s="6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E167" s="6" t="s">
         <v>10</v>
@@ -11833,16 +12001,16 @@
     </row>
     <row r="168" spans="1:8" ht="12.75">
       <c r="A168" s="6" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="B168" s="10" t="s">
-        <v>223</v>
+        <v>24</v>
       </c>
       <c r="C168" s="6" t="s">
         <v>12</v>
       </c>
       <c r="D168" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E168" s="6" t="s">
         <v>10</v>
@@ -11853,16 +12021,16 @@
     </row>
     <row r="169" spans="1:8" ht="12.75">
       <c r="A169" s="6" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="B169" s="10" t="s">
-        <v>224</v>
+        <v>28</v>
       </c>
       <c r="C169" s="6" t="s">
         <v>12</v>
       </c>
       <c r="D169" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E169" s="6" t="s">
         <v>10</v>
@@ -11873,10 +12041,10 @@
     </row>
     <row r="170" spans="1:8" ht="12.75">
       <c r="A170" s="6" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="B170" s="10" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="C170" s="6" t="s">
         <v>12</v>
@@ -11893,13 +12061,13 @@
     </row>
     <row r="171" spans="1:8" ht="12.75">
       <c r="A171" s="6" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="B171" s="10" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="C171" s="6" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D171" s="6" t="s">
         <v>10</v>
@@ -11913,10 +12081,10 @@
     </row>
     <row r="172" spans="1:8" ht="12.75">
       <c r="A172" s="6" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="B172" s="10" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="C172" s="6" t="s">
         <v>12</v>
@@ -11933,10 +12101,10 @@
     </row>
     <row r="173" spans="1:8" ht="12.75">
       <c r="A173" s="6" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="B173" s="10" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="C173" s="6" t="s">
         <v>12</v>
@@ -11953,10 +12121,10 @@
     </row>
     <row r="174" spans="1:8" ht="12.75">
       <c r="A174" s="6" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="B174" s="10" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="C174" s="6" t="s">
         <v>12</v>
@@ -11973,16 +12141,16 @@
     </row>
     <row r="175" spans="1:8" ht="12.75">
       <c r="A175" s="6" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="B175" s="10" t="s">
-        <v>229</v>
+        <v>51</v>
       </c>
       <c r="C175" s="6" t="s">
         <v>12</v>
       </c>
       <c r="D175" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E175" s="6" t="s">
         <v>10</v>
@@ -11993,10 +12161,10 @@
     </row>
     <row r="176" spans="1:8" ht="12.75">
       <c r="A176" s="6" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="B176" s="10" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="C176" s="6" t="s">
         <v>12</v>
@@ -12013,10 +12181,10 @@
     </row>
     <row r="177" spans="1:8" ht="12.75">
       <c r="A177" s="6" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="B177" s="10" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="C177" s="6" t="s">
         <v>12</v>
@@ -12033,16 +12201,16 @@
     </row>
     <row r="178" spans="1:8" ht="12.75">
       <c r="A178" s="6" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="B178" s="10" t="s">
-        <v>70</v>
+        <v>233</v>
       </c>
       <c r="C178" s="6" t="s">
         <v>12</v>
       </c>
       <c r="D178" s="6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E178" s="6" t="s">
         <v>10</v>
@@ -12053,16 +12221,16 @@
     </row>
     <row r="179" spans="1:8" ht="12.75">
       <c r="A179" s="6" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="B179" s="10" t="s">
-        <v>71</v>
+        <v>234</v>
       </c>
       <c r="C179" s="6" t="s">
         <v>12</v>
       </c>
       <c r="D179" s="6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E179" s="6" t="s">
         <v>10</v>
@@ -12073,16 +12241,16 @@
     </row>
     <row r="180" spans="1:8" ht="12.75">
       <c r="A180" s="6" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="B180" s="10" t="s">
-        <v>232</v>
+        <v>87</v>
       </c>
       <c r="C180" s="6" t="s">
         <v>12</v>
       </c>
       <c r="D180" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E180" s="6" t="s">
         <v>10</v>
@@ -12093,16 +12261,16 @@
     </row>
     <row r="181" spans="1:8" ht="12.75">
       <c r="A181" s="6" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="B181" s="10" t="s">
-        <v>233</v>
+        <v>88</v>
       </c>
       <c r="C181" s="6" t="s">
         <v>12</v>
       </c>
       <c r="D181" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E181" s="6" t="s">
         <v>10</v>
@@ -12113,13 +12281,13 @@
     </row>
     <row r="182" spans="1:8" ht="12.75">
       <c r="A182" s="6" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="B182" s="10" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="C182" s="6" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D182" s="6" t="s">
         <v>10</v>
@@ -12133,13 +12301,13 @@
     </row>
     <row r="183" spans="1:8" ht="12.75">
       <c r="A183" s="6" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="B183" s="10" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C183" s="6" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D183" s="6" t="s">
         <v>10</v>
@@ -12153,13 +12321,13 @@
     </row>
     <row r="184" spans="1:8" ht="12.75">
       <c r="A184" s="6" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="B184" s="10" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="C184" s="6" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D184" s="6" t="s">
         <v>10</v>
@@ -12173,16 +12341,16 @@
     </row>
     <row r="185" spans="1:8" ht="12.75">
       <c r="A185" s="6" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="B185" s="10" t="s">
-        <v>86</v>
+        <v>238</v>
       </c>
       <c r="C185" s="6" t="s">
         <v>14</v>
       </c>
       <c r="D185" s="6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E185" s="6" t="s">
         <v>10</v>
@@ -12193,16 +12361,16 @@
     </row>
     <row r="186" spans="1:8" ht="12.75">
       <c r="A186" s="6" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="B186" s="10" t="s">
-        <v>237</v>
+        <v>106</v>
       </c>
       <c r="C186" s="6" t="s">
         <v>14</v>
       </c>
       <c r="D186" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E186" s="6" t="s">
         <v>10</v>
@@ -12213,7 +12381,7 @@
     </row>
     <row r="187" spans="1:8" ht="12.75">
       <c r="A187" s="6" t="s">
-        <v>238</v>
+        <v>226</v>
       </c>
       <c r="B187" s="10" t="s">
         <v>239</v>
@@ -12233,16 +12401,16 @@
     </row>
     <row r="188" spans="1:8" ht="12.75">
       <c r="A188" s="6" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="B188" s="10" t="s">
-        <v>79</v>
+        <v>241</v>
       </c>
       <c r="C188" s="6" t="s">
         <v>12</v>
       </c>
       <c r="D188" s="6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E188" s="6" t="s">
         <v>10</v>
@@ -12253,16 +12421,16 @@
     </row>
     <row r="189" spans="1:8" ht="12.75">
       <c r="A189" s="6" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="B189" s="10" t="s">
-        <v>240</v>
+        <v>39</v>
       </c>
       <c r="C189" s="6" t="s">
         <v>12</v>
       </c>
       <c r="D189" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E189" s="6" t="s">
         <v>10</v>
@@ -12273,10 +12441,10 @@
     </row>
     <row r="190" spans="1:8" ht="12.75">
       <c r="A190" s="6" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="B190" s="10" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="C190" s="6" t="s">
         <v>12</v>
@@ -12293,16 +12461,16 @@
     </row>
     <row r="191" spans="1:8" ht="12.75">
       <c r="A191" s="6" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="B191" s="10" t="s">
-        <v>242</v>
+        <v>56</v>
       </c>
       <c r="C191" s="6" t="s">
         <v>12</v>
       </c>
       <c r="D191" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E191" s="6" t="s">
         <v>10</v>
@@ -12313,7 +12481,7 @@
     </row>
     <row r="192" spans="1:8" ht="12.75">
       <c r="A192" s="6" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="B192" s="10" t="s">
         <v>243</v>
@@ -12333,10 +12501,10 @@
     </row>
     <row r="193" spans="1:8" ht="12.75">
       <c r="A193" s="6" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="B193" s="10" t="s">
-        <v>32</v>
+        <v>84</v>
       </c>
       <c r="C193" s="6" t="s">
         <v>12</v>
@@ -12353,16 +12521,16 @@
     </row>
     <row r="194" spans="1:8" ht="12.75">
       <c r="A194" s="6" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="B194" s="10" t="s">
-        <v>244</v>
+        <v>86</v>
       </c>
       <c r="C194" s="6" t="s">
         <v>12</v>
       </c>
       <c r="D194" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E194" s="6" t="s">
         <v>10</v>
@@ -12373,16 +12541,16 @@
     </row>
     <row r="195" spans="1:8" ht="12.75">
       <c r="A195" s="6" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="B195" s="10" t="s">
-        <v>67</v>
+        <v>244</v>
       </c>
       <c r="C195" s="6" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D195" s="6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E195" s="6" t="s">
         <v>10</v>
@@ -12393,16 +12561,16 @@
     </row>
     <row r="196" spans="1:8" ht="12.75">
       <c r="A196" s="6" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="B196" s="10" t="s">
-        <v>69</v>
+        <v>245</v>
       </c>
       <c r="C196" s="6" t="s">
         <v>12</v>
       </c>
       <c r="D196" s="6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E196" s="6" t="s">
         <v>10</v>
@@ -12413,16 +12581,16 @@
     </row>
     <row r="197" spans="1:8" ht="12.75">
       <c r="A197" s="6" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="B197" s="10" t="s">
-        <v>245</v>
+        <v>98</v>
       </c>
       <c r="C197" s="6" t="s">
         <v>12</v>
       </c>
       <c r="D197" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E197" s="6" t="s">
         <v>10</v>
@@ -12433,16 +12601,16 @@
     </row>
     <row r="198" spans="1:8" ht="12.75">
       <c r="A198" s="6" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="B198" s="10" t="s">
-        <v>45</v>
+        <v>246</v>
       </c>
       <c r="C198" s="6" t="s">
         <v>12</v>
       </c>
       <c r="D198" s="6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E198" s="6" t="s">
         <v>10</v>
@@ -12453,10 +12621,10 @@
     </row>
     <row r="199" spans="1:8" ht="12.75">
       <c r="A199" s="6" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="B199" s="10" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="C199" s="6" t="s">
         <v>12</v>
@@ -12473,13 +12641,13 @@
     </row>
     <row r="200" spans="1:8" ht="12.75">
       <c r="A200" s="6" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="B200" s="10" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="C200" s="6" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D200" s="6" t="s">
         <v>10</v>
@@ -12491,12 +12659,12 @@
       <c r="G200" s="6"/>
       <c r="H200" s="6"/>
     </row>
-    <row r="201" spans="1:8" ht="24">
+    <row r="201" spans="1:8" ht="12.75">
       <c r="A201" s="6" t="s">
-        <v>248</v>
+        <v>240</v>
       </c>
       <c r="B201" s="10" t="s">
-        <v>37</v>
+        <v>108</v>
       </c>
       <c r="C201" s="6" t="s">
         <v>12</v>
@@ -12513,16 +12681,16 @@
     </row>
     <row r="202" spans="1:8" ht="24">
       <c r="A202" s="6" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="B202" s="10" t="s">
-        <v>51</v>
+        <v>250</v>
       </c>
       <c r="C202" s="6" t="s">
         <v>12</v>
       </c>
       <c r="D202" s="6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E202" s="6" t="s">
         <v>10</v>
@@ -12533,10 +12701,10 @@
     </row>
     <row r="203" spans="1:8" ht="24">
       <c r="A203" s="6" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="B203" s="10" t="s">
-        <v>58</v>
+        <v>30</v>
       </c>
       <c r="C203" s="6" t="s">
         <v>12</v>
@@ -12553,10 +12721,10 @@
     </row>
     <row r="204" spans="1:8" ht="24">
       <c r="A204" s="6" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="B204" s="10" t="s">
-        <v>59</v>
+        <v>33</v>
       </c>
       <c r="C204" s="6" t="s">
         <v>12</v>
@@ -12573,10 +12741,10 @@
     </row>
     <row r="205" spans="1:8" ht="24">
       <c r="A205" s="6" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="B205" s="10" t="s">
-        <v>62</v>
+        <v>45</v>
       </c>
       <c r="C205" s="6" t="s">
         <v>12</v>
@@ -12593,16 +12761,16 @@
     </row>
     <row r="206" spans="1:8" ht="24">
       <c r="A206" s="6" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="B206" s="10" t="s">
-        <v>83</v>
+        <v>251</v>
       </c>
       <c r="C206" s="6" t="s">
         <v>12</v>
       </c>
       <c r="D206" s="6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E206" s="6" t="s">
         <v>10</v>
@@ -12613,16 +12781,16 @@
     </row>
     <row r="207" spans="1:8" ht="24">
       <c r="A207" s="6" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="B207" s="10" t="s">
-        <v>53</v>
+        <v>252</v>
       </c>
       <c r="C207" s="6" t="s">
         <v>12</v>
       </c>
       <c r="D207" s="6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E207" s="6" t="s">
         <v>10</v>
@@ -12633,10 +12801,10 @@
     </row>
     <row r="208" spans="1:8" ht="24">
       <c r="A208" s="6" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="B208" s="10" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="C208" s="6" t="s">
         <v>12</v>
@@ -12653,16 +12821,16 @@
     </row>
     <row r="209" spans="1:8" ht="24">
       <c r="A209" s="6" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="B209" s="10" t="s">
-        <v>249</v>
+        <v>64</v>
       </c>
       <c r="C209" s="6" t="s">
         <v>12</v>
       </c>
       <c r="D209" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E209" s="6" t="s">
         <v>10</v>
@@ -12673,16 +12841,16 @@
     </row>
     <row r="210" spans="1:8" ht="24">
       <c r="A210" s="6" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="B210" s="10" t="s">
-        <v>250</v>
+        <v>66</v>
       </c>
       <c r="C210" s="6" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D210" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E210" s="6" t="s">
         <v>10</v>
@@ -12693,13 +12861,13 @@
     </row>
     <row r="211" spans="1:8" ht="24">
       <c r="A211" s="6" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="B211" s="10" t="s">
-        <v>60</v>
+        <v>71</v>
       </c>
       <c r="C211" s="6" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D211" s="6" t="s">
         <v>9</v>
@@ -12713,13 +12881,13 @@
     </row>
     <row r="212" spans="1:8" ht="24">
       <c r="A212" s="6" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="B212" s="10" t="s">
-        <v>87</v>
+        <v>72</v>
       </c>
       <c r="C212" s="6" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D212" s="6" t="s">
         <v>9</v>
@@ -12733,13 +12901,13 @@
     </row>
     <row r="213" spans="1:8" ht="24">
       <c r="A213" s="6" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="B213" s="10" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="C213" s="6" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D213" s="6" t="s">
         <v>10</v>
@@ -12753,13 +12921,13 @@
     </row>
     <row r="214" spans="1:8" ht="24">
       <c r="A214" s="6" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="B214" s="10" t="s">
-        <v>27</v>
+        <v>73</v>
       </c>
       <c r="C214" s="6" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D214" s="6" t="s">
         <v>9</v>
@@ -12773,10 +12941,10 @@
     </row>
     <row r="215" spans="1:8" ht="24">
       <c r="A215" s="6" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="B215" s="10" t="s">
-        <v>28</v>
+        <v>77</v>
       </c>
       <c r="C215" s="6" t="s">
         <v>12</v>
@@ -12793,16 +12961,16 @@
     </row>
     <row r="216" spans="1:8" ht="24">
       <c r="A216" s="6" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="B216" s="10" t="s">
-        <v>252</v>
+        <v>83</v>
       </c>
       <c r="C216" s="6" t="s">
         <v>12</v>
       </c>
       <c r="D216" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E216" s="6" t="s">
         <v>10</v>
@@ -12813,16 +12981,16 @@
     </row>
     <row r="217" spans="1:8" ht="24">
       <c r="A217" s="6" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="B217" s="10" t="s">
-        <v>49</v>
+        <v>254</v>
       </c>
       <c r="C217" s="6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D217" s="6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E217" s="6" t="s">
         <v>10</v>
@@ -12833,16 +13001,16 @@
     </row>
     <row r="218" spans="1:8" ht="24">
       <c r="A218" s="6" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="B218" s="10" t="s">
-        <v>253</v>
+        <v>102</v>
       </c>
       <c r="C218" s="6" t="s">
         <v>12</v>
       </c>
       <c r="D218" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E218" s="6" t="s">
         <v>10</v>
@@ -12853,13 +13021,13 @@
     </row>
     <row r="219" spans="1:8" ht="24">
       <c r="A219" s="6" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="B219" s="10" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="C219" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D219" s="6" t="s">
         <v>10</v>
@@ -12871,15 +13039,25 @@
       <c r="G219" s="6"/>
       <c r="H219" s="6"/>
     </row>
-    <row r="220" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A220" s="9"/>
-      <c r="B220" s="9"/>
-      <c r="C220" s="9"/>
-      <c r="D220" s="9"/>
-      <c r="E220" s="9"/>
-      <c r="F220" s="9"/>
-      <c r="G220" s="9"/>
-      <c r="H220" s="9"/>
+    <row r="220" spans="1:8" ht="24">
+      <c r="A220" s="6" t="s">
+        <v>249</v>
+      </c>
+      <c r="B220" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="C220" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D220" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E220" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F220" s="6"/>
+      <c r="G220" s="6"/>
+      <c r="H220" s="6"/>
     </row>
     <row r="221" spans="1:8" ht="15.75" customHeight="1">
       <c r="A221" s="9"/>
@@ -12971,10 +13149,20 @@
       <c r="G229" s="9"/>
       <c r="H229" s="9"/>
     </row>
+    <row r="230" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A230" s="9"/>
+      <c r="B230" s="9"/>
+      <c r="C230" s="9"/>
+      <c r="D230" s="9"/>
+      <c r="E230" s="9"/>
+      <c r="F230" s="9"/>
+      <c r="G230" s="9"/>
+      <c r="H230" s="9"/>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:AA219" xr:uid="{00000000-0009-0000-0000-000002000000}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:AA219">
-      <sortCondition ref="A1:A219"/>
+  <autoFilter ref="A1:AA220" xr:uid="{00000000-0009-0000-0000-000002000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:AA220">
+      <sortCondition ref="A1:A220"/>
     </sortState>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -12996,7 +13184,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>F2:F219</xm:sqref>
+          <xm:sqref>F2:F220</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="containsText" priority="2" operator="containsText" id="{823A311E-AD2D-4D47-B0E7-1F7D7567FD0C}">
@@ -13013,7 +13201,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>F2:F219</xm:sqref>
+          <xm:sqref>F2:F220</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="containsText" priority="3" operator="containsText" id="{224F3964-461E-4A99-8F3D-BDD7D17F31F6}">
@@ -13030,7 +13218,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>D2:E219</xm:sqref>
+          <xm:sqref>D2:E220</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="containsText" priority="4" operator="containsText" id="{3823E2ED-8648-4F27-B00F-7516C7AA65D5}">
@@ -13047,7 +13235,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>D2:E219</xm:sqref>
+          <xm:sqref>D2:E220</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>

--- a/docs/assets/files/business-change/Transition live tracker (2).xlsx
+++ b/docs/assets/files/business-change/Transition live tracker (2).xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22401"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22410"/>
   <workbookPr hidePivotFieldList="1" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TempUserProfiles\NetworkService\AppData\OICE_16_974FA576_32C1D314_3B31\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3437B0E7-85AC-4F1B-B352-498770177A6E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1A57FED5-23FB-42E2-93C4-6FAD4D82A338}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="15600" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,11 +17,11 @@
     <sheet name="Details" sheetId="3" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Details!$A$1:$AA$221</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Details!$A$1:$AA$224</definedName>
   </definedNames>
   <calcPr calcId="191028" calcCompleted="0"/>
   <pivotCaches>
-    <pivotCache cacheId="1525" r:id="rId3"/>
+    <pivotCache cacheId="4255" r:id="rId3"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1261" uniqueCount="257">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1290" uniqueCount="260">
   <si>
     <t>SANDBOX = TESTING ENVIRONMENT</t>
   </si>
@@ -102,6 +102,9 @@
     <t>(Multiple Items)</t>
   </si>
   <si>
+    <t>Anglian Water</t>
+  </si>
+  <si>
     <t>Balfour Beatty</t>
   </si>
   <si>
@@ -114,6 +117,9 @@
     <t>Bath and North East Somerset Council</t>
   </si>
   <si>
+    <t>Bedford Borough Council</t>
+  </si>
+  <si>
     <t>Bexley London Borough Council</t>
   </si>
   <si>
@@ -141,6 +147,9 @@
     <t>Brighton &amp; Hove City Council</t>
   </si>
   <si>
+    <t>Bristol City Council</t>
+  </si>
+  <si>
     <t>BT Open Reach</t>
   </si>
   <si>
@@ -201,6 +210,9 @@
     <t>East Sussex County Council</t>
   </si>
   <si>
+    <t>Electricity North West</t>
+  </si>
+  <si>
     <t>Enfield London Borough Council</t>
   </si>
   <si>
@@ -210,6 +222,9 @@
     <t>FM Conway</t>
   </si>
   <si>
+    <t>Gigaclear</t>
+  </si>
+  <si>
     <t>Gloucestershire County Council</t>
   </si>
   <si>
@@ -231,12 +246,18 @@
     <t>Hertfordshire County Council</t>
   </si>
   <si>
+    <t>Highways England</t>
+  </si>
+  <si>
     <t>Hounslow London Borough Council</t>
   </si>
   <si>
     <t>HS2</t>
   </si>
   <si>
+    <t>Hyperoptic</t>
+  </si>
+  <si>
     <t>Islington London Borough Council</t>
   </si>
   <si>
@@ -258,6 +279,9 @@
     <t>Lancashire County Council</t>
   </si>
   <si>
+    <t>Last Mile Asset Management (formerly Energetics)</t>
+  </si>
+  <si>
     <t>Leeds City Council</t>
   </si>
   <si>
@@ -285,6 +309,9 @@
     <t>Norfolk County Council</t>
   </si>
   <si>
+    <t>North East Lincolnshire Council</t>
+  </si>
+  <si>
     <t>North Lincolnshire Council</t>
   </si>
   <si>
@@ -303,12 +330,18 @@
     <t>Nottingham City Council</t>
   </si>
   <si>
+    <t>Oldham Metropolitan Borough Council</t>
+  </si>
+  <si>
     <t>Plymouth City Council</t>
   </si>
   <si>
     <t>Portsmouth Water</t>
   </si>
   <si>
+    <t>Redbridge London Borough Council</t>
+  </si>
+  <si>
     <t>Rotherham Metropolitan Borough Council</t>
   </si>
   <si>
@@ -372,6 +405,9 @@
     <t>St Helens Metropolitan Borough Council</t>
   </si>
   <si>
+    <t>Stockton-on-Tees Borough Council</t>
+  </si>
+  <si>
     <t>Surrey County Council</t>
   </si>
   <si>
@@ -384,6 +420,9 @@
     <t>Thames Water</t>
   </si>
   <si>
+    <t>TOOB LTD</t>
+  </si>
+  <si>
     <t>Transport for London</t>
   </si>
   <si>
@@ -414,6 +453,9 @@
     <t>Western Power</t>
   </si>
   <si>
+    <t>Wiltshire County Council</t>
+  </si>
+  <si>
     <t>Wirral Metropolitan Borough Council</t>
   </si>
   <si>
@@ -444,12 +486,6 @@
     <t>Affinity Water</t>
   </si>
   <si>
-    <t>Anglian Water</t>
-  </si>
-  <si>
-    <t>Bedford Borough Council</t>
-  </si>
-  <si>
     <t>Central Bedfordshire Council</t>
   </si>
   <si>
@@ -468,6 +504,9 @@
     <t>East Midlands</t>
   </si>
   <si>
+    <t>Multi-region</t>
+  </si>
+  <si>
     <t>Leicestershire County Council</t>
   </si>
   <si>
@@ -510,9 +549,6 @@
     <t>Newham London Borough Council</t>
   </si>
   <si>
-    <t>Redbridge London Borough Council</t>
-  </si>
-  <si>
     <t>Richmond and Wandsworth Council</t>
   </si>
   <si>
@@ -528,9 +564,6 @@
     <t>Westminster City Council</t>
   </si>
   <si>
-    <t>Multi-region</t>
-  </si>
-  <si>
     <t>A+one</t>
   </si>
   <si>
@@ -561,12 +594,6 @@
     <t xml:space="preserve">GeoPal Solutions </t>
   </si>
   <si>
-    <t>Gigaclear</t>
-  </si>
-  <si>
-    <t>Highways England</t>
-  </si>
-  <si>
     <t>John Henry Group</t>
   </si>
   <si>
@@ -630,18 +657,12 @@
     <t>Newcastle Upon Tyne City Council</t>
   </si>
   <si>
-    <t>North East Lincolnshire Council</t>
-  </si>
-  <si>
     <t>Northumberland County Council</t>
   </si>
   <si>
     <t>Redcar and Cleveland Borough Council</t>
   </si>
   <si>
-    <t>Stockton-on-Tees Borough Council</t>
-  </si>
-  <si>
     <t>Sunderland City Council</t>
   </si>
   <si>
@@ -657,15 +678,9 @@
     <t>Cumbria County Council</t>
   </si>
   <si>
-    <t>Electricity North West</t>
-  </si>
-  <si>
     <t>Halton Borough Council</t>
   </si>
   <si>
-    <t>Oldham Metropolitan Borough Council</t>
-  </si>
-  <si>
     <t>Rochdale Metropolitan Borough Council</t>
   </si>
   <si>
@@ -738,9 +753,6 @@
     <t>South West</t>
   </si>
   <si>
-    <t>Bristol City Council</t>
-  </si>
-  <si>
     <t>Bristol Water</t>
   </si>
   <si>
@@ -763,9 +775,6 @@
   </si>
   <si>
     <t>Wessex Water</t>
-  </si>
-  <si>
-    <t>Wiltshire County Council</t>
   </si>
   <si>
     <t>West Midlands</t>
@@ -814,7 +823,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8">
+  <fonts count="9">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -857,6 +866,13 @@
       <sz val="10"/>
       <color rgb="FF4472C4"/>
       <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="4">
@@ -916,8 +932,9 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -946,8 +963,9 @@
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{A6453218-AD4D-4187-8B5D-F8997FDC5B69}"/>
   </cellStyles>
   <dxfs count="12">
     <dxf>
@@ -1570,13 +1588,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>82</c:v>
+                  <c:v>89</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>19</c:v>
+                  <c:v>24</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1693,13 +1711,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>77</c:v>
+                  <c:v>70</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>14</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>22</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2228,7 +2246,7 @@
                   <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>41</c:v>
+                  <c:v>44</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3615,7 +3633,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Excel Services" refreshedDate="43804.653828009257" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="231" xr:uid="{94413775-58D0-4EE7-8ACB-00C49221AE5D}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Excel Services" refreshedDate="43812.482745949077" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="234" xr:uid="{94413775-58D0-4EE7-8ACB-00C49221AE5D}">
   <cacheSource type="worksheet">
     <worksheetSource ref="A1:H1048576" sheet="Details"/>
   </cacheSource>
@@ -3624,8 +3642,8 @@
       <sharedItems containsBlank="1" count="12">
         <s v="Anglia"/>
         <s v="East Midlands"/>
+        <s v="Multi-region"/>
         <s v="London"/>
-        <s v="Multi-region"/>
         <s v="Norh West"/>
         <s v="North East"/>
         <s v="North West"/>
@@ -3637,7 +3655,7 @@
       </sharedItems>
     </cacheField>
     <cacheField name="Organisation Name" numFmtId="0">
-      <sharedItems containsBlank="1" count="226">
+      <sharedItems containsBlank="1" count="229">
         <s v="Affinity Water"/>
         <s v="Anglian Water"/>
         <s v="Bedford Borough Council"/>
@@ -3654,6 +3672,7 @@
         <s v="Thurrock Borough Council"/>
         <s v="Derby City Council"/>
         <s v="Derbyshire County Council"/>
+        <s v="Hyperoptic"/>
         <s v="Leicester City Council"/>
         <s v="Leicestershire County Council"/>
         <s v="Northamptonshire County Council"/>
@@ -3728,6 +3747,8 @@
         <s v="Thames Water"/>
         <s v="UK Power networks"/>
         <s v="United Utilities"/>
+        <s v="TOOB LTD"/>
+        <s v="Last Mile Asset Management (formerly Energetics)"/>
         <s v="Virgin Media"/>
         <s v="Vodafone"/>
         <s v="Wales and West Utilities"/>
@@ -3907,22 +3928,22 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="231">
-  <r>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="1"/>
-    <x v="0"/>
-    <x v="0"/>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="234">
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="1"/>
     <x v="0"/>
     <m/>
     <m/>
@@ -3932,7 +3953,7 @@
     <x v="0"/>
     <x v="2"/>
     <x v="1"/>
-    <x v="0"/>
+    <x v="1"/>
     <x v="0"/>
     <m/>
     <m/>
@@ -4069,9 +4090,9 @@
     <m/>
   </r>
   <r>
-    <x v="1"/>
+    <x v="2"/>
     <x v="16"/>
-    <x v="1"/>
+    <x v="0"/>
     <x v="1"/>
     <x v="0"/>
     <m/>
@@ -4082,7 +4103,7 @@
     <x v="1"/>
     <x v="17"/>
     <x v="1"/>
-    <x v="0"/>
+    <x v="1"/>
     <x v="0"/>
     <m/>
     <m/>
@@ -4102,7 +4123,7 @@
     <x v="1"/>
     <x v="19"/>
     <x v="1"/>
-    <x v="1"/>
+    <x v="0"/>
     <x v="0"/>
     <m/>
     <m/>
@@ -4112,7 +4133,7 @@
     <x v="1"/>
     <x v="20"/>
     <x v="1"/>
-    <x v="0"/>
+    <x v="1"/>
     <x v="0"/>
     <m/>
     <m/>
@@ -4139,17 +4160,17 @@
     <m/>
   </r>
   <r>
-    <x v="2"/>
+    <x v="1"/>
     <x v="23"/>
     <x v="1"/>
-    <x v="1"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="2"/>
+    <x v="0"/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="3"/>
     <x v="24"/>
     <x v="1"/>
     <x v="1"/>
@@ -4159,7 +4180,7 @@
     <m/>
   </r>
   <r>
-    <x v="2"/>
+    <x v="3"/>
     <x v="25"/>
     <x v="1"/>
     <x v="1"/>
@@ -4169,7 +4190,7 @@
     <m/>
   </r>
   <r>
-    <x v="2"/>
+    <x v="3"/>
     <x v="26"/>
     <x v="1"/>
     <x v="1"/>
@@ -4179,27 +4200,27 @@
     <m/>
   </r>
   <r>
-    <x v="2"/>
+    <x v="3"/>
     <x v="27"/>
     <x v="1"/>
-    <x v="0"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="2"/>
+    <x v="1"/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="3"/>
     <x v="28"/>
     <x v="1"/>
-    <x v="1"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="2"/>
+    <x v="0"/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="3"/>
     <x v="29"/>
     <x v="1"/>
     <x v="1"/>
@@ -4209,7 +4230,7 @@
     <m/>
   </r>
   <r>
-    <x v="2"/>
+    <x v="3"/>
     <x v="30"/>
     <x v="1"/>
     <x v="1"/>
@@ -4219,7 +4240,7 @@
     <m/>
   </r>
   <r>
-    <x v="2"/>
+    <x v="3"/>
     <x v="31"/>
     <x v="1"/>
     <x v="1"/>
@@ -4229,7 +4250,7 @@
     <m/>
   </r>
   <r>
-    <x v="2"/>
+    <x v="3"/>
     <x v="32"/>
     <x v="1"/>
     <x v="1"/>
@@ -4239,7 +4260,7 @@
     <m/>
   </r>
   <r>
-    <x v="2"/>
+    <x v="3"/>
     <x v="33"/>
     <x v="1"/>
     <x v="1"/>
@@ -4249,7 +4270,7 @@
     <m/>
   </r>
   <r>
-    <x v="2"/>
+    <x v="3"/>
     <x v="34"/>
     <x v="1"/>
     <x v="1"/>
@@ -4259,7 +4280,7 @@
     <m/>
   </r>
   <r>
-    <x v="2"/>
+    <x v="3"/>
     <x v="35"/>
     <x v="1"/>
     <x v="1"/>
@@ -4269,17 +4290,17 @@
     <m/>
   </r>
   <r>
-    <x v="2"/>
+    <x v="3"/>
     <x v="36"/>
     <x v="1"/>
-    <x v="0"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="2"/>
+    <x v="1"/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="3"/>
     <x v="37"/>
     <x v="1"/>
     <x v="0"/>
@@ -4289,7 +4310,7 @@
     <m/>
   </r>
   <r>
-    <x v="2"/>
+    <x v="3"/>
     <x v="38"/>
     <x v="1"/>
     <x v="0"/>
@@ -4299,17 +4320,17 @@
     <m/>
   </r>
   <r>
-    <x v="2"/>
+    <x v="3"/>
     <x v="39"/>
     <x v="1"/>
-    <x v="1"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="2"/>
+    <x v="0"/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="3"/>
     <x v="40"/>
     <x v="1"/>
     <x v="1"/>
@@ -4319,57 +4340,57 @@
     <m/>
   </r>
   <r>
-    <x v="2"/>
+    <x v="3"/>
     <x v="41"/>
     <x v="1"/>
-    <x v="0"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="2"/>
+    <x v="1"/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="3"/>
     <x v="42"/>
     <x v="1"/>
-    <x v="1"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="2"/>
+    <x v="0"/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="3"/>
     <x v="43"/>
     <x v="1"/>
-    <x v="0"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="2"/>
+    <x v="1"/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="3"/>
     <x v="44"/>
     <x v="1"/>
-    <x v="1"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="2"/>
+    <x v="0"/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="3"/>
     <x v="45"/>
     <x v="1"/>
-    <x v="0"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="2"/>
+    <x v="1"/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="3"/>
     <x v="46"/>
     <x v="1"/>
     <x v="0"/>
@@ -4379,7 +4400,7 @@
     <m/>
   </r>
   <r>
-    <x v="2"/>
+    <x v="3"/>
     <x v="47"/>
     <x v="1"/>
     <x v="0"/>
@@ -4389,27 +4410,27 @@
     <m/>
   </r>
   <r>
-    <x v="2"/>
+    <x v="3"/>
     <x v="48"/>
     <x v="1"/>
-    <x v="0"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="2"/>
+    <x v="1"/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="3"/>
     <x v="49"/>
     <x v="1"/>
-    <x v="1"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="2"/>
+    <x v="0"/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="3"/>
     <x v="50"/>
     <x v="1"/>
     <x v="1"/>
@@ -4419,17 +4440,17 @@
     <m/>
   </r>
   <r>
-    <x v="2"/>
+    <x v="3"/>
     <x v="51"/>
     <x v="1"/>
-    <x v="0"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="2"/>
+    <x v="1"/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="3"/>
     <x v="52"/>
     <x v="1"/>
     <x v="0"/>
@@ -4439,17 +4460,17 @@
     <m/>
   </r>
   <r>
-    <x v="2"/>
+    <x v="3"/>
     <x v="53"/>
     <x v="1"/>
-    <x v="1"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="2"/>
+    <x v="0"/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="3"/>
     <x v="54"/>
     <x v="1"/>
     <x v="1"/>
@@ -4459,17 +4480,17 @@
     <m/>
   </r>
   <r>
-    <x v="2"/>
+    <x v="3"/>
     <x v="55"/>
     <x v="1"/>
-    <x v="0"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="2"/>
+    <x v="1"/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="3"/>
     <x v="56"/>
     <x v="1"/>
     <x v="0"/>
@@ -4481,55 +4502,55 @@
   <r>
     <x v="3"/>
     <x v="57"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="3"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="2"/>
     <x v="58"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
     <x v="2"/>
-    <x v="0"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="3"/>
     <x v="59"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="3"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="2"/>
     <x v="60"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
     <x v="2"/>
-    <x v="1"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="3"/>
     <x v="61"/>
-    <x v="0"/>
-    <x v="1"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="3"/>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="2"/>
     <x v="62"/>
     <x v="0"/>
     <x v="1"/>
@@ -4539,17 +4560,17 @@
     <m/>
   </r>
   <r>
-    <x v="3"/>
+    <x v="2"/>
     <x v="63"/>
     <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="3"/>
+    <x v="1"/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="2"/>
     <x v="64"/>
     <x v="0"/>
     <x v="0"/>
@@ -4559,67 +4580,67 @@
     <m/>
   </r>
   <r>
-    <x v="3"/>
+    <x v="2"/>
     <x v="65"/>
     <x v="0"/>
-    <x v="1"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="3"/>
+    <x v="0"/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="2"/>
     <x v="66"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
     <x v="2"/>
-    <x v="1"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="3"/>
     <x v="67"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="3"/>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="2"/>
     <x v="68"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
     <x v="2"/>
-    <x v="0"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="3"/>
     <x v="69"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="3"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="2"/>
     <x v="70"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
     <x v="2"/>
-    <x v="0"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="3"/>
     <x v="71"/>
     <x v="2"/>
     <x v="0"/>
@@ -4629,7 +4650,7 @@
     <m/>
   </r>
   <r>
-    <x v="3"/>
+    <x v="2"/>
     <x v="72"/>
     <x v="2"/>
     <x v="0"/>
@@ -4639,17 +4660,17 @@
     <m/>
   </r>
   <r>
-    <x v="3"/>
+    <x v="2"/>
     <x v="73"/>
     <x v="2"/>
-    <x v="0"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="3"/>
+    <x v="1"/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="2"/>
     <x v="74"/>
     <x v="2"/>
     <x v="1"/>
@@ -4659,47 +4680,47 @@
     <m/>
   </r>
   <r>
-    <x v="3"/>
+    <x v="2"/>
     <x v="75"/>
     <x v="2"/>
-    <x v="0"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="3"/>
+    <x v="1"/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="2"/>
     <x v="76"/>
     <x v="2"/>
-    <x v="1"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="3"/>
+    <x v="0"/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="2"/>
     <x v="77"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="3"/>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="2"/>
     <x v="78"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
     <x v="2"/>
-    <x v="0"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="3"/>
     <x v="79"/>
     <x v="2"/>
     <x v="0"/>
@@ -4709,67 +4730,67 @@
     <m/>
   </r>
   <r>
-    <x v="3"/>
+    <x v="2"/>
     <x v="80"/>
     <x v="2"/>
-    <x v="1"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="3"/>
+    <x v="0"/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="2"/>
     <x v="81"/>
     <x v="2"/>
-    <x v="0"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="3"/>
+    <x v="1"/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="2"/>
     <x v="82"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="3"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="2"/>
     <x v="83"/>
     <x v="0"/>
-    <x v="1"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="3"/>
+    <x v="0"/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="2"/>
     <x v="84"/>
     <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="3"/>
+    <x v="1"/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="2"/>
     <x v="85"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
     <x v="2"/>
-    <x v="0"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="3"/>
     <x v="86"/>
     <x v="2"/>
     <x v="0"/>
@@ -4779,17 +4800,17 @@
     <m/>
   </r>
   <r>
-    <x v="3"/>
+    <x v="2"/>
     <x v="87"/>
-    <x v="0"/>
-    <x v="1"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="3"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="2"/>
     <x v="88"/>
     <x v="0"/>
     <x v="1"/>
@@ -4799,27 +4820,27 @@
     <m/>
   </r>
   <r>
-    <x v="3"/>
+    <x v="2"/>
     <x v="89"/>
     <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="3"/>
+    <x v="1"/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="2"/>
     <x v="90"/>
     <x v="0"/>
-    <x v="1"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="3"/>
+    <x v="0"/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="2"/>
     <x v="91"/>
     <x v="0"/>
     <x v="1"/>
@@ -4829,29 +4850,59 @@
     <m/>
   </r>
   <r>
-    <x v="3"/>
+    <x v="2"/>
     <x v="92"/>
     <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="3"/>
+    <x v="1"/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="2"/>
     <x v="93"/>
     <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="3"/>
+    <x v="1"/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="2"/>
     <x v="94"/>
     <x v="0"/>
+    <x v="1"/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="95"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="96"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="97"/>
+    <x v="0"/>
     <x v="0"/>
     <x v="0"/>
     <m/>
@@ -4860,7 +4911,7 @@
   </r>
   <r>
     <x v="4"/>
-    <x v="95"/>
+    <x v="98"/>
     <x v="1"/>
     <x v="0"/>
     <x v="0"/>
@@ -4870,36 +4921,6 @@
   </r>
   <r>
     <x v="4"/>
-    <x v="96"/>
-    <x v="1"/>
-    <x v="0"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="5"/>
-    <x v="97"/>
-    <x v="1"/>
-    <x v="1"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="5"/>
-    <x v="98"/>
-    <x v="1"/>
-    <x v="0"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="5"/>
     <x v="99"/>
     <x v="1"/>
     <x v="0"/>
@@ -4942,7 +4963,7 @@
     <x v="5"/>
     <x v="103"/>
     <x v="1"/>
-    <x v="0"/>
+    <x v="1"/>
     <x v="0"/>
     <m/>
     <m/>
@@ -4952,7 +4973,7 @@
     <x v="5"/>
     <x v="104"/>
     <x v="1"/>
-    <x v="1"/>
+    <x v="0"/>
     <x v="0"/>
     <m/>
     <m/>
@@ -4971,7 +4992,7 @@
   <r>
     <x v="5"/>
     <x v="106"/>
-    <x v="0"/>
+    <x v="1"/>
     <x v="1"/>
     <x v="0"/>
     <m/>
@@ -4982,7 +5003,7 @@
     <x v="5"/>
     <x v="107"/>
     <x v="1"/>
-    <x v="0"/>
+    <x v="1"/>
     <x v="0"/>
     <m/>
     <m/>
@@ -4992,7 +5013,7 @@
     <x v="5"/>
     <x v="108"/>
     <x v="1"/>
-    <x v="1"/>
+    <x v="0"/>
     <x v="0"/>
     <m/>
     <m/>
@@ -5001,8 +5022,8 @@
   <r>
     <x v="5"/>
     <x v="109"/>
-    <x v="1"/>
-    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
     <x v="0"/>
     <m/>
     <m/>
@@ -5019,7 +5040,7 @@
     <m/>
   </r>
   <r>
-    <x v="6"/>
+    <x v="5"/>
     <x v="111"/>
     <x v="1"/>
     <x v="1"/>
@@ -5029,7 +5050,7 @@
     <m/>
   </r>
   <r>
-    <x v="6"/>
+    <x v="5"/>
     <x v="112"/>
     <x v="1"/>
     <x v="1"/>
@@ -5039,10 +5060,10 @@
     <m/>
   </r>
   <r>
-    <x v="6"/>
+    <x v="5"/>
     <x v="113"/>
     <x v="1"/>
-    <x v="1"/>
+    <x v="0"/>
     <x v="0"/>
     <m/>
     <m/>
@@ -5062,7 +5083,7 @@
     <x v="6"/>
     <x v="115"/>
     <x v="1"/>
-    <x v="0"/>
+    <x v="1"/>
     <x v="0"/>
     <m/>
     <m/>
@@ -5072,7 +5093,7 @@
     <x v="6"/>
     <x v="116"/>
     <x v="1"/>
-    <x v="0"/>
+    <x v="1"/>
     <x v="0"/>
     <m/>
     <m/>
@@ -5082,7 +5103,7 @@
     <x v="6"/>
     <x v="117"/>
     <x v="1"/>
-    <x v="0"/>
+    <x v="1"/>
     <x v="0"/>
     <m/>
     <m/>
@@ -5091,7 +5112,7 @@
   <r>
     <x v="6"/>
     <x v="118"/>
-    <x v="0"/>
+    <x v="1"/>
     <x v="0"/>
     <x v="0"/>
     <m/>
@@ -5112,7 +5133,7 @@
     <x v="6"/>
     <x v="120"/>
     <x v="1"/>
-    <x v="1"/>
+    <x v="0"/>
     <x v="0"/>
     <m/>
     <m/>
@@ -5121,7 +5142,7 @@
   <r>
     <x v="6"/>
     <x v="121"/>
-    <x v="1"/>
+    <x v="0"/>
     <x v="1"/>
     <x v="0"/>
     <m/>
@@ -5132,7 +5153,7 @@
     <x v="6"/>
     <x v="122"/>
     <x v="1"/>
-    <x v="1"/>
+    <x v="0"/>
     <x v="0"/>
     <m/>
     <m/>
@@ -5142,7 +5163,7 @@
     <x v="6"/>
     <x v="123"/>
     <x v="1"/>
-    <x v="0"/>
+    <x v="1"/>
     <x v="0"/>
     <m/>
     <m/>
@@ -5152,7 +5173,7 @@
     <x v="6"/>
     <x v="124"/>
     <x v="1"/>
-    <x v="0"/>
+    <x v="1"/>
     <x v="0"/>
     <m/>
     <m/>
@@ -5181,8 +5202,8 @@
   <r>
     <x v="6"/>
     <x v="127"/>
-    <x v="0"/>
-    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
     <x v="0"/>
     <m/>
     <m/>
@@ -5202,7 +5223,7 @@
     <x v="6"/>
     <x v="129"/>
     <x v="1"/>
-    <x v="0"/>
+    <x v="1"/>
     <x v="0"/>
     <m/>
     <m/>
@@ -5211,8 +5232,8 @@
   <r>
     <x v="6"/>
     <x v="130"/>
-    <x v="1"/>
-    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
     <x v="0"/>
     <m/>
     <m/>
@@ -5222,7 +5243,7 @@
     <x v="6"/>
     <x v="131"/>
     <x v="1"/>
-    <x v="0"/>
+    <x v="1"/>
     <x v="0"/>
     <m/>
     <m/>
@@ -5272,37 +5293,37 @@
     <x v="6"/>
     <x v="136"/>
     <x v="1"/>
-    <x v="1"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="7"/>
+    <x v="0"/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="6"/>
     <x v="137"/>
     <x v="1"/>
-    <x v="1"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="7"/>
+    <x v="0"/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="6"/>
     <x v="138"/>
     <x v="1"/>
-    <x v="1"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="7"/>
+    <x v="0"/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="6"/>
     <x v="139"/>
     <x v="1"/>
-    <x v="0"/>
+    <x v="1"/>
     <x v="0"/>
     <m/>
     <m/>
@@ -5321,7 +5342,7 @@
   <r>
     <x v="7"/>
     <x v="141"/>
-    <x v="2"/>
+    <x v="1"/>
     <x v="1"/>
     <x v="0"/>
     <m/>
@@ -5342,7 +5363,7 @@
     <x v="7"/>
     <x v="143"/>
     <x v="1"/>
-    <x v="0"/>
+    <x v="1"/>
     <x v="0"/>
     <m/>
     <m/>
@@ -5351,8 +5372,8 @@
   <r>
     <x v="7"/>
     <x v="144"/>
-    <x v="1"/>
-    <x v="0"/>
+    <x v="2"/>
+    <x v="1"/>
     <x v="0"/>
     <m/>
     <m/>
@@ -5362,7 +5383,7 @@
     <x v="7"/>
     <x v="145"/>
     <x v="1"/>
-    <x v="1"/>
+    <x v="0"/>
     <x v="0"/>
     <m/>
     <m/>
@@ -5372,7 +5393,7 @@
     <x v="7"/>
     <x v="146"/>
     <x v="1"/>
-    <x v="1"/>
+    <x v="0"/>
     <x v="0"/>
     <m/>
     <m/>
@@ -5382,7 +5403,7 @@
     <x v="7"/>
     <x v="147"/>
     <x v="1"/>
-    <x v="1"/>
+    <x v="0"/>
     <x v="0"/>
     <m/>
     <m/>
@@ -5391,8 +5412,8 @@
   <r>
     <x v="7"/>
     <x v="148"/>
-    <x v="0"/>
-    <x v="0"/>
+    <x v="1"/>
+    <x v="1"/>
     <x v="0"/>
     <m/>
     <m/>
@@ -5402,7 +5423,7 @@
     <x v="7"/>
     <x v="149"/>
     <x v="1"/>
-    <x v="0"/>
+    <x v="1"/>
     <x v="0"/>
     <m/>
     <m/>
@@ -5412,7 +5433,7 @@
     <x v="7"/>
     <x v="150"/>
     <x v="1"/>
-    <x v="0"/>
+    <x v="1"/>
     <x v="0"/>
     <m/>
     <m/>
@@ -5421,8 +5442,8 @@
   <r>
     <x v="7"/>
     <x v="151"/>
-    <x v="1"/>
-    <x v="1"/>
+    <x v="0"/>
+    <x v="0"/>
     <x v="0"/>
     <m/>
     <m/>
@@ -5441,7 +5462,7 @@
   <r>
     <x v="7"/>
     <x v="153"/>
-    <x v="2"/>
+    <x v="1"/>
     <x v="0"/>
     <x v="0"/>
     <m/>
@@ -5451,7 +5472,7 @@
   <r>
     <x v="7"/>
     <x v="154"/>
-    <x v="0"/>
+    <x v="1"/>
     <x v="1"/>
     <x v="0"/>
     <m/>
@@ -5461,8 +5482,8 @@
   <r>
     <x v="7"/>
     <x v="155"/>
-    <x v="0"/>
-    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
     <x v="0"/>
     <m/>
     <m/>
@@ -5471,7 +5492,7 @@
   <r>
     <x v="7"/>
     <x v="156"/>
-    <x v="1"/>
+    <x v="2"/>
     <x v="0"/>
     <x v="0"/>
     <m/>
@@ -5482,7 +5503,7 @@
     <x v="7"/>
     <x v="157"/>
     <x v="0"/>
-    <x v="0"/>
+    <x v="1"/>
     <x v="0"/>
     <m/>
     <m/>
@@ -5491,7 +5512,7 @@
   <r>
     <x v="7"/>
     <x v="158"/>
-    <x v="1"/>
+    <x v="0"/>
     <x v="1"/>
     <x v="0"/>
     <m/>
@@ -5501,8 +5522,8 @@
   <r>
     <x v="7"/>
     <x v="159"/>
-    <x v="0"/>
-    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
     <x v="0"/>
     <m/>
     <m/>
@@ -5512,7 +5533,7 @@
     <x v="7"/>
     <x v="160"/>
     <x v="0"/>
-    <x v="1"/>
+    <x v="0"/>
     <x v="0"/>
     <m/>
     <m/>
@@ -5531,8 +5552,8 @@
   <r>
     <x v="7"/>
     <x v="162"/>
-    <x v="1"/>
-    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
     <x v="0"/>
     <m/>
     <m/>
@@ -5541,7 +5562,7 @@
   <r>
     <x v="7"/>
     <x v="163"/>
-    <x v="1"/>
+    <x v="0"/>
     <x v="1"/>
     <x v="0"/>
     <m/>
@@ -5572,14 +5593,14 @@
     <x v="7"/>
     <x v="166"/>
     <x v="1"/>
-    <x v="0"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="8"/>
+    <x v="1"/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="7"/>
     <x v="167"/>
     <x v="1"/>
     <x v="1"/>
@@ -5589,17 +5610,17 @@
     <m/>
   </r>
   <r>
-    <x v="8"/>
+    <x v="7"/>
     <x v="168"/>
     <x v="1"/>
-    <x v="1"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="8"/>
+    <x v="0"/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="7"/>
     <x v="169"/>
     <x v="1"/>
     <x v="0"/>
@@ -5611,8 +5632,8 @@
   <r>
     <x v="8"/>
     <x v="170"/>
-    <x v="0"/>
-    <x v="0"/>
+    <x v="1"/>
+    <x v="1"/>
     <x v="0"/>
     <m/>
     <m/>
@@ -5641,7 +5662,7 @@
   <r>
     <x v="8"/>
     <x v="173"/>
-    <x v="1"/>
+    <x v="0"/>
     <x v="0"/>
     <x v="0"/>
     <m/>
@@ -5662,7 +5683,7 @@
     <x v="8"/>
     <x v="175"/>
     <x v="1"/>
-    <x v="0"/>
+    <x v="1"/>
     <x v="0"/>
     <m/>
     <m/>
@@ -5702,7 +5723,7 @@
     <x v="8"/>
     <x v="179"/>
     <x v="1"/>
-    <x v="1"/>
+    <x v="0"/>
     <x v="0"/>
     <m/>
     <m/>
@@ -5721,7 +5742,7 @@
   <r>
     <x v="8"/>
     <x v="181"/>
-    <x v="0"/>
+    <x v="1"/>
     <x v="0"/>
     <x v="0"/>
     <m/>
@@ -5742,7 +5763,7 @@
     <x v="8"/>
     <x v="183"/>
     <x v="1"/>
-    <x v="0"/>
+    <x v="1"/>
     <x v="0"/>
     <m/>
     <m/>
@@ -5761,7 +5782,7 @@
   <r>
     <x v="8"/>
     <x v="185"/>
-    <x v="0"/>
+    <x v="1"/>
     <x v="1"/>
     <x v="0"/>
     <m/>
@@ -5779,30 +5800,30 @@
     <m/>
   </r>
   <r>
-    <x v="9"/>
+    <x v="8"/>
     <x v="187"/>
-    <x v="1"/>
-    <x v="0"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="9"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="8"/>
     <x v="188"/>
-    <x v="1"/>
-    <x v="1"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="9"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="8"/>
     <x v="189"/>
     <x v="1"/>
-    <x v="0"/>
+    <x v="1"/>
     <x v="0"/>
     <m/>
     <m/>
@@ -5812,7 +5833,7 @@
     <x v="9"/>
     <x v="190"/>
     <x v="1"/>
-    <x v="1"/>
+    <x v="0"/>
     <x v="0"/>
     <m/>
     <m/>
@@ -5822,7 +5843,7 @@
     <x v="9"/>
     <x v="191"/>
     <x v="1"/>
-    <x v="0"/>
+    <x v="1"/>
     <x v="0"/>
     <m/>
     <m/>
@@ -5832,7 +5853,7 @@
     <x v="9"/>
     <x v="192"/>
     <x v="1"/>
-    <x v="1"/>
+    <x v="0"/>
     <x v="0"/>
     <m/>
     <m/>
@@ -5851,8 +5872,8 @@
   <r>
     <x v="9"/>
     <x v="194"/>
-    <x v="0"/>
-    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
     <x v="0"/>
     <m/>
     <m/>
@@ -5881,8 +5902,8 @@
   <r>
     <x v="9"/>
     <x v="197"/>
-    <x v="1"/>
-    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
     <x v="0"/>
     <m/>
     <m/>
@@ -5892,7 +5913,7 @@
     <x v="9"/>
     <x v="198"/>
     <x v="1"/>
-    <x v="0"/>
+    <x v="1"/>
     <x v="0"/>
     <m/>
     <m/>
@@ -5902,7 +5923,7 @@
     <x v="9"/>
     <x v="199"/>
     <x v="1"/>
-    <x v="0"/>
+    <x v="1"/>
     <x v="0"/>
     <m/>
     <m/>
@@ -5912,14 +5933,14 @@
     <x v="9"/>
     <x v="200"/>
     <x v="1"/>
-    <x v="1"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="10"/>
+    <x v="0"/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="9"/>
     <x v="201"/>
     <x v="1"/>
     <x v="0"/>
@@ -5929,17 +5950,17 @@
     <m/>
   </r>
   <r>
-    <x v="10"/>
+    <x v="9"/>
     <x v="202"/>
     <x v="1"/>
-    <x v="1"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="10"/>
+    <x v="0"/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="9"/>
     <x v="203"/>
     <x v="1"/>
     <x v="1"/>
@@ -5952,7 +5973,7 @@
     <x v="10"/>
     <x v="204"/>
     <x v="1"/>
-    <x v="1"/>
+    <x v="0"/>
     <x v="0"/>
     <m/>
     <m/>
@@ -5962,7 +5983,7 @@
     <x v="10"/>
     <x v="205"/>
     <x v="1"/>
-    <x v="0"/>
+    <x v="1"/>
     <x v="0"/>
     <m/>
     <m/>
@@ -5972,7 +5993,7 @@
     <x v="10"/>
     <x v="206"/>
     <x v="1"/>
-    <x v="0"/>
+    <x v="1"/>
     <x v="0"/>
     <m/>
     <m/>
@@ -5992,7 +6013,7 @@
     <x v="10"/>
     <x v="208"/>
     <x v="1"/>
-    <x v="1"/>
+    <x v="0"/>
     <x v="0"/>
     <m/>
     <m/>
@@ -6002,7 +6023,7 @@
     <x v="10"/>
     <x v="209"/>
     <x v="1"/>
-    <x v="1"/>
+    <x v="0"/>
     <x v="0"/>
     <m/>
     <m/>
@@ -6031,8 +6052,8 @@
   <r>
     <x v="10"/>
     <x v="212"/>
-    <x v="0"/>
-    <x v="0"/>
+    <x v="1"/>
+    <x v="1"/>
     <x v="0"/>
     <m/>
     <m/>
@@ -6041,7 +6062,7 @@
   <r>
     <x v="10"/>
     <x v="213"/>
-    <x v="0"/>
+    <x v="1"/>
     <x v="1"/>
     <x v="0"/>
     <m/>
@@ -6061,8 +6082,8 @@
   <r>
     <x v="10"/>
     <x v="215"/>
-    <x v="1"/>
-    <x v="1"/>
+    <x v="0"/>
+    <x v="0"/>
     <x v="0"/>
     <m/>
     <m/>
@@ -6071,8 +6092,8 @@
   <r>
     <x v="10"/>
     <x v="216"/>
-    <x v="2"/>
-    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
     <x v="0"/>
     <m/>
     <m/>
@@ -6092,7 +6113,7 @@
     <x v="10"/>
     <x v="218"/>
     <x v="1"/>
-    <x v="0"/>
+    <x v="1"/>
     <x v="0"/>
     <m/>
     <m/>
@@ -6101,6 +6122,36 @@
   <r>
     <x v="10"/>
     <x v="219"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="10"/>
+    <x v="220"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="10"/>
+    <x v="221"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="10"/>
+    <x v="222"/>
     <x v="0"/>
     <x v="1"/>
     <x v="0"/>
@@ -6110,7 +6161,7 @@
   </r>
   <r>
     <x v="11"/>
-    <x v="220"/>
+    <x v="223"/>
     <x v="3"/>
     <x v="2"/>
     <x v="1"/>
@@ -6120,7 +6171,7 @@
   </r>
   <r>
     <x v="11"/>
-    <x v="220"/>
+    <x v="223"/>
     <x v="3"/>
     <x v="2"/>
     <x v="1"/>
@@ -6130,7 +6181,7 @@
   </r>
   <r>
     <x v="11"/>
-    <x v="220"/>
+    <x v="223"/>
     <x v="3"/>
     <x v="2"/>
     <x v="1"/>
@@ -6140,7 +6191,7 @@
   </r>
   <r>
     <x v="11"/>
-    <x v="220"/>
+    <x v="223"/>
     <x v="3"/>
     <x v="2"/>
     <x v="1"/>
@@ -6150,7 +6201,7 @@
   </r>
   <r>
     <x v="11"/>
-    <x v="220"/>
+    <x v="223"/>
     <x v="3"/>
     <x v="2"/>
     <x v="1"/>
@@ -6160,7 +6211,7 @@
   </r>
   <r>
     <x v="11"/>
-    <x v="220"/>
+    <x v="223"/>
     <x v="3"/>
     <x v="2"/>
     <x v="1"/>
@@ -6170,7 +6221,7 @@
   </r>
   <r>
     <x v="11"/>
-    <x v="220"/>
+    <x v="223"/>
     <x v="3"/>
     <x v="2"/>
     <x v="1"/>
@@ -6180,7 +6231,7 @@
   </r>
   <r>
     <x v="11"/>
-    <x v="220"/>
+    <x v="223"/>
     <x v="3"/>
     <x v="2"/>
     <x v="1"/>
@@ -6190,7 +6241,7 @@
   </r>
   <r>
     <x v="11"/>
-    <x v="220"/>
+    <x v="223"/>
     <x v="3"/>
     <x v="2"/>
     <x v="1"/>
@@ -6200,7 +6251,7 @@
   </r>
   <r>
     <x v="11"/>
-    <x v="220"/>
+    <x v="223"/>
     <x v="3"/>
     <x v="2"/>
     <x v="1"/>
@@ -6210,7 +6261,7 @@
   </r>
   <r>
     <x v="11"/>
-    <x v="220"/>
+    <x v="223"/>
     <x v="3"/>
     <x v="2"/>
     <x v="1"/>
@@ -6222,15 +6273,15 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{ED146AEC-A721-41A7-BFF9-084390AFF3CA}" name="PivotTable5" cacheId="1525" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{ED146AEC-A721-41A7-BFF9-084390AFF3CA}" name="PivotTable5" cacheId="4255" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="G39:G40" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="2" colPageCount="1"/>
   <pivotFields count="8">
     <pivotField axis="axisPage" showAll="0">
       <items count="13">
         <item x="0"/>
         <item x="1"/>
+        <item x="3"/>
         <item x="2"/>
-        <item x="3"/>
         <item x="4"/>
         <item x="5"/>
         <item x="6"/>
@@ -6243,233 +6294,236 @@
       </items>
     </pivotField>
     <pivotField axis="axisRow" showAll="0">
-      <items count="227">
-        <item x="57"/>
+      <items count="230">
+        <item x="58"/>
         <item x="0"/>
-        <item x="58"/>
         <item x="59"/>
+        <item x="60"/>
         <item x="1"/>
-        <item x="60"/>
-        <item x="23"/>
+        <item x="61"/>
         <item x="24"/>
-        <item x="201"/>
-        <item x="167"/>
+        <item x="25"/>
+        <item x="204"/>
+        <item x="170"/>
         <item x="2"/>
-        <item x="25"/>
-        <item x="187"/>
-        <item x="111"/>
-        <item x="112"/>
-        <item x="113"/>
-        <item x="168"/>
-        <item x="137"/>
-        <item x="202"/>
         <item x="26"/>
-        <item x="138"/>
-        <item x="169"/>
-        <item x="170"/>
-        <item x="27"/>
-        <item m="1" x="224"/>
-        <item x="139"/>
+        <item x="190"/>
         <item x="114"/>
-        <item x="62"/>
-        <item x="203"/>
-        <item x="4"/>
-        <item x="28"/>
-        <item x="63"/>
-        <item x="5"/>
-        <item x="64"/>
         <item x="115"/>
         <item x="116"/>
+        <item x="171"/>
+        <item x="140"/>
+        <item x="205"/>
+        <item x="27"/>
+        <item x="141"/>
+        <item x="172"/>
+        <item x="173"/>
+        <item x="28"/>
+        <item m="1" x="227"/>
+        <item x="142"/>
+        <item x="117"/>
+        <item x="63"/>
+        <item x="206"/>
+        <item x="4"/>
+        <item x="29"/>
+        <item x="64"/>
+        <item x="5"/>
         <item x="65"/>
-        <item x="29"/>
+        <item x="118"/>
+        <item x="119"/>
         <item x="66"/>
+        <item x="30"/>
         <item x="67"/>
-        <item x="171"/>
-        <item x="188"/>
-        <item x="30"/>
-        <item x="117"/>
-        <item x="97"/>
+        <item x="68"/>
+        <item x="174"/>
+        <item x="191"/>
+        <item x="31"/>
+        <item x="120"/>
+        <item x="100"/>
         <item x="14"/>
         <item x="15"/>
-        <item x="172"/>
-        <item x="204"/>
-        <item x="173"/>
-        <item x="189"/>
+        <item x="175"/>
+        <item x="207"/>
+        <item x="176"/>
+        <item x="192"/>
+        <item x="101"/>
+        <item x="32"/>
+        <item x="208"/>
+        <item x="143"/>
+        <item x="121"/>
+        <item x="33"/>
+        <item x="6"/>
+        <item x="69"/>
+        <item m="1" x="226"/>
+        <item m="1" x="225"/>
+        <item m="1" x="228"/>
+        <item x="70"/>
+        <item x="71"/>
+        <item x="144"/>
+        <item x="102"/>
+        <item x="72"/>
+        <item x="73"/>
+        <item x="177"/>
+        <item x="34"/>
+        <item x="35"/>
+        <item x="122"/>
+        <item x="36"/>
+        <item x="145"/>
+        <item x="37"/>
+        <item x="103"/>
+        <item x="38"/>
+        <item x="193"/>
+        <item x="7"/>
+        <item x="74"/>
+        <item x="39"/>
+        <item x="40"/>
+        <item x="209"/>
+        <item x="146"/>
+        <item x="147"/>
+        <item x="178"/>
+        <item x="41"/>
+        <item x="76"/>
+        <item x="148"/>
+        <item x="78"/>
+        <item x="42"/>
+        <item x="210"/>
+        <item x="79"/>
+        <item x="123"/>
+        <item x="43"/>
+        <item x="124"/>
+        <item x="211"/>
+        <item x="17"/>
+        <item x="18"/>
+        <item x="44"/>
+        <item x="212"/>
         <item x="98"/>
-        <item x="31"/>
-        <item x="205"/>
-        <item x="140"/>
-        <item x="118"/>
-        <item x="32"/>
-        <item x="6"/>
-        <item x="68"/>
-        <item m="1" x="223"/>
-        <item m="1" x="222"/>
-        <item m="1" x="225"/>
-        <item x="69"/>
-        <item x="70"/>
-        <item x="141"/>
-        <item x="99"/>
-        <item x="71"/>
-        <item x="72"/>
-        <item x="174"/>
-        <item x="33"/>
-        <item x="34"/>
-        <item x="119"/>
-        <item x="35"/>
-        <item x="142"/>
-        <item x="36"/>
-        <item x="100"/>
-        <item x="37"/>
-        <item x="190"/>
-        <item x="7"/>
-        <item x="73"/>
-        <item x="38"/>
-        <item x="39"/>
-        <item x="206"/>
-        <item x="143"/>
-        <item x="144"/>
-        <item x="175"/>
-        <item x="40"/>
-        <item x="75"/>
-        <item x="145"/>
-        <item x="77"/>
-        <item x="41"/>
-        <item x="207"/>
-        <item x="78"/>
-        <item x="120"/>
-        <item x="42"/>
-        <item x="121"/>
-        <item x="208"/>
-        <item x="16"/>
-        <item x="17"/>
-        <item x="43"/>
-        <item x="209"/>
-        <item x="95"/>
-        <item x="44"/>
+        <item x="45"/>
         <item x="8"/>
-        <item x="122"/>
-        <item x="146"/>
-        <item x="45"/>
-        <item x="101"/>
-        <item x="147"/>
-        <item x="79"/>
+        <item x="125"/>
+        <item x="149"/>
+        <item x="46"/>
+        <item x="104"/>
+        <item x="150"/>
         <item x="80"/>
-        <item x="102"/>
-        <item x="46"/>
+        <item x="81"/>
+        <item x="105"/>
+        <item x="47"/>
         <item x="9"/>
-        <item x="103"/>
-        <item x="210"/>
-        <item x="176"/>
-        <item x="104"/>
-        <item x="211"/>
-        <item x="18"/>
-        <item x="212"/>
+        <item x="106"/>
         <item x="213"/>
-        <item x="105"/>
-        <item x="106"/>
+        <item x="179"/>
+        <item x="107"/>
+        <item x="214"/>
         <item x="19"/>
+        <item x="215"/>
+        <item x="216"/>
+        <item x="108"/>
+        <item x="109"/>
         <item x="20"/>
-        <item x="123"/>
-        <item x="148"/>
-        <item x="149"/>
-        <item x="10"/>
         <item x="21"/>
-        <item x="177"/>
-        <item x="178"/>
-        <item x="150"/>
+        <item x="126"/>
         <item x="151"/>
         <item x="152"/>
-        <item x="47"/>
-        <item x="107"/>
+        <item x="10"/>
+        <item x="22"/>
+        <item x="180"/>
+        <item x="181"/>
+        <item x="153"/>
+        <item x="154"/>
+        <item x="155"/>
         <item x="48"/>
-        <item x="153"/>
-        <item x="81"/>
-        <item x="124"/>
-        <item x="214"/>
+        <item x="110"/>
         <item x="49"/>
-        <item x="22"/>
-        <item x="125"/>
-        <item x="191"/>
-        <item x="126"/>
-        <item x="154"/>
+        <item x="156"/>
         <item x="82"/>
-        <item m="1" x="221"/>
-        <item x="215"/>
-        <item x="192"/>
+        <item x="127"/>
+        <item x="217"/>
+        <item x="50"/>
+        <item x="23"/>
+        <item x="128"/>
+        <item x="194"/>
+        <item x="129"/>
+        <item x="157"/>
         <item x="83"/>
-        <item x="156"/>
-        <item x="193"/>
-        <item x="179"/>
-        <item x="157"/>
-        <item x="180"/>
-        <item x="127"/>
-        <item x="108"/>
-        <item x="181"/>
-        <item x="216"/>
-        <item x="158"/>
+        <item m="1" x="224"/>
+        <item x="218"/>
+        <item x="195"/>
+        <item x="84"/>
+        <item x="159"/>
+        <item x="196"/>
+        <item x="182"/>
+        <item x="160"/>
+        <item x="183"/>
+        <item x="130"/>
+        <item x="111"/>
+        <item x="184"/>
+        <item x="219"/>
+        <item x="161"/>
         <item x="11"/>
-        <item x="159"/>
-        <item x="50"/>
-        <item x="194"/>
-        <item x="160"/>
-        <item x="84"/>
-        <item x="128"/>
-        <item x="129"/>
-        <item x="130"/>
-        <item x="109"/>
-        <item x="96"/>
+        <item x="162"/>
+        <item x="51"/>
+        <item x="197"/>
+        <item x="163"/>
+        <item x="85"/>
+        <item x="131"/>
+        <item x="132"/>
+        <item x="133"/>
+        <item x="112"/>
+        <item x="99"/>
         <item x="12"/>
-        <item x="110"/>
-        <item x="161"/>
-        <item x="51"/>
-        <item x="182"/>
-        <item x="131"/>
-        <item x="85"/>
+        <item x="113"/>
+        <item x="164"/>
+        <item x="52"/>
+        <item x="185"/>
+        <item x="134"/>
         <item x="86"/>
-        <item x="195"/>
         <item x="87"/>
+        <item x="198"/>
+        <item x="88"/>
         <item x="13"/>
-        <item x="183"/>
-        <item x="52"/>
-        <item x="132"/>
-        <item x="162"/>
-        <item x="133"/>
+        <item x="186"/>
         <item x="53"/>
-        <item x="196"/>
-        <item x="88"/>
+        <item x="135"/>
+        <item x="165"/>
+        <item x="136"/>
+        <item x="54"/>
+        <item x="199"/>
         <item x="89"/>
         <item x="90"/>
+        <item x="93"/>
+        <item x="94"/>
+        <item x="220"/>
+        <item x="95"/>
+        <item x="200"/>
+        <item x="55"/>
+        <item x="56"/>
+        <item x="137"/>
+        <item x="201"/>
+        <item x="96"/>
+        <item x="187"/>
+        <item x="166"/>
+        <item x="167"/>
+        <item x="188"/>
+        <item x="57"/>
+        <item x="138"/>
+        <item x="189"/>
+        <item x="168"/>
+        <item x="139"/>
+        <item x="169"/>
+        <item x="202"/>
+        <item x="203"/>
+        <item x="97"/>
+        <item x="221"/>
+        <item x="222"/>
+        <item x="223"/>
+        <item x="62"/>
+        <item x="158"/>
+        <item x="3"/>
+        <item x="75"/>
+        <item x="77"/>
+        <item x="16"/>
         <item x="91"/>
-        <item x="217"/>
         <item x="92"/>
-        <item x="197"/>
-        <item x="54"/>
-        <item x="55"/>
-        <item x="134"/>
-        <item x="198"/>
-        <item x="93"/>
-        <item x="184"/>
-        <item x="163"/>
-        <item x="164"/>
-        <item x="185"/>
-        <item x="56"/>
-        <item x="135"/>
-        <item x="186"/>
-        <item x="165"/>
-        <item x="136"/>
-        <item x="166"/>
-        <item x="199"/>
-        <item x="200"/>
-        <item x="94"/>
-        <item x="218"/>
-        <item x="219"/>
-        <item x="220"/>
-        <item x="61"/>
-        <item x="155"/>
-        <item x="3"/>
-        <item x="74"/>
-        <item x="76"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -6523,15 +6577,15 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{930C86FA-4FA7-4582-924C-04064F9B1116}" name="PivotTable4" cacheId="1525" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="B39:B147" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="2" colPageCount="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{930C86FA-4FA7-4582-924C-04064F9B1116}" name="PivotTable4" cacheId="4255" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="B39:B161" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="2" colPageCount="1"/>
   <pivotFields count="8">
     <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
       <items count="13">
         <item x="0"/>
         <item x="1"/>
+        <item x="3"/>
         <item x="2"/>
-        <item x="3"/>
         <item x="4"/>
         <item x="5"/>
         <item x="6"/>
@@ -6544,233 +6598,236 @@
       </items>
     </pivotField>
     <pivotField axis="axisRow" showAll="0" sortType="ascending">
-      <items count="227">
-        <item x="57"/>
+      <items count="230">
+        <item x="58"/>
         <item x="0"/>
-        <item x="58"/>
         <item x="59"/>
+        <item x="60"/>
         <item x="1"/>
-        <item x="60"/>
-        <item x="23"/>
+        <item x="61"/>
         <item x="24"/>
-        <item x="201"/>
-        <item x="167"/>
+        <item x="25"/>
+        <item x="204"/>
+        <item x="170"/>
         <item x="2"/>
-        <item x="25"/>
-        <item x="187"/>
-        <item x="111"/>
-        <item x="112"/>
-        <item x="113"/>
-        <item x="168"/>
-        <item x="137"/>
-        <item x="202"/>
         <item x="26"/>
-        <item x="138"/>
-        <item x="169"/>
-        <item x="170"/>
+        <item x="190"/>
+        <item x="114"/>
+        <item x="115"/>
+        <item x="116"/>
+        <item x="171"/>
+        <item x="140"/>
+        <item x="205"/>
         <item x="27"/>
-        <item m="1" x="224"/>
-        <item x="61"/>
-        <item x="139"/>
-        <item x="114"/>
+        <item x="141"/>
+        <item x="172"/>
+        <item x="173"/>
+        <item x="28"/>
+        <item m="1" x="227"/>
         <item x="62"/>
-        <item x="203"/>
+        <item x="142"/>
+        <item x="117"/>
+        <item x="63"/>
+        <item x="206"/>
         <item x="3"/>
         <item x="4"/>
-        <item x="28"/>
-        <item x="63"/>
+        <item x="29"/>
+        <item x="64"/>
         <item x="5"/>
-        <item x="64"/>
-        <item x="115"/>
-        <item x="116"/>
         <item x="65"/>
-        <item x="29"/>
+        <item x="118"/>
+        <item x="119"/>
         <item x="66"/>
+        <item x="30"/>
         <item x="67"/>
-        <item x="171"/>
-        <item x="188"/>
-        <item x="30"/>
-        <item x="117"/>
-        <item x="97"/>
+        <item x="68"/>
+        <item x="174"/>
+        <item x="191"/>
+        <item x="31"/>
+        <item x="120"/>
+        <item x="100"/>
         <item x="14"/>
         <item x="15"/>
-        <item x="172"/>
-        <item x="204"/>
-        <item x="173"/>
-        <item x="189"/>
-        <item x="98"/>
-        <item x="31"/>
-        <item x="205"/>
-        <item x="140"/>
-        <item x="118"/>
+        <item x="175"/>
+        <item x="207"/>
+        <item x="176"/>
+        <item x="192"/>
+        <item x="101"/>
         <item x="32"/>
+        <item x="208"/>
+        <item x="143"/>
+        <item x="121"/>
+        <item x="33"/>
         <item x="6"/>
-        <item x="68"/>
-        <item m="1" x="223"/>
-        <item m="1" x="222"/>
+        <item x="69"/>
+        <item m="1" x="226"/>
         <item m="1" x="225"/>
-        <item x="69"/>
+        <item m="1" x="228"/>
         <item x="70"/>
-        <item x="141"/>
-        <item x="99"/>
         <item x="71"/>
+        <item x="144"/>
+        <item x="102"/>
         <item x="72"/>
-        <item x="174"/>
-        <item x="33"/>
+        <item x="73"/>
+        <item x="177"/>
         <item x="34"/>
-        <item x="119"/>
         <item x="35"/>
-        <item x="142"/>
+        <item x="122"/>
         <item x="36"/>
-        <item x="100"/>
+        <item x="145"/>
         <item x="37"/>
-        <item x="190"/>
+        <item x="103"/>
+        <item x="38"/>
+        <item x="193"/>
         <item x="7"/>
-        <item x="73"/>
-        <item x="38"/>
+        <item x="74"/>
         <item x="39"/>
-        <item x="74"/>
-        <item x="206"/>
-        <item x="143"/>
-        <item x="144"/>
-        <item x="175"/>
         <item x="40"/>
         <item x="75"/>
+        <item x="209"/>
+        <item x="16"/>
+        <item x="146"/>
+        <item x="147"/>
+        <item x="178"/>
+        <item x="41"/>
         <item x="76"/>
-        <item x="145"/>
         <item x="77"/>
-        <item x="41"/>
-        <item x="207"/>
+        <item x="148"/>
         <item x="78"/>
-        <item x="120"/>
         <item x="42"/>
-        <item x="121"/>
-        <item x="208"/>
-        <item x="16"/>
+        <item x="210"/>
+        <item x="79"/>
+        <item x="123"/>
+        <item x="43"/>
+        <item x="124"/>
+        <item x="92"/>
+        <item x="211"/>
         <item x="17"/>
-        <item x="43"/>
-        <item x="209"/>
-        <item x="95"/>
+        <item x="18"/>
         <item x="44"/>
+        <item x="212"/>
+        <item x="98"/>
+        <item x="45"/>
         <item x="8"/>
-        <item x="122"/>
-        <item x="146"/>
-        <item x="45"/>
-        <item x="101"/>
-        <item x="147"/>
-        <item x="79"/>
+        <item x="125"/>
+        <item x="149"/>
+        <item x="46"/>
+        <item x="104"/>
+        <item x="150"/>
         <item x="80"/>
-        <item x="102"/>
-        <item x="46"/>
+        <item x="81"/>
+        <item x="105"/>
+        <item x="47"/>
         <item x="9"/>
-        <item x="103"/>
-        <item x="210"/>
-        <item x="176"/>
-        <item x="104"/>
-        <item x="211"/>
-        <item x="18"/>
-        <item x="212"/>
+        <item x="106"/>
         <item x="213"/>
-        <item x="105"/>
-        <item x="106"/>
+        <item x="179"/>
+        <item x="107"/>
+        <item x="214"/>
         <item x="19"/>
+        <item x="215"/>
+        <item x="216"/>
+        <item x="108"/>
+        <item x="109"/>
         <item x="20"/>
-        <item x="123"/>
-        <item x="148"/>
-        <item x="149"/>
-        <item x="10"/>
         <item x="21"/>
-        <item x="177"/>
-        <item x="178"/>
-        <item x="150"/>
+        <item x="126"/>
         <item x="151"/>
         <item x="152"/>
-        <item x="47"/>
-        <item x="107"/>
+        <item x="10"/>
+        <item x="22"/>
+        <item x="180"/>
+        <item x="181"/>
+        <item x="153"/>
+        <item x="154"/>
+        <item x="155"/>
         <item x="48"/>
-        <item x="153"/>
-        <item x="81"/>
-        <item x="124"/>
-        <item x="214"/>
+        <item x="110"/>
         <item x="49"/>
-        <item x="22"/>
-        <item x="125"/>
-        <item x="191"/>
-        <item x="126"/>
-        <item x="154"/>
+        <item x="156"/>
         <item x="82"/>
-        <item m="1" x="221"/>
-        <item x="155"/>
-        <item x="215"/>
-        <item x="192"/>
+        <item x="127"/>
+        <item x="217"/>
+        <item x="50"/>
+        <item x="23"/>
+        <item x="128"/>
+        <item x="194"/>
+        <item x="129"/>
+        <item x="157"/>
         <item x="83"/>
-        <item x="156"/>
-        <item x="193"/>
-        <item x="179"/>
-        <item x="157"/>
-        <item x="180"/>
-        <item x="127"/>
-        <item x="108"/>
-        <item x="181"/>
-        <item x="216"/>
+        <item m="1" x="224"/>
         <item x="158"/>
+        <item x="218"/>
+        <item x="195"/>
+        <item x="84"/>
+        <item x="159"/>
+        <item x="196"/>
+        <item x="182"/>
+        <item x="160"/>
+        <item x="183"/>
+        <item x="130"/>
+        <item x="111"/>
+        <item x="184"/>
+        <item x="219"/>
+        <item x="161"/>
         <item x="11"/>
-        <item x="159"/>
-        <item x="50"/>
-        <item x="194"/>
-        <item x="160"/>
-        <item x="84"/>
-        <item x="128"/>
-        <item x="129"/>
-        <item x="130"/>
-        <item x="109"/>
-        <item x="96"/>
+        <item x="162"/>
+        <item x="51"/>
+        <item x="197"/>
+        <item x="163"/>
+        <item x="85"/>
+        <item x="131"/>
+        <item x="132"/>
+        <item x="133"/>
+        <item x="112"/>
+        <item x="99"/>
         <item x="12"/>
-        <item x="110"/>
-        <item x="161"/>
-        <item x="51"/>
-        <item x="182"/>
-        <item x="131"/>
-        <item x="85"/>
+        <item x="113"/>
+        <item x="164"/>
+        <item x="52"/>
+        <item x="185"/>
+        <item x="134"/>
         <item x="86"/>
-        <item x="195"/>
         <item x="87"/>
+        <item x="198"/>
+        <item x="88"/>
         <item x="13"/>
-        <item x="183"/>
-        <item x="52"/>
-        <item x="132"/>
-        <item x="162"/>
-        <item x="133"/>
+        <item x="91"/>
+        <item x="186"/>
         <item x="53"/>
-        <item x="196"/>
-        <item x="88"/>
+        <item x="135"/>
+        <item x="165"/>
+        <item x="136"/>
+        <item x="54"/>
+        <item x="199"/>
         <item x="89"/>
         <item x="90"/>
-        <item x="91"/>
-        <item x="217"/>
-        <item x="92"/>
-        <item x="197"/>
-        <item x="54"/>
+        <item x="93"/>
+        <item x="94"/>
+        <item x="220"/>
+        <item x="95"/>
+        <item x="200"/>
         <item x="55"/>
-        <item x="134"/>
-        <item x="198"/>
-        <item x="93"/>
-        <item x="184"/>
-        <item x="163"/>
-        <item x="164"/>
-        <item x="185"/>
         <item x="56"/>
-        <item x="135"/>
-        <item x="186"/>
-        <item x="165"/>
-        <item x="136"/>
+        <item x="137"/>
+        <item x="201"/>
+        <item x="96"/>
+        <item x="187"/>
         <item x="166"/>
-        <item x="199"/>
-        <item x="200"/>
-        <item x="94"/>
-        <item x="218"/>
-        <item x="219"/>
-        <item x="220"/>
+        <item x="167"/>
+        <item x="188"/>
+        <item x="57"/>
+        <item x="138"/>
+        <item x="189"/>
+        <item x="168"/>
+        <item x="139"/>
+        <item x="169"/>
+        <item x="202"/>
+        <item x="203"/>
+        <item x="97"/>
+        <item x="221"/>
+        <item x="222"/>
+        <item x="223"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -6791,7 +6848,10 @@
   <rowFields count="1">
     <field x="1"/>
   </rowFields>
-  <rowItems count="108">
+  <rowItems count="122">
+    <i>
+      <x v="4"/>
+    </i>
     <i>
       <x v="5"/>
     </i>
@@ -6803,6 +6863,9 @@
     </i>
     <i>
       <x v="9"/>
+    </i>
+    <i>
+      <x v="10"/>
     </i>
     <i>
       <x v="11"/>
@@ -6830,6 +6893,9 @@
     </i>
     <i>
       <x v="20"/>
+    </i>
+    <i>
+      <x v="21"/>
     </i>
     <i>
       <x v="25"/>
@@ -6892,6 +6958,9 @@
       <x v="56"/>
     </i>
     <i>
+      <x v="57"/>
+    </i>
+    <i>
       <x v="58"/>
     </i>
     <i>
@@ -6899,6 +6968,9 @@
     </i>
     <i>
       <x v="66"/>
+    </i>
+    <i>
+      <x v="69"/>
     </i>
     <i>
       <x v="70"/>
@@ -6922,25 +6994,28 @@
       <x v="80"/>
     </i>
     <i>
+      <x v="81"/>
+    </i>
+    <i>
       <x v="83"/>
     </i>
     <i>
       <x v="84"/>
     </i>
     <i>
-      <x v="89"/>
+      <x v="86"/>
     </i>
     <i>
-      <x v="91"/>
+      <x v="90"/>
     </i>
     <i>
       <x v="92"/>
     </i>
     <i>
-      <x v="95"/>
+      <x v="93"/>
     </i>
     <i>
-      <x v="97"/>
+      <x v="96"/>
     </i>
     <i>
       <x v="98"/>
@@ -6955,7 +7030,10 @@
       <x v="101"/>
     </i>
     <i>
-      <x v="104"/>
+      <x v="102"/>
+    </i>
+    <i>
+      <x v="103"/>
     </i>
     <i>
       <x v="106"/>
@@ -6964,46 +7042,55 @@
       <x v="108"/>
     </i>
     <i>
-      <x v="109"/>
+      <x v="110"/>
     </i>
     <i>
-      <x v="112"/>
+      <x v="111"/>
     </i>
     <i>
       <x v="114"/>
     </i>
     <i>
-      <x v="117"/>
+      <x v="116"/>
     </i>
     <i>
       <x v="119"/>
     </i>
     <i>
+      <x v="120"/>
+    </i>
+    <i>
       <x v="121"/>
     </i>
     <i>
-      <x v="122"/>
+      <x v="123"/>
     </i>
     <i>
-      <x v="125"/>
+      <x v="124"/>
     </i>
     <i>
       <x v="127"/>
     </i>
     <i>
-      <x v="128"/>
+      <x v="129"/>
     </i>
     <i>
-      <x v="135"/>
+      <x v="130"/>
     </i>
     <i>
-      <x v="138"/>
+      <x v="132"/>
     </i>
     <i>
-      <x v="146"/>
+      <x v="137"/>
     </i>
     <i>
-      <x v="147"/>
+      <x v="140"/>
+    </i>
+    <i>
+      <x v="142"/>
+    </i>
+    <i>
+      <x v="148"/>
     </i>
     <i>
       <x v="149"/>
@@ -7012,13 +7099,10 @@
       <x v="151"/>
     </i>
     <i>
-      <x v="152"/>
+      <x v="153"/>
     </i>
     <i>
-      <x v="155"/>
-    </i>
-    <i>
-      <x v="156"/>
+      <x v="154"/>
     </i>
     <i>
       <x v="157"/>
@@ -7027,25 +7111,25 @@
       <x v="158"/>
     </i>
     <i>
+      <x v="159"/>
+    </i>
+    <i>
       <x v="160"/>
     </i>
     <i>
-      <x v="161"/>
+      <x v="162"/>
     </i>
     <i>
       <x v="163"/>
     </i>
     <i>
-      <x v="164"/>
-    </i>
-    <i>
       <x v="165"/>
     </i>
     <i>
-      <x v="168"/>
+      <x v="166"/>
     </i>
     <i>
-      <x v="169"/>
+      <x v="167"/>
     </i>
     <i>
       <x v="170"/>
@@ -7060,28 +7144,34 @@
       <x v="173"/>
     </i>
     <i>
+      <x v="174"/>
+    </i>
+    <i>
       <x v="175"/>
     </i>
     <i>
-      <x v="182"/>
+      <x v="177"/>
+    </i>
+    <i>
+      <x v="180"/>
     </i>
     <i>
       <x v="184"/>
     </i>
     <i>
-      <x v="188"/>
+      <x v="186"/>
     </i>
     <i>
-      <x v="189"/>
+      <x v="190"/>
     </i>
     <i>
-      <x v="196"/>
+      <x v="191"/>
     </i>
     <i>
-      <x v="197"/>
+      <x v="193"/>
     </i>
     <i>
-      <x v="198"/>
+      <x v="199"/>
     </i>
     <i>
       <x v="200"/>
@@ -7090,28 +7180,37 @@
       <x v="201"/>
     </i>
     <i>
-      <x v="202"/>
+      <x v="203"/>
+    </i>
+    <i>
+      <x v="204"/>
     </i>
     <i>
       <x v="205"/>
     </i>
     <i>
-      <x v="211"/>
+      <x v="208"/>
     </i>
     <i>
-      <x v="212"/>
+      <x v="214"/>
     </i>
     <i>
-      <x v="213"/>
+      <x v="215"/>
     </i>
     <i>
-      <x v="218"/>
+      <x v="216"/>
+    </i>
+    <i>
+      <x v="219"/>
     </i>
     <i>
       <x v="221"/>
     </i>
     <i>
       <x v="224"/>
+    </i>
+    <i>
+      <x v="227"/>
     </i>
     <i t="grand">
       <x/>
@@ -7145,15 +7244,15 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{5BE17AE4-2B6C-4B30-A799-10769CD87AE0}" name="PivotTable3" cacheId="1525" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{5BE17AE4-2B6C-4B30-A799-10769CD87AE0}" name="PivotTable3" cacheId="4255" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
   <location ref="G8:I13" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="8">
     <pivotField axis="axisPage" showAll="0">
       <items count="13">
         <item x="0"/>
         <item x="1"/>
+        <item x="3"/>
         <item x="2"/>
-        <item x="3"/>
         <item x="4"/>
         <item x="5"/>
         <item x="6"/>
@@ -7269,15 +7368,15 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{D443304E-F10F-4C77-A7DB-6048C0DF3E68}" name="PivotTable2" cacheId="1525" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="2">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{D443304E-F10F-4C77-A7DB-6048C0DF3E68}" name="PivotTable2" cacheId="4255" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="2">
   <location ref="B8:E13" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="8">
     <pivotField axis="axisPage" showAll="0">
       <items count="13">
         <item x="0"/>
         <item x="1"/>
+        <item x="3"/>
         <item x="2"/>
-        <item x="3"/>
         <item x="4"/>
         <item x="5"/>
         <item x="6"/>
@@ -7785,9 +7884,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1220B4B-B987-4267-A1E9-87F5A1FB2BC0}">
-  <dimension ref="B2:I147"/>
+  <dimension ref="B2:I161"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B2" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A8" workbookViewId="0">
       <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
@@ -8092,10 +8191,10 @@
         <v>12</v>
       </c>
       <c r="C10" s="3">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="D10" s="3">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="E10" s="3">
         <v>159</v>
@@ -8115,10 +8214,10 @@
         <v>13</v>
       </c>
       <c r="C11" s="3">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D11" s="3">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E11" s="3">
         <v>20</v>
@@ -8138,22 +8237,22 @@
         <v>14</v>
       </c>
       <c r="C12" s="3">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="D12" s="3">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E12" s="3">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="G12" s="4" t="s">
         <v>14</v>
       </c>
       <c r="H12" s="3">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="I12" s="3">
-        <v>41</v>
+        <v>44</v>
       </c>
     </row>
     <row r="13" spans="2:9">
@@ -8161,22 +8260,22 @@
         <v>11</v>
       </c>
       <c r="C13" s="3">
-        <v>107</v>
+        <v>121</v>
       </c>
       <c r="D13" s="3">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="E13" s="3">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="G13" s="4" t="s">
         <v>11</v>
       </c>
       <c r="H13" s="3">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="I13" s="3">
-        <v>220</v>
+        <v>223</v>
       </c>
     </row>
     <row r="33" spans="2:9">
@@ -8779,7 +8878,77 @@
       </c>
     </row>
     <row r="147" spans="2:2">
-      <c r="B147" s="13" t="s">
+      <c r="B147" s="4" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="148" spans="2:2">
+      <c r="B148" s="4" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="149" spans="2:2">
+      <c r="B149" s="4" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="150" spans="2:2">
+      <c r="B150" s="4" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="151" spans="2:2">
+      <c r="B151" s="4" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="152" spans="2:2">
+      <c r="B152" s="4" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="153" spans="2:2">
+      <c r="B153" s="4" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="154" spans="2:2">
+      <c r="B154" s="4" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="155" spans="2:2">
+      <c r="B155" s="4" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="156" spans="2:2">
+      <c r="B156" s="4" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="157" spans="2:2">
+      <c r="B157" s="4" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="158" spans="2:2">
+      <c r="B158" s="4" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="159" spans="2:2">
+      <c r="B159" s="4" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="160" spans="2:2">
+      <c r="B160" s="4" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="161" spans="2:2">
+      <c r="B161" s="13" t="s">
         <v>11</v>
       </c>
     </row>
@@ -8797,10 +8966,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:H231"/>
+  <dimension ref="A1:H234"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A140" workbookViewId="0">
-      <selection activeCell="D141" sqref="D141"/>
+    <sheetView showGridLines="0" topLeftCell="A32" workbookViewId="0">
+      <selection activeCell="B47" sqref="B47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
@@ -8820,10 +8989,10 @@
         <v>3</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>128</v>
+        <v>142</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>129</v>
+        <v>143</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>18</v>
@@ -8832,21 +9001,21 @@
         <v>19</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>130</v>
+        <v>144</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>131</v>
+        <v>145</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>132</v>
+        <v>146</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="15.75" customHeight="1">
       <c r="A2" s="6" t="s">
-        <v>133</v>
+        <v>147</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>134</v>
+        <v>148</v>
       </c>
       <c r="C2" s="6" t="s">
         <v>14</v>
@@ -8863,16 +9032,16 @@
     </row>
     <row r="3" spans="1:8" ht="15.75" customHeight="1">
       <c r="A3" s="6" t="s">
-        <v>133</v>
+        <v>147</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>135</v>
+        <v>21</v>
       </c>
       <c r="C3" s="6" t="s">
         <v>14</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E3" s="6" t="s">
         <v>10</v>
@@ -8883,16 +9052,16 @@
     </row>
     <row r="4" spans="1:8" ht="15.75" customHeight="1">
       <c r="A4" s="6" t="s">
-        <v>133</v>
+        <v>147</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>136</v>
+        <v>26</v>
       </c>
       <c r="C4" s="6" t="s">
         <v>12</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E4" s="6" t="s">
         <v>10</v>
@@ -8903,10 +9072,10 @@
     </row>
     <row r="5" spans="1:8" ht="15.75" customHeight="1">
       <c r="A5" s="6" t="s">
-        <v>133</v>
+        <v>147</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="C5" s="6" t="s">
         <v>14</v>
@@ -8923,10 +9092,10 @@
     </row>
     <row r="6" spans="1:8" ht="15.75" customHeight="1">
       <c r="A6" s="6" t="s">
-        <v>133</v>
+        <v>147</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="C6" s="6" t="s">
         <v>12</v>
@@ -8943,10 +9112,10 @@
     </row>
     <row r="7" spans="1:8" ht="15.75" customHeight="1">
       <c r="A7" s="6" t="s">
-        <v>133</v>
+        <v>147</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>137</v>
+        <v>149</v>
       </c>
       <c r="C7" s="6" t="s">
         <v>12</v>
@@ -8963,10 +9132,10 @@
     </row>
     <row r="8" spans="1:8" ht="15.75" customHeight="1">
       <c r="A8" s="6" t="s">
-        <v>133</v>
+        <v>147</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="C8" s="6" t="s">
         <v>12</v>
@@ -8983,10 +9152,10 @@
     </row>
     <row r="9" spans="1:8" ht="15.75" customHeight="1">
       <c r="A9" s="6" t="s">
-        <v>133</v>
+        <v>147</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="C9" s="6" t="s">
         <v>12</v>
@@ -9003,10 +9172,10 @@
     </row>
     <row r="10" spans="1:8" ht="15.75" customHeight="1">
       <c r="A10" s="6" t="s">
-        <v>133</v>
+        <v>147</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>138</v>
+        <v>150</v>
       </c>
       <c r="C10" s="6" t="s">
         <v>12</v>
@@ -9023,10 +9192,10 @@
     </row>
     <row r="11" spans="1:8" ht="15.75" customHeight="1">
       <c r="A11" s="6" t="s">
-        <v>133</v>
+        <v>147</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="C11" s="6" t="s">
         <v>12</v>
@@ -9043,10 +9212,10 @@
     </row>
     <row r="12" spans="1:8" ht="15.75" customHeight="1">
       <c r="A12" s="6" t="s">
-        <v>133</v>
+        <v>147</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>139</v>
+        <v>151</v>
       </c>
       <c r="C12" s="6" t="s">
         <v>12</v>
@@ -9063,10 +9232,10 @@
     </row>
     <row r="13" spans="1:8" ht="15.75" customHeight="1">
       <c r="A13" s="6" t="s">
-        <v>133</v>
+        <v>147</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>105</v>
+        <v>116</v>
       </c>
       <c r="C13" s="6" t="s">
         <v>12</v>
@@ -9083,10 +9252,10 @@
     </row>
     <row r="14" spans="1:8" ht="15.75" customHeight="1">
       <c r="A14" s="6" t="s">
-        <v>133</v>
+        <v>147</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>140</v>
+        <v>152</v>
       </c>
       <c r="C14" s="6" t="s">
         <v>12</v>
@@ -9103,10 +9272,10 @@
     </row>
     <row r="15" spans="1:8" ht="15.75" customHeight="1">
       <c r="A15" s="6" t="s">
-        <v>133</v>
+        <v>147</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>141</v>
+        <v>153</v>
       </c>
       <c r="C15" s="6" t="s">
         <v>12</v>
@@ -9123,10 +9292,10 @@
     </row>
     <row r="16" spans="1:8" ht="15.75" customHeight="1">
       <c r="A16" s="6" t="s">
-        <v>142</v>
+        <v>154</v>
       </c>
       <c r="B16" s="11" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="C16" s="6" t="s">
         <v>12</v>
@@ -9143,10 +9312,10 @@
     </row>
     <row r="17" spans="1:8" ht="15.75" customHeight="1">
       <c r="A17" s="6" t="s">
-        <v>142</v>
+        <v>154</v>
       </c>
       <c r="B17" s="11" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="C17" s="6" t="s">
         <v>12</v>
@@ -9163,13 +9332,13 @@
     </row>
     <row r="18" spans="1:8" ht="15.75" customHeight="1">
       <c r="A18" s="6" t="s">
-        <v>142</v>
+        <v>155</v>
       </c>
       <c r="B18" s="11" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D18" s="6" t="s">
         <v>9</v>
@@ -9183,16 +9352,16 @@
     </row>
     <row r="19" spans="1:8" ht="15.75" customHeight="1">
       <c r="A19" s="6" t="s">
-        <v>142</v>
+        <v>154</v>
       </c>
       <c r="B19" s="11" t="s">
-        <v>143</v>
+        <v>82</v>
       </c>
       <c r="C19" s="6" t="s">
         <v>12</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E19" s="6" t="s">
         <v>10</v>
@@ -9203,10 +9372,10 @@
     </row>
     <row r="20" spans="1:8" ht="15.75" customHeight="1">
       <c r="A20" s="6" t="s">
-        <v>142</v>
+        <v>154</v>
       </c>
       <c r="B20" s="11" t="s">
-        <v>144</v>
+        <v>156</v>
       </c>
       <c r="C20" s="6" t="s">
         <v>12</v>
@@ -9223,16 +9392,16 @@
     </row>
     <row r="21" spans="1:8" ht="15.75" customHeight="1">
       <c r="A21" s="6" t="s">
-        <v>142</v>
+        <v>154</v>
       </c>
       <c r="B21" s="11" t="s">
-        <v>87</v>
+        <v>157</v>
       </c>
       <c r="C21" s="6" t="s">
         <v>12</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E21" s="6" t="s">
         <v>10</v>
@@ -9243,16 +9412,16 @@
     </row>
     <row r="22" spans="1:8" ht="15.75" customHeight="1">
       <c r="A22" s="6" t="s">
-        <v>142</v>
+        <v>154</v>
       </c>
       <c r="B22" s="11" t="s">
-        <v>145</v>
+        <v>96</v>
       </c>
       <c r="C22" s="6" t="s">
         <v>12</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E22" s="6" t="s">
         <v>10</v>
@@ -9263,10 +9432,10 @@
     </row>
     <row r="23" spans="1:8" ht="15.75" customHeight="1">
       <c r="A23" s="6" t="s">
-        <v>142</v>
+        <v>154</v>
       </c>
       <c r="B23" s="11" t="s">
-        <v>146</v>
+        <v>158</v>
       </c>
       <c r="C23" s="6" t="s">
         <v>12</v>
@@ -9283,10 +9452,10 @@
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1">
       <c r="A24" s="6" t="s">
-        <v>142</v>
+        <v>154</v>
       </c>
       <c r="B24" s="11" t="s">
-        <v>147</v>
+        <v>159</v>
       </c>
       <c r="C24" s="6" t="s">
         <v>12</v>
@@ -9303,16 +9472,16 @@
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1">
       <c r="A25" s="6" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="B25" s="11" t="s">
-        <v>22</v>
+        <v>160</v>
       </c>
       <c r="C25" s="6" t="s">
         <v>12</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E25" s="6" t="s">
         <v>10</v>
@@ -9323,7 +9492,7 @@
     </row>
     <row r="26" spans="1:8" ht="15.75" customHeight="1">
       <c r="A26" s="6" t="s">
-        <v>148</v>
+        <v>161</v>
       </c>
       <c r="B26" s="11" t="s">
         <v>23</v>
@@ -9343,10 +9512,10 @@
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1">
       <c r="A27" s="6" t="s">
-        <v>148</v>
+        <v>161</v>
       </c>
       <c r="B27" s="11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C27" s="6" t="s">
         <v>12</v>
@@ -9363,10 +9532,10 @@
     </row>
     <row r="28" spans="1:8" ht="15.75" customHeight="1">
       <c r="A28" s="6" t="s">
-        <v>148</v>
+        <v>161</v>
       </c>
       <c r="B28" s="11" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="C28" s="6" t="s">
         <v>12</v>
@@ -9383,16 +9552,16 @@
     </row>
     <row r="29" spans="1:8" ht="15.75" customHeight="1">
       <c r="A29" s="6" t="s">
-        <v>148</v>
+        <v>161</v>
       </c>
       <c r="B29" s="11" t="s">
-        <v>149</v>
+        <v>34</v>
       </c>
       <c r="C29" s="6" t="s">
         <v>12</v>
       </c>
       <c r="D29" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E29" s="6" t="s">
         <v>10</v>
@@ -9403,16 +9572,16 @@
     </row>
     <row r="30" spans="1:8" ht="15.75" customHeight="1">
       <c r="A30" s="6" t="s">
-        <v>148</v>
+        <v>161</v>
       </c>
       <c r="B30" s="11" t="s">
-        <v>40</v>
+        <v>162</v>
       </c>
       <c r="C30" s="6" t="s">
         <v>12</v>
       </c>
       <c r="D30" s="6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E30" s="6" t="s">
         <v>10</v>
@@ -9423,10 +9592,10 @@
     </row>
     <row r="31" spans="1:8" ht="15.75" customHeight="1">
       <c r="A31" s="6" t="s">
-        <v>148</v>
+        <v>161</v>
       </c>
       <c r="B31" s="11" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C31" s="6" t="s">
         <v>12</v>
@@ -9443,10 +9612,10 @@
     </row>
     <row r="32" spans="1:8" ht="15.75" customHeight="1">
       <c r="A32" s="6" t="s">
-        <v>148</v>
+        <v>161</v>
       </c>
       <c r="B32" s="11" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C32" s="6" t="s">
         <v>12</v>
@@ -9463,10 +9632,10 @@
     </row>
     <row r="33" spans="1:8" ht="15.75" customHeight="1">
       <c r="A33" s="6" t="s">
-        <v>148</v>
+        <v>161</v>
       </c>
       <c r="B33" s="11" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C33" s="6" t="s">
         <v>12</v>
@@ -9481,12 +9650,12 @@
       <c r="G33" s="6"/>
       <c r="H33" s="6"/>
     </row>
-    <row r="34" spans="1:8" ht="12.75">
+    <row r="34" spans="1:8" ht="15.75" customHeight="1">
       <c r="A34" s="6" t="s">
-        <v>148</v>
+        <v>161</v>
       </c>
       <c r="B34" s="11" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C34" s="6" t="s">
         <v>12</v>
@@ -9503,7 +9672,7 @@
     </row>
     <row r="35" spans="1:8" ht="12.75">
       <c r="A35" s="6" t="s">
-        <v>148</v>
+        <v>161</v>
       </c>
       <c r="B35" s="11" t="s">
         <v>58</v>
@@ -9523,10 +9692,10 @@
     </row>
     <row r="36" spans="1:8" ht="12.75">
       <c r="A36" s="6" t="s">
-        <v>148</v>
+        <v>161</v>
       </c>
       <c r="B36" s="11" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="C36" s="6" t="s">
         <v>12</v>
@@ -9543,10 +9712,10 @@
     </row>
     <row r="37" spans="1:8" ht="12.75">
       <c r="A37" s="6" t="s">
-        <v>148</v>
+        <v>161</v>
       </c>
       <c r="B37" s="11" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="C37" s="6" t="s">
         <v>12</v>
@@ -9563,16 +9732,16 @@
     </row>
     <row r="38" spans="1:8" ht="12.75">
       <c r="A38" s="6" t="s">
-        <v>148</v>
+        <v>161</v>
       </c>
       <c r="B38" s="11" t="s">
-        <v>150</v>
+        <v>65</v>
       </c>
       <c r="C38" s="6" t="s">
         <v>12</v>
       </c>
       <c r="D38" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E38" s="6" t="s">
         <v>10</v>
@@ -9583,10 +9752,10 @@
     </row>
     <row r="39" spans="1:8" ht="12.75">
       <c r="A39" s="6" t="s">
-        <v>148</v>
-      </c>
-      <c r="B39" s="10" t="s">
-        <v>151</v>
+        <v>161</v>
+      </c>
+      <c r="B39" s="11" t="s">
+        <v>163</v>
       </c>
       <c r="C39" s="6" t="s">
         <v>12</v>
@@ -9603,10 +9772,10 @@
     </row>
     <row r="40" spans="1:8" ht="12.75">
       <c r="A40" s="6" t="s">
-        <v>148</v>
+        <v>161</v>
       </c>
       <c r="B40" s="10" t="s">
-        <v>152</v>
+        <v>164</v>
       </c>
       <c r="C40" s="6" t="s">
         <v>12</v>
@@ -9623,16 +9792,16 @@
     </row>
     <row r="41" spans="1:8" ht="12.75">
       <c r="A41" s="6" t="s">
-        <v>148</v>
+        <v>161</v>
       </c>
       <c r="B41" s="10" t="s">
-        <v>64</v>
+        <v>165</v>
       </c>
       <c r="C41" s="6" t="s">
         <v>12</v>
       </c>
       <c r="D41" s="6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E41" s="6" t="s">
         <v>10</v>
@@ -9643,10 +9812,10 @@
     </row>
     <row r="42" spans="1:8" ht="12.75">
       <c r="A42" s="6" t="s">
-        <v>148</v>
+        <v>161</v>
       </c>
       <c r="B42" s="10" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="C42" s="6" t="s">
         <v>12</v>
@@ -9663,16 +9832,16 @@
     </row>
     <row r="43" spans="1:8" ht="12.75">
       <c r="A43" s="6" t="s">
-        <v>148</v>
+        <v>161</v>
       </c>
       <c r="B43" s="10" t="s">
-        <v>153</v>
+        <v>73</v>
       </c>
       <c r="C43" s="6" t="s">
         <v>12</v>
       </c>
       <c r="D43" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E43" s="6" t="s">
         <v>10</v>
@@ -9683,16 +9852,16 @@
     </row>
     <row r="44" spans="1:8" ht="12.75">
       <c r="A44" s="6" t="s">
-        <v>148</v>
+        <v>161</v>
       </c>
       <c r="B44" s="10" t="s">
-        <v>71</v>
+        <v>166</v>
       </c>
       <c r="C44" s="6" t="s">
         <v>12</v>
       </c>
       <c r="D44" s="6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E44" s="6" t="s">
         <v>10</v>
@@ -9703,16 +9872,16 @@
     </row>
     <row r="45" spans="1:8" ht="12.75">
       <c r="A45" s="6" t="s">
-        <v>148</v>
+        <v>161</v>
       </c>
       <c r="B45" s="10" t="s">
-        <v>154</v>
+        <v>78</v>
       </c>
       <c r="C45" s="6" t="s">
         <v>12</v>
       </c>
       <c r="D45" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E45" s="6" t="s">
         <v>10</v>
@@ -9723,16 +9892,16 @@
     </row>
     <row r="46" spans="1:8" ht="12.75">
       <c r="A46" s="6" t="s">
-        <v>148</v>
+        <v>161</v>
       </c>
       <c r="B46" s="10" t="s">
-        <v>76</v>
+        <v>167</v>
       </c>
       <c r="C46" s="6" t="s">
         <v>12</v>
       </c>
       <c r="D46" s="6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E46" s="6" t="s">
         <v>10</v>
@@ -9743,16 +9912,16 @@
     </row>
     <row r="47" spans="1:8" ht="12.75">
       <c r="A47" s="6" t="s">
-        <v>148</v>
+        <v>161</v>
       </c>
       <c r="B47" s="10" t="s">
-        <v>155</v>
+        <v>84</v>
       </c>
       <c r="C47" s="6" t="s">
         <v>12</v>
       </c>
       <c r="D47" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E47" s="6" t="s">
         <v>10</v>
@@ -9763,10 +9932,10 @@
     </row>
     <row r="48" spans="1:8" ht="12.75">
       <c r="A48" s="6" t="s">
-        <v>148</v>
+        <v>161</v>
       </c>
       <c r="B48" s="10" t="s">
-        <v>156</v>
+        <v>168</v>
       </c>
       <c r="C48" s="6" t="s">
         <v>12</v>
@@ -9783,10 +9952,10 @@
     </row>
     <row r="49" spans="1:8" ht="12.75">
       <c r="A49" s="6" t="s">
-        <v>148</v>
+        <v>161</v>
       </c>
       <c r="B49" s="10" t="s">
-        <v>157</v>
+        <v>169</v>
       </c>
       <c r="C49" s="6" t="s">
         <v>12</v>
@@ -9803,16 +9972,16 @@
     </row>
     <row r="50" spans="1:8" ht="12.75">
       <c r="A50" s="6" t="s">
-        <v>148</v>
+        <v>161</v>
       </c>
       <c r="B50" s="10" t="s">
-        <v>158</v>
+        <v>100</v>
       </c>
       <c r="C50" s="6" t="s">
         <v>12</v>
       </c>
       <c r="D50" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E50" s="6" t="s">
         <v>10</v>
@@ -9823,16 +9992,16 @@
     </row>
     <row r="51" spans="1:8" ht="12.75">
       <c r="A51" s="6" t="s">
-        <v>148</v>
+        <v>161</v>
       </c>
       <c r="B51" s="10" t="s">
-        <v>91</v>
+        <v>170</v>
       </c>
       <c r="C51" s="6" t="s">
         <v>12</v>
       </c>
       <c r="D51" s="6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E51" s="6" t="s">
         <v>10</v>
@@ -9843,10 +10012,10 @@
     </row>
     <row r="52" spans="1:8" ht="12.75">
       <c r="A52" s="6" t="s">
-        <v>148</v>
+        <v>161</v>
       </c>
       <c r="B52" s="10" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="C52" s="6" t="s">
         <v>12</v>
@@ -9863,16 +10032,16 @@
     </row>
     <row r="53" spans="1:8" ht="12.75">
       <c r="A53" s="6" t="s">
-        <v>148</v>
+        <v>161</v>
       </c>
       <c r="B53" s="10" t="s">
-        <v>159</v>
+        <v>118</v>
       </c>
       <c r="C53" s="6" t="s">
         <v>12</v>
       </c>
       <c r="D53" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E53" s="6" t="s">
         <v>10</v>
@@ -9883,10 +10052,10 @@
     </row>
     <row r="54" spans="1:8" ht="12.75">
       <c r="A54" s="6" t="s">
-        <v>148</v>
+        <v>161</v>
       </c>
       <c r="B54" s="10" t="s">
-        <v>160</v>
+        <v>171</v>
       </c>
       <c r="C54" s="6" t="s">
         <v>12</v>
@@ -9903,16 +10072,16 @@
     </row>
     <row r="55" spans="1:8" ht="12.75">
       <c r="A55" s="6" t="s">
-        <v>148</v>
+        <v>161</v>
       </c>
       <c r="B55" s="10" t="s">
-        <v>115</v>
+        <v>172</v>
       </c>
       <c r="C55" s="6" t="s">
         <v>12</v>
       </c>
       <c r="D55" s="6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E55" s="6" t="s">
         <v>10</v>
@@ -9923,10 +10092,10 @@
     </row>
     <row r="56" spans="1:8" ht="12.75">
       <c r="A56" s="6" t="s">
-        <v>148</v>
+        <v>161</v>
       </c>
       <c r="B56" s="10" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="C56" s="6" t="s">
         <v>12</v>
@@ -9943,16 +10112,16 @@
     </row>
     <row r="57" spans="1:8" ht="12.75">
       <c r="A57" s="6" t="s">
-        <v>148</v>
+        <v>161</v>
       </c>
       <c r="B57" s="10" t="s">
-        <v>161</v>
+        <v>134</v>
       </c>
       <c r="C57" s="6" t="s">
         <v>12</v>
       </c>
       <c r="D57" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E57" s="6" t="s">
         <v>10</v>
@@ -9963,10 +10132,10 @@
     </row>
     <row r="58" spans="1:8" ht="12.75">
       <c r="A58" s="6" t="s">
-        <v>148</v>
+        <v>161</v>
       </c>
       <c r="B58" s="10" t="s">
-        <v>162</v>
+        <v>173</v>
       </c>
       <c r="C58" s="6" t="s">
         <v>12</v>
@@ -9983,13 +10152,13 @@
     </row>
     <row r="59" spans="1:8" ht="12.75">
       <c r="A59" s="6" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B59" s="10" t="s">
-        <v>164</v>
+        <v>174</v>
       </c>
       <c r="C59" s="6" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D59" s="6" t="s">
         <v>10</v>
@@ -9997,19 +10166,19 @@
       <c r="E59" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="F59" s="7"/>
-      <c r="G59" s="8"/>
+      <c r="F59" s="6"/>
+      <c r="G59" s="6"/>
       <c r="H59" s="6"/>
     </row>
     <row r="60" spans="1:8" ht="12.75">
       <c r="A60" s="6" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
       <c r="B60" s="10" t="s">
-        <v>165</v>
+        <v>175</v>
       </c>
       <c r="C60" s="6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D60" s="6" t="s">
         <v>10</v>
@@ -10023,13 +10192,13 @@
     </row>
     <row r="61" spans="1:8" ht="12.75">
       <c r="A61" s="6" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
       <c r="B61" s="10" t="s">
-        <v>166</v>
+        <v>176</v>
       </c>
       <c r="C61" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D61" s="6" t="s">
         <v>10</v>
@@ -10043,16 +10212,16 @@
     </row>
     <row r="62" spans="1:8" ht="12.75">
       <c r="A62" s="6" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
       <c r="B62" s="10" t="s">
-        <v>21</v>
+        <v>177</v>
       </c>
       <c r="C62" s="6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D62" s="6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E62" s="6" t="s">
         <v>10</v>
@@ -10063,13 +10232,13 @@
     </row>
     <row r="63" spans="1:8" ht="12.75">
       <c r="A63" s="6" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
       <c r="B63" s="10" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="C63" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D63" s="6" t="s">
         <v>9</v>
@@ -10078,15 +10247,15 @@
         <v>10</v>
       </c>
       <c r="F63" s="7"/>
-      <c r="G63" s="7"/>
-      <c r="H63" s="7"/>
+      <c r="G63" s="8"/>
+      <c r="H63" s="6"/>
     </row>
     <row r="64" spans="1:8" ht="12.75">
       <c r="A64" s="6" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
       <c r="B64" s="10" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C64" s="6" t="s">
         <v>14</v>
@@ -10098,21 +10267,21 @@
         <v>10</v>
       </c>
       <c r="F64" s="7"/>
-      <c r="G64" s="8"/>
-      <c r="H64" s="8"/>
+      <c r="G64" s="7"/>
+      <c r="H64" s="7"/>
     </row>
     <row r="65" spans="1:8" ht="12.75">
       <c r="A65" s="6" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
       <c r="B65" s="10" t="s">
-        <v>167</v>
+        <v>39</v>
       </c>
       <c r="C65" s="6" t="s">
         <v>14</v>
       </c>
       <c r="D65" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E65" s="6" t="s">
         <v>10</v>
@@ -10123,10 +10292,10 @@
     </row>
     <row r="66" spans="1:8" ht="12.75">
       <c r="A66" s="6" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
       <c r="B66" s="10" t="s">
-        <v>168</v>
+        <v>178</v>
       </c>
       <c r="C66" s="6" t="s">
         <v>14</v>
@@ -10143,16 +10312,16 @@
     </row>
     <row r="67" spans="1:8" ht="12.75">
       <c r="A67" s="6" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
       <c r="B67" s="10" t="s">
-        <v>41</v>
+        <v>179</v>
       </c>
       <c r="C67" s="6" t="s">
         <v>14</v>
       </c>
       <c r="D67" s="6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E67" s="6" t="s">
         <v>10</v>
@@ -10163,13 +10332,13 @@
     </row>
     <row r="68" spans="1:8" ht="12.75">
       <c r="A68" s="6" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
       <c r="B68" s="10" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C68" s="6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D68" s="6" t="s">
         <v>9</v>
@@ -10183,16 +10352,16 @@
     </row>
     <row r="69" spans="1:8" ht="12.75">
       <c r="A69" s="6" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
       <c r="B69" s="10" t="s">
-        <v>169</v>
+        <v>46</v>
       </c>
       <c r="C69" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D69" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E69" s="6" t="s">
         <v>10</v>
@@ -10203,13 +10372,13 @@
     </row>
     <row r="70" spans="1:8" ht="12.75">
       <c r="A70" s="6" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
       <c r="B70" s="10" t="s">
-        <v>170</v>
+        <v>180</v>
       </c>
       <c r="C70" s="6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D70" s="6" t="s">
         <v>10</v>
@@ -10223,13 +10392,13 @@
     </row>
     <row r="71" spans="1:8" ht="12.75">
       <c r="A71" s="6" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
       <c r="B71" s="10" t="s">
-        <v>171</v>
+        <v>181</v>
       </c>
       <c r="C71" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D71" s="6" t="s">
         <v>10</v>
@@ -10243,13 +10412,13 @@
     </row>
     <row r="72" spans="1:8" ht="12.75">
       <c r="A72" s="6" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
       <c r="B72" s="10" t="s">
-        <v>172</v>
+        <v>182</v>
       </c>
       <c r="C72" s="6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D72" s="6" t="s">
         <v>10</v>
@@ -10263,10 +10432,10 @@
     </row>
     <row r="73" spans="1:8" ht="12.75">
       <c r="A73" s="6" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
       <c r="B73" s="10" t="s">
-        <v>173</v>
+        <v>183</v>
       </c>
       <c r="C73" s="6" t="s">
         <v>13</v>
@@ -10283,10 +10452,10 @@
     </row>
     <row r="74" spans="1:8" ht="12.75">
       <c r="A74" s="6" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
       <c r="B74" s="10" t="s">
-        <v>174</v>
+        <v>184</v>
       </c>
       <c r="C74" s="6" t="s">
         <v>13</v>
@@ -10303,16 +10472,16 @@
     </row>
     <row r="75" spans="1:8" ht="12.75">
       <c r="A75" s="6" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
       <c r="B75" s="10" t="s">
-        <v>175</v>
+        <v>61</v>
       </c>
       <c r="C75" s="6" t="s">
         <v>13</v>
       </c>
       <c r="D75" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E75" s="6" t="s">
         <v>10</v>
@@ -10323,10 +10492,10 @@
     </row>
     <row r="76" spans="1:8" ht="12.75">
       <c r="A76" s="6" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
       <c r="B76" s="10" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="C76" s="6" t="s">
         <v>13</v>
@@ -10343,16 +10512,16 @@
     </row>
     <row r="77" spans="1:8" ht="12.75">
       <c r="A77" s="6" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
       <c r="B77" s="10" t="s">
-        <v>176</v>
+        <v>71</v>
       </c>
       <c r="C77" s="6" t="s">
         <v>13</v>
       </c>
       <c r="D77" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E77" s="6" t="s">
         <v>10</v>
@@ -10363,16 +10532,16 @@
     </row>
     <row r="78" spans="1:8" ht="12.75">
       <c r="A78" s="6" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
       <c r="B78" s="10" t="s">
-        <v>67</v>
+        <v>185</v>
       </c>
       <c r="C78" s="6" t="s">
         <v>13</v>
       </c>
       <c r="D78" s="6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E78" s="6" t="s">
         <v>10</v>
@@ -10383,16 +10552,16 @@
     </row>
     <row r="79" spans="1:8" ht="12.75">
       <c r="A79" s="6" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
       <c r="B79" s="10" t="s">
-        <v>177</v>
+        <v>74</v>
       </c>
       <c r="C79" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D79" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E79" s="6" t="s">
         <v>10</v>
@@ -10403,13 +10572,13 @@
     </row>
     <row r="80" spans="1:8" ht="12.75">
       <c r="A80" s="6" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
       <c r="B80" s="10" t="s">
-        <v>178</v>
+        <v>186</v>
       </c>
       <c r="C80" s="6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D80" s="6" t="s">
         <v>10</v>
@@ -10423,10 +10592,10 @@
     </row>
     <row r="81" spans="1:8" ht="12.75">
       <c r="A81" s="6" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
       <c r="B81" s="10" t="s">
-        <v>179</v>
+        <v>187</v>
       </c>
       <c r="C81" s="6" t="s">
         <v>13</v>
@@ -10438,21 +10607,21 @@
         <v>10</v>
       </c>
       <c r="F81" s="7"/>
-      <c r="G81" s="7"/>
-      <c r="H81" s="7"/>
+      <c r="G81" s="8"/>
+      <c r="H81" s="8"/>
     </row>
     <row r="82" spans="1:8" ht="12.75">
       <c r="A82" s="6" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
       <c r="B82" s="10" t="s">
-        <v>80</v>
+        <v>188</v>
       </c>
       <c r="C82" s="6" t="s">
         <v>13</v>
       </c>
       <c r="D82" s="6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E82" s="6" t="s">
         <v>10</v>
@@ -10463,33 +10632,33 @@
     </row>
     <row r="83" spans="1:8" ht="12.75">
       <c r="A83" s="6" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
       <c r="B83" s="10" t="s">
-        <v>180</v>
+        <v>88</v>
       </c>
       <c r="C83" s="6" t="s">
         <v>13</v>
       </c>
       <c r="D83" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E83" s="6" t="s">
         <v>10</v>
       </c>
       <c r="F83" s="7"/>
-      <c r="G83" s="8"/>
-      <c r="H83" s="8"/>
+      <c r="G83" s="7"/>
+      <c r="H83" s="7"/>
     </row>
     <row r="84" spans="1:8" ht="12.75">
       <c r="A84" s="6" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
       <c r="B84" s="10" t="s">
-        <v>181</v>
+        <v>189</v>
       </c>
       <c r="C84" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D84" s="6" t="s">
         <v>10</v>
@@ -10503,16 +10672,16 @@
     </row>
     <row r="85" spans="1:8" ht="12.75">
       <c r="A85" s="6" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
       <c r="B85" s="10" t="s">
-        <v>98</v>
+        <v>190</v>
       </c>
       <c r="C85" s="6" t="s">
         <v>14</v>
       </c>
       <c r="D85" s="6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E85" s="6" t="s">
         <v>10</v>
@@ -10523,16 +10692,16 @@
     </row>
     <row r="86" spans="1:8" ht="12.75">
       <c r="A86" s="6" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
       <c r="B86" s="10" t="s">
-        <v>182</v>
+        <v>109</v>
       </c>
       <c r="C86" s="6" t="s">
         <v>14</v>
       </c>
       <c r="D86" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E86" s="6" t="s">
         <v>10</v>
@@ -10543,13 +10712,13 @@
     </row>
     <row r="87" spans="1:8" ht="12.75">
       <c r="A87" s="6" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
       <c r="B87" s="10" t="s">
-        <v>183</v>
+        <v>191</v>
       </c>
       <c r="C87" s="6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D87" s="6" t="s">
         <v>10</v>
@@ -10563,10 +10732,10 @@
     </row>
     <row r="88" spans="1:8" ht="12.75">
       <c r="A88" s="6" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
       <c r="B88" s="10" t="s">
-        <v>184</v>
+        <v>192</v>
       </c>
       <c r="C88" s="6" t="s">
         <v>13</v>
@@ -10583,30 +10752,30 @@
     </row>
     <row r="89" spans="1:8" ht="12.75">
       <c r="A89" s="6" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
       <c r="B89" s="10" t="s">
-        <v>114</v>
+        <v>193</v>
       </c>
       <c r="C89" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D89" s="6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E89" s="6" t="s">
         <v>10</v>
       </c>
       <c r="F89" s="7"/>
-      <c r="G89" s="7"/>
-      <c r="H89" s="7"/>
+      <c r="G89" s="8"/>
+      <c r="H89" s="8"/>
     </row>
     <row r="90" spans="1:8" ht="12.75">
       <c r="A90" s="6" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
       <c r="B90" s="10" t="s">
-        <v>117</v>
+        <v>126</v>
       </c>
       <c r="C90" s="6" t="s">
         <v>14</v>
@@ -10618,21 +10787,21 @@
         <v>10</v>
       </c>
       <c r="F90" s="7"/>
-      <c r="G90" s="8"/>
-      <c r="H90" s="8"/>
+      <c r="G90" s="7"/>
+      <c r="H90" s="7"/>
     </row>
     <row r="91" spans="1:8" ht="12.75">
       <c r="A91" s="6" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
       <c r="B91" s="10" t="s">
-        <v>185</v>
+        <v>130</v>
       </c>
       <c r="C91" s="6" t="s">
         <v>14</v>
       </c>
       <c r="D91" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E91" s="6" t="s">
         <v>10</v>
@@ -10643,16 +10812,16 @@
     </row>
     <row r="92" spans="1:8" ht="12.75">
       <c r="A92" s="6" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
       <c r="B92" s="10" t="s">
-        <v>118</v>
+        <v>194</v>
       </c>
       <c r="C92" s="6" t="s">
         <v>14</v>
       </c>
       <c r="D92" s="6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E92" s="6" t="s">
         <v>10</v>
@@ -10663,10 +10832,10 @@
     </row>
     <row r="93" spans="1:8" ht="12.75">
       <c r="A93" s="6" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
       <c r="B93" s="10" t="s">
-        <v>119</v>
+        <v>127</v>
       </c>
       <c r="C93" s="6" t="s">
         <v>14</v>
@@ -10683,16 +10852,16 @@
     </row>
     <row r="94" spans="1:8" ht="12.75">
       <c r="A94" s="6" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
       <c r="B94" s="10" t="s">
-        <v>186</v>
+        <v>80</v>
       </c>
       <c r="C94" s="6" t="s">
         <v>14</v>
       </c>
       <c r="D94" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E94" s="6" t="s">
         <v>10</v>
@@ -10703,16 +10872,16 @@
     </row>
     <row r="95" spans="1:8" ht="12.75">
       <c r="A95" s="6" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
       <c r="B95" s="10" t="s">
-        <v>187</v>
+        <v>131</v>
       </c>
       <c r="C95" s="6" t="s">
         <v>14</v>
       </c>
       <c r="D95" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E95" s="6" t="s">
         <v>10</v>
@@ -10723,16 +10892,16 @@
     </row>
     <row r="96" spans="1:8" ht="12.75">
       <c r="A96" s="6" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
       <c r="B96" s="10" t="s">
-        <v>188</v>
+        <v>132</v>
       </c>
       <c r="C96" s="6" t="s">
         <v>14</v>
       </c>
       <c r="D96" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E96" s="6" t="s">
         <v>10</v>
@@ -10743,13 +10912,13 @@
     </row>
     <row r="97" spans="1:8" ht="12.75">
       <c r="A97" s="6" t="s">
-        <v>189</v>
+        <v>155</v>
       </c>
       <c r="B97" s="10" t="s">
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="C97" s="6" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D97" s="6" t="s">
         <v>10</v>
@@ -10757,19 +10926,19 @@
       <c r="E97" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="F97" s="6"/>
-      <c r="G97" s="6"/>
-      <c r="H97" s="6"/>
+      <c r="F97" s="7"/>
+      <c r="G97" s="8"/>
+      <c r="H97" s="8"/>
     </row>
     <row r="98" spans="1:8" ht="12.75">
       <c r="A98" s="6" t="s">
-        <v>189</v>
+        <v>155</v>
       </c>
       <c r="B98" s="10" t="s">
-        <v>191</v>
+        <v>196</v>
       </c>
       <c r="C98" s="6" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D98" s="6" t="s">
         <v>10</v>
@@ -10777,36 +10946,36 @@
       <c r="E98" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="F98" s="6"/>
-      <c r="G98" s="6"/>
-      <c r="H98" s="6"/>
+      <c r="F98" s="7"/>
+      <c r="G98" s="8"/>
+      <c r="H98" s="8"/>
     </row>
     <row r="99" spans="1:8" ht="12.75">
       <c r="A99" s="6" t="s">
-        <v>192</v>
+        <v>155</v>
       </c>
       <c r="B99" s="10" t="s">
-        <v>47</v>
+        <v>197</v>
       </c>
       <c r="C99" s="6" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D99" s="6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E99" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="F99" s="6"/>
-      <c r="G99" s="6"/>
-      <c r="H99" s="6"/>
+      <c r="F99" s="7"/>
+      <c r="G99" s="8"/>
+      <c r="H99" s="8"/>
     </row>
     <row r="100" spans="1:8" ht="12.75">
       <c r="A100" s="6" t="s">
-        <v>192</v>
+        <v>198</v>
       </c>
       <c r="B100" s="10" t="s">
-        <v>193</v>
+        <v>199</v>
       </c>
       <c r="C100" s="6" t="s">
         <v>12</v>
@@ -10823,10 +10992,10 @@
     </row>
     <row r="101" spans="1:8" ht="12.75">
       <c r="A101" s="6" t="s">
-        <v>192</v>
+        <v>198</v>
       </c>
       <c r="B101" s="10" t="s">
-        <v>194</v>
+        <v>200</v>
       </c>
       <c r="C101" s="6" t="s">
         <v>12</v>
@@ -10843,10 +11012,10 @@
     </row>
     <row r="102" spans="1:8" ht="12.75">
       <c r="A102" s="6" t="s">
-        <v>192</v>
+        <v>201</v>
       </c>
       <c r="B102" s="10" t="s">
-        <v>61</v>
+        <v>50</v>
       </c>
       <c r="C102" s="6" t="s">
         <v>12</v>
@@ -10863,10 +11032,10 @@
     </row>
     <row r="103" spans="1:8" ht="12.75">
       <c r="A103" s="6" t="s">
-        <v>192</v>
+        <v>201</v>
       </c>
       <c r="B103" s="10" t="s">
-        <v>195</v>
+        <v>202</v>
       </c>
       <c r="C103" s="6" t="s">
         <v>12</v>
@@ -10883,10 +11052,10 @@
     </row>
     <row r="104" spans="1:8" ht="12.75">
       <c r="A104" s="6" t="s">
-        <v>192</v>
+        <v>201</v>
       </c>
       <c r="B104" s="10" t="s">
-        <v>196</v>
+        <v>203</v>
       </c>
       <c r="C104" s="6" t="s">
         <v>12</v>
@@ -10903,16 +11072,16 @@
     </row>
     <row r="105" spans="1:8" ht="12.75">
       <c r="A105" s="6" t="s">
-        <v>192</v>
+        <v>201</v>
       </c>
       <c r="B105" s="10" t="s">
-        <v>197</v>
+        <v>66</v>
       </c>
       <c r="C105" s="6" t="s">
         <v>12</v>
       </c>
       <c r="D105" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E105" s="6" t="s">
         <v>10</v>
@@ -10923,16 +11092,16 @@
     </row>
     <row r="106" spans="1:8" ht="12.75">
       <c r="A106" s="6" t="s">
-        <v>192</v>
+        <v>201</v>
       </c>
       <c r="B106" s="10" t="s">
-        <v>83</v>
+        <v>204</v>
       </c>
       <c r="C106" s="6" t="s">
         <v>12</v>
       </c>
       <c r="D106" s="6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E106" s="6" t="s">
         <v>10</v>
@@ -10943,10 +11112,10 @@
     </row>
     <row r="107" spans="1:8" ht="12.75">
       <c r="A107" s="6" t="s">
-        <v>192</v>
+        <v>201</v>
       </c>
       <c r="B107" s="10" t="s">
-        <v>198</v>
+        <v>205</v>
       </c>
       <c r="C107" s="6" t="s">
         <v>12</v>
@@ -10963,13 +11132,13 @@
     </row>
     <row r="108" spans="1:8" ht="12.75">
       <c r="A108" s="6" t="s">
-        <v>192</v>
+        <v>201</v>
       </c>
       <c r="B108" s="10" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="C108" s="6" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D108" s="6" t="s">
         <v>9</v>
@@ -10983,16 +11152,16 @@
     </row>
     <row r="109" spans="1:8" ht="12.75">
       <c r="A109" s="6" t="s">
-        <v>192</v>
+        <v>201</v>
       </c>
       <c r="B109" s="10" t="s">
-        <v>199</v>
+        <v>92</v>
       </c>
       <c r="C109" s="6" t="s">
         <v>12</v>
       </c>
       <c r="D109" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E109" s="6" t="s">
         <v>10</v>
@@ -11003,16 +11172,16 @@
     </row>
     <row r="110" spans="1:8" ht="12.75">
       <c r="A110" s="6" t="s">
-        <v>192</v>
+        <v>201</v>
       </c>
       <c r="B110" s="10" t="s">
-        <v>103</v>
+        <v>206</v>
       </c>
       <c r="C110" s="6" t="s">
         <v>12</v>
       </c>
       <c r="D110" s="6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E110" s="6" t="s">
         <v>10</v>
@@ -11023,16 +11192,16 @@
     </row>
     <row r="111" spans="1:8" ht="12.75">
       <c r="A111" s="6" t="s">
-        <v>192</v>
+        <v>201</v>
       </c>
       <c r="B111" s="10" t="s">
-        <v>200</v>
+        <v>95</v>
       </c>
       <c r="C111" s="6" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D111" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E111" s="6" t="s">
         <v>10</v>
@@ -11043,10 +11212,10 @@
     </row>
     <row r="112" spans="1:8" ht="12.75">
       <c r="A112" s="6" t="s">
-        <v>192</v>
+        <v>201</v>
       </c>
       <c r="B112" s="10" t="s">
-        <v>201</v>
+        <v>207</v>
       </c>
       <c r="C112" s="6" t="s">
         <v>12</v>
@@ -11063,10 +11232,10 @@
     </row>
     <row r="113" spans="1:8" ht="12.75">
       <c r="A113" s="6" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B113" s="10" t="s">
-        <v>26</v>
+        <v>114</v>
       </c>
       <c r="C113" s="6" t="s">
         <v>12</v>
@@ -11083,10 +11252,10 @@
     </row>
     <row r="114" spans="1:8" ht="12.75">
       <c r="A114" s="6" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B114" s="10" t="s">
-        <v>27</v>
+        <v>122</v>
       </c>
       <c r="C114" s="6" t="s">
         <v>12</v>
@@ -11103,16 +11272,16 @@
     </row>
     <row r="115" spans="1:8" ht="12.75">
       <c r="A115" s="6" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B115" s="10" t="s">
-        <v>28</v>
+        <v>208</v>
       </c>
       <c r="C115" s="6" t="s">
         <v>12</v>
       </c>
       <c r="D115" s="6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E115" s="6" t="s">
         <v>10</v>
@@ -11123,10 +11292,10 @@
     </row>
     <row r="116" spans="1:8" ht="12.75">
       <c r="A116" s="6" t="s">
-        <v>202</v>
+        <v>209</v>
       </c>
       <c r="B116" s="10" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="C116" s="6" t="s">
         <v>12</v>
@@ -11143,16 +11312,16 @@
     </row>
     <row r="117" spans="1:8" ht="12.75">
       <c r="A117" s="6" t="s">
-        <v>202</v>
+        <v>209</v>
       </c>
       <c r="B117" s="10" t="s">
-        <v>203</v>
+        <v>29</v>
       </c>
       <c r="C117" s="6" t="s">
         <v>12</v>
       </c>
       <c r="D117" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E117" s="6" t="s">
         <v>10</v>
@@ -11163,16 +11332,16 @@
     </row>
     <row r="118" spans="1:8" ht="12.75">
       <c r="A118" s="6" t="s">
-        <v>202</v>
+        <v>209</v>
       </c>
       <c r="B118" s="10" t="s">
-        <v>204</v>
+        <v>30</v>
       </c>
       <c r="C118" s="6" t="s">
         <v>12</v>
       </c>
       <c r="D118" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E118" s="6" t="s">
         <v>10</v>
@@ -11183,16 +11352,16 @@
     </row>
     <row r="119" spans="1:8" ht="12.75">
       <c r="A119" s="6" t="s">
-        <v>202</v>
+        <v>209</v>
       </c>
       <c r="B119" s="10" t="s">
-        <v>205</v>
+        <v>38</v>
       </c>
       <c r="C119" s="6" t="s">
         <v>12</v>
       </c>
       <c r="D119" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E119" s="6" t="s">
         <v>10</v>
@@ -11203,13 +11372,13 @@
     </row>
     <row r="120" spans="1:8" ht="12.75">
       <c r="A120" s="6" t="s">
-        <v>202</v>
+        <v>209</v>
       </c>
       <c r="B120" s="10" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="C120" s="6" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D120" s="6" t="s">
         <v>10</v>
@@ -11223,10 +11392,10 @@
     </row>
     <row r="121" spans="1:8" ht="12.75">
       <c r="A121" s="6" t="s">
-        <v>202</v>
+        <v>209</v>
       </c>
       <c r="B121" s="10" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="C121" s="6" t="s">
         <v>12</v>
@@ -11243,16 +11412,16 @@
     </row>
     <row r="122" spans="1:8" ht="12.75">
       <c r="A122" s="6" t="s">
-        <v>202</v>
+        <v>209</v>
       </c>
       <c r="B122" s="10" t="s">
-        <v>70</v>
+        <v>212</v>
       </c>
       <c r="C122" s="6" t="s">
         <v>12</v>
       </c>
       <c r="D122" s="6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E122" s="6" t="s">
         <v>10</v>
@@ -11263,13 +11432,13 @@
     </row>
     <row r="123" spans="1:8" ht="12.75">
       <c r="A123" s="6" t="s">
-        <v>202</v>
+        <v>209</v>
       </c>
       <c r="B123" s="10" t="s">
-        <v>72</v>
+        <v>57</v>
       </c>
       <c r="C123" s="6" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D123" s="6" t="s">
         <v>9</v>
@@ -11283,16 +11452,16 @@
     </row>
     <row r="124" spans="1:8" ht="12.75">
       <c r="A124" s="6" t="s">
-        <v>202</v>
+        <v>209</v>
       </c>
       <c r="B124" s="10" t="s">
-        <v>77</v>
+        <v>213</v>
       </c>
       <c r="C124" s="6" t="s">
         <v>12</v>
       </c>
       <c r="D124" s="6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E124" s="6" t="s">
         <v>10</v>
@@ -11303,16 +11472,16 @@
     </row>
     <row r="125" spans="1:8" ht="12.75">
       <c r="A125" s="6" t="s">
-        <v>202</v>
+        <v>209</v>
       </c>
       <c r="B125" s="10" t="s">
-        <v>208</v>
+        <v>77</v>
       </c>
       <c r="C125" s="6" t="s">
         <v>12</v>
       </c>
       <c r="D125" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E125" s="6" t="s">
         <v>10</v>
@@ -11323,16 +11492,16 @@
     </row>
     <row r="126" spans="1:8" ht="12.75">
       <c r="A126" s="6" t="s">
-        <v>202</v>
+        <v>209</v>
       </c>
       <c r="B126" s="10" t="s">
-        <v>209</v>
+        <v>79</v>
       </c>
       <c r="C126" s="6" t="s">
         <v>12</v>
       </c>
       <c r="D126" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E126" s="6" t="s">
         <v>10</v>
@@ -11343,10 +11512,10 @@
     </row>
     <row r="127" spans="1:8" ht="12.75">
       <c r="A127" s="6" t="s">
-        <v>202</v>
+        <v>209</v>
       </c>
       <c r="B127" s="10" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="C127" s="6" t="s">
         <v>12</v>
@@ -11363,10 +11532,10 @@
     </row>
     <row r="128" spans="1:8" ht="12.75">
       <c r="A128" s="6" t="s">
-        <v>202</v>
+        <v>209</v>
       </c>
       <c r="B128" s="10" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="C128" s="6" t="s">
         <v>12</v>
@@ -11383,16 +11552,16 @@
     </row>
     <row r="129" spans="1:8" ht="12.75">
       <c r="A129" s="6" t="s">
-        <v>202</v>
+        <v>209</v>
       </c>
       <c r="B129" s="10" t="s">
-        <v>102</v>
+        <v>214</v>
       </c>
       <c r="C129" s="6" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D129" s="6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E129" s="6" t="s">
         <v>10</v>
@@ -11403,10 +11572,10 @@
     </row>
     <row r="130" spans="1:8" ht="12.75">
       <c r="A130" s="6" t="s">
-        <v>202</v>
+        <v>209</v>
       </c>
       <c r="B130" s="10" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="C130" s="6" t="s">
         <v>12</v>
@@ -11423,16 +11592,16 @@
     </row>
     <row r="131" spans="1:8" ht="12.75">
       <c r="A131" s="6" t="s">
-        <v>202</v>
+        <v>209</v>
       </c>
       <c r="B131" s="10" t="s">
-        <v>210</v>
+        <v>104</v>
       </c>
       <c r="C131" s="6" t="s">
         <v>12</v>
       </c>
       <c r="D131" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E131" s="6" t="s">
         <v>10</v>
@@ -11443,16 +11612,16 @@
     </row>
     <row r="132" spans="1:8" ht="12.75">
       <c r="A132" s="6" t="s">
-        <v>202</v>
+        <v>209</v>
       </c>
       <c r="B132" s="10" t="s">
-        <v>211</v>
+        <v>113</v>
       </c>
       <c r="C132" s="6" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D132" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E132" s="6" t="s">
         <v>10</v>
@@ -11463,16 +11632,16 @@
     </row>
     <row r="133" spans="1:8" ht="12.75">
       <c r="A133" s="6" t="s">
-        <v>202</v>
+        <v>209</v>
       </c>
       <c r="B133" s="10" t="s">
-        <v>212</v>
+        <v>121</v>
       </c>
       <c r="C133" s="6" t="s">
         <v>12</v>
       </c>
       <c r="D133" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E133" s="6" t="s">
         <v>10</v>
@@ -11483,10 +11652,10 @@
     </row>
     <row r="134" spans="1:8" ht="12.75">
       <c r="A134" s="6" t="s">
-        <v>202</v>
+        <v>209</v>
       </c>
       <c r="B134" s="10" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="C134" s="6" t="s">
         <v>12</v>
@@ -11503,10 +11672,10 @@
     </row>
     <row r="135" spans="1:8" ht="12.75">
       <c r="A135" s="6" t="s">
-        <v>202</v>
+        <v>209</v>
       </c>
       <c r="B135" s="10" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="C135" s="6" t="s">
         <v>12</v>
@@ -11523,10 +11692,10 @@
     </row>
     <row r="136" spans="1:8" ht="12.75">
       <c r="A136" s="6" t="s">
-        <v>202</v>
+        <v>209</v>
       </c>
       <c r="B136" s="10" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="C136" s="6" t="s">
         <v>12</v>
@@ -11543,10 +11712,10 @@
     </row>
     <row r="137" spans="1:8" ht="12.75">
       <c r="A137" s="6" t="s">
-        <v>202</v>
+        <v>209</v>
       </c>
       <c r="B137" s="10" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="C137" s="6" t="s">
         <v>12</v>
@@ -11563,16 +11732,16 @@
     </row>
     <row r="138" spans="1:8" ht="12.75">
       <c r="A138" s="6" t="s">
-        <v>202</v>
+        <v>209</v>
       </c>
       <c r="B138" s="10" t="s">
-        <v>125</v>
+        <v>219</v>
       </c>
       <c r="C138" s="6" t="s">
         <v>12</v>
       </c>
       <c r="D138" s="6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E138" s="6" t="s">
         <v>10</v>
@@ -11583,16 +11752,16 @@
     </row>
     <row r="139" spans="1:8" ht="12.75">
       <c r="A139" s="6" t="s">
-        <v>217</v>
+        <v>209</v>
       </c>
       <c r="B139" s="10" t="s">
-        <v>30</v>
+        <v>220</v>
       </c>
       <c r="C139" s="6" t="s">
         <v>12</v>
       </c>
       <c r="D139" s="6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E139" s="6" t="s">
         <v>10</v>
@@ -11603,16 +11772,16 @@
     </row>
     <row r="140" spans="1:8" ht="12.75">
       <c r="A140" s="6" t="s">
-        <v>217</v>
+        <v>209</v>
       </c>
       <c r="B140" s="10" t="s">
-        <v>33</v>
+        <v>221</v>
       </c>
       <c r="C140" s="6" t="s">
         <v>12</v>
       </c>
       <c r="D140" s="6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E140" s="6" t="s">
         <v>10</v>
@@ -11623,16 +11792,16 @@
     </row>
     <row r="141" spans="1:8" ht="12.75">
       <c r="A141" s="6" t="s">
-        <v>217</v>
+        <v>209</v>
       </c>
       <c r="B141" s="10" t="s">
-        <v>218</v>
+        <v>139</v>
       </c>
       <c r="C141" s="6" t="s">
         <v>12</v>
       </c>
       <c r="D141" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E141" s="6" t="s">
         <v>10</v>
@@ -11643,10 +11812,10 @@
     </row>
     <row r="142" spans="1:8" ht="12.75">
       <c r="A142" s="6" t="s">
-        <v>217</v>
+        <v>222</v>
       </c>
       <c r="B142" s="10" t="s">
-        <v>53</v>
+        <v>32</v>
       </c>
       <c r="C142" s="6" t="s">
         <v>12</v>
@@ -11663,13 +11832,13 @@
     </row>
     <row r="143" spans="1:8" ht="12.75">
       <c r="A143" s="6" t="s">
-        <v>217</v>
+        <v>222</v>
       </c>
       <c r="B143" s="10" t="s">
-        <v>56</v>
+        <v>35</v>
       </c>
       <c r="C143" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D143" s="6" t="s">
         <v>9</v>
@@ -11683,10 +11852,10 @@
     </row>
     <row r="144" spans="1:8" ht="12.75">
       <c r="A144" s="6" t="s">
-        <v>217</v>
+        <v>222</v>
       </c>
       <c r="B144" s="10" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="C144" s="6" t="s">
         <v>12</v>
@@ -11703,16 +11872,16 @@
     </row>
     <row r="145" spans="1:8" ht="12.75">
       <c r="A145" s="6" t="s">
-        <v>217</v>
+        <v>222</v>
       </c>
       <c r="B145" s="10" t="s">
-        <v>220</v>
+        <v>56</v>
       </c>
       <c r="C145" s="6" t="s">
         <v>12</v>
       </c>
       <c r="D145" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E145" s="6" t="s">
         <v>10</v>
@@ -11723,16 +11892,16 @@
     </row>
     <row r="146" spans="1:8" ht="12.75">
       <c r="A146" s="6" t="s">
-        <v>217</v>
+        <v>222</v>
       </c>
       <c r="B146" s="10" t="s">
-        <v>221</v>
+        <v>60</v>
       </c>
       <c r="C146" s="6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D146" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E146" s="6" t="s">
         <v>10</v>
@@ -11743,16 +11912,16 @@
     </row>
     <row r="147" spans="1:8" ht="12.75">
       <c r="A147" s="6" t="s">
-        <v>217</v>
+        <v>222</v>
       </c>
       <c r="B147" s="10" t="s">
-        <v>68</v>
+        <v>224</v>
       </c>
       <c r="C147" s="6" t="s">
         <v>12</v>
       </c>
       <c r="D147" s="6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E147" s="6" t="s">
         <v>10</v>
@@ -11763,16 +11932,16 @@
     </row>
     <row r="148" spans="1:8" ht="12.75">
       <c r="A148" s="6" t="s">
-        <v>217</v>
+        <v>222</v>
       </c>
       <c r="B148" s="10" t="s">
-        <v>78</v>
+        <v>225</v>
       </c>
       <c r="C148" s="6" t="s">
         <v>12</v>
       </c>
       <c r="D148" s="6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E148" s="6" t="s">
         <v>10</v>
@@ -11783,16 +11952,16 @@
     </row>
     <row r="149" spans="1:8" ht="12.75">
       <c r="A149" s="6" t="s">
-        <v>217</v>
+        <v>222</v>
       </c>
       <c r="B149" s="10" t="s">
-        <v>79</v>
+        <v>226</v>
       </c>
       <c r="C149" s="6" t="s">
         <v>12</v>
       </c>
       <c r="D149" s="6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E149" s="6" t="s">
         <v>10</v>
@@ -11803,16 +11972,16 @@
     </row>
     <row r="150" spans="1:8" ht="12.75">
       <c r="A150" s="6" t="s">
-        <v>217</v>
+        <v>222</v>
       </c>
       <c r="B150" s="10" t="s">
-        <v>222</v>
+        <v>75</v>
       </c>
       <c r="C150" s="6" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D150" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E150" s="6" t="s">
         <v>10</v>
@@ -11823,16 +11992,16 @@
     </row>
     <row r="151" spans="1:8" ht="12.75">
       <c r="A151" s="6" t="s">
-        <v>217</v>
+        <v>222</v>
       </c>
       <c r="B151" s="10" t="s">
-        <v>223</v>
+        <v>86</v>
       </c>
       <c r="C151" s="6" t="s">
         <v>12</v>
       </c>
       <c r="D151" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E151" s="6" t="s">
         <v>10</v>
@@ -11843,16 +12012,16 @@
     </row>
     <row r="152" spans="1:8" ht="12.75">
       <c r="A152" s="6" t="s">
-        <v>217</v>
+        <v>222</v>
       </c>
       <c r="B152" s="10" t="s">
-        <v>224</v>
+        <v>87</v>
       </c>
       <c r="C152" s="6" t="s">
         <v>12</v>
       </c>
       <c r="D152" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E152" s="6" t="s">
         <v>10</v>
@@ -11863,16 +12032,16 @@
     </row>
     <row r="153" spans="1:8" ht="12.75">
       <c r="A153" s="6" t="s">
-        <v>217</v>
+        <v>222</v>
       </c>
       <c r="B153" s="10" t="s">
-        <v>89</v>
+        <v>227</v>
       </c>
       <c r="C153" s="6" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D153" s="6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E153" s="6" t="s">
         <v>10</v>
@@ -11883,10 +12052,10 @@
     </row>
     <row r="154" spans="1:8" ht="12.75">
       <c r="A154" s="6" t="s">
-        <v>217</v>
+        <v>222</v>
       </c>
       <c r="B154" s="10" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="C154" s="6" t="s">
         <v>12</v>
@@ -11903,13 +12072,13 @@
     </row>
     <row r="155" spans="1:8" ht="12.75">
       <c r="A155" s="6" t="s">
-        <v>217</v>
+        <v>222</v>
       </c>
       <c r="B155" s="10" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="C155" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D155" s="6" t="s">
         <v>10</v>
@@ -11923,13 +12092,13 @@
     </row>
     <row r="156" spans="1:8" ht="12.75">
       <c r="A156" s="6" t="s">
-        <v>217</v>
+        <v>222</v>
       </c>
       <c r="B156" s="10" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="C156" s="6" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D156" s="6" t="s">
         <v>9</v>
@@ -11943,16 +12112,16 @@
     </row>
     <row r="157" spans="1:8" ht="12.75">
       <c r="A157" s="6" t="s">
-        <v>217</v>
+        <v>222</v>
       </c>
       <c r="B157" s="10" t="s">
-        <v>95</v>
+        <v>230</v>
       </c>
       <c r="C157" s="6" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D157" s="6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E157" s="6" t="s">
         <v>10</v>
@@ -11963,13 +12132,13 @@
     </row>
     <row r="158" spans="1:8" ht="12.75">
       <c r="A158" s="6" t="s">
-        <v>217</v>
+        <v>222</v>
       </c>
       <c r="B158" s="10" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="C158" s="6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D158" s="6" t="s">
         <v>10</v>
@@ -11983,16 +12152,16 @@
     </row>
     <row r="159" spans="1:8" ht="12.75">
       <c r="A159" s="6" t="s">
-        <v>217</v>
+        <v>222</v>
       </c>
       <c r="B159" s="10" t="s">
-        <v>228</v>
+        <v>105</v>
       </c>
       <c r="C159" s="6" t="s">
         <v>14</v>
       </c>
       <c r="D159" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E159" s="6" t="s">
         <v>10</v>
@@ -12003,13 +12172,13 @@
     </row>
     <row r="160" spans="1:8" ht="12.75">
       <c r="A160" s="6" t="s">
-        <v>217</v>
+        <v>222</v>
       </c>
       <c r="B160" s="10" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C160" s="6" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D160" s="6" t="s">
         <v>9</v>
@@ -12023,16 +12192,16 @@
     </row>
     <row r="161" spans="1:8" ht="12.75">
       <c r="A161" s="6" t="s">
-        <v>217</v>
+        <v>222</v>
       </c>
       <c r="B161" s="10" t="s">
-        <v>106</v>
+        <v>232</v>
       </c>
       <c r="C161" s="6" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D161" s="6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E161" s="6" t="s">
         <v>10</v>
@@ -12043,16 +12212,16 @@
     </row>
     <row r="162" spans="1:8" ht="12.75">
       <c r="A162" s="6" t="s">
-        <v>217</v>
+        <v>222</v>
       </c>
       <c r="B162" s="10" t="s">
-        <v>109</v>
+        <v>233</v>
       </c>
       <c r="C162" s="6" t="s">
         <v>14</v>
       </c>
       <c r="D162" s="6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E162" s="6" t="s">
         <v>10</v>
@@ -12063,10 +12232,10 @@
     </row>
     <row r="163" spans="1:8" ht="12.75">
       <c r="A163" s="6" t="s">
-        <v>217</v>
+        <v>222</v>
       </c>
       <c r="B163" s="10" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="C163" s="6" t="s">
         <v>12</v>
@@ -12083,16 +12252,16 @@
     </row>
     <row r="164" spans="1:8" ht="12.75">
       <c r="A164" s="6" t="s">
-        <v>217</v>
+        <v>222</v>
       </c>
       <c r="B164" s="10" t="s">
-        <v>229</v>
+        <v>117</v>
       </c>
       <c r="C164" s="6" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D164" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E164" s="6" t="s">
         <v>10</v>
@@ -12103,13 +12272,13 @@
     </row>
     <row r="165" spans="1:8" ht="12.75">
       <c r="A165" s="6" t="s">
-        <v>217</v>
+        <v>222</v>
       </c>
       <c r="B165" s="10" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C165" s="6" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D165" s="6" t="s">
         <v>9</v>
@@ -12123,7 +12292,7 @@
     </row>
     <row r="166" spans="1:8" ht="12.75">
       <c r="A166" s="6" t="s">
-        <v>217</v>
+        <v>222</v>
       </c>
       <c r="B166" s="10" t="s">
         <v>123</v>
@@ -12143,10 +12312,10 @@
     </row>
     <row r="167" spans="1:8" ht="12.75">
       <c r="A167" s="6" t="s">
-        <v>217</v>
+        <v>222</v>
       </c>
       <c r="B167" s="10" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="C167" s="6" t="s">
         <v>12</v>
@@ -12163,16 +12332,16 @@
     </row>
     <row r="168" spans="1:8" ht="12.75">
       <c r="A168" s="6" t="s">
-        <v>217</v>
+        <v>222</v>
       </c>
       <c r="B168" s="10" t="s">
-        <v>231</v>
+        <v>135</v>
       </c>
       <c r="C168" s="6" t="s">
         <v>12</v>
       </c>
       <c r="D168" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E168" s="6" t="s">
         <v>10</v>
@@ -12183,10 +12352,10 @@
     </row>
     <row r="169" spans="1:8" ht="12.75">
       <c r="A169" s="6" t="s">
-        <v>232</v>
+        <v>222</v>
       </c>
       <c r="B169" s="10" t="s">
-        <v>24</v>
+        <v>136</v>
       </c>
       <c r="C169" s="6" t="s">
         <v>12</v>
@@ -12203,16 +12372,16 @@
     </row>
     <row r="170" spans="1:8" ht="12.75">
       <c r="A170" s="6" t="s">
-        <v>232</v>
+        <v>222</v>
       </c>
       <c r="B170" s="10" t="s">
-        <v>29</v>
+        <v>235</v>
       </c>
       <c r="C170" s="6" t="s">
         <v>12</v>
       </c>
       <c r="D170" s="6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E170" s="6" t="s">
         <v>10</v>
@@ -12223,10 +12392,10 @@
     </row>
     <row r="171" spans="1:8" ht="12.75">
       <c r="A171" s="6" t="s">
-        <v>232</v>
+        <v>222</v>
       </c>
       <c r="B171" s="10" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="C171" s="6" t="s">
         <v>12</v>
@@ -12243,16 +12412,16 @@
     </row>
     <row r="172" spans="1:8" ht="12.75">
       <c r="A172" s="6" t="s">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="B172" s="10" t="s">
-        <v>234</v>
+        <v>25</v>
       </c>
       <c r="C172" s="6" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D172" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E172" s="6" t="s">
         <v>10</v>
@@ -12263,10 +12432,10 @@
     </row>
     <row r="173" spans="1:8" ht="12.75">
       <c r="A173" s="6" t="s">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="B173" s="10" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="C173" s="6" t="s">
         <v>12</v>
@@ -12283,10 +12452,10 @@
     </row>
     <row r="174" spans="1:8" ht="12.75">
       <c r="A174" s="6" t="s">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="B174" s="10" t="s">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="C174" s="6" t="s">
         <v>12</v>
@@ -12303,13 +12472,13 @@
     </row>
     <row r="175" spans="1:8" ht="12.75">
       <c r="A175" s="6" t="s">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="B175" s="10" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="C175" s="6" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D175" s="6" t="s">
         <v>10</v>
@@ -12323,10 +12492,10 @@
     </row>
     <row r="176" spans="1:8" ht="12.75">
       <c r="A176" s="6" t="s">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="B176" s="10" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="C176" s="6" t="s">
         <v>12</v>
@@ -12343,16 +12512,16 @@
     </row>
     <row r="177" spans="1:8" ht="12.75">
       <c r="A177" s="6" t="s">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="B177" s="10" t="s">
-        <v>236</v>
+        <v>53</v>
       </c>
       <c r="C177" s="6" t="s">
         <v>12</v>
       </c>
       <c r="D177" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E177" s="6" t="s">
         <v>10</v>
@@ -12363,10 +12532,10 @@
     </row>
     <row r="178" spans="1:8" ht="12.75">
       <c r="A178" s="6" t="s">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="B178" s="10" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="C178" s="6" t="s">
         <v>12</v>
@@ -12383,10 +12552,10 @@
     </row>
     <row r="179" spans="1:8" ht="12.75">
       <c r="A179" s="6" t="s">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="B179" s="10" t="s">
-        <v>88</v>
+        <v>62</v>
       </c>
       <c r="C179" s="6" t="s">
         <v>12</v>
@@ -12403,10 +12572,10 @@
     </row>
     <row r="180" spans="1:8" ht="12.75">
       <c r="A180" s="6" t="s">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="B180" s="10" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="C180" s="6" t="s">
         <v>12</v>
@@ -12423,16 +12592,16 @@
     </row>
     <row r="181" spans="1:8" ht="12.75">
       <c r="A181" s="6" t="s">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="B181" s="10" t="s">
-        <v>100</v>
+        <v>241</v>
       </c>
       <c r="C181" s="6" t="s">
         <v>12</v>
       </c>
       <c r="D181" s="6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E181" s="6" t="s">
         <v>10</v>
@@ -12443,10 +12612,10 @@
     </row>
     <row r="182" spans="1:8" ht="12.75">
       <c r="A182" s="6" t="s">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="B182" s="10" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="C182" s="6" t="s">
         <v>12</v>
@@ -12463,13 +12632,13 @@
     </row>
     <row r="183" spans="1:8" ht="12.75">
       <c r="A183" s="6" t="s">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="B183" s="10" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="C183" s="6" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D183" s="6" t="s">
         <v>10</v>
@@ -12483,10 +12652,10 @@
     </row>
     <row r="184" spans="1:8" ht="12.75">
       <c r="A184" s="6" t="s">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="B184" s="10" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C184" s="6" t="s">
         <v>12</v>
@@ -12503,16 +12672,16 @@
     </row>
     <row r="185" spans="1:8" ht="12.75">
       <c r="A185" s="6" t="s">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="B185" s="10" t="s">
-        <v>240</v>
+        <v>112</v>
       </c>
       <c r="C185" s="6" t="s">
         <v>12</v>
       </c>
       <c r="D185" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E185" s="6" t="s">
         <v>10</v>
@@ -12523,10 +12692,10 @@
     </row>
     <row r="186" spans="1:8" ht="12.75">
       <c r="A186" s="6" t="s">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="B186" s="10" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="C186" s="6" t="s">
         <v>14</v>
@@ -12543,13 +12712,13 @@
     </row>
     <row r="187" spans="1:8" ht="12.75">
       <c r="A187" s="6" t="s">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="B187" s="10" t="s">
         <v>124</v>
       </c>
       <c r="C187" s="6" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D187" s="6" t="s">
         <v>9</v>
@@ -12563,10 +12732,10 @@
     </row>
     <row r="188" spans="1:8" ht="12.75">
       <c r="A188" s="6" t="s">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="B188" s="10" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="C188" s="6" t="s">
         <v>12</v>
@@ -12583,13 +12752,13 @@
     </row>
     <row r="189" spans="1:8" ht="12.75">
       <c r="A189" s="6" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="B189" s="10" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="C189" s="6" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D189" s="6" t="s">
         <v>10</v>
@@ -12603,13 +12772,13 @@
     </row>
     <row r="190" spans="1:8" ht="12.75">
       <c r="A190" s="6" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="B190" s="10" t="s">
-        <v>45</v>
+        <v>137</v>
       </c>
       <c r="C190" s="6" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D190" s="6" t="s">
         <v>9</v>
@@ -12623,16 +12792,16 @@
     </row>
     <row r="191" spans="1:8" ht="12.75">
       <c r="A191" s="6" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="B191" s="10" t="s">
-        <v>245</v>
+        <v>138</v>
       </c>
       <c r="C191" s="6" t="s">
         <v>12</v>
       </c>
       <c r="D191" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E191" s="6" t="s">
         <v>10</v>
@@ -12643,16 +12812,16 @@
     </row>
     <row r="192" spans="1:8" ht="12.75">
       <c r="A192" s="6" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="B192" s="10" t="s">
-        <v>62</v>
+        <v>247</v>
       </c>
       <c r="C192" s="6" t="s">
         <v>12</v>
       </c>
       <c r="D192" s="6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E192" s="6" t="s">
         <v>10</v>
@@ -12663,16 +12832,16 @@
     </row>
     <row r="193" spans="1:8" ht="12.75">
       <c r="A193" s="6" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="B193" s="10" t="s">
-        <v>246</v>
+        <v>48</v>
       </c>
       <c r="C193" s="6" t="s">
         <v>12</v>
       </c>
       <c r="D193" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E193" s="6" t="s">
         <v>10</v>
@@ -12683,16 +12852,16 @@
     </row>
     <row r="194" spans="1:8" ht="12.75">
       <c r="A194" s="6" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="B194" s="10" t="s">
-        <v>97</v>
+        <v>248</v>
       </c>
       <c r="C194" s="6" t="s">
         <v>12</v>
       </c>
       <c r="D194" s="6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E194" s="6" t="s">
         <v>10</v>
@@ -12703,10 +12872,10 @@
     </row>
     <row r="195" spans="1:8" ht="12.75">
       <c r="A195" s="6" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="B195" s="10" t="s">
-        <v>99</v>
+        <v>67</v>
       </c>
       <c r="C195" s="6" t="s">
         <v>12</v>
@@ -12723,16 +12892,16 @@
     </row>
     <row r="196" spans="1:8" ht="12.75">
       <c r="A196" s="6" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="B196" s="10" t="s">
-        <v>108</v>
+        <v>249</v>
       </c>
       <c r="C196" s="6" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D196" s="6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E196" s="6" t="s">
         <v>10</v>
@@ -12743,10 +12912,10 @@
     </row>
     <row r="197" spans="1:8" ht="12.75">
       <c r="A197" s="6" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="B197" s="10" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="C197" s="6" t="s">
         <v>12</v>
@@ -12763,10 +12932,10 @@
     </row>
     <row r="198" spans="1:8" ht="12.75">
       <c r="A198" s="6" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="B198" s="10" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="C198" s="6" t="s">
         <v>12</v>
@@ -12783,16 +12952,16 @@
     </row>
     <row r="199" spans="1:8" ht="12.75">
       <c r="A199" s="6" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="B199" s="10" t="s">
-        <v>247</v>
+        <v>119</v>
       </c>
       <c r="C199" s="6" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D199" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E199" s="6" t="s">
         <v>10</v>
@@ -12803,16 +12972,16 @@
     </row>
     <row r="200" spans="1:8" ht="12.75">
       <c r="A200" s="6" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="B200" s="10" t="s">
-        <v>248</v>
+        <v>125</v>
       </c>
       <c r="C200" s="6" t="s">
         <v>12</v>
       </c>
       <c r="D200" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E200" s="6" t="s">
         <v>10</v>
@@ -12823,16 +12992,16 @@
     </row>
     <row r="201" spans="1:8" ht="12.75">
       <c r="A201" s="6" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="B201" s="10" t="s">
-        <v>249</v>
+        <v>129</v>
       </c>
       <c r="C201" s="6" t="s">
         <v>12</v>
       </c>
       <c r="D201" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E201" s="6" t="s">
         <v>10</v>
@@ -12843,16 +13012,16 @@
     </row>
     <row r="202" spans="1:8" ht="12.75">
       <c r="A202" s="6" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="B202" s="10" t="s">
-        <v>126</v>
+        <v>250</v>
       </c>
       <c r="C202" s="6" t="s">
         <v>12</v>
       </c>
       <c r="D202" s="6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E202" s="6" t="s">
         <v>10</v>
@@ -12861,9 +13030,9 @@
       <c r="G202" s="6"/>
       <c r="H202" s="6"/>
     </row>
-    <row r="203" spans="1:8" ht="24">
+    <row r="203" spans="1:8" ht="12.75">
       <c r="A203" s="6" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="B203" s="10" t="s">
         <v>251</v>
@@ -12881,18 +13050,18 @@
       <c r="G203" s="6"/>
       <c r="H203" s="6"/>
     </row>
-    <row r="204" spans="1:8" ht="24">
+    <row r="204" spans="1:8" ht="12.75">
       <c r="A204" s="6" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="B204" s="10" t="s">
-        <v>31</v>
+        <v>252</v>
       </c>
       <c r="C204" s="6" t="s">
         <v>12</v>
       </c>
       <c r="D204" s="6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E204" s="6" t="s">
         <v>10</v>
@@ -12901,12 +13070,12 @@
       <c r="G204" s="6"/>
       <c r="H204" s="6"/>
     </row>
-    <row r="205" spans="1:8" ht="24">
+    <row r="205" spans="1:8" ht="12.75">
       <c r="A205" s="6" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="B205" s="10" t="s">
-        <v>37</v>
+        <v>140</v>
       </c>
       <c r="C205" s="6" t="s">
         <v>12</v>
@@ -12923,16 +13092,16 @@
     </row>
     <row r="206" spans="1:8" ht="24">
       <c r="A206" s="6" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="B206" s="10" t="s">
-        <v>51</v>
+        <v>254</v>
       </c>
       <c r="C206" s="6" t="s">
         <v>12</v>
       </c>
       <c r="D206" s="6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E206" s="6" t="s">
         <v>10</v>
@@ -12943,16 +13112,16 @@
     </row>
     <row r="207" spans="1:8" ht="24">
       <c r="A207" s="6" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="B207" s="10" t="s">
-        <v>252</v>
+        <v>33</v>
       </c>
       <c r="C207" s="6" t="s">
         <v>12</v>
       </c>
       <c r="D207" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E207" s="6" t="s">
         <v>10</v>
@@ -12963,16 +13132,16 @@
     </row>
     <row r="208" spans="1:8" ht="24">
       <c r="A208" s="6" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="B208" s="10" t="s">
-        <v>253</v>
+        <v>40</v>
       </c>
       <c r="C208" s="6" t="s">
         <v>12</v>
       </c>
       <c r="D208" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E208" s="6" t="s">
         <v>10</v>
@@ -12983,10 +13152,10 @@
     </row>
     <row r="209" spans="1:8" ht="24">
       <c r="A209" s="6" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="B209" s="10" t="s">
-        <v>69</v>
+        <v>54</v>
       </c>
       <c r="C209" s="6" t="s">
         <v>12</v>
@@ -13003,16 +13172,16 @@
     </row>
     <row r="210" spans="1:8" ht="24">
       <c r="A210" s="6" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="B210" s="10" t="s">
-        <v>73</v>
+        <v>255</v>
       </c>
       <c r="C210" s="6" t="s">
         <v>12</v>
       </c>
       <c r="D210" s="6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E210" s="6" t="s">
         <v>10</v>
@@ -13023,16 +13192,16 @@
     </row>
     <row r="211" spans="1:8" ht="24">
       <c r="A211" s="6" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="B211" s="10" t="s">
-        <v>75</v>
+        <v>256</v>
       </c>
       <c r="C211" s="6" t="s">
         <v>12</v>
       </c>
       <c r="D211" s="6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E211" s="6" t="s">
         <v>10</v>
@@ -13043,10 +13212,10 @@
     </row>
     <row r="212" spans="1:8" ht="24">
       <c r="A212" s="6" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="B212" s="10" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="C212" s="6" t="s">
         <v>12</v>
@@ -13063,10 +13232,10 @@
     </row>
     <row r="213" spans="1:8" ht="24">
       <c r="A213" s="6" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="B213" s="10" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="C213" s="6" t="s">
         <v>12</v>
@@ -13083,16 +13252,16 @@
     </row>
     <row r="214" spans="1:8" ht="24">
       <c r="A214" s="6" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="B214" s="10" t="s">
-        <v>254</v>
+        <v>83</v>
       </c>
       <c r="C214" s="6" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D214" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E214" s="6" t="s">
         <v>10</v>
@@ -13103,13 +13272,13 @@
     </row>
     <row r="215" spans="1:8" ht="24">
       <c r="A215" s="6" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="B215" s="10" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="C215" s="6" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D215" s="6" t="s">
         <v>9</v>
@@ -13123,10 +13292,10 @@
     </row>
     <row r="216" spans="1:8" ht="24">
       <c r="A216" s="6" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="B216" s="10" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="C216" s="6" t="s">
         <v>12</v>
@@ -13143,16 +13312,16 @@
     </row>
     <row r="217" spans="1:8" ht="24">
       <c r="A217" s="6" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="B217" s="10" t="s">
-        <v>96</v>
+        <v>257</v>
       </c>
       <c r="C217" s="6" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D217" s="6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E217" s="6" t="s">
         <v>10</v>
@@ -13163,16 +13332,16 @@
     </row>
     <row r="218" spans="1:8" ht="24">
       <c r="A218" s="6" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="B218" s="10" t="s">
-        <v>255</v>
+        <v>94</v>
       </c>
       <c r="C218" s="6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D218" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E218" s="6" t="s">
         <v>10</v>
@@ -13183,10 +13352,10 @@
     </row>
     <row r="219" spans="1:8" ht="24">
       <c r="A219" s="6" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="B219" s="10" t="s">
-        <v>120</v>
+        <v>101</v>
       </c>
       <c r="C219" s="6" t="s">
         <v>12</v>
@@ -13203,16 +13372,16 @@
     </row>
     <row r="220" spans="1:8" ht="24">
       <c r="A220" s="6" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="B220" s="10" t="s">
-        <v>256</v>
+        <v>107</v>
       </c>
       <c r="C220" s="6" t="s">
         <v>12</v>
       </c>
       <c r="D220" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E220" s="6" t="s">
         <v>10</v>
@@ -13223,16 +13392,16 @@
     </row>
     <row r="221" spans="1:8" ht="24">
       <c r="A221" s="6" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="B221" s="10" t="s">
-        <v>127</v>
+        <v>258</v>
       </c>
       <c r="C221" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D221" s="6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E221" s="6" t="s">
         <v>10</v>
@@ -13241,35 +13410,65 @@
       <c r="G221" s="6"/>
       <c r="H221" s="6"/>
     </row>
-    <row r="222" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A222" s="9"/>
-      <c r="B222" s="9"/>
-      <c r="C222" s="9"/>
-      <c r="D222" s="9"/>
-      <c r="E222" s="9"/>
-      <c r="F222" s="9"/>
-      <c r="G222" s="9"/>
-      <c r="H222" s="9"/>
-    </row>
-    <row r="223" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A223" s="9"/>
-      <c r="B223" s="9"/>
-      <c r="C223" s="9"/>
-      <c r="D223" s="9"/>
-      <c r="E223" s="9"/>
-      <c r="F223" s="9"/>
-      <c r="G223" s="9"/>
-      <c r="H223" s="9"/>
-    </row>
-    <row r="224" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A224" s="9"/>
-      <c r="B224" s="9"/>
-      <c r="C224" s="9"/>
-      <c r="D224" s="9"/>
-      <c r="E224" s="9"/>
-      <c r="F224" s="9"/>
-      <c r="G224" s="9"/>
-      <c r="H224" s="9"/>
+    <row r="222" spans="1:8" ht="24">
+      <c r="A222" s="6" t="s">
+        <v>253</v>
+      </c>
+      <c r="B222" s="10" t="s">
+        <v>133</v>
+      </c>
+      <c r="C222" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D222" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E222" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F222" s="6"/>
+      <c r="G222" s="6"/>
+      <c r="H222" s="6"/>
+    </row>
+    <row r="223" spans="1:8" ht="24">
+      <c r="A223" s="6" t="s">
+        <v>253</v>
+      </c>
+      <c r="B223" s="10" t="s">
+        <v>259</v>
+      </c>
+      <c r="C223" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D223" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E223" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F223" s="6"/>
+      <c r="G223" s="6"/>
+      <c r="H223" s="6"/>
+    </row>
+    <row r="224" spans="1:8" ht="24">
+      <c r="A224" s="6" t="s">
+        <v>253</v>
+      </c>
+      <c r="B224" s="10" t="s">
+        <v>141</v>
+      </c>
+      <c r="C224" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D224" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E224" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F224" s="6"/>
+      <c r="G224" s="6"/>
+      <c r="H224" s="6"/>
     </row>
     <row r="225" spans="1:8" ht="15.75" customHeight="1">
       <c r="A225" s="9"/>
@@ -13341,10 +13540,40 @@
       <c r="G231" s="9"/>
       <c r="H231" s="9"/>
     </row>
+    <row r="232" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A232" s="9"/>
+      <c r="B232" s="9"/>
+      <c r="C232" s="9"/>
+      <c r="D232" s="9"/>
+      <c r="E232" s="9"/>
+      <c r="F232" s="9"/>
+      <c r="G232" s="9"/>
+      <c r="H232" s="9"/>
+    </row>
+    <row r="233" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A233" s="9"/>
+      <c r="B233" s="9"/>
+      <c r="C233" s="9"/>
+      <c r="D233" s="9"/>
+      <c r="E233" s="9"/>
+      <c r="F233" s="9"/>
+      <c r="G233" s="9"/>
+      <c r="H233" s="9"/>
+    </row>
+    <row r="234" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A234" s="9"/>
+      <c r="B234" s="9"/>
+      <c r="C234" s="9"/>
+      <c r="D234" s="9"/>
+      <c r="E234" s="9"/>
+      <c r="F234" s="9"/>
+      <c r="G234" s="9"/>
+      <c r="H234" s="9"/>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:AA221" xr:uid="{00000000-0009-0000-0000-000002000000}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:AA221">
-      <sortCondition ref="A1:A221"/>
+  <autoFilter ref="A1:AA224" xr:uid="{00000000-0009-0000-0000-000002000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:AA224">
+      <sortCondition ref="A1:A224"/>
     </sortState>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -13366,7 +13595,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>F2:F221</xm:sqref>
+          <xm:sqref>F2:F224</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="containsText" priority="2" operator="containsText" id="{823A311E-AD2D-4D47-B0E7-1F7D7567FD0C}">
@@ -13383,7 +13612,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>F2:F221</xm:sqref>
+          <xm:sqref>F2:F224</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="containsText" priority="3" operator="containsText" id="{224F3964-461E-4A99-8F3D-BDD7D17F31F6}">
@@ -13400,7 +13629,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>D2:E221</xm:sqref>
+          <xm:sqref>D2:E224</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="containsText" priority="4" operator="containsText" id="{3823E2ED-8648-4F27-B00F-7516C7AA65D5}">
@@ -13417,7 +13646,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>D2:E221</xm:sqref>
+          <xm:sqref>D2:E224</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>

--- a/docs/assets/files/business-change/Transition live tracker (2).xlsx
+++ b/docs/assets/files/business-change/Transition live tracker (2).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bengarwood/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1454DBB9-DB31-9C40-A342-7655F180A3D1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{242A9EC8-2580-6A48-B1AA-02CAF6A4FD58}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
   </definedNames>
   <calcPr calcId="191028"/>
   <pivotCaches>
-    <pivotCache cacheId="16" r:id="rId3"/>
+    <pivotCache cacheId="7" r:id="rId3"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1303" uniqueCount="260">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1320" uniqueCount="260">
   <si>
     <t>SANDBOX = TESTING ENVIRONMENT</t>
   </si>
@@ -967,117 +967,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1" xr:uid="{A6453218-AD4D-4187-8B5D-F8997FDC5B69}"/>
   </cellStyles>
-  <dxfs count="42">
-    <dxf>
-      <font>
-        <color rgb="FFD9E1F2"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFD9E1F2"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFD9E1F2"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFD9E1F2"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFD9E1F2"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFD9E1F2"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFD9E1F2"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFD9E1F2"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFD9E1F2"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFD9E1F2"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFD9E1F2"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFD9E1F2"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFD9E1F2"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFD9E1F2"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFD9E1F2"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFD9E1F2"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFD9E1F2"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFD9E1F2"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFD9E1F2"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFD9E1F2"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFD9E1F2"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFD9E1F2"/>
-      </font>
-    </dxf>
+  <dxfs count="20">
     <dxf>
       <font>
         <color rgb="FFD9E1F2"/>
@@ -1225,7 +1115,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:pivotSource>
-    <c:name>[Transition live tracker(2).xlsx]Dashboard!PivotTable2</c:name>
+    <c:name>[Transition live tracker (2).xlsx]Dashboard!PivotTable2</c:name>
     <c:fmtId val="1"/>
   </c:pivotSource>
   <c:chart>
@@ -1738,13 +1628,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>98</c:v>
+                  <c:v>114</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>27</c:v>
+                  <c:v>28</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1861,13 +1751,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>61</c:v>
+                  <c:v>45</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>17</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2101,7 +1991,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:pivotSource>
-    <c:name>[Transition live tracker(2).xlsx]Dashboard!PivotTable3</c:name>
+    <c:name>[Transition live tracker (2).xlsx]Dashboard!PivotTable3</c:name>
     <c:fmtId val="0"/>
   </c:pivotSource>
   <c:chart>
@@ -3783,7 +3673,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Microsoft Office User" refreshedDate="43833.606718750001" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="234" xr:uid="{94413775-58D0-4EE7-8ACB-00C49221AE5D}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Microsoft Office User" refreshedDate="43843.616178935183" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="234" xr:uid="{94413775-58D0-4EE7-8ACB-00C49221AE5D}">
   <cacheSource type="worksheet">
     <worksheetSource ref="A1:H1048576" sheet="Details"/>
   </cacheSource>
@@ -4030,9 +3920,9 @@
         <s v="York City Council"/>
         <s v="Yorkshire Water"/>
         <m/>
-        <s v="SGN Water" u="1"/>
         <s v="EXAMPLE 2" u="1"/>
         <s v="EXAMPLE 1" u="1"/>
+        <s v="SGN Water" u="1"/>
         <s v="BT" u="1"/>
         <s v="EXAMPLE 3" u="1"/>
       </sharedItems>
@@ -4313,7 +4203,7 @@
     <x v="2"/>
     <x v="23"/>
     <x v="2"/>
-    <x v="0"/>
+    <x v="1"/>
     <x v="0"/>
     <m/>
     <m/>
@@ -4333,7 +4223,7 @@
     <x v="7"/>
     <x v="25"/>
     <x v="2"/>
-    <x v="0"/>
+    <x v="1"/>
     <x v="0"/>
     <m/>
     <m/>
@@ -4623,7 +4513,7 @@
     <x v="3"/>
     <x v="54"/>
     <x v="2"/>
-    <x v="0"/>
+    <x v="1"/>
     <x v="0"/>
     <m/>
     <m/>
@@ -4713,7 +4603,7 @@
     <x v="8"/>
     <x v="63"/>
     <x v="2"/>
-    <x v="0"/>
+    <x v="1"/>
     <x v="0"/>
     <m/>
     <m/>
@@ -4923,7 +4813,7 @@
     <x v="7"/>
     <x v="84"/>
     <x v="2"/>
-    <x v="0"/>
+    <x v="1"/>
     <x v="0"/>
     <m/>
     <m/>
@@ -4993,7 +4883,7 @@
     <x v="2"/>
     <x v="91"/>
     <x v="2"/>
-    <x v="0"/>
+    <x v="1"/>
     <x v="0"/>
     <m/>
     <m/>
@@ -5113,7 +5003,7 @@
     <x v="10"/>
     <x v="103"/>
     <x v="2"/>
-    <x v="0"/>
+    <x v="1"/>
     <x v="0"/>
     <m/>
     <m/>
@@ -5133,7 +5023,7 @@
     <x v="1"/>
     <x v="105"/>
     <x v="2"/>
-    <x v="0"/>
+    <x v="1"/>
     <x v="0"/>
     <m/>
     <m/>
@@ -5383,7 +5273,7 @@
     <x v="7"/>
     <x v="130"/>
     <x v="2"/>
-    <x v="0"/>
+    <x v="1"/>
     <x v="0"/>
     <m/>
     <m/>
@@ -5453,7 +5343,7 @@
     <x v="7"/>
     <x v="137"/>
     <x v="2"/>
-    <x v="0"/>
+    <x v="1"/>
     <x v="0"/>
     <m/>
     <m/>
@@ -5483,7 +5373,7 @@
     <x v="2"/>
     <x v="140"/>
     <x v="2"/>
-    <x v="0"/>
+    <x v="1"/>
     <x v="0"/>
     <m/>
     <m/>
@@ -5513,7 +5403,7 @@
     <x v="6"/>
     <x v="143"/>
     <x v="2"/>
-    <x v="0"/>
+    <x v="1"/>
     <x v="0"/>
     <m/>
     <m/>
@@ -5713,7 +5603,7 @@
     <x v="4"/>
     <x v="163"/>
     <x v="0"/>
-    <x v="0"/>
+    <x v="1"/>
     <x v="0"/>
     <m/>
     <m/>
@@ -5813,7 +5703,7 @@
     <x v="6"/>
     <x v="173"/>
     <x v="2"/>
-    <x v="0"/>
+    <x v="1"/>
     <x v="0"/>
     <m/>
     <m/>
@@ -5883,7 +5773,7 @@
     <x v="2"/>
     <x v="180"/>
     <x v="2"/>
-    <x v="0"/>
+    <x v="1"/>
     <x v="0"/>
     <m/>
     <m/>
@@ -6123,7 +6013,7 @@
     <x v="2"/>
     <x v="204"/>
     <x v="2"/>
-    <x v="0"/>
+    <x v="1"/>
     <x v="0"/>
     <m/>
     <m/>
@@ -6293,7 +6183,7 @@
     <x v="3"/>
     <x v="221"/>
     <x v="2"/>
-    <x v="0"/>
+    <x v="1"/>
     <x v="0"/>
     <m/>
     <m/>
@@ -6423,1017 +6313,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{ED146AEC-A721-41A7-BFF9-084390AFF3CA}" name="PivotTable5" cacheId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="G39:G40" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="2" colPageCount="1"/>
-  <pivotFields count="8">
-    <pivotField axis="axisPage" showAll="0">
-      <items count="13">
-        <item x="1"/>
-        <item x="9"/>
-        <item x="2"/>
-        <item x="0"/>
-        <item x="10"/>
-        <item x="8"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="3"/>
-        <item x="11"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisRow" showAll="0">
-      <items count="230">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item x="8"/>
-        <item x="9"/>
-        <item x="10"/>
-        <item x="11"/>
-        <item x="12"/>
-        <item x="13"/>
-        <item x="14"/>
-        <item x="15"/>
-        <item x="16"/>
-        <item x="17"/>
-        <item x="18"/>
-        <item x="19"/>
-        <item x="20"/>
-        <item x="21"/>
-        <item x="22"/>
-        <item x="23"/>
-        <item m="1" x="227"/>
-        <item x="25"/>
-        <item x="26"/>
-        <item x="27"/>
-        <item x="28"/>
-        <item x="30"/>
-        <item x="31"/>
-        <item x="32"/>
-        <item x="33"/>
-        <item x="34"/>
-        <item x="35"/>
-        <item x="36"/>
-        <item x="37"/>
-        <item x="38"/>
-        <item x="39"/>
-        <item x="40"/>
-        <item x="41"/>
-        <item x="42"/>
-        <item x="43"/>
-        <item x="44"/>
-        <item x="45"/>
-        <item x="46"/>
-        <item x="47"/>
-        <item x="48"/>
-        <item x="49"/>
-        <item x="50"/>
-        <item x="51"/>
-        <item x="52"/>
-        <item x="53"/>
-        <item x="54"/>
-        <item x="55"/>
-        <item x="56"/>
-        <item x="57"/>
-        <item x="58"/>
-        <item x="59"/>
-        <item m="1" x="226"/>
-        <item m="1" x="225"/>
-        <item m="1" x="228"/>
-        <item x="60"/>
-        <item x="61"/>
-        <item x="62"/>
-        <item x="63"/>
-        <item x="64"/>
-        <item x="65"/>
-        <item x="66"/>
-        <item x="67"/>
-        <item x="68"/>
-        <item x="69"/>
-        <item x="70"/>
-        <item x="71"/>
-        <item x="72"/>
-        <item x="73"/>
-        <item x="74"/>
-        <item x="75"/>
-        <item x="76"/>
-        <item x="77"/>
-        <item x="78"/>
-        <item x="79"/>
-        <item x="81"/>
-        <item x="83"/>
-        <item x="84"/>
-        <item x="85"/>
-        <item x="86"/>
-        <item x="87"/>
-        <item x="89"/>
-        <item x="90"/>
-        <item x="91"/>
-        <item x="92"/>
-        <item x="93"/>
-        <item x="94"/>
-        <item x="95"/>
-        <item x="96"/>
-        <item x="98"/>
-        <item x="99"/>
-        <item x="100"/>
-        <item x="101"/>
-        <item x="102"/>
-        <item x="103"/>
-        <item x="104"/>
-        <item x="105"/>
-        <item x="106"/>
-        <item x="107"/>
-        <item x="108"/>
-        <item x="109"/>
-        <item x="110"/>
-        <item x="111"/>
-        <item x="112"/>
-        <item x="113"/>
-        <item x="114"/>
-        <item x="115"/>
-        <item x="116"/>
-        <item x="117"/>
-        <item x="118"/>
-        <item x="119"/>
-        <item x="120"/>
-        <item x="121"/>
-        <item x="122"/>
-        <item x="123"/>
-        <item x="124"/>
-        <item x="125"/>
-        <item x="126"/>
-        <item x="127"/>
-        <item x="128"/>
-        <item x="129"/>
-        <item x="130"/>
-        <item x="131"/>
-        <item x="132"/>
-        <item x="133"/>
-        <item x="134"/>
-        <item x="135"/>
-        <item x="136"/>
-        <item x="137"/>
-        <item x="138"/>
-        <item x="139"/>
-        <item x="140"/>
-        <item x="141"/>
-        <item x="142"/>
-        <item x="143"/>
-        <item x="144"/>
-        <item x="145"/>
-        <item x="146"/>
-        <item x="147"/>
-        <item x="148"/>
-        <item x="149"/>
-        <item x="150"/>
-        <item x="151"/>
-        <item m="1" x="224"/>
-        <item x="153"/>
-        <item x="154"/>
-        <item x="155"/>
-        <item x="156"/>
-        <item x="157"/>
-        <item x="158"/>
-        <item x="159"/>
-        <item x="160"/>
-        <item x="161"/>
-        <item x="162"/>
-        <item x="163"/>
-        <item x="164"/>
-        <item x="165"/>
-        <item x="166"/>
-        <item x="167"/>
-        <item x="168"/>
-        <item x="169"/>
-        <item x="170"/>
-        <item x="171"/>
-        <item x="172"/>
-        <item x="173"/>
-        <item x="174"/>
-        <item x="175"/>
-        <item x="176"/>
-        <item x="177"/>
-        <item x="178"/>
-        <item x="179"/>
-        <item x="180"/>
-        <item x="181"/>
-        <item x="182"/>
-        <item x="183"/>
-        <item x="184"/>
-        <item x="185"/>
-        <item x="186"/>
-        <item x="187"/>
-        <item x="189"/>
-        <item x="190"/>
-        <item x="191"/>
-        <item x="192"/>
-        <item x="193"/>
-        <item x="194"/>
-        <item x="195"/>
-        <item x="196"/>
-        <item x="197"/>
-        <item x="198"/>
-        <item x="199"/>
-        <item x="200"/>
-        <item x="201"/>
-        <item x="202"/>
-        <item x="203"/>
-        <item x="204"/>
-        <item x="205"/>
-        <item x="206"/>
-        <item x="207"/>
-        <item x="208"/>
-        <item x="209"/>
-        <item x="210"/>
-        <item x="211"/>
-        <item x="212"/>
-        <item x="213"/>
-        <item x="214"/>
-        <item x="215"/>
-        <item x="216"/>
-        <item x="217"/>
-        <item x="218"/>
-        <item x="219"/>
-        <item x="220"/>
-        <item x="221"/>
-        <item x="222"/>
-        <item x="223"/>
-        <item x="24"/>
-        <item x="152"/>
-        <item x="29"/>
-        <item x="80"/>
-        <item x="88"/>
-        <item x="82"/>
-        <item x="188"/>
-        <item x="97"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisPage" showAll="0">
-      <items count="4">
-        <item h="1" x="0"/>
-        <item m="1" x="2"/>
-        <item h="1" x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="1"/>
-  </rowFields>
-  <rowItems count="1">
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <pageFields count="2">
-    <pageField fld="4" hier="-1"/>
-    <pageField fld="0" hier="-1"/>
-  </pageFields>
-  <formats count="2">
-    <format dxfId="35">
-      <pivotArea field="1" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
-    </format>
-    <format dxfId="34">
-      <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
-    </format>
-  </formats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{930C86FA-4FA7-4582-924C-04064F9B1116}" name="PivotTable4" cacheId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="B39:B174" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="2" colPageCount="1"/>
-  <pivotFields count="8">
-    <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="13">
-        <item x="1"/>
-        <item x="9"/>
-        <item x="2"/>
-        <item x="0"/>
-        <item x="10"/>
-        <item x="8"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="3"/>
-        <item x="11"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisRow" showAll="0" sortType="ascending">
-      <items count="230">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item x="8"/>
-        <item x="9"/>
-        <item x="10"/>
-        <item x="11"/>
-        <item x="12"/>
-        <item x="13"/>
-        <item x="14"/>
-        <item x="15"/>
-        <item x="16"/>
-        <item x="17"/>
-        <item x="18"/>
-        <item x="19"/>
-        <item x="20"/>
-        <item x="21"/>
-        <item x="22"/>
-        <item x="23"/>
-        <item m="1" x="227"/>
-        <item x="24"/>
-        <item x="25"/>
-        <item x="26"/>
-        <item x="27"/>
-        <item x="28"/>
-        <item x="29"/>
-        <item x="30"/>
-        <item x="31"/>
-        <item x="32"/>
-        <item x="33"/>
-        <item x="34"/>
-        <item x="35"/>
-        <item x="36"/>
-        <item x="37"/>
-        <item x="38"/>
-        <item x="39"/>
-        <item x="40"/>
-        <item x="41"/>
-        <item x="42"/>
-        <item x="43"/>
-        <item x="44"/>
-        <item x="45"/>
-        <item x="46"/>
-        <item x="47"/>
-        <item x="48"/>
-        <item x="49"/>
-        <item x="50"/>
-        <item x="51"/>
-        <item x="52"/>
-        <item x="53"/>
-        <item x="54"/>
-        <item x="55"/>
-        <item x="56"/>
-        <item x="57"/>
-        <item x="58"/>
-        <item x="59"/>
-        <item m="1" x="226"/>
-        <item m="1" x="225"/>
-        <item m="1" x="228"/>
-        <item x="60"/>
-        <item x="61"/>
-        <item x="62"/>
-        <item x="63"/>
-        <item x="64"/>
-        <item x="65"/>
-        <item x="66"/>
-        <item x="67"/>
-        <item x="68"/>
-        <item x="69"/>
-        <item x="70"/>
-        <item x="71"/>
-        <item x="72"/>
-        <item x="73"/>
-        <item x="74"/>
-        <item x="75"/>
-        <item x="76"/>
-        <item x="77"/>
-        <item x="78"/>
-        <item x="79"/>
-        <item x="80"/>
-        <item x="81"/>
-        <item x="82"/>
-        <item x="83"/>
-        <item x="84"/>
-        <item x="85"/>
-        <item x="86"/>
-        <item x="87"/>
-        <item x="88"/>
-        <item x="89"/>
-        <item x="90"/>
-        <item x="91"/>
-        <item x="92"/>
-        <item x="93"/>
-        <item x="94"/>
-        <item x="95"/>
-        <item x="96"/>
-        <item x="97"/>
-        <item x="98"/>
-        <item x="99"/>
-        <item x="100"/>
-        <item x="101"/>
-        <item x="102"/>
-        <item x="103"/>
-        <item x="104"/>
-        <item x="105"/>
-        <item x="106"/>
-        <item x="107"/>
-        <item x="108"/>
-        <item x="109"/>
-        <item x="110"/>
-        <item x="111"/>
-        <item x="112"/>
-        <item x="113"/>
-        <item x="114"/>
-        <item x="115"/>
-        <item x="116"/>
-        <item x="117"/>
-        <item x="118"/>
-        <item x="119"/>
-        <item x="120"/>
-        <item x="121"/>
-        <item x="122"/>
-        <item x="123"/>
-        <item x="124"/>
-        <item x="125"/>
-        <item x="126"/>
-        <item x="127"/>
-        <item x="128"/>
-        <item x="129"/>
-        <item x="130"/>
-        <item x="131"/>
-        <item x="132"/>
-        <item x="133"/>
-        <item x="134"/>
-        <item x="135"/>
-        <item x="136"/>
-        <item x="137"/>
-        <item x="138"/>
-        <item x="139"/>
-        <item x="140"/>
-        <item x="141"/>
-        <item x="142"/>
-        <item x="143"/>
-        <item x="144"/>
-        <item x="145"/>
-        <item x="146"/>
-        <item x="147"/>
-        <item x="148"/>
-        <item x="149"/>
-        <item x="150"/>
-        <item x="151"/>
-        <item x="152"/>
-        <item m="1" x="224"/>
-        <item x="153"/>
-        <item x="154"/>
-        <item x="155"/>
-        <item x="156"/>
-        <item x="157"/>
-        <item x="158"/>
-        <item x="159"/>
-        <item x="160"/>
-        <item x="161"/>
-        <item x="162"/>
-        <item x="163"/>
-        <item x="164"/>
-        <item x="165"/>
-        <item x="166"/>
-        <item x="167"/>
-        <item x="168"/>
-        <item x="169"/>
-        <item x="170"/>
-        <item x="171"/>
-        <item x="172"/>
-        <item x="173"/>
-        <item x="174"/>
-        <item x="175"/>
-        <item x="176"/>
-        <item x="177"/>
-        <item x="178"/>
-        <item x="179"/>
-        <item x="180"/>
-        <item x="181"/>
-        <item x="182"/>
-        <item x="183"/>
-        <item x="184"/>
-        <item x="185"/>
-        <item x="186"/>
-        <item x="187"/>
-        <item x="188"/>
-        <item x="189"/>
-        <item x="190"/>
-        <item x="191"/>
-        <item x="192"/>
-        <item x="193"/>
-        <item x="194"/>
-        <item x="195"/>
-        <item x="196"/>
-        <item x="197"/>
-        <item x="198"/>
-        <item x="199"/>
-        <item x="200"/>
-        <item x="201"/>
-        <item x="202"/>
-        <item x="203"/>
-        <item x="204"/>
-        <item x="205"/>
-        <item x="206"/>
-        <item x="207"/>
-        <item x="208"/>
-        <item x="209"/>
-        <item x="210"/>
-        <item x="211"/>
-        <item x="212"/>
-        <item x="213"/>
-        <item x="214"/>
-        <item x="215"/>
-        <item x="216"/>
-        <item x="217"/>
-        <item x="218"/>
-        <item x="219"/>
-        <item x="220"/>
-        <item x="221"/>
-        <item x="222"/>
-        <item x="223"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="4">
-        <item h="1" x="0"/>
-        <item x="1"/>
-        <item h="1" x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="1"/>
-  </rowFields>
-  <rowItems count="135">
-    <i>
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="5"/>
-    </i>
-    <i>
-      <x v="6"/>
-    </i>
-    <i>
-      <x v="7"/>
-    </i>
-    <i>
-      <x v="9"/>
-    </i>
-    <i>
-      <x v="10"/>
-    </i>
-    <i>
-      <x v="11"/>
-    </i>
-    <i>
-      <x v="13"/>
-    </i>
-    <i>
-      <x v="14"/>
-    </i>
-    <i>
-      <x v="15"/>
-    </i>
-    <i>
-      <x v="16"/>
-    </i>
-    <i>
-      <x v="17"/>
-    </i>
-    <i>
-      <x v="18"/>
-    </i>
-    <i>
-      <x v="19"/>
-    </i>
-    <i>
-      <x v="20"/>
-    </i>
-    <i>
-      <x v="21"/>
-    </i>
-    <i>
-      <x v="25"/>
-    </i>
-    <i>
-      <x v="27"/>
-    </i>
-    <i>
-      <x v="28"/>
-    </i>
-    <i>
-      <x v="29"/>
-    </i>
-    <i>
-      <x v="30"/>
-    </i>
-    <i>
-      <x v="31"/>
-    </i>
-    <i>
-      <x v="32"/>
-    </i>
-    <i>
-      <x v="38"/>
-    </i>
-    <i>
-      <x v="39"/>
-    </i>
-    <i>
-      <x v="40"/>
-    </i>
-    <i>
-      <x v="42"/>
-    </i>
-    <i>
-      <x v="43"/>
-    </i>
-    <i>
-      <x v="44"/>
-    </i>
-    <i>
-      <x v="46"/>
-    </i>
-    <i>
-      <x v="47"/>
-    </i>
-    <i>
-      <x v="48"/>
-    </i>
-    <i>
-      <x v="49"/>
-    </i>
-    <i>
-      <x v="50"/>
-    </i>
-    <i>
-      <x v="51"/>
-    </i>
-    <i>
-      <x v="54"/>
-    </i>
-    <i>
-      <x v="56"/>
-    </i>
-    <i>
-      <x v="57"/>
-    </i>
-    <i>
-      <x v="58"/>
-    </i>
-    <i>
-      <x v="59"/>
-    </i>
-    <i>
-      <x v="66"/>
-    </i>
-    <i>
-      <x v="69"/>
-    </i>
-    <i>
-      <x v="70"/>
-    </i>
-    <i>
-      <x v="71"/>
-    </i>
-    <i>
-      <x v="72"/>
-    </i>
-    <i>
-      <x v="74"/>
-    </i>
-    <i>
-      <x v="75"/>
-    </i>
-    <i>
-      <x v="77"/>
-    </i>
-    <i>
-      <x v="79"/>
-    </i>
-    <i>
-      <x v="80"/>
-    </i>
-    <i>
-      <x v="81"/>
-    </i>
-    <i>
-      <x v="83"/>
-    </i>
-    <i>
-      <x v="84"/>
-    </i>
-    <i>
-      <x v="86"/>
-    </i>
-    <i>
-      <x v="89"/>
-    </i>
-    <i>
-      <x v="90"/>
-    </i>
-    <i>
-      <x v="92"/>
-    </i>
-    <i>
-      <x v="93"/>
-    </i>
-    <i>
-      <x v="96"/>
-    </i>
-    <i>
-      <x v="98"/>
-    </i>
-    <i>
-      <x v="99"/>
-    </i>
-    <i>
-      <x v="100"/>
-    </i>
-    <i>
-      <x v="101"/>
-    </i>
-    <i>
-      <x v="102"/>
-    </i>
-    <i>
-      <x v="103"/>
-    </i>
-    <i>
-      <x v="104"/>
-    </i>
-    <i>
-      <x v="106"/>
-    </i>
-    <i>
-      <x v="108"/>
-    </i>
-    <i>
-      <x v="110"/>
-    </i>
-    <i>
-      <x v="111"/>
-    </i>
-    <i>
-      <x v="114"/>
-    </i>
-    <i>
-      <x v="116"/>
-    </i>
-    <i>
-      <x v="119"/>
-    </i>
-    <i>
-      <x v="120"/>
-    </i>
-    <i>
-      <x v="121"/>
-    </i>
-    <i>
-      <x v="123"/>
-    </i>
-    <i>
-      <x v="124"/>
-    </i>
-    <i>
-      <x v="126"/>
-    </i>
-    <i>
-      <x v="127"/>
-    </i>
-    <i>
-      <x v="129"/>
-    </i>
-    <i>
-      <x v="130"/>
-    </i>
-    <i>
-      <x v="132"/>
-    </i>
-    <i>
-      <x v="137"/>
-    </i>
-    <i>
-      <x v="140"/>
-    </i>
-    <i>
-      <x v="142"/>
-    </i>
-    <i>
-      <x v="145"/>
-    </i>
-    <i>
-      <x v="148"/>
-    </i>
-    <i>
-      <x v="149"/>
-    </i>
-    <i>
-      <x v="151"/>
-    </i>
-    <i>
-      <x v="152"/>
-    </i>
-    <i>
-      <x v="153"/>
-    </i>
-    <i>
-      <x v="154"/>
-    </i>
-    <i>
-      <x v="156"/>
-    </i>
-    <i>
-      <x v="158"/>
-    </i>
-    <i>
-      <x v="159"/>
-    </i>
-    <i>
-      <x v="160"/>
-    </i>
-    <i>
-      <x v="162"/>
-    </i>
-    <i>
-      <x v="163"/>
-    </i>
-    <i>
-      <x v="165"/>
-    </i>
-    <i>
-      <x v="166"/>
-    </i>
-    <i>
-      <x v="167"/>
-    </i>
-    <i>
-      <x v="170"/>
-    </i>
-    <i>
-      <x v="171"/>
-    </i>
-    <i>
-      <x v="172"/>
-    </i>
-    <i>
-      <x v="173"/>
-    </i>
-    <i>
-      <x v="174"/>
-    </i>
-    <i>
-      <x v="175"/>
-    </i>
-    <i>
-      <x v="177"/>
-    </i>
-    <i>
-      <x v="180"/>
-    </i>
-    <i>
-      <x v="184"/>
-    </i>
-    <i>
-      <x v="186"/>
-    </i>
-    <i>
-      <x v="187"/>
-    </i>
-    <i>
-      <x v="190"/>
-    </i>
-    <i>
-      <x v="191"/>
-    </i>
-    <i>
-      <x v="193"/>
-    </i>
-    <i>
-      <x v="198"/>
-    </i>
-    <i>
-      <x v="199"/>
-    </i>
-    <i>
-      <x v="200"/>
-    </i>
-    <i>
-      <x v="201"/>
-    </i>
-    <i>
-      <x v="203"/>
-    </i>
-    <i>
-      <x v="204"/>
-    </i>
-    <i>
-      <x v="205"/>
-    </i>
-    <i>
-      <x v="206"/>
-    </i>
-    <i>
-      <x v="207"/>
-    </i>
-    <i>
-      <x v="208"/>
-    </i>
-    <i>
-      <x v="213"/>
-    </i>
-    <i>
-      <x v="214"/>
-    </i>
-    <i>
-      <x v="215"/>
-    </i>
-    <i>
-      <x v="216"/>
-    </i>
-    <i>
-      <x v="218"/>
-    </i>
-    <i>
-      <x v="219"/>
-    </i>
-    <i>
-      <x v="221"/>
-    </i>
-    <i>
-      <x v="224"/>
-    </i>
-    <i>
-      <x v="227"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <pageFields count="2">
-    <pageField fld="3" hier="-1"/>
-    <pageField fld="0" hier="-1"/>
-  </pageFields>
-  <formats count="2">
-    <format dxfId="37">
-      <pivotArea field="1" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
-    </format>
-    <format dxfId="36">
-      <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
-    </format>
-  </formats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{5BE17AE4-2B6C-4B30-A799-10769CD87AE0}" name="PivotTable3" cacheId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{5BE17AE4-2B6C-4B30-A799-10769CD87AE0}" name="PivotTable3" cacheId="7" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
   <location ref="G8:I13" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="8">
     <pivotField axis="axisPage" showAll="0">
@@ -7511,10 +6391,10 @@
     <dataField name="Count of Organisation Name" fld="1" subtotal="count" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="2">
-    <format dxfId="39">
+    <format dxfId="13">
       <pivotArea field="4" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisCol" fieldPosition="0"/>
     </format>
-    <format dxfId="38">
+    <format dxfId="12">
       <pivotArea field="2" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
   </formats>
@@ -7556,8 +6436,8 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{D443304E-F10F-4C77-A7DB-6048C0DF3E68}" name="PivotTable2" cacheId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="2">
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{D443304E-F10F-4C77-A7DB-6048C0DF3E68}" name="PivotTable2" cacheId="7" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="2">
   <location ref="B8:E13" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="8">
     <pivotField axis="axisPage" showAll="0">
@@ -7638,10 +6518,10 @@
     <dataField name="Count of Organisation Name" fld="1" subtotal="count" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="2">
-    <format dxfId="41">
+    <format dxfId="15">
       <pivotArea field="3" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisCol" fieldPosition="0"/>
     </format>
-    <format dxfId="40">
+    <format dxfId="14">
       <pivotArea field="2" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
   </formats>
@@ -7764,6 +6644,1067 @@
       </pivotArea>
     </chartFormat>
   </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{ED146AEC-A721-41A7-BFF9-084390AFF3CA}" name="PivotTable5" cacheId="7" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="G39:G40" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="2" colPageCount="1"/>
+  <pivotFields count="8">
+    <pivotField axis="axisPage" showAll="0">
+      <items count="13">
+        <item x="1"/>
+        <item x="9"/>
+        <item x="2"/>
+        <item x="0"/>
+        <item x="10"/>
+        <item x="8"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="3"/>
+        <item x="11"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="230">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="11"/>
+        <item x="12"/>
+        <item x="13"/>
+        <item x="14"/>
+        <item x="15"/>
+        <item x="16"/>
+        <item x="17"/>
+        <item x="18"/>
+        <item x="19"/>
+        <item x="20"/>
+        <item x="21"/>
+        <item x="22"/>
+        <item x="23"/>
+        <item m="1" x="227"/>
+        <item x="25"/>
+        <item x="26"/>
+        <item x="27"/>
+        <item x="28"/>
+        <item x="30"/>
+        <item x="31"/>
+        <item x="32"/>
+        <item x="33"/>
+        <item x="34"/>
+        <item x="35"/>
+        <item x="36"/>
+        <item x="37"/>
+        <item x="38"/>
+        <item x="39"/>
+        <item x="40"/>
+        <item x="41"/>
+        <item x="42"/>
+        <item x="43"/>
+        <item x="44"/>
+        <item x="45"/>
+        <item x="46"/>
+        <item x="47"/>
+        <item x="48"/>
+        <item x="49"/>
+        <item x="50"/>
+        <item x="51"/>
+        <item x="52"/>
+        <item x="53"/>
+        <item x="54"/>
+        <item x="55"/>
+        <item x="56"/>
+        <item x="57"/>
+        <item x="58"/>
+        <item x="59"/>
+        <item m="1" x="225"/>
+        <item m="1" x="224"/>
+        <item m="1" x="228"/>
+        <item x="60"/>
+        <item x="61"/>
+        <item x="62"/>
+        <item x="63"/>
+        <item x="64"/>
+        <item x="65"/>
+        <item x="66"/>
+        <item x="67"/>
+        <item x="68"/>
+        <item x="69"/>
+        <item x="70"/>
+        <item x="71"/>
+        <item x="72"/>
+        <item x="73"/>
+        <item x="74"/>
+        <item x="75"/>
+        <item x="76"/>
+        <item x="77"/>
+        <item x="78"/>
+        <item x="79"/>
+        <item x="81"/>
+        <item x="83"/>
+        <item x="84"/>
+        <item x="85"/>
+        <item x="86"/>
+        <item x="87"/>
+        <item x="89"/>
+        <item x="90"/>
+        <item x="91"/>
+        <item x="92"/>
+        <item x="93"/>
+        <item x="94"/>
+        <item x="95"/>
+        <item x="96"/>
+        <item x="98"/>
+        <item x="99"/>
+        <item x="100"/>
+        <item x="101"/>
+        <item x="102"/>
+        <item x="103"/>
+        <item x="104"/>
+        <item x="105"/>
+        <item x="106"/>
+        <item x="107"/>
+        <item x="108"/>
+        <item x="109"/>
+        <item x="110"/>
+        <item x="111"/>
+        <item x="112"/>
+        <item x="113"/>
+        <item x="114"/>
+        <item x="115"/>
+        <item x="116"/>
+        <item x="117"/>
+        <item x="118"/>
+        <item x="119"/>
+        <item x="120"/>
+        <item x="121"/>
+        <item x="122"/>
+        <item x="123"/>
+        <item x="124"/>
+        <item x="125"/>
+        <item x="126"/>
+        <item x="127"/>
+        <item x="128"/>
+        <item x="129"/>
+        <item x="130"/>
+        <item x="131"/>
+        <item x="132"/>
+        <item x="133"/>
+        <item x="134"/>
+        <item x="135"/>
+        <item x="136"/>
+        <item x="137"/>
+        <item x="138"/>
+        <item x="139"/>
+        <item x="140"/>
+        <item x="141"/>
+        <item x="142"/>
+        <item x="143"/>
+        <item x="144"/>
+        <item x="145"/>
+        <item x="146"/>
+        <item x="147"/>
+        <item x="148"/>
+        <item x="149"/>
+        <item x="150"/>
+        <item x="151"/>
+        <item m="1" x="226"/>
+        <item x="153"/>
+        <item x="154"/>
+        <item x="155"/>
+        <item x="156"/>
+        <item x="157"/>
+        <item x="158"/>
+        <item x="159"/>
+        <item x="160"/>
+        <item x="161"/>
+        <item x="162"/>
+        <item x="163"/>
+        <item x="164"/>
+        <item x="165"/>
+        <item x="166"/>
+        <item x="167"/>
+        <item x="168"/>
+        <item x="169"/>
+        <item x="170"/>
+        <item x="171"/>
+        <item x="172"/>
+        <item x="173"/>
+        <item x="174"/>
+        <item x="175"/>
+        <item x="176"/>
+        <item x="177"/>
+        <item x="178"/>
+        <item x="179"/>
+        <item x="180"/>
+        <item x="181"/>
+        <item x="182"/>
+        <item x="183"/>
+        <item x="184"/>
+        <item x="185"/>
+        <item x="186"/>
+        <item x="187"/>
+        <item x="189"/>
+        <item x="190"/>
+        <item x="191"/>
+        <item x="192"/>
+        <item x="193"/>
+        <item x="194"/>
+        <item x="195"/>
+        <item x="196"/>
+        <item x="197"/>
+        <item x="198"/>
+        <item x="199"/>
+        <item x="200"/>
+        <item x="201"/>
+        <item x="202"/>
+        <item x="203"/>
+        <item x="204"/>
+        <item x="205"/>
+        <item x="206"/>
+        <item x="207"/>
+        <item x="208"/>
+        <item x="209"/>
+        <item x="210"/>
+        <item x="211"/>
+        <item x="212"/>
+        <item x="213"/>
+        <item x="214"/>
+        <item x="215"/>
+        <item x="216"/>
+        <item x="217"/>
+        <item x="218"/>
+        <item x="219"/>
+        <item x="220"/>
+        <item x="221"/>
+        <item x="222"/>
+        <item x="223"/>
+        <item x="24"/>
+        <item x="152"/>
+        <item x="29"/>
+        <item x="80"/>
+        <item x="88"/>
+        <item x="82"/>
+        <item x="188"/>
+        <item x="97"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisPage" showAll="0">
+      <items count="4">
+        <item h="1" x="0"/>
+        <item m="1" x="2"/>
+        <item h="1" x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="1"/>
+  </rowFields>
+  <rowItems count="1">
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <pageFields count="2">
+    <pageField fld="4" hier="-1"/>
+    <pageField fld="0" hier="-1"/>
+  </pageFields>
+  <formats count="2">
+    <format dxfId="17">
+      <pivotArea field="1" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
+    </format>
+    <format dxfId="16">
+      <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
+    </format>
+  </formats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{930C86FA-4FA7-4582-924C-04064F9B1116}" name="PivotTable4" cacheId="7" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="B39:B191" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="2" colPageCount="1"/>
+  <pivotFields count="8">
+    <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="13">
+        <item x="1"/>
+        <item x="9"/>
+        <item x="2"/>
+        <item x="0"/>
+        <item x="10"/>
+        <item x="8"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="3"/>
+        <item x="11"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" showAll="0" sortType="ascending">
+      <items count="230">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="11"/>
+        <item x="12"/>
+        <item x="13"/>
+        <item x="14"/>
+        <item x="15"/>
+        <item x="16"/>
+        <item x="17"/>
+        <item x="18"/>
+        <item x="19"/>
+        <item x="20"/>
+        <item x="21"/>
+        <item x="22"/>
+        <item x="23"/>
+        <item m="1" x="227"/>
+        <item x="24"/>
+        <item x="25"/>
+        <item x="26"/>
+        <item x="27"/>
+        <item x="28"/>
+        <item x="29"/>
+        <item x="30"/>
+        <item x="31"/>
+        <item x="32"/>
+        <item x="33"/>
+        <item x="34"/>
+        <item x="35"/>
+        <item x="36"/>
+        <item x="37"/>
+        <item x="38"/>
+        <item x="39"/>
+        <item x="40"/>
+        <item x="41"/>
+        <item x="42"/>
+        <item x="43"/>
+        <item x="44"/>
+        <item x="45"/>
+        <item x="46"/>
+        <item x="47"/>
+        <item x="48"/>
+        <item x="49"/>
+        <item x="50"/>
+        <item x="51"/>
+        <item x="52"/>
+        <item x="53"/>
+        <item x="54"/>
+        <item x="55"/>
+        <item x="56"/>
+        <item x="57"/>
+        <item x="58"/>
+        <item x="59"/>
+        <item m="1" x="225"/>
+        <item m="1" x="224"/>
+        <item m="1" x="228"/>
+        <item x="60"/>
+        <item x="61"/>
+        <item x="62"/>
+        <item x="63"/>
+        <item x="64"/>
+        <item x="65"/>
+        <item x="66"/>
+        <item x="67"/>
+        <item x="68"/>
+        <item x="69"/>
+        <item x="70"/>
+        <item x="71"/>
+        <item x="72"/>
+        <item x="73"/>
+        <item x="74"/>
+        <item x="75"/>
+        <item x="76"/>
+        <item x="77"/>
+        <item x="78"/>
+        <item x="79"/>
+        <item x="80"/>
+        <item x="81"/>
+        <item x="82"/>
+        <item x="83"/>
+        <item x="84"/>
+        <item x="85"/>
+        <item x="86"/>
+        <item x="87"/>
+        <item x="88"/>
+        <item x="89"/>
+        <item x="90"/>
+        <item x="91"/>
+        <item x="92"/>
+        <item x="93"/>
+        <item x="94"/>
+        <item x="95"/>
+        <item x="96"/>
+        <item x="97"/>
+        <item x="98"/>
+        <item x="99"/>
+        <item x="100"/>
+        <item x="101"/>
+        <item x="102"/>
+        <item x="103"/>
+        <item x="104"/>
+        <item x="105"/>
+        <item x="106"/>
+        <item x="107"/>
+        <item x="108"/>
+        <item x="109"/>
+        <item x="110"/>
+        <item x="111"/>
+        <item x="112"/>
+        <item x="113"/>
+        <item x="114"/>
+        <item x="115"/>
+        <item x="116"/>
+        <item x="117"/>
+        <item x="118"/>
+        <item x="119"/>
+        <item x="120"/>
+        <item x="121"/>
+        <item x="122"/>
+        <item x="123"/>
+        <item x="124"/>
+        <item x="125"/>
+        <item x="126"/>
+        <item x="127"/>
+        <item x="128"/>
+        <item x="129"/>
+        <item x="130"/>
+        <item x="131"/>
+        <item x="132"/>
+        <item x="133"/>
+        <item x="134"/>
+        <item x="135"/>
+        <item x="136"/>
+        <item x="137"/>
+        <item x="138"/>
+        <item x="139"/>
+        <item x="140"/>
+        <item x="141"/>
+        <item x="142"/>
+        <item x="143"/>
+        <item x="144"/>
+        <item x="145"/>
+        <item x="146"/>
+        <item x="147"/>
+        <item x="148"/>
+        <item x="149"/>
+        <item x="150"/>
+        <item x="151"/>
+        <item x="152"/>
+        <item m="1" x="226"/>
+        <item x="153"/>
+        <item x="154"/>
+        <item x="155"/>
+        <item x="156"/>
+        <item x="157"/>
+        <item x="158"/>
+        <item x="159"/>
+        <item x="160"/>
+        <item x="161"/>
+        <item x="162"/>
+        <item x="163"/>
+        <item x="164"/>
+        <item x="165"/>
+        <item x="166"/>
+        <item x="167"/>
+        <item x="168"/>
+        <item x="169"/>
+        <item x="170"/>
+        <item x="171"/>
+        <item x="172"/>
+        <item x="173"/>
+        <item x="174"/>
+        <item x="175"/>
+        <item x="176"/>
+        <item x="177"/>
+        <item x="178"/>
+        <item x="179"/>
+        <item x="180"/>
+        <item x="181"/>
+        <item x="182"/>
+        <item x="183"/>
+        <item x="184"/>
+        <item x="185"/>
+        <item x="186"/>
+        <item x="187"/>
+        <item x="188"/>
+        <item x="189"/>
+        <item x="190"/>
+        <item x="191"/>
+        <item x="192"/>
+        <item x="193"/>
+        <item x="194"/>
+        <item x="195"/>
+        <item x="196"/>
+        <item x="197"/>
+        <item x="198"/>
+        <item x="199"/>
+        <item x="200"/>
+        <item x="201"/>
+        <item x="202"/>
+        <item x="203"/>
+        <item x="204"/>
+        <item x="205"/>
+        <item x="206"/>
+        <item x="207"/>
+        <item x="208"/>
+        <item x="209"/>
+        <item x="210"/>
+        <item x="211"/>
+        <item x="212"/>
+        <item x="213"/>
+        <item x="214"/>
+        <item x="215"/>
+        <item x="216"/>
+        <item x="217"/>
+        <item x="218"/>
+        <item x="219"/>
+        <item x="220"/>
+        <item x="221"/>
+        <item x="222"/>
+        <item x="223"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="4">
+        <item h="1" x="0"/>
+        <item x="1"/>
+        <item h="1" x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="1"/>
+  </rowFields>
+  <rowItems count="152">
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="9"/>
+    </i>
+    <i>
+      <x v="10"/>
+    </i>
+    <i>
+      <x v="11"/>
+    </i>
+    <i>
+      <x v="13"/>
+    </i>
+    <i>
+      <x v="14"/>
+    </i>
+    <i>
+      <x v="15"/>
+    </i>
+    <i>
+      <x v="16"/>
+    </i>
+    <i>
+      <x v="17"/>
+    </i>
+    <i>
+      <x v="18"/>
+    </i>
+    <i>
+      <x v="19"/>
+    </i>
+    <i>
+      <x v="20"/>
+    </i>
+    <i>
+      <x v="21"/>
+    </i>
+    <i>
+      <x v="23"/>
+    </i>
+    <i>
+      <x v="25"/>
+    </i>
+    <i>
+      <x v="26"/>
+    </i>
+    <i>
+      <x v="27"/>
+    </i>
+    <i>
+      <x v="28"/>
+    </i>
+    <i>
+      <x v="29"/>
+    </i>
+    <i>
+      <x v="30"/>
+    </i>
+    <i>
+      <x v="31"/>
+    </i>
+    <i>
+      <x v="32"/>
+    </i>
+    <i>
+      <x v="38"/>
+    </i>
+    <i>
+      <x v="39"/>
+    </i>
+    <i>
+      <x v="40"/>
+    </i>
+    <i>
+      <x v="42"/>
+    </i>
+    <i>
+      <x v="43"/>
+    </i>
+    <i>
+      <x v="44"/>
+    </i>
+    <i>
+      <x v="46"/>
+    </i>
+    <i>
+      <x v="47"/>
+    </i>
+    <i>
+      <x v="48"/>
+    </i>
+    <i>
+      <x v="49"/>
+    </i>
+    <i>
+      <x v="50"/>
+    </i>
+    <i>
+      <x v="51"/>
+    </i>
+    <i>
+      <x v="54"/>
+    </i>
+    <i>
+      <x v="55"/>
+    </i>
+    <i>
+      <x v="56"/>
+    </i>
+    <i>
+      <x v="57"/>
+    </i>
+    <i>
+      <x v="58"/>
+    </i>
+    <i>
+      <x v="59"/>
+    </i>
+    <i>
+      <x v="66"/>
+    </i>
+    <i>
+      <x v="67"/>
+    </i>
+    <i>
+      <x v="69"/>
+    </i>
+    <i>
+      <x v="70"/>
+    </i>
+    <i>
+      <x v="71"/>
+    </i>
+    <i>
+      <x v="72"/>
+    </i>
+    <i>
+      <x v="74"/>
+    </i>
+    <i>
+      <x v="75"/>
+    </i>
+    <i>
+      <x v="77"/>
+    </i>
+    <i>
+      <x v="79"/>
+    </i>
+    <i>
+      <x v="80"/>
+    </i>
+    <i>
+      <x v="81"/>
+    </i>
+    <i>
+      <x v="83"/>
+    </i>
+    <i>
+      <x v="84"/>
+    </i>
+    <i>
+      <x v="86"/>
+    </i>
+    <i>
+      <x v="88"/>
+    </i>
+    <i>
+      <x v="89"/>
+    </i>
+    <i>
+      <x v="90"/>
+    </i>
+    <i>
+      <x v="92"/>
+    </i>
+    <i>
+      <x v="93"/>
+    </i>
+    <i>
+      <x v="95"/>
+    </i>
+    <i>
+      <x v="96"/>
+    </i>
+    <i>
+      <x v="98"/>
+    </i>
+    <i>
+      <x v="99"/>
+    </i>
+    <i>
+      <x v="100"/>
+    </i>
+    <i>
+      <x v="101"/>
+    </i>
+    <i>
+      <x v="102"/>
+    </i>
+    <i>
+      <x v="103"/>
+    </i>
+    <i>
+      <x v="104"/>
+    </i>
+    <i>
+      <x v="106"/>
+    </i>
+    <i>
+      <x v="107"/>
+    </i>
+    <i>
+      <x v="108"/>
+    </i>
+    <i>
+      <x v="109"/>
+    </i>
+    <i>
+      <x v="110"/>
+    </i>
+    <i>
+      <x v="111"/>
+    </i>
+    <i>
+      <x v="114"/>
+    </i>
+    <i>
+      <x v="116"/>
+    </i>
+    <i>
+      <x v="119"/>
+    </i>
+    <i>
+      <x v="120"/>
+    </i>
+    <i>
+      <x v="121"/>
+    </i>
+    <i>
+      <x v="123"/>
+    </i>
+    <i>
+      <x v="124"/>
+    </i>
+    <i>
+      <x v="126"/>
+    </i>
+    <i>
+      <x v="127"/>
+    </i>
+    <i>
+      <x v="129"/>
+    </i>
+    <i>
+      <x v="130"/>
+    </i>
+    <i>
+      <x v="132"/>
+    </i>
+    <i>
+      <x v="134"/>
+    </i>
+    <i>
+      <x v="137"/>
+    </i>
+    <i>
+      <x v="140"/>
+    </i>
+    <i>
+      <x v="141"/>
+    </i>
+    <i>
+      <x v="142"/>
+    </i>
+    <i>
+      <x v="144"/>
+    </i>
+    <i>
+      <x v="145"/>
+    </i>
+    <i>
+      <x v="147"/>
+    </i>
+    <i>
+      <x v="148"/>
+    </i>
+    <i>
+      <x v="149"/>
+    </i>
+    <i>
+      <x v="151"/>
+    </i>
+    <i>
+      <x v="152"/>
+    </i>
+    <i>
+      <x v="153"/>
+    </i>
+    <i>
+      <x v="154"/>
+    </i>
+    <i>
+      <x v="156"/>
+    </i>
+    <i>
+      <x v="158"/>
+    </i>
+    <i>
+      <x v="159"/>
+    </i>
+    <i>
+      <x v="160"/>
+    </i>
+    <i>
+      <x v="162"/>
+    </i>
+    <i>
+      <x v="163"/>
+    </i>
+    <i>
+      <x v="165"/>
+    </i>
+    <i>
+      <x v="166"/>
+    </i>
+    <i>
+      <x v="167"/>
+    </i>
+    <i>
+      <x v="168"/>
+    </i>
+    <i>
+      <x v="170"/>
+    </i>
+    <i>
+      <x v="171"/>
+    </i>
+    <i>
+      <x v="172"/>
+    </i>
+    <i>
+      <x v="173"/>
+    </i>
+    <i>
+      <x v="174"/>
+    </i>
+    <i>
+      <x v="175"/>
+    </i>
+    <i>
+      <x v="177"/>
+    </i>
+    <i>
+      <x v="178"/>
+    </i>
+    <i>
+      <x v="180"/>
+    </i>
+    <i>
+      <x v="184"/>
+    </i>
+    <i>
+      <x v="185"/>
+    </i>
+    <i>
+      <x v="186"/>
+    </i>
+    <i>
+      <x v="187"/>
+    </i>
+    <i>
+      <x v="190"/>
+    </i>
+    <i>
+      <x v="191"/>
+    </i>
+    <i>
+      <x v="193"/>
+    </i>
+    <i>
+      <x v="198"/>
+    </i>
+    <i>
+      <x v="199"/>
+    </i>
+    <i>
+      <x v="200"/>
+    </i>
+    <i>
+      <x v="201"/>
+    </i>
+    <i>
+      <x v="203"/>
+    </i>
+    <i>
+      <x v="204"/>
+    </i>
+    <i>
+      <x v="205"/>
+    </i>
+    <i>
+      <x v="206"/>
+    </i>
+    <i>
+      <x v="207"/>
+    </i>
+    <i>
+      <x v="208"/>
+    </i>
+    <i>
+      <x v="209"/>
+    </i>
+    <i>
+      <x v="213"/>
+    </i>
+    <i>
+      <x v="214"/>
+    </i>
+    <i>
+      <x v="215"/>
+    </i>
+    <i>
+      <x v="216"/>
+    </i>
+    <i>
+      <x v="218"/>
+    </i>
+    <i>
+      <x v="219"/>
+    </i>
+    <i>
+      <x v="221"/>
+    </i>
+    <i>
+      <x v="224"/>
+    </i>
+    <i>
+      <x v="226"/>
+    </i>
+    <i>
+      <x v="227"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <pageFields count="2">
+    <pageField fld="3" hier="-1"/>
+    <pageField fld="0" hier="-1"/>
+  </pageFields>
+  <formats count="2">
+    <format dxfId="19">
+      <pivotArea field="1" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
+    </format>
+    <format dxfId="18">
+      <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
+    </format>
+  </formats>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
@@ -8073,22 +8014,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1220B4B-B987-4267-A1E9-87F5A1FB2BC0}">
-  <dimension ref="B2:I174"/>
+  <dimension ref="B2:I191"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="3" customWidth="1"/>
-    <col min="2" max="2" width="24.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="41.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.6640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="28.83203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.6640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="24.33203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.83203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.1640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.1640625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="28.83203125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="20.5" customWidth="1"/>
     <col min="11" max="11" width="36.5" bestFit="1" customWidth="1"/>
@@ -8380,10 +8321,10 @@
         <v>12</v>
       </c>
       <c r="C10" s="3">
-        <v>98</v>
+        <v>114</v>
       </c>
       <c r="D10" s="3">
-        <v>61</v>
+        <v>45</v>
       </c>
       <c r="E10" s="3">
         <v>159</v>
@@ -8426,10 +8367,10 @@
         <v>14</v>
       </c>
       <c r="C12" s="3">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D12" s="3">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E12" s="3">
         <v>44</v>
@@ -8449,10 +8390,10 @@
         <v>11</v>
       </c>
       <c r="C13" s="3">
-        <v>134</v>
+        <v>151</v>
       </c>
       <c r="D13" s="3">
-        <v>89</v>
+        <v>72</v>
       </c>
       <c r="E13" s="3">
         <v>223</v>
@@ -8613,596 +8554,681 @@
     </row>
     <row r="56" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B56" s="4" t="s">
-        <v>37</v>
+        <v>162</v>
       </c>
     </row>
     <row r="57" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B57" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="58" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B58" s="4" t="s">
-        <v>39</v>
+        <v>223</v>
       </c>
     </row>
     <row r="59" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B59" s="4" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="60" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B60" s="4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="61" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B61" s="4" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="62" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B62" s="4" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="63" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B63" s="4" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="64" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B64" s="4" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="65" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B65" s="4" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="66" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B66" s="4" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="67" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B67" s="4" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="68" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B68" s="4" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="69" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B69" s="4" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="70" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B70" s="4" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="71" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B71" s="4" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="72" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B72" s="4" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="73" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B73" s="4" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="74" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B74" s="4" t="s">
-        <v>239</v>
+        <v>53</v>
       </c>
     </row>
     <row r="75" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B75" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="76" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B76" s="4" t="s">
-        <v>56</v>
+        <v>239</v>
       </c>
     </row>
     <row r="77" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B77" s="4" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="78" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B78" s="4" t="s">
-        <v>58</v>
+        <v>255</v>
       </c>
     </row>
     <row r="79" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B79" s="4" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="80" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B80" s="4" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="81" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B81" s="4" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="82" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B82" s="4" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="83" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B83" s="4" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="84" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B84" s="4" t="s">
-        <v>64</v>
+        <v>203</v>
       </c>
     </row>
     <row r="85" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B85" s="4" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
     </row>
     <row r="86" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B86" s="4" t="s">
-        <v>224</v>
+        <v>62</v>
       </c>
     </row>
     <row r="87" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B87" s="4" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="88" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B88" s="4" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="89" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B89" s="4" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="90" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B90" s="4" t="s">
-        <v>69</v>
+        <v>224</v>
       </c>
     </row>
     <row r="91" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B91" s="4" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
     </row>
     <row r="92" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B92" s="4" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
     </row>
     <row r="93" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B93" s="4" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
     </row>
     <row r="94" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B94" s="4" t="s">
-        <v>240</v>
+        <v>69</v>
       </c>
     </row>
     <row r="95" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B95" s="4" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="96" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B96" s="4" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="97" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B97" s="4" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="98" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B98" s="4" t="s">
-        <v>76</v>
+        <v>226</v>
       </c>
     </row>
     <row r="99" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B99" s="4" t="s">
-        <v>77</v>
+        <v>240</v>
       </c>
     </row>
     <row r="100" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B100" s="4" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
     </row>
     <row r="101" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B101" s="4" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
     </row>
     <row r="102" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B102" s="4" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="103" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B103" s="4" t="s">
-        <v>81</v>
+        <v>166</v>
       </c>
     </row>
     <row r="104" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B104" s="4" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
     </row>
     <row r="105" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B105" s="4" t="s">
-        <v>156</v>
+        <v>77</v>
       </c>
     </row>
     <row r="106" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B106" s="4" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
     </row>
     <row r="107" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B107" s="4" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
     </row>
     <row r="108" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B108" s="4" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
     </row>
     <row r="109" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B109" s="4" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
     </row>
     <row r="110" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B110" s="4" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
     </row>
     <row r="111" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B111" s="4" t="s">
-        <v>88</v>
+        <v>156</v>
       </c>
     </row>
     <row r="112" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B112" s="4" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
     </row>
     <row r="113" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B113" s="4" t="s">
-        <v>90</v>
+        <v>199</v>
       </c>
     </row>
     <row r="114" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B114" s="4" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
     </row>
     <row r="115" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B115" s="4" t="s">
-        <v>92</v>
+        <v>150</v>
       </c>
     </row>
     <row r="116" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B116" s="4" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
     </row>
     <row r="117" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B117" s="4" t="s">
-        <v>257</v>
+        <v>86</v>
       </c>
     </row>
     <row r="118" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B118" s="4" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
     </row>
     <row r="119" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B119" s="4" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
     </row>
     <row r="120" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B120" s="4" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
     </row>
     <row r="121" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B121" s="4" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
     </row>
     <row r="122" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B122" s="4" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
     </row>
     <row r="123" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B123" s="4" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
     </row>
     <row r="124" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B124" s="4" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
     </row>
     <row r="125" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B125" s="4" t="s">
-        <v>231</v>
+        <v>257</v>
       </c>
     </row>
     <row r="126" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B126" s="4" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
     </row>
     <row r="127" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B127" s="4" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
     </row>
     <row r="128" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B128" s="4" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
     </row>
     <row r="129" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B129" s="4" t="s">
-        <v>249</v>
+        <v>97</v>
       </c>
     </row>
     <row r="130" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B130" s="4" t="s">
-        <v>104</v>
+        <v>228</v>
       </c>
     </row>
     <row r="131" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B131" s="4" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
     </row>
     <row r="132" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B132" s="4" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
     </row>
     <row r="133" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B133" s="4" t="s">
-        <v>107</v>
+        <v>230</v>
       </c>
     </row>
     <row r="134" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B134" s="4" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
     </row>
     <row r="135" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B135" s="4" t="s">
-        <v>109</v>
+        <v>170</v>
       </c>
     </row>
     <row r="136" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B136" s="4" t="s">
-        <v>110</v>
+        <v>231</v>
       </c>
     </row>
     <row r="137" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B137" s="4" t="s">
-        <v>111</v>
+        <v>214</v>
       </c>
     </row>
     <row r="138" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B138" s="4" t="s">
-        <v>112</v>
+        <v>101</v>
       </c>
     </row>
     <row r="139" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B139" s="4" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
     </row>
     <row r="140" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B140" s="4" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
     </row>
     <row r="141" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B141" s="4" t="s">
-        <v>115</v>
+        <v>249</v>
       </c>
     </row>
     <row r="142" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B142" s="4" t="s">
-        <v>116</v>
+        <v>104</v>
       </c>
     </row>
     <row r="143" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B143" s="4" t="s">
-        <v>117</v>
+        <v>105</v>
       </c>
     </row>
     <row r="144" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B144" s="4" t="s">
-        <v>118</v>
+        <v>106</v>
       </c>
     </row>
     <row r="145" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B145" s="4" t="s">
-        <v>119</v>
+        <v>107</v>
       </c>
     </row>
     <row r="146" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B146" s="4" t="s">
-        <v>120</v>
+        <v>108</v>
       </c>
     </row>
     <row r="147" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B147" s="4" t="s">
-        <v>121</v>
+        <v>109</v>
       </c>
     </row>
     <row r="148" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B148" s="4" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
     </row>
     <row r="149" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B149" s="4" t="s">
-        <v>123</v>
+        <v>111</v>
       </c>
     </row>
     <row r="150" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B150" s="4" t="s">
-        <v>124</v>
+        <v>112</v>
       </c>
     </row>
     <row r="151" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B151" s="4" t="s">
-        <v>217</v>
+        <v>113</v>
       </c>
     </row>
     <row r="152" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B152" s="4" t="s">
-        <v>125</v>
+        <v>114</v>
       </c>
     </row>
     <row r="153" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B153" s="4" t="s">
-        <v>126</v>
+        <v>243</v>
       </c>
     </row>
     <row r="154" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B154" s="4" t="s">
-        <v>127</v>
+        <v>115</v>
       </c>
     </row>
     <row r="155" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B155" s="4" t="s">
-        <v>219</v>
+        <v>116</v>
       </c>
     </row>
     <row r="156" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B156" s="4" t="s">
-        <v>128</v>
+        <v>117</v>
       </c>
     </row>
     <row r="157" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B157" s="4" t="s">
-        <v>129</v>
+        <v>118</v>
       </c>
     </row>
     <row r="158" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B158" s="4" t="s">
-        <v>130</v>
+        <v>119</v>
       </c>
     </row>
     <row r="159" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B159" s="4" t="s">
-        <v>131</v>
+        <v>120</v>
       </c>
     </row>
     <row r="160" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B160" s="4" t="s">
-        <v>132</v>
+        <v>121</v>
       </c>
     </row>
     <row r="161" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B161" s="4" t="s">
-        <v>133</v>
+        <v>215</v>
       </c>
     </row>
     <row r="162" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B162" s="4" t="s">
-        <v>195</v>
+        <v>122</v>
       </c>
     </row>
     <row r="163" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B163" s="4" t="s">
-        <v>250</v>
+        <v>123</v>
       </c>
     </row>
     <row r="164" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B164" s="4" t="s">
-        <v>134</v>
+        <v>171</v>
       </c>
     </row>
     <row r="165" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B165" s="4" t="s">
-        <v>245</v>
+        <v>124</v>
       </c>
     </row>
     <row r="166" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B166" s="4" t="s">
-        <v>135</v>
+        <v>217</v>
       </c>
     </row>
     <row r="167" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B167" s="4" t="s">
-        <v>136</v>
+        <v>125</v>
       </c>
     </row>
     <row r="168" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B168" s="4" t="s">
-        <v>137</v>
+        <v>126</v>
       </c>
     </row>
     <row r="169" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B169" s="4" t="s">
-        <v>221</v>
+        <v>127</v>
       </c>
     </row>
     <row r="170" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B170" s="4" t="s">
-        <v>138</v>
+        <v>219</v>
       </c>
     </row>
     <row r="171" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B171" s="4" t="s">
-        <v>139</v>
+        <v>128</v>
       </c>
     </row>
     <row r="172" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B172" s="4" t="s">
-        <v>140</v>
+        <v>129</v>
       </c>
     </row>
     <row r="173" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B173" s="4" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="174" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B174" s="4" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="175" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B175" s="4" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="176" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B176" s="4" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="177" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B177" s="4" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="178" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B178" s="4" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="179" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B179" s="4" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="180" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B180" s="4" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="181" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B181" s="4" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="182" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B182" s="4" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="183" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B183" s="4" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="184" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B184" s="4" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="185" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B185" s="4" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="186" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B186" s="4" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="187" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B187" s="4" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="188" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B188" s="4" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="189" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B189" s="4" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="190" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B190" s="4" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="174" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B174" s="13" t="s">
+    <row r="191" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B191" s="13" t="s">
         <v>11</v>
       </c>
     </row>
@@ -9222,8 +9248,8 @@
   </sheetPr>
   <dimension ref="A1:H234"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+    <sheetView showGridLines="0" topLeftCell="A75" workbookViewId="0">
+      <selection activeCell="D108" sqref="D108"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -9735,7 +9761,7 @@
         <v>12</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E25" s="6" t="s">
         <v>10</v>
@@ -9775,7 +9801,7 @@
         <v>12</v>
       </c>
       <c r="D27" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E27" s="6" t="s">
         <v>10</v>
@@ -10355,7 +10381,7 @@
         <v>12</v>
       </c>
       <c r="D56" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E56" s="6" t="s">
         <v>10</v>
@@ -10535,7 +10561,7 @@
         <v>12</v>
       </c>
       <c r="D65" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E65" s="6" t="s">
         <v>10</v>
@@ -10955,7 +10981,7 @@
         <v>12</v>
       </c>
       <c r="D86" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E86" s="6" t="s">
         <v>10</v>
@@ -11095,7 +11121,7 @@
         <v>12</v>
       </c>
       <c r="D93" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E93" s="6" t="s">
         <v>10</v>
@@ -11335,7 +11361,7 @@
         <v>12</v>
       </c>
       <c r="D105" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E105" s="6" t="s">
         <v>10</v>
@@ -11375,7 +11401,7 @@
         <v>12</v>
       </c>
       <c r="D107" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E107" s="6" t="s">
         <v>10</v>
@@ -11875,7 +11901,7 @@
         <v>12</v>
       </c>
       <c r="D132" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E132" s="6" t="s">
         <v>10</v>
@@ -12015,7 +12041,7 @@
         <v>12</v>
       </c>
       <c r="D139" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E139" s="6" t="s">
         <v>10</v>
@@ -12075,7 +12101,7 @@
         <v>12</v>
       </c>
       <c r="D142" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E142" s="6" t="s">
         <v>10</v>
@@ -12135,7 +12161,7 @@
         <v>12</v>
       </c>
       <c r="D145" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E145" s="6" t="s">
         <v>10</v>
@@ -12535,7 +12561,7 @@
         <v>14</v>
       </c>
       <c r="D165" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E165" s="6" t="s">
         <v>10</v>
@@ -12735,7 +12761,7 @@
         <v>12</v>
       </c>
       <c r="D175" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E175" s="6" t="s">
         <v>10</v>
@@ -12875,7 +12901,7 @@
         <v>12</v>
       </c>
       <c r="D182" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E182" s="6" t="s">
         <v>10</v>
@@ -13355,7 +13381,7 @@
         <v>12</v>
       </c>
       <c r="D206" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E206" s="6" t="s">
         <v>10</v>
@@ -13695,7 +13721,7 @@
         <v>12</v>
       </c>
       <c r="D223" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E223" s="6" t="s">
         <v>10</v>
@@ -13909,6 +13935,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101003029BB8E3779674C990F1B9EC9E2DCF0" ma:contentTypeVersion="10" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="17d37b6f0a7ebc36d8ff694060c48d05">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="f764b324-afff-45d0-a2e4-4747da733eb8" xmlns:ns3="ee88558a-8df4-4dc2-8278-52d7053ebc22" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="35a8897b814d0866434edd98440a1149" ns2:_="" ns3:_="">
     <xsd:import namespace="f764b324-afff-45d0-a2e4-4747da733eb8"/>
@@ -14111,16 +14146,15 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E29D765D-4147-4E02-9389-F8AD9FC914AC}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DADF0DE3-9784-4AC9-B75F-310B2284335C}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -14137,12 +14171,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E29D765D-4147-4E02-9389-F8AD9FC914AC}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>